--- a/excels/config/server/hero/server_hero_talent.xlsx
+++ b/excels/config/server/hero/server_hero_talent.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="13395"/>
+    <workbookView windowWidth="22185" windowHeight="10155"/>
   </bookViews>
   <sheets>
-    <sheet name="drow_ranger" sheetId="1" r:id="rId1"/>
+    <sheet name="server_talent_data" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">drow_ranger!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">server_talent_data!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1226,7 +1226,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1288,9 +1288,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1669,31 +1666,31 @@
     </dxf>
   </dxfs>
   <tableStyles count="5" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{EE1879BC-472C-43BC-BA57-59B05A47820E}">
+    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{ACD95F6F-2559-4C6D-B346-774A891BD97C}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
       <tableStyleElement type="firstColumnStripe" dxfId="1"/>
       <tableStyleElement type="secondColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{634D4BB3-C37C-422B-920E-DBD33D278DBD}">
+    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{7F6FAF03-CDB3-4140-9EA5-95CC7CFBDD8D}">
       <tableStyleElement type="wholeTable" dxfId="9"/>
       <tableStyleElement type="headerRow" dxfId="8"/>
       <tableStyleElement type="totalRow" dxfId="7"/>
       <tableStyleElement type="firstRowStripe" dxfId="6"/>
       <tableStyleElement type="secondRowStripe" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{567AA9DC-5F3C-4F18-99C0-F102776E6723}">
+    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{523A47A2-6E45-4804-8714-834C626CD93A}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="firstRowStripe" dxfId="11"/>
       <tableStyleElement type="secondRowStripe" dxfId="10"/>
     </tableStyle>
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{7B9B8DAE-F342-4E4A-A34A-3C988682B66C}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{70913A5C-CFBF-418E-BD6F-88D97B3E76CD}">
       <tableStyleElement type="wholeTable" dxfId="15"/>
       <tableStyleElement type="headerRow" dxfId="14"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{A77EBF8C-0070-44D5-A3A4-A918CF8FD81D}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{CDCF6DF3-CF36-466E-A86C-45773C35F92E}">
       <tableStyleElement type="wholeTable" dxfId="18"/>
       <tableStyleElement type="headerRow" dxfId="17"/>
       <tableStyleElement type="secondRowStripe" dxfId="16"/>
@@ -2004,7 +2001,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="G3" sqref="G3"/>
+      <selection pane="topRight" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2094,7 +2091,7 @@
       <c r="V1" s="4">
         <v>3</v>
       </c>
-      <c r="W1" s="22" t="s">
+      <c r="W1" s="21" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2161,7 +2158,7 @@
       <c r="V2" s="6">
         <v>3</v>
       </c>
-      <c r="W2" s="23" t="s">
+      <c r="W2" s="22" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2206,7 +2203,7 @@
       <c r="T3" s="12"/>
       <c r="U3" s="12"/>
       <c r="V3" s="12"/>
-      <c r="W3" s="24"/>
+      <c r="W3" s="23"/>
     </row>
     <row r="4" ht="18.5" customHeight="1" spans="1:23">
       <c r="A4" s="5">
@@ -2249,7 +2246,7 @@
       <c r="T4" s="6"/>
       <c r="U4" s="6"/>
       <c r="V4" s="6"/>
-      <c r="W4" s="23"/>
+      <c r="W4" s="22"/>
     </row>
     <row r="5" ht="18.5" customHeight="1" spans="1:23">
       <c r="A5" s="8">
@@ -2292,7 +2289,7 @@
       <c r="T5" s="12"/>
       <c r="U5" s="12"/>
       <c r="V5" s="12"/>
-      <c r="W5" s="24"/>
+      <c r="W5" s="23"/>
     </row>
     <row r="6" ht="18.5" customHeight="1" spans="1:23">
       <c r="A6" s="5">
@@ -2335,7 +2332,7 @@
       <c r="T6" s="6"/>
       <c r="U6" s="6"/>
       <c r="V6" s="6"/>
-      <c r="W6" s="23"/>
+      <c r="W6" s="22"/>
     </row>
     <row r="7" ht="18.5" customHeight="1" spans="1:23">
       <c r="A7" s="8">
@@ -2378,7 +2375,7 @@
       <c r="T7" s="12"/>
       <c r="U7" s="12"/>
       <c r="V7" s="12"/>
-      <c r="W7" s="24"/>
+      <c r="W7" s="23"/>
     </row>
     <row r="8" ht="18.5" customHeight="1" spans="1:23">
       <c r="A8" s="5">
@@ -2421,7 +2418,7 @@
       <c r="T8" s="6"/>
       <c r="U8" s="6"/>
       <c r="V8" s="6"/>
-      <c r="W8" s="23"/>
+      <c r="W8" s="22"/>
     </row>
     <row r="9" ht="18.5" customHeight="1" spans="1:23">
       <c r="A9" s="8">
@@ -2464,7 +2461,7 @@
       <c r="T9" s="12"/>
       <c r="U9" s="12"/>
       <c r="V9" s="12"/>
-      <c r="W9" s="24"/>
+      <c r="W9" s="23"/>
     </row>
     <row r="10" ht="18.5" customHeight="1" spans="1:23">
       <c r="A10" s="5">
@@ -2507,7 +2504,7 @@
       <c r="T10" s="6"/>
       <c r="U10" s="6"/>
       <c r="V10" s="6"/>
-      <c r="W10" s="23"/>
+      <c r="W10" s="22"/>
     </row>
     <row r="11" ht="18.5" customHeight="1" spans="1:23">
       <c r="A11" s="8">
@@ -2550,7 +2547,7 @@
       <c r="T11" s="12"/>
       <c r="U11" s="12"/>
       <c r="V11" s="12"/>
-      <c r="W11" s="24"/>
+      <c r="W11" s="23"/>
     </row>
     <row r="12" ht="51.5" customHeight="1" spans="1:23">
       <c r="A12" s="5">
@@ -2593,7 +2590,7 @@
       <c r="T12" s="6"/>
       <c r="U12" s="6"/>
       <c r="V12" s="6"/>
-      <c r="W12" s="23"/>
+      <c r="W12" s="22"/>
     </row>
     <row r="13" ht="18.5" customHeight="1" spans="1:23">
       <c r="A13" s="8">
@@ -2636,7 +2633,7 @@
       <c r="T13" s="12"/>
       <c r="U13" s="12"/>
       <c r="V13" s="12"/>
-      <c r="W13" s="24"/>
+      <c r="W13" s="23"/>
     </row>
     <row r="14" ht="18.5" customHeight="1" spans="1:23">
       <c r="A14" s="5">
@@ -2679,7 +2676,7 @@
       <c r="T14" s="6"/>
       <c r="U14" s="6"/>
       <c r="V14" s="6"/>
-      <c r="W14" s="23"/>
+      <c r="W14" s="22"/>
     </row>
     <row r="15" ht="18.5" customHeight="1" spans="1:23">
       <c r="A15" s="8">
@@ -2722,7 +2719,7 @@
       <c r="T15" s="12"/>
       <c r="U15" s="12"/>
       <c r="V15" s="12"/>
-      <c r="W15" s="24"/>
+      <c r="W15" s="23"/>
     </row>
     <row r="16" ht="18.5" customHeight="1" spans="1:23">
       <c r="A16" s="5">
@@ -2765,7 +2762,7 @@
       <c r="T16" s="6"/>
       <c r="U16" s="6"/>
       <c r="V16" s="6"/>
-      <c r="W16" s="23"/>
+      <c r="W16" s="22"/>
     </row>
     <row r="17" ht="18.5" customHeight="1" spans="1:23">
       <c r="A17" s="8">
@@ -2808,7 +2805,7 @@
       <c r="T17" s="12"/>
       <c r="U17" s="12"/>
       <c r="V17" s="12"/>
-      <c r="W17" s="24"/>
+      <c r="W17" s="23"/>
     </row>
     <row r="18" ht="18.5" customHeight="1" spans="1:23">
       <c r="A18" s="5">
@@ -2840,7 +2837,7 @@
       </c>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
-      <c r="L18" s="21"/>
+      <c r="L18" s="6"/>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
@@ -2851,7 +2848,7 @@
       <c r="T18" s="6"/>
       <c r="U18" s="6"/>
       <c r="V18" s="6"/>
-      <c r="W18" s="23"/>
+      <c r="W18" s="22"/>
     </row>
     <row r="19" ht="18.5" customHeight="1" spans="1:23">
       <c r="A19" s="8">
@@ -2894,7 +2891,7 @@
       <c r="T19" s="12"/>
       <c r="U19" s="12"/>
       <c r="V19" s="12"/>
-      <c r="W19" s="24"/>
+      <c r="W19" s="23"/>
     </row>
     <row r="20" ht="18.5" customHeight="1" spans="1:23">
       <c r="A20" s="5">
@@ -2937,7 +2934,7 @@
       <c r="T20" s="6"/>
       <c r="U20" s="6"/>
       <c r="V20" s="6"/>
-      <c r="W20" s="23"/>
+      <c r="W20" s="22"/>
     </row>
     <row r="21" ht="35" customHeight="1" spans="1:23">
       <c r="A21" s="8">
@@ -2980,7 +2977,7 @@
       <c r="T21" s="12"/>
       <c r="U21" s="12"/>
       <c r="V21" s="12"/>
-      <c r="W21" s="24"/>
+      <c r="W21" s="23"/>
     </row>
     <row r="22" ht="18.5" customHeight="1" spans="1:23">
       <c r="A22" s="5">
@@ -3023,7 +3020,7 @@
       <c r="T22" s="6"/>
       <c r="U22" s="6"/>
       <c r="V22" s="6"/>
-      <c r="W22" s="23"/>
+      <c r="W22" s="22"/>
     </row>
     <row r="23" ht="18.5" customHeight="1" spans="1:23">
       <c r="A23" s="8">
@@ -3066,7 +3063,7 @@
       <c r="T23" s="12"/>
       <c r="U23" s="12"/>
       <c r="V23" s="12"/>
-      <c r="W23" s="24"/>
+      <c r="W23" s="23"/>
     </row>
     <row r="24" ht="18.5" customHeight="1" spans="1:23">
       <c r="A24" s="5">
@@ -3109,7 +3106,7 @@
       <c r="T24" s="6"/>
       <c r="U24" s="6"/>
       <c r="V24" s="6"/>
-      <c r="W24" s="23"/>
+      <c r="W24" s="22"/>
     </row>
     <row r="25" ht="18.5" customHeight="1" spans="1:23">
       <c r="A25" s="8">
@@ -3152,7 +3149,7 @@
       <c r="T25" s="12"/>
       <c r="U25" s="12"/>
       <c r="V25" s="12"/>
-      <c r="W25" s="24"/>
+      <c r="W25" s="23"/>
     </row>
     <row r="26" ht="18.5" customHeight="1" spans="1:23">
       <c r="A26" s="5">
@@ -3195,7 +3192,7 @@
       <c r="T26" s="6"/>
       <c r="U26" s="6"/>
       <c r="V26" s="6"/>
-      <c r="W26" s="23"/>
+      <c r="W26" s="22"/>
     </row>
     <row r="27" ht="18.5" customHeight="1" spans="1:23">
       <c r="A27" s="8">
@@ -3238,7 +3235,7 @@
       <c r="T27" s="12"/>
       <c r="U27" s="12"/>
       <c r="V27" s="12"/>
-      <c r="W27" s="24"/>
+      <c r="W27" s="23"/>
     </row>
     <row r="28" ht="18.5" customHeight="1" spans="1:23">
       <c r="A28" s="5">
@@ -3281,7 +3278,7 @@
       <c r="T28" s="6"/>
       <c r="U28" s="6"/>
       <c r="V28" s="6"/>
-      <c r="W28" s="23"/>
+      <c r="W28" s="22"/>
     </row>
     <row r="29" ht="18.5" customHeight="1" spans="1:23">
       <c r="A29" s="8">
@@ -3324,7 +3321,7 @@
       <c r="T29" s="12"/>
       <c r="U29" s="12"/>
       <c r="V29" s="12"/>
-      <c r="W29" s="24"/>
+      <c r="W29" s="23"/>
     </row>
     <row r="30" customFormat="1" ht="35" customHeight="1" spans="1:23">
       <c r="A30" s="5">
@@ -3367,7 +3364,7 @@
       <c r="T30" s="6"/>
       <c r="U30" s="6"/>
       <c r="V30" s="6"/>
-      <c r="W30" s="23"/>
+      <c r="W30" s="22"/>
     </row>
     <row r="31" customFormat="1" ht="18.5" customHeight="1" spans="1:23">
       <c r="A31" s="8">
@@ -3410,7 +3407,7 @@
       <c r="T31" s="12"/>
       <c r="U31" s="12"/>
       <c r="V31" s="12"/>
-      <c r="W31" s="24"/>
+      <c r="W31" s="23"/>
     </row>
     <row r="32" customFormat="1" ht="18.5" customHeight="1" spans="1:23">
       <c r="A32" s="5">
@@ -3453,7 +3450,7 @@
       <c r="T32" s="6"/>
       <c r="U32" s="6"/>
       <c r="V32" s="6"/>
-      <c r="W32" s="23"/>
+      <c r="W32" s="22"/>
     </row>
     <row r="33" customFormat="1" ht="18.5" customHeight="1" spans="1:23">
       <c r="A33" s="8">
@@ -3496,7 +3493,7 @@
       <c r="T33" s="12"/>
       <c r="U33" s="12"/>
       <c r="V33" s="12"/>
-      <c r="W33" s="24"/>
+      <c r="W33" s="23"/>
     </row>
     <row r="34" customFormat="1" ht="18.5" customHeight="1" spans="1:23">
       <c r="A34" s="5">
@@ -3539,7 +3536,7 @@
       <c r="T34" s="6"/>
       <c r="U34" s="6"/>
       <c r="V34" s="6"/>
-      <c r="W34" s="23"/>
+      <c r="W34" s="22"/>
     </row>
     <row r="35" customFormat="1" ht="18.5" customHeight="1" spans="1:23">
       <c r="A35" s="8">
@@ -3582,7 +3579,7 @@
       <c r="T35" s="12"/>
       <c r="U35" s="12"/>
       <c r="V35" s="12"/>
-      <c r="W35" s="24"/>
+      <c r="W35" s="23"/>
     </row>
     <row r="36" customFormat="1" ht="18.5" customHeight="1" spans="1:23">
       <c r="A36" s="5">
@@ -3625,7 +3622,7 @@
       <c r="T36" s="6"/>
       <c r="U36" s="6"/>
       <c r="V36" s="6"/>
-      <c r="W36" s="23"/>
+      <c r="W36" s="22"/>
     </row>
     <row r="37" customFormat="1" ht="18.5" customHeight="1" spans="1:23">
       <c r="A37" s="8">
@@ -3668,7 +3665,7 @@
       <c r="T37" s="12"/>
       <c r="U37" s="12"/>
       <c r="V37" s="12"/>
-      <c r="W37" s="24"/>
+      <c r="W37" s="23"/>
     </row>
     <row r="38" customFormat="1" ht="18.5" customHeight="1" spans="1:23">
       <c r="A38" s="5">
@@ -3711,7 +3708,7 @@
       <c r="T38" s="6"/>
       <c r="U38" s="6"/>
       <c r="V38" s="6"/>
-      <c r="W38" s="23"/>
+      <c r="W38" s="22"/>
     </row>
     <row r="39" customFormat="1" ht="51.5" customHeight="1" spans="1:23">
       <c r="A39" s="8">
@@ -3754,7 +3751,7 @@
       <c r="T39" s="12"/>
       <c r="U39" s="12"/>
       <c r="V39" s="12"/>
-      <c r="W39" s="24"/>
+      <c r="W39" s="23"/>
     </row>
     <row r="40" customFormat="1" ht="18.5" customHeight="1" spans="1:23">
       <c r="A40" s="5">
@@ -3797,7 +3794,7 @@
       <c r="T40" s="6"/>
       <c r="U40" s="6"/>
       <c r="V40" s="6"/>
-      <c r="W40" s="23"/>
+      <c r="W40" s="22"/>
     </row>
     <row r="41" customFormat="1" ht="18.5" customHeight="1" spans="1:23">
       <c r="A41" s="8">
@@ -3840,7 +3837,7 @@
       <c r="T41" s="12"/>
       <c r="U41" s="12"/>
       <c r="V41" s="12"/>
-      <c r="W41" s="24"/>
+      <c r="W41" s="23"/>
     </row>
     <row r="42" customFormat="1" ht="18.5" customHeight="1" spans="1:23">
       <c r="A42" s="5">
@@ -3883,7 +3880,7 @@
       <c r="T42" s="6"/>
       <c r="U42" s="6"/>
       <c r="V42" s="6"/>
-      <c r="W42" s="23"/>
+      <c r="W42" s="22"/>
     </row>
     <row r="43" customFormat="1" ht="18.5" customHeight="1" spans="1:23">
       <c r="A43" s="8">
@@ -3926,7 +3923,7 @@
       <c r="T43" s="12"/>
       <c r="U43" s="12"/>
       <c r="V43" s="12"/>
-      <c r="W43" s="24"/>
+      <c r="W43" s="23"/>
     </row>
     <row r="44" customFormat="1" ht="18.5" customHeight="1" spans="1:23">
       <c r="A44" s="5">
@@ -3969,7 +3966,7 @@
       <c r="T44" s="6"/>
       <c r="U44" s="6"/>
       <c r="V44" s="6"/>
-      <c r="W44" s="23"/>
+      <c r="W44" s="22"/>
     </row>
     <row r="45" customFormat="1" ht="18.5" customHeight="1" spans="1:23">
       <c r="A45" s="8">
@@ -4012,7 +4009,7 @@
       <c r="T45" s="12"/>
       <c r="U45" s="12"/>
       <c r="V45" s="12"/>
-      <c r="W45" s="24"/>
+      <c r="W45" s="23"/>
     </row>
     <row r="46" customFormat="1" ht="18.5" customHeight="1" spans="1:23">
       <c r="A46" s="5">
@@ -4055,7 +4052,7 @@
       <c r="T46" s="6"/>
       <c r="U46" s="6"/>
       <c r="V46" s="6"/>
-      <c r="W46" s="23"/>
+      <c r="W46" s="22"/>
     </row>
     <row r="47" customFormat="1" ht="18.5" customHeight="1" spans="1:23">
       <c r="A47" s="8">
@@ -4098,7 +4095,7 @@
       <c r="T47" s="12"/>
       <c r="U47" s="12"/>
       <c r="V47" s="12"/>
-      <c r="W47" s="24"/>
+      <c r="W47" s="23"/>
     </row>
     <row r="48" customFormat="1" ht="18.5" customHeight="1" spans="1:23">
       <c r="A48" s="16">
@@ -4141,7 +4138,7 @@
       <c r="T48" s="20"/>
       <c r="U48" s="20"/>
       <c r="V48" s="20"/>
-      <c r="W48" s="25"/>
+      <c r="W48" s="24"/>
     </row>
     <row r="49" ht="14.25"/>
   </sheetData>

--- a/excels/config/server/hero/server_hero_talent.xlsx
+++ b/excels/config/server/hero/server_hero_talent.xlsx
@@ -1666,31 +1666,31 @@
     </dxf>
   </dxfs>
   <tableStyles count="5" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{ACD95F6F-2559-4C6D-B346-774A891BD97C}">
+    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{0CE7BC4E-2E02-467F-850A-EB8ECAB2AA87}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
       <tableStyleElement type="firstColumnStripe" dxfId="1"/>
       <tableStyleElement type="secondColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{7F6FAF03-CDB3-4140-9EA5-95CC7CFBDD8D}">
+    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{AC7406D8-1FF4-4861-AC68-B7F740DCA766}">
       <tableStyleElement type="wholeTable" dxfId="9"/>
       <tableStyleElement type="headerRow" dxfId="8"/>
       <tableStyleElement type="totalRow" dxfId="7"/>
       <tableStyleElement type="firstRowStripe" dxfId="6"/>
       <tableStyleElement type="secondRowStripe" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{523A47A2-6E45-4804-8714-834C626CD93A}">
+    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{7AF57EB4-6466-414F-A340-89F3A69FAE0F}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="firstRowStripe" dxfId="11"/>
       <tableStyleElement type="secondRowStripe" dxfId="10"/>
     </tableStyle>
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{70913A5C-CFBF-418E-BD6F-88D97B3E76CD}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{20A4CA42-A3BF-4B92-BBEE-B12B939ABF50}">
       <tableStyleElement type="wholeTable" dxfId="15"/>
       <tableStyleElement type="headerRow" dxfId="14"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{CDCF6DF3-CF36-466E-A86C-45773C35F92E}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{9D33F4F6-CEBC-4673-83E6-0779046EE98E}">
       <tableStyleElement type="wholeTable" dxfId="18"/>
       <tableStyleElement type="headerRow" dxfId="17"/>
       <tableStyleElement type="secondRowStripe" dxfId="16"/>
@@ -2001,7 +2001,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="F15" sqref="F15"/>
+      <selection pane="topRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/excels/config/server/hero/server_hero_talent.xlsx
+++ b/excels/config/server/hero/server_hero_talent.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22185" windowHeight="10155"/>
+    <workbookView windowWidth="27945" windowHeight="13395"/>
   </bookViews>
   <sheets>
     <sheet name="server_talent_data" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="87">
   <si>
     <t>下标</t>
   </si>
@@ -53,9 +53,6 @@
     <t>父级节点 key</t>
   </si>
   <si>
-    <t>解锁条件 (key_level)</t>
-  </si>
-  <si>
     <t>最多可以投入多少点</t>
   </si>
   <si>
@@ -81,9 +78,6 @@
   </si>
   <si>
     <t>parent_node</t>
-  </si>
-  <si>
-    <t>unlock_key</t>
   </si>
   <si>
     <t>max_number</t>
@@ -109,79 +103,52 @@
 防御力+2</t>
   </si>
   <si>
-    <t>null</t>
-  </si>
-  <si>
     <t>第一层·1</t>
   </si>
   <si>
     <t>攻击力+5</t>
   </si>
   <si>
-    <t>1_5</t>
-  </si>
-  <si>
     <t>第二层·1</t>
   </si>
   <si>
     <t>伤害减免+5%</t>
   </si>
   <si>
-    <t>2_3</t>
-  </si>
-  <si>
     <t>第三层·1</t>
   </si>
   <si>
     <t>伤害加成+5%</t>
   </si>
   <si>
-    <t>3_3</t>
-  </si>
-  <si>
     <t>第四层·1</t>
   </si>
   <si>
     <t>生命恢复+3/s</t>
   </si>
   <si>
-    <t>4_3</t>
-  </si>
-  <si>
     <t>第五层·1</t>
   </si>
   <si>
     <t>移动速度+2.5%</t>
   </si>
   <si>
-    <t>5_3</t>
-  </si>
-  <si>
     <t>第六层·1</t>
   </si>
   <si>
     <t>技能极速+5</t>
   </si>
   <si>
-    <t>6_3</t>
-  </si>
-  <si>
     <t>第七层·1</t>
   </si>
   <si>
     <t>暴击概率+2.5%</t>
   </si>
   <si>
-    <t>7_3</t>
-  </si>
-  <si>
     <t>第八层·1</t>
   </si>
   <si>
     <t>暴击伤害+10%</t>
-  </si>
-  <si>
-    <t>8_3</t>
   </si>
   <si>
     <t>第九层·1</t>
@@ -192,9 +159,6 @@
 【分裂箭】可额外攻击3名敌人</t>
   </si>
   <si>
-    <t>tier_1_30</t>
-  </si>
-  <si>
     <t>第一层·2</t>
   </si>
   <si>
@@ -204,46 +168,25 @@
     <t>第二层·2</t>
   </si>
   <si>
-    <t>12_3</t>
-  </si>
-  <si>
     <t>第三层·2</t>
   </si>
   <si>
-    <t>13_3</t>
-  </si>
-  <si>
     <t>第四层·2</t>
   </si>
   <si>
     <t>蓝量回复+1/s</t>
   </si>
   <si>
-    <t>14_3</t>
-  </si>
-  <si>
     <t>第五层·2</t>
   </si>
   <si>
-    <t>15_3</t>
-  </si>
-  <si>
     <t>第六层·2</t>
   </si>
   <si>
-    <t>16_3</t>
-  </si>
-  <si>
     <t>第七层·2</t>
   </si>
   <si>
-    <t>17_3</t>
-  </si>
-  <si>
     <t>第八层·2</t>
-  </si>
-  <si>
-    <t>18_3</t>
   </si>
   <si>
     <t>第九层·2</t>
@@ -253,9 +196,6 @@
 【散射】斩杀15%生命值以下的非精英怪、boss敌人</t>
   </si>
   <si>
-    <t>tier_2_30</t>
-  </si>
-  <si>
     <t>第一层·3</t>
   </si>
   <si>
@@ -265,46 +205,25 @@
     <t>第二层·3</t>
   </si>
   <si>
-    <t>21_3</t>
-  </si>
-  <si>
     <t>第三层·3</t>
   </si>
   <si>
-    <t>22_3</t>
-  </si>
-  <si>
     <t>第四层·3</t>
   </si>
   <si>
     <t>攻击力+5%</t>
   </si>
   <si>
-    <t>23_3</t>
-  </si>
-  <si>
     <t>第五层·3</t>
   </si>
   <si>
-    <t>24_3</t>
-  </si>
-  <si>
     <t>第六层·3</t>
   </si>
   <si>
-    <t>25_3</t>
-  </si>
-  <si>
     <t>第七层·3</t>
   </si>
   <si>
-    <t>26_3</t>
-  </si>
-  <si>
     <t>第八层·3</t>
-  </si>
-  <si>
-    <t>27_3</t>
   </si>
   <si>
     <t>第九层·3</t>
@@ -314,55 +233,31 @@
 【箭雨】每支箭伤害提升25%</t>
   </si>
   <si>
-    <t>tier_3_30</t>
-  </si>
-  <si>
     <t>第一层·4</t>
   </si>
   <si>
     <t>第二层·4</t>
   </si>
   <si>
-    <t>30_3</t>
-  </si>
-  <si>
     <t>第三层·4</t>
   </si>
   <si>
-    <t>31_3</t>
-  </si>
-  <si>
     <t>第四层·4</t>
   </si>
   <si>
     <t>经验增幅+2.5%</t>
   </si>
   <si>
-    <t>32_3</t>
-  </si>
-  <si>
     <t>第五层·4</t>
   </si>
   <si>
-    <t>33_3</t>
-  </si>
-  <si>
     <t>第六层·4</t>
   </si>
   <si>
-    <t>34_3</t>
-  </si>
-  <si>
     <t>第七层·4</t>
   </si>
   <si>
-    <t>35_3</t>
-  </si>
-  <si>
     <t>第八层·4</t>
-  </si>
-  <si>
-    <t>36_3</t>
   </si>
   <si>
     <t>第九层·4</t>
@@ -372,64 +267,37 @@
 【迷踪步】迷踪步期间，获得25%暴击概率和50%暴击伤害</t>
   </si>
   <si>
-    <t>tier_4_30</t>
-  </si>
-  <si>
     <t>第一层·5</t>
   </si>
   <si>
     <t>第二层·5</t>
   </si>
   <si>
-    <t>39_3</t>
-  </si>
-  <si>
     <t>第三层·5</t>
   </si>
   <si>
-    <t>40_3</t>
-  </si>
-  <si>
     <t>第四层·5</t>
   </si>
   <si>
     <t>拾取范围+25码拾取经验球</t>
   </si>
   <si>
-    <t>41_3</t>
-  </si>
-  <si>
     <t>第五层·5</t>
   </si>
   <si>
-    <t>42_3</t>
-  </si>
-  <si>
     <t>第六层·5</t>
   </si>
   <si>
-    <t>43_3</t>
-  </si>
-  <si>
     <t>第七层·5</t>
   </si>
   <si>
-    <t>44_3</t>
-  </si>
-  <si>
     <t>第八层·5</t>
   </si>
   <si>
-    <t>45_3</t>
-  </si>
-  <si>
     <t>第九层·5</t>
   </si>
   <si>
     <t>【复仇】复仇状态下，生命恢复速度翻倍</t>
-  </si>
-  <si>
-    <t>tier_5_30</t>
   </si>
 </sst>
 </file>
@@ -1666,31 +1534,31 @@
     </dxf>
   </dxfs>
   <tableStyles count="5" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{0CE7BC4E-2E02-467F-850A-EB8ECAB2AA87}">
+    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{524C6B0D-2AC2-4AC5-B0B9-C3234B42E1C4}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
       <tableStyleElement type="firstColumnStripe" dxfId="1"/>
       <tableStyleElement type="secondColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{AC7406D8-1FF4-4861-AC68-B7F740DCA766}">
+    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{0EACAAE7-7704-4036-B002-4AFFEE6EA2BD}">
       <tableStyleElement type="wholeTable" dxfId="9"/>
       <tableStyleElement type="headerRow" dxfId="8"/>
       <tableStyleElement type="totalRow" dxfId="7"/>
       <tableStyleElement type="firstRowStripe" dxfId="6"/>
       <tableStyleElement type="secondRowStripe" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{7AF57EB4-6466-414F-A340-89F3A69FAE0F}">
+    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{C3AF4D02-063C-452E-9AB6-53323A7FD254}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="firstRowStripe" dxfId="11"/>
       <tableStyleElement type="secondRowStripe" dxfId="10"/>
     </tableStyle>
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{20A4CA42-A3BF-4B92-BBEE-B12B939ABF50}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{70B7ABB0-672E-4ED8-A7C3-B7C4ACB4FB65}">
       <tableStyleElement type="wholeTable" dxfId="15"/>
       <tableStyleElement type="headerRow" dxfId="14"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{9D33F4F6-CEBC-4673-83E6-0779046EE98E}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{0477E1A2-B6E3-4166-B9E1-0293580B37C2}">
       <tableStyleElement type="wholeTable" dxfId="18"/>
       <tableStyleElement type="headerRow" dxfId="17"/>
       <tableStyleElement type="secondRowStripe" dxfId="16"/>
@@ -1996,12 +1864,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W49"/>
+  <dimension ref="A1:V49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="D6" sqref="D6"/>
+      <selection pane="topRight" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2013,18 +1881,17 @@
     <col min="5" max="5" width="12.175" customWidth="1"/>
     <col min="6" max="6" width="12.675" customWidth="1"/>
     <col min="7" max="7" width="13.8416666666667" customWidth="1"/>
-    <col min="8" max="8" width="21.0083333333333" customWidth="1"/>
-    <col min="9" max="9" width="20.5083333333333" customWidth="1"/>
-    <col min="10" max="10" width="10.3416666666667" customWidth="1"/>
-    <col min="11" max="11" width="15.175" style="2" customWidth="1"/>
-    <col min="12" max="17" width="4.24166666666667" style="2" customWidth="1"/>
-    <col min="18" max="18" width="6.675" style="2" customWidth="1"/>
-    <col min="19" max="19" width="15.3416666666667" style="2" customWidth="1"/>
-    <col min="20" max="22" width="4.24166666666667" style="2" customWidth="1"/>
-    <col min="23" max="23" width="4.55" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20.5083333333333" customWidth="1"/>
+    <col min="9" max="9" width="10.3416666666667" customWidth="1"/>
+    <col min="10" max="10" width="15.175" style="2" customWidth="1"/>
+    <col min="11" max="16" width="4.24166666666667" style="2" customWidth="1"/>
+    <col min="17" max="17" width="6.675" style="2" customWidth="1"/>
+    <col min="18" max="18" width="15.3416666666667" style="2" customWidth="1"/>
+    <col min="19" max="21" width="4.24166666666667" style="2" customWidth="1"/>
+    <col min="22" max="22" width="4.55" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:23">
+    <row r="1" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:22">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2052,125 +1919,119 @@
       <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="4">
+        <v>0</v>
+      </c>
+      <c r="K1" s="4">
+        <v>1</v>
+      </c>
+      <c r="L1" s="4">
+        <v>2</v>
+      </c>
+      <c r="M1" s="4">
+        <v>3</v>
+      </c>
+      <c r="N1" s="4">
+        <v>4</v>
+      </c>
+      <c r="O1" s="4">
+        <v>5</v>
+      </c>
+      <c r="P1" s="4">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4">
-        <v>0</v>
-      </c>
-      <c r="L1" s="4">
+      <c r="R1" s="4">
+        <v>0</v>
+      </c>
+      <c r="S1" s="4">
         <v>1</v>
       </c>
-      <c r="M1" s="4">
+      <c r="T1" s="4">
         <v>2</v>
       </c>
-      <c r="N1" s="4">
+      <c r="U1" s="4">
         <v>3</v>
       </c>
-      <c r="O1" s="4">
-        <v>4</v>
-      </c>
-      <c r="P1" s="4">
-        <v>5</v>
-      </c>
-      <c r="Q1" s="4">
-        <v>6</v>
-      </c>
-      <c r="R1" s="4" t="s">
+      <c r="V1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="S1" s="4">
-        <v>0</v>
-      </c>
-      <c r="T1" s="4">
-        <v>1</v>
-      </c>
-      <c r="U1" s="4">
-        <v>2</v>
-      </c>
-      <c r="V1" s="4">
-        <v>3</v>
-      </c>
-      <c r="W1" s="21" t="s">
+    </row>
+    <row r="2" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:22">
+      <c r="A2" s="5" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:23">
-      <c r="A2" s="5" t="s">
-        <v>12</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="7"/>
       <c r="D2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="6">
+        <v>1</v>
+      </c>
+      <c r="L2" s="6">
+        <v>2</v>
+      </c>
+      <c r="M2" s="6">
+        <v>3</v>
+      </c>
+      <c r="N2" s="6">
+        <v>4</v>
+      </c>
+      <c r="O2" s="6">
+        <v>5</v>
+      </c>
+      <c r="P2" s="6">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="R2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="6">
+      <c r="S2" s="6">
         <v>1</v>
       </c>
-      <c r="M2" s="6">
+      <c r="T2" s="6">
         <v>2</v>
       </c>
-      <c r="N2" s="6">
+      <c r="U2" s="6">
         <v>3</v>
       </c>
-      <c r="O2" s="6">
-        <v>4</v>
-      </c>
-      <c r="P2" s="6">
-        <v>5</v>
-      </c>
-      <c r="Q2" s="6">
-        <v>6</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="T2" s="6">
-        <v>1</v>
-      </c>
-      <c r="U2" s="6">
-        <v>2</v>
-      </c>
-      <c r="V2" s="6">
-        <v>3</v>
-      </c>
-      <c r="W2" s="22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" ht="51.5" customHeight="1" spans="1:23">
+      <c r="V2" s="22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" ht="51.5" customHeight="1" spans="1:22">
       <c r="A3" s="8">
         <v>1</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D3" s="11">
         <v>6</v>
@@ -2184,12 +2045,10 @@
       <c r="G3" s="12">
         <v>0</v>
       </c>
-      <c r="H3" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="12">
-        <v>5</v>
-      </c>
+      <c r="H3" s="12">
+        <v>5</v>
+      </c>
+      <c r="I3" s="12"/>
       <c r="J3" s="12"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
@@ -2202,18 +2061,17 @@
       <c r="S3" s="12"/>
       <c r="T3" s="12"/>
       <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="23"/>
-    </row>
-    <row r="4" ht="18.5" customHeight="1" spans="1:23">
+      <c r="V3" s="23"/>
+    </row>
+    <row r="4" ht="18.5" customHeight="1" spans="1:22">
       <c r="A4" s="5">
         <v>2</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D4" s="15">
         <v>6</v>
@@ -2227,12 +2085,10 @@
       <c r="G4" s="6">
         <v>1</v>
       </c>
-      <c r="H4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="6">
-        <v>5</v>
-      </c>
+      <c r="H4" s="6">
+        <v>5</v>
+      </c>
+      <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
@@ -2245,18 +2101,17 @@
       <c r="S4" s="6"/>
       <c r="T4" s="6"/>
       <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="22"/>
-    </row>
-    <row r="5" ht="18.5" customHeight="1" spans="1:23">
+      <c r="V4" s="22"/>
+    </row>
+    <row r="5" ht="18.5" customHeight="1" spans="1:22">
       <c r="A5" s="8">
         <v>3</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D5" s="11">
         <v>6</v>
@@ -2270,12 +2125,10 @@
       <c r="G5" s="12">
         <v>2</v>
       </c>
-      <c r="H5" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" s="12">
-        <v>5</v>
-      </c>
+      <c r="H5" s="12">
+        <v>5</v>
+      </c>
+      <c r="I5" s="12"/>
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
@@ -2288,18 +2141,17 @@
       <c r="S5" s="12"/>
       <c r="T5" s="12"/>
       <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="23"/>
-    </row>
-    <row r="6" ht="18.5" customHeight="1" spans="1:23">
+      <c r="V5" s="23"/>
+    </row>
+    <row r="6" ht="18.5" customHeight="1" spans="1:22">
       <c r="A6" s="5">
         <v>4</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D6" s="15">
         <v>6</v>
@@ -2313,12 +2165,10 @@
       <c r="G6" s="6">
         <v>3</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" s="6">
-        <v>5</v>
-      </c>
+      <c r="H6" s="6">
+        <v>5</v>
+      </c>
+      <c r="I6" s="6"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
@@ -2331,18 +2181,17 @@
       <c r="S6" s="6"/>
       <c r="T6" s="6"/>
       <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="22"/>
-    </row>
-    <row r="7" ht="18.5" customHeight="1" spans="1:23">
+      <c r="V6" s="22"/>
+    </row>
+    <row r="7" ht="18.5" customHeight="1" spans="1:22">
       <c r="A7" s="8">
         <v>5</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D7" s="11">
         <v>6</v>
@@ -2356,12 +2205,10 @@
       <c r="G7" s="12">
         <v>4</v>
       </c>
-      <c r="H7" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="I7" s="12">
-        <v>5</v>
-      </c>
+      <c r="H7" s="12">
+        <v>5</v>
+      </c>
+      <c r="I7" s="12"/>
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
@@ -2374,18 +2221,17 @@
       <c r="S7" s="12"/>
       <c r="T7" s="12"/>
       <c r="U7" s="12"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="23"/>
-    </row>
-    <row r="8" ht="18.5" customHeight="1" spans="1:23">
+      <c r="V7" s="23"/>
+    </row>
+    <row r="8" ht="18.5" customHeight="1" spans="1:22">
       <c r="A8" s="5">
         <v>6</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D8" s="15">
         <v>6</v>
@@ -2399,12 +2245,10 @@
       <c r="G8" s="6">
         <v>5</v>
       </c>
-      <c r="H8" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="I8" s="6">
-        <v>5</v>
-      </c>
+      <c r="H8" s="6">
+        <v>5</v>
+      </c>
+      <c r="I8" s="6"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
@@ -2417,18 +2261,17 @@
       <c r="S8" s="6"/>
       <c r="T8" s="6"/>
       <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="22"/>
-    </row>
-    <row r="9" ht="18.5" customHeight="1" spans="1:23">
+      <c r="V8" s="22"/>
+    </row>
+    <row r="9" ht="18.5" customHeight="1" spans="1:22">
       <c r="A9" s="8">
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D9" s="11">
         <v>6</v>
@@ -2442,12 +2285,10 @@
       <c r="G9" s="12">
         <v>6</v>
       </c>
-      <c r="H9" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="I9" s="12">
-        <v>5</v>
-      </c>
+      <c r="H9" s="12">
+        <v>5</v>
+      </c>
+      <c r="I9" s="12"/>
       <c r="J9" s="12"/>
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
@@ -2460,18 +2301,17 @@
       <c r="S9" s="12"/>
       <c r="T9" s="12"/>
       <c r="U9" s="12"/>
-      <c r="V9" s="12"/>
-      <c r="W9" s="23"/>
-    </row>
-    <row r="10" ht="18.5" customHeight="1" spans="1:23">
+      <c r="V9" s="23"/>
+    </row>
+    <row r="10" ht="18.5" customHeight="1" spans="1:22">
       <c r="A10" s="5">
         <v>9</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D10" s="15">
         <v>6</v>
@@ -2485,12 +2325,10 @@
       <c r="G10" s="6">
         <v>7</v>
       </c>
-      <c r="H10" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I10" s="6">
-        <v>5</v>
-      </c>
+      <c r="H10" s="6">
+        <v>5</v>
+      </c>
+      <c r="I10" s="6"/>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
@@ -2503,18 +2341,17 @@
       <c r="S10" s="6"/>
       <c r="T10" s="6"/>
       <c r="U10" s="6"/>
-      <c r="V10" s="6"/>
-      <c r="W10" s="22"/>
-    </row>
-    <row r="11" ht="18.5" customHeight="1" spans="1:23">
+      <c r="V10" s="22"/>
+    </row>
+    <row r="11" ht="18.5" customHeight="1" spans="1:22">
       <c r="A11" s="8">
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D11" s="11">
         <v>6</v>
@@ -2528,12 +2365,10 @@
       <c r="G11" s="12">
         <v>8</v>
       </c>
-      <c r="H11" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="I11" s="12">
-        <v>5</v>
-      </c>
+      <c r="H11" s="12">
+        <v>5</v>
+      </c>
+      <c r="I11" s="12"/>
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
@@ -2546,18 +2381,17 @@
       <c r="S11" s="12"/>
       <c r="T11" s="12"/>
       <c r="U11" s="12"/>
-      <c r="V11" s="12"/>
-      <c r="W11" s="23"/>
-    </row>
-    <row r="12" ht="51.5" customHeight="1" spans="1:23">
+      <c r="V11" s="23"/>
+    </row>
+    <row r="12" ht="51.5" customHeight="1" spans="1:22">
       <c r="A12" s="5">
         <v>11</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="D12" s="15">
         <v>6</v>
@@ -2571,12 +2405,10 @@
       <c r="G12" s="6">
         <v>9</v>
       </c>
-      <c r="H12" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="I12" s="6">
+      <c r="H12" s="6">
         <v>1</v>
       </c>
+      <c r="I12" s="6"/>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
@@ -2589,18 +2421,17 @@
       <c r="S12" s="6"/>
       <c r="T12" s="6"/>
       <c r="U12" s="6"/>
-      <c r="V12" s="6"/>
-      <c r="W12" s="22"/>
-    </row>
-    <row r="13" ht="18.5" customHeight="1" spans="1:23">
+      <c r="V12" s="22"/>
+    </row>
+    <row r="13" ht="18.5" customHeight="1" spans="1:22">
       <c r="A13" s="8">
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D13" s="11">
         <v>6</v>
@@ -2614,12 +2445,10 @@
       <c r="G13" s="12">
         <v>1</v>
       </c>
-      <c r="H13" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13" s="12">
-        <v>5</v>
-      </c>
+      <c r="H13" s="12">
+        <v>5</v>
+      </c>
+      <c r="I13" s="12"/>
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
       <c r="L13" s="12"/>
@@ -2632,18 +2461,17 @@
       <c r="S13" s="12"/>
       <c r="T13" s="12"/>
       <c r="U13" s="12"/>
-      <c r="V13" s="12"/>
-      <c r="W13" s="23"/>
-    </row>
-    <row r="14" ht="18.5" customHeight="1" spans="1:23">
+      <c r="V13" s="23"/>
+    </row>
+    <row r="14" ht="18.5" customHeight="1" spans="1:22">
       <c r="A14" s="5">
         <v>13</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D14" s="15">
         <v>6</v>
@@ -2657,12 +2485,10 @@
       <c r="G14" s="6">
         <v>2</v>
       </c>
-      <c r="H14" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="I14" s="6">
-        <v>5</v>
-      </c>
+      <c r="H14" s="6">
+        <v>5</v>
+      </c>
+      <c r="I14" s="6"/>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
@@ -2675,18 +2501,17 @@
       <c r="S14" s="6"/>
       <c r="T14" s="6"/>
       <c r="U14" s="6"/>
-      <c r="V14" s="6"/>
-      <c r="W14" s="22"/>
-    </row>
-    <row r="15" ht="18.5" customHeight="1" spans="1:23">
+      <c r="V14" s="22"/>
+    </row>
+    <row r="15" ht="18.5" customHeight="1" spans="1:22">
       <c r="A15" s="8">
         <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D15" s="11">
         <v>6</v>
@@ -2700,12 +2525,10 @@
       <c r="G15" s="12">
         <v>3</v>
       </c>
-      <c r="H15" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="I15" s="12">
-        <v>5</v>
-      </c>
+      <c r="H15" s="12">
+        <v>5</v>
+      </c>
+      <c r="I15" s="12"/>
       <c r="J15" s="12"/>
       <c r="K15" s="12"/>
       <c r="L15" s="12"/>
@@ -2718,18 +2541,17 @@
       <c r="S15" s="12"/>
       <c r="T15" s="12"/>
       <c r="U15" s="12"/>
-      <c r="V15" s="12"/>
-      <c r="W15" s="23"/>
-    </row>
-    <row r="16" ht="18.5" customHeight="1" spans="1:23">
+      <c r="V15" s="23"/>
+    </row>
+    <row r="16" ht="18.5" customHeight="1" spans="1:22">
       <c r="A16" s="5">
         <v>15</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D16" s="15">
         <v>6</v>
@@ -2743,12 +2565,10 @@
       <c r="G16" s="6">
         <v>4</v>
       </c>
-      <c r="H16" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="I16" s="6">
-        <v>5</v>
-      </c>
+      <c r="H16" s="6">
+        <v>5</v>
+      </c>
+      <c r="I16" s="6"/>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
@@ -2761,18 +2581,17 @@
       <c r="S16" s="6"/>
       <c r="T16" s="6"/>
       <c r="U16" s="6"/>
-      <c r="V16" s="6"/>
-      <c r="W16" s="22"/>
-    </row>
-    <row r="17" ht="18.5" customHeight="1" spans="1:23">
+      <c r="V16" s="22"/>
+    </row>
+    <row r="17" ht="18.5" customHeight="1" spans="1:22">
       <c r="A17" s="8">
         <v>16</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D17" s="11">
         <v>6</v>
@@ -2786,12 +2605,10 @@
       <c r="G17" s="12">
         <v>5</v>
       </c>
-      <c r="H17" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="I17" s="12">
-        <v>5</v>
-      </c>
+      <c r="H17" s="12">
+        <v>5</v>
+      </c>
+      <c r="I17" s="12"/>
       <c r="J17" s="12"/>
       <c r="K17" s="12"/>
       <c r="L17" s="12"/>
@@ -2804,18 +2621,17 @@
       <c r="S17" s="12"/>
       <c r="T17" s="12"/>
       <c r="U17" s="12"/>
-      <c r="V17" s="12"/>
-      <c r="W17" s="23"/>
-    </row>
-    <row r="18" ht="18.5" customHeight="1" spans="1:23">
+      <c r="V17" s="23"/>
+    </row>
+    <row r="18" ht="18.5" customHeight="1" spans="1:22">
       <c r="A18" s="5">
         <v>17</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D18" s="15">
         <v>6</v>
@@ -2829,12 +2645,10 @@
       <c r="G18" s="6">
         <v>6</v>
       </c>
-      <c r="H18" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="I18" s="6">
-        <v>5</v>
-      </c>
+      <c r="H18" s="6">
+        <v>5</v>
+      </c>
+      <c r="I18" s="6"/>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
@@ -2847,18 +2661,17 @@
       <c r="S18" s="6"/>
       <c r="T18" s="6"/>
       <c r="U18" s="6"/>
-      <c r="V18" s="6"/>
-      <c r="W18" s="22"/>
-    </row>
-    <row r="19" ht="18.5" customHeight="1" spans="1:23">
+      <c r="V18" s="22"/>
+    </row>
+    <row r="19" ht="18.5" customHeight="1" spans="1:22">
       <c r="A19" s="8">
         <v>18</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D19" s="11">
         <v>6</v>
@@ -2872,12 +2685,10 @@
       <c r="G19" s="12">
         <v>7</v>
       </c>
-      <c r="H19" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="I19" s="12">
-        <v>5</v>
-      </c>
+      <c r="H19" s="12">
+        <v>5</v>
+      </c>
+      <c r="I19" s="12"/>
       <c r="J19" s="12"/>
       <c r="K19" s="12"/>
       <c r="L19" s="12"/>
@@ -2890,18 +2701,17 @@
       <c r="S19" s="12"/>
       <c r="T19" s="12"/>
       <c r="U19" s="12"/>
-      <c r="V19" s="12"/>
-      <c r="W19" s="23"/>
-    </row>
-    <row r="20" ht="18.5" customHeight="1" spans="1:23">
+      <c r="V19" s="23"/>
+    </row>
+    <row r="20" ht="18.5" customHeight="1" spans="1:22">
       <c r="A20" s="5">
         <v>19</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D20" s="15">
         <v>6</v>
@@ -2915,12 +2725,10 @@
       <c r="G20" s="6">
         <v>8</v>
       </c>
-      <c r="H20" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="I20" s="6">
-        <v>5</v>
-      </c>
+      <c r="H20" s="6">
+        <v>5</v>
+      </c>
+      <c r="I20" s="6"/>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
@@ -2933,18 +2741,17 @@
       <c r="S20" s="6"/>
       <c r="T20" s="6"/>
       <c r="U20" s="6"/>
-      <c r="V20" s="6"/>
-      <c r="W20" s="22"/>
-    </row>
-    <row r="21" ht="35" customHeight="1" spans="1:23">
+      <c r="V20" s="22"/>
+    </row>
+    <row r="21" ht="35" customHeight="1" spans="1:22">
       <c r="A21" s="8">
         <v>20</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="D21" s="11">
         <v>6</v>
@@ -2958,12 +2765,10 @@
       <c r="G21" s="12">
         <v>9</v>
       </c>
-      <c r="H21" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="I21" s="12">
+      <c r="H21" s="12">
         <v>1</v>
       </c>
+      <c r="I21" s="12"/>
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
       <c r="L21" s="12"/>
@@ -2976,18 +2781,17 @@
       <c r="S21" s="12"/>
       <c r="T21" s="12"/>
       <c r="U21" s="12"/>
-      <c r="V21" s="12"/>
-      <c r="W21" s="23"/>
-    </row>
-    <row r="22" ht="18.5" customHeight="1" spans="1:23">
+      <c r="V21" s="23"/>
+    </row>
+    <row r="22" ht="18.5" customHeight="1" spans="1:22">
       <c r="A22" s="5">
         <v>21</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="D22" s="15">
         <v>6</v>
@@ -3001,12 +2805,10 @@
       <c r="G22" s="6">
         <v>1</v>
       </c>
-      <c r="H22" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I22" s="6">
-        <v>5</v>
-      </c>
+      <c r="H22" s="6">
+        <v>5</v>
+      </c>
+      <c r="I22" s="6"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
@@ -3019,18 +2821,17 @@
       <c r="S22" s="6"/>
       <c r="T22" s="6"/>
       <c r="U22" s="6"/>
-      <c r="V22" s="6"/>
-      <c r="W22" s="22"/>
-    </row>
-    <row r="23" ht="18.5" customHeight="1" spans="1:23">
+      <c r="V22" s="22"/>
+    </row>
+    <row r="23" ht="18.5" customHeight="1" spans="1:22">
       <c r="A23" s="8">
         <v>22</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D23" s="11">
         <v>6</v>
@@ -3044,12 +2845,10 @@
       <c r="G23" s="12">
         <v>2</v>
       </c>
-      <c r="H23" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="I23" s="12">
-        <v>5</v>
-      </c>
+      <c r="H23" s="12">
+        <v>5</v>
+      </c>
+      <c r="I23" s="12"/>
       <c r="J23" s="12"/>
       <c r="K23" s="12"/>
       <c r="L23" s="12"/>
@@ -3062,18 +2861,17 @@
       <c r="S23" s="12"/>
       <c r="T23" s="12"/>
       <c r="U23" s="12"/>
-      <c r="V23" s="12"/>
-      <c r="W23" s="23"/>
-    </row>
-    <row r="24" ht="18.5" customHeight="1" spans="1:23">
+      <c r="V23" s="23"/>
+    </row>
+    <row r="24" ht="18.5" customHeight="1" spans="1:22">
       <c r="A24" s="5">
         <v>23</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D24" s="15">
         <v>6</v>
@@ -3087,12 +2885,10 @@
       <c r="G24" s="6">
         <v>3</v>
       </c>
-      <c r="H24" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="I24" s="6">
-        <v>5</v>
-      </c>
+      <c r="H24" s="6">
+        <v>5</v>
+      </c>
+      <c r="I24" s="6"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
@@ -3105,18 +2901,17 @@
       <c r="S24" s="6"/>
       <c r="T24" s="6"/>
       <c r="U24" s="6"/>
-      <c r="V24" s="6"/>
-      <c r="W24" s="22"/>
-    </row>
-    <row r="25" ht="18.5" customHeight="1" spans="1:23">
+      <c r="V24" s="22"/>
+    </row>
+    <row r="25" ht="18.5" customHeight="1" spans="1:22">
       <c r="A25" s="8">
         <v>24</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="D25" s="11">
         <v>6</v>
@@ -3130,12 +2925,10 @@
       <c r="G25" s="12">
         <v>4</v>
       </c>
-      <c r="H25" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="I25" s="12">
-        <v>5</v>
-      </c>
+      <c r="H25" s="12">
+        <v>5</v>
+      </c>
+      <c r="I25" s="12"/>
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
       <c r="L25" s="12"/>
@@ -3148,18 +2941,17 @@
       <c r="S25" s="12"/>
       <c r="T25" s="12"/>
       <c r="U25" s="12"/>
-      <c r="V25" s="12"/>
-      <c r="W25" s="23"/>
-    </row>
-    <row r="26" ht="18.5" customHeight="1" spans="1:23">
+      <c r="V25" s="23"/>
+    </row>
+    <row r="26" ht="18.5" customHeight="1" spans="1:22">
       <c r="A26" s="5">
         <v>25</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D26" s="15">
         <v>6</v>
@@ -3173,12 +2965,10 @@
       <c r="G26" s="6">
         <v>5</v>
       </c>
-      <c r="H26" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="I26" s="6">
-        <v>5</v>
-      </c>
+      <c r="H26" s="6">
+        <v>5</v>
+      </c>
+      <c r="I26" s="6"/>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
@@ -3191,18 +2981,17 @@
       <c r="S26" s="6"/>
       <c r="T26" s="6"/>
       <c r="U26" s="6"/>
-      <c r="V26" s="6"/>
-      <c r="W26" s="22"/>
-    </row>
-    <row r="27" ht="18.5" customHeight="1" spans="1:23">
+      <c r="V26" s="22"/>
+    </row>
+    <row r="27" ht="18.5" customHeight="1" spans="1:22">
       <c r="A27" s="8">
         <v>26</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D27" s="11">
         <v>6</v>
@@ -3216,12 +3005,10 @@
       <c r="G27" s="12">
         <v>6</v>
       </c>
-      <c r="H27" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="I27" s="12">
-        <v>5</v>
-      </c>
+      <c r="H27" s="12">
+        <v>5</v>
+      </c>
+      <c r="I27" s="12"/>
       <c r="J27" s="12"/>
       <c r="K27" s="12"/>
       <c r="L27" s="12"/>
@@ -3234,18 +3021,17 @@
       <c r="S27" s="12"/>
       <c r="T27" s="12"/>
       <c r="U27" s="12"/>
-      <c r="V27" s="12"/>
-      <c r="W27" s="23"/>
-    </row>
-    <row r="28" ht="18.5" customHeight="1" spans="1:23">
+      <c r="V27" s="23"/>
+    </row>
+    <row r="28" ht="18.5" customHeight="1" spans="1:22">
       <c r="A28" s="5">
         <v>27</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D28" s="15">
         <v>6</v>
@@ -3259,12 +3045,10 @@
       <c r="G28" s="6">
         <v>7</v>
       </c>
-      <c r="H28" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="I28" s="6">
-        <v>5</v>
-      </c>
+      <c r="H28" s="6">
+        <v>5</v>
+      </c>
+      <c r="I28" s="6"/>
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
@@ -3277,18 +3061,17 @@
       <c r="S28" s="6"/>
       <c r="T28" s="6"/>
       <c r="U28" s="6"/>
-      <c r="V28" s="6"/>
-      <c r="W28" s="22"/>
-    </row>
-    <row r="29" ht="18.5" customHeight="1" spans="1:23">
+      <c r="V28" s="22"/>
+    </row>
+    <row r="29" ht="18.5" customHeight="1" spans="1:22">
       <c r="A29" s="8">
         <v>28</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D29" s="11">
         <v>6</v>
@@ -3302,12 +3085,10 @@
       <c r="G29" s="12">
         <v>8</v>
       </c>
-      <c r="H29" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="I29" s="12">
-        <v>5</v>
-      </c>
+      <c r="H29" s="12">
+        <v>5</v>
+      </c>
+      <c r="I29" s="12"/>
       <c r="J29" s="12"/>
       <c r="K29" s="12"/>
       <c r="L29" s="12"/>
@@ -3320,18 +3101,17 @@
       <c r="S29" s="12"/>
       <c r="T29" s="12"/>
       <c r="U29" s="12"/>
-      <c r="V29" s="12"/>
-      <c r="W29" s="23"/>
-    </row>
-    <row r="30" customFormat="1" ht="35" customHeight="1" spans="1:23">
+      <c r="V29" s="23"/>
+    </row>
+    <row r="30" customFormat="1" ht="35" customHeight="1" spans="1:22">
       <c r="A30" s="5">
         <v>29</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="D30" s="15">
         <v>6</v>
@@ -3345,12 +3125,10 @@
       <c r="G30" s="6">
         <v>9</v>
       </c>
-      <c r="H30" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="I30" s="6">
+      <c r="H30" s="6">
         <v>1</v>
       </c>
+      <c r="I30" s="6"/>
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
@@ -3363,18 +3141,17 @@
       <c r="S30" s="6"/>
       <c r="T30" s="6"/>
       <c r="U30" s="6"/>
-      <c r="V30" s="6"/>
-      <c r="W30" s="22"/>
-    </row>
-    <row r="31" customFormat="1" ht="18.5" customHeight="1" spans="1:23">
+      <c r="V30" s="22"/>
+    </row>
+    <row r="31" customFormat="1" ht="18.5" customHeight="1" spans="1:22">
       <c r="A31" s="8">
         <v>30</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D31" s="11">
         <v>6</v>
@@ -3388,12 +3165,10 @@
       <c r="G31" s="12">
         <v>1</v>
       </c>
-      <c r="H31" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="I31" s="12">
-        <v>5</v>
-      </c>
+      <c r="H31" s="12">
+        <v>5</v>
+      </c>
+      <c r="I31" s="12"/>
       <c r="J31" s="12"/>
       <c r="K31" s="12"/>
       <c r="L31" s="12"/>
@@ -3406,18 +3181,17 @@
       <c r="S31" s="12"/>
       <c r="T31" s="12"/>
       <c r="U31" s="12"/>
-      <c r="V31" s="12"/>
-      <c r="W31" s="23"/>
-    </row>
-    <row r="32" customFormat="1" ht="18.5" customHeight="1" spans="1:23">
+      <c r="V31" s="23"/>
+    </row>
+    <row r="32" customFormat="1" ht="18.5" customHeight="1" spans="1:22">
       <c r="A32" s="5">
         <v>31</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D32" s="15">
         <v>6</v>
@@ -3431,12 +3205,10 @@
       <c r="G32" s="6">
         <v>2</v>
       </c>
-      <c r="H32" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="I32" s="6">
-        <v>5</v>
-      </c>
+      <c r="H32" s="6">
+        <v>5</v>
+      </c>
+      <c r="I32" s="6"/>
       <c r="J32" s="6"/>
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
@@ -3449,18 +3221,17 @@
       <c r="S32" s="6"/>
       <c r="T32" s="6"/>
       <c r="U32" s="6"/>
-      <c r="V32" s="6"/>
-      <c r="W32" s="22"/>
-    </row>
-    <row r="33" customFormat="1" ht="18.5" customHeight="1" spans="1:23">
+      <c r="V32" s="22"/>
+    </row>
+    <row r="33" customFormat="1" ht="18.5" customHeight="1" spans="1:22">
       <c r="A33" s="8">
         <v>32</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D33" s="11">
         <v>6</v>
@@ -3474,12 +3245,10 @@
       <c r="G33" s="12">
         <v>3</v>
       </c>
-      <c r="H33" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="I33" s="12">
-        <v>5</v>
-      </c>
+      <c r="H33" s="12">
+        <v>5</v>
+      </c>
+      <c r="I33" s="12"/>
       <c r="J33" s="12"/>
       <c r="K33" s="12"/>
       <c r="L33" s="12"/>
@@ -3492,18 +3261,17 @@
       <c r="S33" s="12"/>
       <c r="T33" s="12"/>
       <c r="U33" s="12"/>
-      <c r="V33" s="12"/>
-      <c r="W33" s="23"/>
-    </row>
-    <row r="34" customFormat="1" ht="18.5" customHeight="1" spans="1:23">
+      <c r="V33" s="23"/>
+    </row>
+    <row r="34" customFormat="1" ht="18.5" customHeight="1" spans="1:22">
       <c r="A34" s="5">
         <v>33</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="D34" s="15">
         <v>6</v>
@@ -3517,12 +3285,10 @@
       <c r="G34" s="6">
         <v>4</v>
       </c>
-      <c r="H34" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="I34" s="6">
-        <v>5</v>
-      </c>
+      <c r="H34" s="6">
+        <v>5</v>
+      </c>
+      <c r="I34" s="6"/>
       <c r="J34" s="6"/>
       <c r="K34" s="6"/>
       <c r="L34" s="6"/>
@@ -3535,18 +3301,17 @@
       <c r="S34" s="6"/>
       <c r="T34" s="6"/>
       <c r="U34" s="6"/>
-      <c r="V34" s="6"/>
-      <c r="W34" s="22"/>
-    </row>
-    <row r="35" customFormat="1" ht="18.5" customHeight="1" spans="1:23">
+      <c r="V34" s="22"/>
+    </row>
+    <row r="35" customFormat="1" ht="18.5" customHeight="1" spans="1:22">
       <c r="A35" s="8">
         <v>34</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D35" s="11">
         <v>6</v>
@@ -3560,12 +3325,10 @@
       <c r="G35" s="12">
         <v>5</v>
       </c>
-      <c r="H35" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="I35" s="12">
-        <v>5</v>
-      </c>
+      <c r="H35" s="12">
+        <v>5</v>
+      </c>
+      <c r="I35" s="12"/>
       <c r="J35" s="12"/>
       <c r="K35" s="12"/>
       <c r="L35" s="12"/>
@@ -3578,18 +3341,17 @@
       <c r="S35" s="12"/>
       <c r="T35" s="12"/>
       <c r="U35" s="12"/>
-      <c r="V35" s="12"/>
-      <c r="W35" s="23"/>
-    </row>
-    <row r="36" customFormat="1" ht="18.5" customHeight="1" spans="1:23">
+      <c r="V35" s="23"/>
+    </row>
+    <row r="36" customFormat="1" ht="18.5" customHeight="1" spans="1:22">
       <c r="A36" s="5">
         <v>35</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D36" s="15">
         <v>6</v>
@@ -3603,12 +3365,10 @@
       <c r="G36" s="6">
         <v>6</v>
       </c>
-      <c r="H36" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="I36" s="6">
-        <v>5</v>
-      </c>
+      <c r="H36" s="6">
+        <v>5</v>
+      </c>
+      <c r="I36" s="6"/>
       <c r="J36" s="6"/>
       <c r="K36" s="6"/>
       <c r="L36" s="6"/>
@@ -3621,18 +3381,17 @@
       <c r="S36" s="6"/>
       <c r="T36" s="6"/>
       <c r="U36" s="6"/>
-      <c r="V36" s="6"/>
-      <c r="W36" s="22"/>
-    </row>
-    <row r="37" customFormat="1" ht="18.5" customHeight="1" spans="1:23">
+      <c r="V36" s="22"/>
+    </row>
+    <row r="37" customFormat="1" ht="18.5" customHeight="1" spans="1:22">
       <c r="A37" s="8">
         <v>36</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D37" s="11">
         <v>6</v>
@@ -3646,12 +3405,10 @@
       <c r="G37" s="12">
         <v>7</v>
       </c>
-      <c r="H37" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="I37" s="12">
-        <v>5</v>
-      </c>
+      <c r="H37" s="12">
+        <v>5</v>
+      </c>
+      <c r="I37" s="12"/>
       <c r="J37" s="12"/>
       <c r="K37" s="12"/>
       <c r="L37" s="12"/>
@@ -3664,18 +3421,17 @@
       <c r="S37" s="12"/>
       <c r="T37" s="12"/>
       <c r="U37" s="12"/>
-      <c r="V37" s="12"/>
-      <c r="W37" s="23"/>
-    </row>
-    <row r="38" customFormat="1" ht="18.5" customHeight="1" spans="1:23">
+      <c r="V37" s="23"/>
+    </row>
+    <row r="38" customFormat="1" ht="18.5" customHeight="1" spans="1:22">
       <c r="A38" s="5">
         <v>37</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D38" s="15">
         <v>6</v>
@@ -3689,12 +3445,10 @@
       <c r="G38" s="6">
         <v>8</v>
       </c>
-      <c r="H38" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="I38" s="6">
-        <v>5</v>
-      </c>
+      <c r="H38" s="6">
+        <v>5</v>
+      </c>
+      <c r="I38" s="6"/>
       <c r="J38" s="6"/>
       <c r="K38" s="6"/>
       <c r="L38" s="6"/>
@@ -3707,18 +3461,17 @@
       <c r="S38" s="6"/>
       <c r="T38" s="6"/>
       <c r="U38" s="6"/>
-      <c r="V38" s="6"/>
-      <c r="W38" s="22"/>
-    </row>
-    <row r="39" customFormat="1" ht="51.5" customHeight="1" spans="1:23">
+      <c r="V38" s="22"/>
+    </row>
+    <row r="39" customFormat="1" ht="51.5" customHeight="1" spans="1:22">
       <c r="A39" s="8">
         <v>38</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="D39" s="11">
         <v>6</v>
@@ -3732,12 +3485,10 @@
       <c r="G39" s="12">
         <v>9</v>
       </c>
-      <c r="H39" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="I39" s="12">
+      <c r="H39" s="12">
         <v>1</v>
       </c>
+      <c r="I39" s="12"/>
       <c r="J39" s="12"/>
       <c r="K39" s="12"/>
       <c r="L39" s="12"/>
@@ -3750,18 +3501,17 @@
       <c r="S39" s="12"/>
       <c r="T39" s="12"/>
       <c r="U39" s="12"/>
-      <c r="V39" s="12"/>
-      <c r="W39" s="23"/>
-    </row>
-    <row r="40" customFormat="1" ht="18.5" customHeight="1" spans="1:23">
+      <c r="V39" s="23"/>
+    </row>
+    <row r="40" customFormat="1" ht="18.5" customHeight="1" spans="1:22">
       <c r="A40" s="5">
         <v>39</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D40" s="15">
         <v>6</v>
@@ -3775,12 +3525,10 @@
       <c r="G40" s="6">
         <v>1</v>
       </c>
-      <c r="H40" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I40" s="6">
-        <v>5</v>
-      </c>
+      <c r="H40" s="6">
+        <v>5</v>
+      </c>
+      <c r="I40" s="6"/>
       <c r="J40" s="6"/>
       <c r="K40" s="6"/>
       <c r="L40" s="6"/>
@@ -3793,18 +3541,17 @@
       <c r="S40" s="6"/>
       <c r="T40" s="6"/>
       <c r="U40" s="6"/>
-      <c r="V40" s="6"/>
-      <c r="W40" s="22"/>
-    </row>
-    <row r="41" customFormat="1" ht="18.5" customHeight="1" spans="1:23">
+      <c r="V40" s="22"/>
+    </row>
+    <row r="41" customFormat="1" ht="18.5" customHeight="1" spans="1:22">
       <c r="A41" s="8">
         <v>40</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D41" s="11">
         <v>6</v>
@@ -3818,12 +3565,10 @@
       <c r="G41" s="12">
         <v>2</v>
       </c>
-      <c r="H41" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="I41" s="12">
-        <v>5</v>
-      </c>
+      <c r="H41" s="12">
+        <v>5</v>
+      </c>
+      <c r="I41" s="12"/>
       <c r="J41" s="12"/>
       <c r="K41" s="12"/>
       <c r="L41" s="12"/>
@@ -3836,18 +3581,17 @@
       <c r="S41" s="12"/>
       <c r="T41" s="12"/>
       <c r="U41" s="12"/>
-      <c r="V41" s="12"/>
-      <c r="W41" s="23"/>
-    </row>
-    <row r="42" customFormat="1" ht="18.5" customHeight="1" spans="1:23">
+      <c r="V41" s="23"/>
+    </row>
+    <row r="42" customFormat="1" ht="18.5" customHeight="1" spans="1:22">
       <c r="A42" s="5">
         <v>41</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D42" s="15">
         <v>6</v>
@@ -3861,12 +3605,10 @@
       <c r="G42" s="6">
         <v>3</v>
       </c>
-      <c r="H42" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="I42" s="6">
-        <v>5</v>
-      </c>
+      <c r="H42" s="6">
+        <v>5</v>
+      </c>
+      <c r="I42" s="6"/>
       <c r="J42" s="6"/>
       <c r="K42" s="6"/>
       <c r="L42" s="6"/>
@@ -3879,18 +3621,17 @@
       <c r="S42" s="6"/>
       <c r="T42" s="6"/>
       <c r="U42" s="6"/>
-      <c r="V42" s="6"/>
-      <c r="W42" s="22"/>
-    </row>
-    <row r="43" customFormat="1" ht="18.5" customHeight="1" spans="1:23">
+      <c r="V42" s="22"/>
+    </row>
+    <row r="43" customFormat="1" ht="18.5" customHeight="1" spans="1:22">
       <c r="A43" s="8">
         <v>42</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c r="D43" s="11">
         <v>6</v>
@@ -3904,12 +3645,10 @@
       <c r="G43" s="12">
         <v>4</v>
       </c>
-      <c r="H43" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="I43" s="12">
-        <v>5</v>
-      </c>
+      <c r="H43" s="12">
+        <v>5</v>
+      </c>
+      <c r="I43" s="12"/>
       <c r="J43" s="12"/>
       <c r="K43" s="12"/>
       <c r="L43" s="12"/>
@@ -3922,18 +3661,17 @@
       <c r="S43" s="12"/>
       <c r="T43" s="12"/>
       <c r="U43" s="12"/>
-      <c r="V43" s="12"/>
-      <c r="W43" s="23"/>
-    </row>
-    <row r="44" customFormat="1" ht="18.5" customHeight="1" spans="1:23">
+      <c r="V43" s="23"/>
+    </row>
+    <row r="44" customFormat="1" ht="18.5" customHeight="1" spans="1:22">
       <c r="A44" s="5">
         <v>43</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D44" s="15">
         <v>6</v>
@@ -3947,12 +3685,10 @@
       <c r="G44" s="6">
         <v>5</v>
       </c>
-      <c r="H44" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="I44" s="6">
-        <v>5</v>
-      </c>
+      <c r="H44" s="6">
+        <v>5</v>
+      </c>
+      <c r="I44" s="6"/>
       <c r="J44" s="6"/>
       <c r="K44" s="6"/>
       <c r="L44" s="6"/>
@@ -3965,18 +3701,17 @@
       <c r="S44" s="6"/>
       <c r="T44" s="6"/>
       <c r="U44" s="6"/>
-      <c r="V44" s="6"/>
-      <c r="W44" s="22"/>
-    </row>
-    <row r="45" customFormat="1" ht="18.5" customHeight="1" spans="1:23">
+      <c r="V44" s="22"/>
+    </row>
+    <row r="45" customFormat="1" ht="18.5" customHeight="1" spans="1:22">
       <c r="A45" s="8">
         <v>44</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D45" s="11">
         <v>6</v>
@@ -3990,12 +3725,10 @@
       <c r="G45" s="12">
         <v>6</v>
       </c>
-      <c r="H45" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="I45" s="12">
-        <v>5</v>
-      </c>
+      <c r="H45" s="12">
+        <v>5</v>
+      </c>
+      <c r="I45" s="12"/>
       <c r="J45" s="12"/>
       <c r="K45" s="12"/>
       <c r="L45" s="12"/>
@@ -4008,18 +3741,17 @@
       <c r="S45" s="12"/>
       <c r="T45" s="12"/>
       <c r="U45" s="12"/>
-      <c r="V45" s="12"/>
-      <c r="W45" s="23"/>
-    </row>
-    <row r="46" customFormat="1" ht="18.5" customHeight="1" spans="1:23">
+      <c r="V45" s="23"/>
+    </row>
+    <row r="46" customFormat="1" ht="18.5" customHeight="1" spans="1:22">
       <c r="A46" s="5">
         <v>45</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>124</v>
+        <v>83</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D46" s="15">
         <v>6</v>
@@ -4033,12 +3765,10 @@
       <c r="G46" s="6">
         <v>7</v>
       </c>
-      <c r="H46" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="I46" s="6">
-        <v>5</v>
-      </c>
+      <c r="H46" s="6">
+        <v>5</v>
+      </c>
+      <c r="I46" s="6"/>
       <c r="J46" s="6"/>
       <c r="K46" s="6"/>
       <c r="L46" s="6"/>
@@ -4051,18 +3781,17 @@
       <c r="S46" s="6"/>
       <c r="T46" s="6"/>
       <c r="U46" s="6"/>
-      <c r="V46" s="6"/>
-      <c r="W46" s="22"/>
-    </row>
-    <row r="47" customFormat="1" ht="18.5" customHeight="1" spans="1:23">
+      <c r="V46" s="22"/>
+    </row>
+    <row r="47" customFormat="1" ht="18.5" customHeight="1" spans="1:22">
       <c r="A47" s="8">
         <v>46</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>126</v>
+        <v>84</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D47" s="11">
         <v>6</v>
@@ -4076,12 +3805,10 @@
       <c r="G47" s="12">
         <v>8</v>
       </c>
-      <c r="H47" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="I47" s="12">
-        <v>5</v>
-      </c>
+      <c r="H47" s="12">
+        <v>5</v>
+      </c>
+      <c r="I47" s="12"/>
       <c r="J47" s="12"/>
       <c r="K47" s="12"/>
       <c r="L47" s="12"/>
@@ -4094,18 +3821,17 @@
       <c r="S47" s="12"/>
       <c r="T47" s="12"/>
       <c r="U47" s="12"/>
-      <c r="V47" s="12"/>
-      <c r="W47" s="23"/>
-    </row>
-    <row r="48" customFormat="1" ht="18.5" customHeight="1" spans="1:23">
+      <c r="V47" s="23"/>
+    </row>
+    <row r="48" customFormat="1" ht="18.5" customHeight="1" spans="1:22">
       <c r="A48" s="16">
         <v>47</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>129</v>
+        <v>86</v>
       </c>
       <c r="D48" s="19">
         <v>6</v>
@@ -4119,12 +3845,10 @@
       <c r="G48" s="20">
         <v>9</v>
       </c>
-      <c r="H48" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="I48" s="20">
+      <c r="H48" s="20">
         <v>1</v>
       </c>
+      <c r="I48" s="20"/>
       <c r="J48" s="20"/>
       <c r="K48" s="20"/>
       <c r="L48" s="20"/>
@@ -4137,8 +3861,7 @@
       <c r="S48" s="20"/>
       <c r="T48" s="20"/>
       <c r="U48" s="20"/>
-      <c r="V48" s="20"/>
-      <c r="W48" s="24"/>
+      <c r="V48" s="24"/>
     </row>
     <row r="49" ht="14.25"/>
   </sheetData>

--- a/excels/config/server/hero/server_hero_talent.xlsx
+++ b/excels/config/server/hero/server_hero_talent.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="117">
   <si>
     <t>下标</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>父级节点 key</t>
+  </si>
+  <si>
+    <t>每级消耗点数</t>
   </si>
   <si>
     <t>最多可以投入多少点</t>
@@ -103,6 +106,9 @@
 防御力+2</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>MaxHealth {
 "Base" "25"
 }</t>
@@ -176,7 +182,7 @@
     <t>第六层·1</t>
   </si>
   <si>
-    <t>技能极速+5</t>
+    <t>技能急速+5</t>
   </si>
   <si>
     <t>AbilityHaste {
@@ -214,6 +220,9 @@
 【分裂箭】可额外攻击3名敌人</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>第一层·2</t>
   </si>
   <si>
@@ -320,7 +329,7 @@
     <t>第四层·4</t>
   </si>
   <si>
-    <t>经验增幅+2.5%</t>
+    <t>经验获取率+2.5%</t>
   </si>
   <si>
     <t>SingleExpeIncrease {
@@ -383,6 +392,46 @@
   </si>
   <si>
     <t>【复仇】复仇状态下，生命恢复速度翻倍</t>
+  </si>
+  <si>
+    <t>【雷鸣】额外增加一个目标
+【寒风波】可分散单位增加2
+【炎龙】飞行距离增加300码</t>
+  </si>
+  <si>
+    <t>【元素缠绕】系列提升15%的暴击概率
+【雷电屏障】系列对小于40%生命值的敌人伤害提高20%</t>
+  </si>
+  <si>
+    <t>【元素轰炸】系列伤害提升25%
+【法阵】系列持续时间增加3秒</t>
+  </si>
+  <si>
+    <t>【充沛】同时恢复等量生命值
+【盈能模式】开启盈能模式时，额外获得获得25%暴击概率和50%暴击伤害</t>
+  </si>
+  <si>
+    <t>【分身】分身存在时，自身增加10%移动速度</t>
+  </si>
+  <si>
+    <t>【挥砍】有15%概率再挥砍一次
+【电击】额外恢复5%已损失生命值
+【狂风】冲击波数量增加1</t>
+  </si>
+  <si>
+    <t>【旋风斩】旋转期间，增加15%移动速度
+【锤锤】基础蓝耗降低10点</t>
+  </si>
+  <si>
+    <t>【冲锋】冲锋期间，增加2%生命吸取
+【裂地斩】系列伤害提升25%</t>
+  </si>
+  <si>
+    <t>【钩爪】钩爪长度增加250码
+【战吼】战吼持续时间内，额外获得获得25%暴击概率和50%暴击伤害</t>
+  </si>
+  <si>
+    <t>【先祖之魂】先祖之魂持续期间，每秒回复5点蓝量</t>
   </si>
 </sst>
 </file>
@@ -404,15 +453,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF000000"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
@@ -570,13 +618,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF5A5A5A"/>
+        <fgColor theme="1" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE6E6E6"/>
+        <fgColor theme="1" tint="0.9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -767,47 +815,10 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="10">
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF595959"/>
-      </left>
-      <right style="medium">
-        <color theme="0"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF595959"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="0"/>
-      </left>
-      <right style="medium">
-        <color theme="0"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF595959"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF595959"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFFFFFFF"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -819,115 +830,11 @@
       <right style="medium">
         <color rgb="FFFFFFFF"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF595959"/>
-      </left>
-      <right style="thin">
+      <top style="medium">
         <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF5A5A5A"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF5A5A5A"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <bottom style="medium">
         <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF5A5A5A"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF5A5A5A"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF595959"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color rgb="FF595959"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color rgb="FF595959"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="0"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF595959"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF595959"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF595959"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF595959"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF5A5A5A"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF5A5A5A"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF595959"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color rgb="FF595959"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1055,7 +962,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1067,34 +974,34 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1179,12 +1086,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1192,77 +1102,41 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1316,7 +1190,7 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="48">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1626,36 +1500,843 @@
         <horizontal/>
       </border>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="1" tint="0.6"/>
+        </left>
+        <right style="thin">
+          <color theme="1" tint="0.6"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color theme="1" tint="0.6"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1" tint="0.9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="1" tint="0.6"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="1" tint="0.6"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF08090C"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1" tint="0.9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF08090C"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1" tint="0.66"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1" tint="0.66"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color theme="1" tint="0.66"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF08090C"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1" tint="0.66"/>
+        </right>
+        <top style="thin">
+          <color theme="1" tint="0.66"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color theme="1" tint="0.66"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF08090C"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF08090C"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1" tint="0.8"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.66"/>
+        </bottom>
+        <vertical style="thin">
+          <color rgb="FFFFFFFF"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="1" tint="0.66"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="1" tint="0.66"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1" tint="0.6"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="1" tint="0.6"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1" tint="0.6"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.6"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1" tint="0.6"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.6"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="1" tint="0.6"/>
+        </left>
+        <right style="thin">
+          <color theme="1" tint="0.6"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color theme="1" tint="0.6"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1" tint="0.9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color theme="1" tint="0.6"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1" tint="0.9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF08090C"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1" tint="0.8"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1" tint="0.6"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color theme="1" tint="0.6"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF08090C"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1" tint="0.8"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1" tint="0.6"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color theme="1" tint="0.6"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1" tint="0.6"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.6"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="1" tint="0.6"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="1" tint="0.6"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="1" tint="0.6"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFB6C7EA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1" tint="0.6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF08090C"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1" tint="0.6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="medium">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFFFFFFF"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="medium">
+          <color rgb="FFFFFFFF"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF08090C"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1" tint="0.6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="medium">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFFFFFFF"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="medium">
+          <color rgb="FFFFFFFF"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="medium">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFFFFFFF"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="medium">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFFFFFFF"/>
+        </bottom>
+        <vertical style="medium">
+          <color rgb="FFFFFFFF"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1" tint="0.9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="medium">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFFFFFFF"/>
+        </bottom>
+        <vertical style="medium">
+          <color rgb="FFFFFFFF"/>
+        </vertical>
+        <horizontal style="medium">
+          <color rgb="FFFFFFFF"/>
+        </horizontal>
+      </border>
+    </dxf>
   </dxfs>
-  <tableStyles count="5" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{13A2B76E-68CF-4167-BCE9-49322BA5D7D0}">
+  <tableStyles count="8" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{DB252FD4-CD39-435C-A282-6F5AD22184B4}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
       <tableStyleElement type="firstColumnStripe" dxfId="1"/>
       <tableStyleElement type="secondColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{0172A851-D58C-4F48-9FF1-5147CA9BFE2A}">
+    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{CB833689-4AC0-4559-8139-CB549C988BED}">
       <tableStyleElement type="wholeTable" dxfId="9"/>
       <tableStyleElement type="headerRow" dxfId="8"/>
       <tableStyleElement type="totalRow" dxfId="7"/>
       <tableStyleElement type="firstRowStripe" dxfId="6"/>
       <tableStyleElement type="secondRowStripe" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{36B3F6DD-23ED-436D-8B3D-601078F021B2}">
+    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{5C5D840C-EEC3-4C95-9D79-D35F0C18B2D2}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="firstRowStripe" dxfId="11"/>
       <tableStyleElement type="secondRowStripe" dxfId="10"/>
     </tableStyle>
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{DF879B16-9B03-4E7E-A292-67A4AF8BF59D}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{4962750C-14CF-44C3-B38E-160E0CDE8E87}">
       <tableStyleElement type="wholeTable" dxfId="15"/>
       <tableStyleElement type="headerRow" dxfId="14"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{BF6206F5-0FEE-4634-A6A1-D3E8089E717B}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{44FAA7D7-53D2-4E7B-A0E0-5F2FE8A4F30A}">
       <tableStyleElement type="wholeTable" dxfId="18"/>
       <tableStyleElement type="headerRow" dxfId="17"/>
       <tableStyleElement type="secondRowStripe" dxfId="16"/>
+    </tableStyle>
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{D231BFED-1C2D-4F5D-9CA7-64B9990F6644}">
+      <tableStyleElement type="wholeTable" dxfId="28"/>
+      <tableStyleElement type="headerRow" dxfId="27"/>
+      <tableStyleElement type="totalRow" dxfId="26"/>
+      <tableStyleElement type="firstColumn" dxfId="25"/>
+      <tableStyleElement type="lastColumn" dxfId="24"/>
+      <tableStyleElement type="secondRowStripe" dxfId="23"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="22"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="21"/>
+      <tableStyleElement type="firstTotalCell" dxfId="20"/>
+      <tableStyleElement type="lastTotalCell" dxfId="19"/>
+    </tableStyle>
+    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{46FB146E-A25F-4FC3-8A83-CD4B999837F1}">
+      <tableStyleElement type="wholeTable" dxfId="40"/>
+      <tableStyleElement type="headerRow" dxfId="39"/>
+      <tableStyleElement type="totalRow" dxfId="38"/>
+      <tableStyleElement type="firstColumn" dxfId="37"/>
+      <tableStyleElement type="lastColumn" dxfId="36"/>
+      <tableStyleElement type="secondRowStripe" dxfId="35"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="34"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="33"/>
+      <tableStyleElement type="firstHeaderCell" dxfId="32"/>
+      <tableStyleElement type="lastHeaderCell" dxfId="31"/>
+      <tableStyleElement type="firstTotalCell" dxfId="30"/>
+      <tableStyleElement type="lastTotalCell" dxfId="29"/>
+    </tableStyle>
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{8ABA8B37-0E2F-4F45-A901-B179697E203F}">
+      <tableStyleElement type="wholeTable" dxfId="47"/>
+      <tableStyleElement type="headerRow" dxfId="46"/>
+      <tableStyleElement type="totalRow" dxfId="45"/>
+      <tableStyleElement type="firstColumn" dxfId="44"/>
+      <tableStyleElement type="lastColumn" dxfId="43"/>
+      <tableStyleElement type="firstRowStripe" dxfId="42"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="41"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1958,12 +2639,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V48"/>
+  <dimension ref="A1:W140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="Q1" activePane="topRight" state="frozen"/>
-      <selection/>
-      <selection pane="topRight" activeCell="T43" sqref="T43"/>
+    <sheetView tabSelected="1" topLeftCell="J106" workbookViewId="0">
+      <selection activeCell="I113" sqref="I113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1975,20 +2654,21 @@
     <col min="5" max="5" width="16.175" customWidth="1"/>
     <col min="6" max="6" width="17.5083333333333" customWidth="1"/>
     <col min="7" max="7" width="18.0083333333333" customWidth="1"/>
-    <col min="8" max="8" width="25.5083333333333" customWidth="1"/>
-    <col min="9" max="9" width="14.3416666666667" customWidth="1"/>
-    <col min="10" max="10" width="20.3416666666667" style="2" customWidth="1"/>
-    <col min="11" max="16" width="8.24166666666667" style="2" customWidth="1"/>
-    <col min="17" max="17" width="10.675" style="2" customWidth="1"/>
-    <col min="18" max="18" width="20.5083333333333" style="2" customWidth="1"/>
-    <col min="19" max="19" width="26.8416666666667" style="2" customWidth="1"/>
-    <col min="20" max="20" width="23.0083333333333" style="2" customWidth="1"/>
-    <col min="21" max="21" width="20.0083333333333" style="2" customWidth="1"/>
-    <col min="22" max="22" width="9.00833333333333" style="2" customWidth="1"/>
+    <col min="8" max="8" width="18.0083333333333" style="2" customWidth="1"/>
+    <col min="9" max="9" width="25.5083333333333" customWidth="1"/>
+    <col min="10" max="10" width="14.3416666666667" customWidth="1"/>
+    <col min="11" max="11" width="20.3416666666667" style="3" customWidth="1"/>
+    <col min="12" max="17" width="8.24166666666667" style="3" customWidth="1"/>
+    <col min="18" max="18" width="10.675" style="3" customWidth="1"/>
+    <col min="19" max="19" width="20.5083333333333" style="3" customWidth="1"/>
+    <col min="20" max="20" width="26.8416666666667" style="3" customWidth="1"/>
+    <col min="21" max="21" width="23.0083333333333" style="3" customWidth="1"/>
+    <col min="22" max="22" width="20.0083333333333" style="3" customWidth="1"/>
+    <col min="23" max="23" width="9.00833333333333" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="30.5" customHeight="1" spans="1:22">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="1" customFormat="1" ht="30.5" customHeight="1" spans="1:23">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -2009,173 +2689,180 @@
       <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4">
-        <v>0</v>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="K1" s="4">
+        <v>0</v>
+      </c>
+      <c r="L1" s="4">
         <v>1</v>
       </c>
-      <c r="L1" s="4">
-        <v>2</v>
-      </c>
       <c r="M1" s="4">
+        <v>2</v>
+      </c>
+      <c r="N1" s="4">
         <v>3</v>
       </c>
-      <c r="N1" s="4">
+      <c r="O1" s="4">
         <v>4</v>
       </c>
-      <c r="O1" s="4">
-        <v>5</v>
-      </c>
       <c r="P1" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="4">
         <v>6</v>
       </c>
-      <c r="Q1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="R1" s="4">
-        <v>0</v>
-      </c>
-      <c r="S1" s="5">
+      <c r="R1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="S1" s="4">
+        <v>0</v>
+      </c>
+      <c r="T1" s="5">
         <v>1</v>
       </c>
-      <c r="T1" s="4">
-        <v>2</v>
-      </c>
       <c r="U1" s="4">
+        <v>2</v>
+      </c>
+      <c r="V1" s="4">
         <v>3</v>
       </c>
-      <c r="V1" s="22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="30.5" customHeight="1" spans="1:22">
-      <c r="A2" s="6" t="s">
+      <c r="W1" s="4" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="30.5" customHeight="1" spans="1:23">
+      <c r="A2" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="8"/>
       <c r="D2" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="7" t="s">
         <v>16</v>
       </c>
+      <c r="H2" s="9"/>
       <c r="I2" s="7" t="s">
         <v>17</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="7">
         <v>1</v>
       </c>
-      <c r="L2" s="7">
-        <v>2</v>
-      </c>
       <c r="M2" s="7">
+        <v>2</v>
+      </c>
+      <c r="N2" s="7">
         <v>3</v>
       </c>
-      <c r="N2" s="7">
+      <c r="O2" s="7">
         <v>4</v>
       </c>
-      <c r="O2" s="7">
-        <v>5</v>
-      </c>
       <c r="P2" s="7">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="7">
         <v>6</v>
-      </c>
-      <c r="Q2" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="R2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="S2" s="8">
+      <c r="S2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="T2" s="8">
         <v>1</v>
       </c>
-      <c r="T2" s="7">
-        <v>2</v>
-      </c>
       <c r="U2" s="7">
+        <v>2</v>
+      </c>
+      <c r="V2" s="7">
         <v>3</v>
       </c>
-      <c r="V2" s="23" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" ht="63.5" customHeight="1" spans="1:22">
-      <c r="A3" s="9">
+      <c r="W2" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="12">
+        <v>23</v>
+      </c>
+      <c r="D3" s="6">
         <v>6</v>
       </c>
-      <c r="E3" s="13">
-        <v>0</v>
-      </c>
-      <c r="F3" s="13">
-        <v>0</v>
-      </c>
-      <c r="G3" s="13">
-        <v>0</v>
-      </c>
-      <c r="H3" s="13">
-        <v>5</v>
-      </c>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="T3" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="U3" s="13" t="s">
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="4">
+        <v>5</v>
+      </c>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="V3" s="25"/>
-    </row>
-    <row r="4" ht="63.5" customHeight="1" spans="1:22">
-      <c r="A4" s="6">
-        <v>2</v>
-      </c>
-      <c r="B4" s="14" t="s">
+      <c r="U3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="V3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="16">
+      <c r="W3" s="4"/>
+    </row>
+    <row r="4" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A4" s="7">
+        <v>2</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="9">
         <v>6</v>
       </c>
       <c r="E4" s="7">
@@ -2187,10 +2874,12 @@
       <c r="G4" s="7">
         <v>1</v>
       </c>
-      <c r="H4" s="7">
-        <v>5</v>
-      </c>
-      <c r="I4" s="7"/>
+      <c r="H4" s="9">
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <v>5</v>
+      </c>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
@@ -2200,66 +2889,70 @@
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
-      <c r="S4" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="T4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="U4" s="7"/>
-      <c r="V4" s="23"/>
-    </row>
-    <row r="5" ht="63.5" customHeight="1" spans="1:22">
-      <c r="A5" s="9">
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+    </row>
+    <row r="5" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A5" s="4">
         <v>3</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="12">
+        <v>32</v>
+      </c>
+      <c r="D5" s="6">
         <v>6</v>
       </c>
-      <c r="E5" s="13">
-        <v>0</v>
-      </c>
-      <c r="F5" s="13">
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
         <v>1</v>
       </c>
-      <c r="G5" s="13">
-        <v>2</v>
-      </c>
-      <c r="H5" s="13">
-        <v>5</v>
-      </c>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
-      <c r="V5" s="25"/>
-    </row>
-    <row r="6" ht="63.5" customHeight="1" spans="1:22">
-      <c r="A6" s="6">
+      <c r="G5" s="4">
+        <v>2</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="4">
+        <v>5</v>
+      </c>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+    </row>
+    <row r="6" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A6" s="7">
         <v>4</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="16">
+      <c r="B6" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="9">
         <v>6</v>
       </c>
       <c r="E6" s="7">
@@ -2271,10 +2964,12 @@
       <c r="G6" s="7">
         <v>3</v>
       </c>
-      <c r="H6" s="7">
-        <v>5</v>
-      </c>
-      <c r="I6" s="7"/>
+      <c r="H6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="7">
+        <v>5</v>
+      </c>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
@@ -2284,66 +2979,70 @@
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
-      <c r="S6" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="T6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="U6" s="7"/>
-      <c r="V6" s="23"/>
-    </row>
-    <row r="7" ht="63.5" customHeight="1" spans="1:22">
-      <c r="A7" s="9">
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+    </row>
+    <row r="7" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A7" s="4">
         <v>5</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="12">
+        <v>38</v>
+      </c>
+      <c r="D7" s="6">
         <v>6</v>
       </c>
-      <c r="E7" s="13">
-        <v>0</v>
-      </c>
-      <c r="F7" s="13">
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
         <v>1</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="4">
         <v>4</v>
       </c>
-      <c r="H7" s="13">
-        <v>5</v>
-      </c>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="T7" s="13"/>
-      <c r="U7" s="13"/>
-      <c r="V7" s="25"/>
-    </row>
-    <row r="8" ht="63.5" customHeight="1" spans="1:22">
-      <c r="A8" s="6">
+      <c r="H7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="4">
+        <v>5</v>
+      </c>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+    </row>
+    <row r="8" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A8" s="7">
         <v>6</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="16">
+      <c r="B8" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="9">
         <v>6</v>
       </c>
       <c r="E8" s="7">
@@ -2355,10 +3054,12 @@
       <c r="G8" s="7">
         <v>5</v>
       </c>
-      <c r="H8" s="7">
-        <v>5</v>
-      </c>
-      <c r="I8" s="7"/>
+      <c r="H8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="7">
+        <v>5</v>
+      </c>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
@@ -2368,66 +3069,70 @@
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
-      <c r="S8" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="T8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="U8" s="7"/>
-      <c r="V8" s="23"/>
-    </row>
-    <row r="9" ht="63.5" customHeight="1" spans="1:22">
-      <c r="A9" s="9">
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+    </row>
+    <row r="9" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="12">
+        <v>44</v>
+      </c>
+      <c r="D9" s="6">
         <v>6</v>
       </c>
-      <c r="E9" s="13">
-        <v>0</v>
-      </c>
-      <c r="F9" s="13">
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4">
         <v>1</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="4">
         <v>6</v>
       </c>
-      <c r="H9" s="13">
-        <v>5</v>
-      </c>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="T9" s="13"/>
-      <c r="U9" s="13"/>
-      <c r="V9" s="25"/>
-    </row>
-    <row r="10" ht="63.5" customHeight="1" spans="1:22">
-      <c r="A10" s="6">
+      <c r="H9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="4">
+        <v>5</v>
+      </c>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+    </row>
+    <row r="10" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="16">
+      <c r="B10" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="9">
         <v>6</v>
       </c>
       <c r="E10" s="7">
@@ -2439,10 +3144,12 @@
       <c r="G10" s="7">
         <v>7</v>
       </c>
-      <c r="H10" s="7">
-        <v>5</v>
-      </c>
-      <c r="I10" s="7"/>
+      <c r="H10" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="7">
+        <v>5</v>
+      </c>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
@@ -2452,66 +3159,70 @@
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
-      <c r="S10" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="T10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="8" t="s">
+        <v>48</v>
+      </c>
       <c r="U10" s="7"/>
-      <c r="V10" s="23"/>
-    </row>
-    <row r="11" ht="63.5" customHeight="1" spans="1:22">
-      <c r="A11" s="9">
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+    </row>
+    <row r="11" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="12">
+        <v>50</v>
+      </c>
+      <c r="D11" s="6">
         <v>6</v>
       </c>
-      <c r="E11" s="13">
-        <v>0</v>
-      </c>
-      <c r="F11" s="13">
+      <c r="E11" s="4">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
         <v>1</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="4">
         <v>8</v>
       </c>
-      <c r="H11" s="13">
-        <v>5</v>
-      </c>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="T11" s="13"/>
-      <c r="U11" s="13"/>
-      <c r="V11" s="25"/>
-    </row>
-    <row r="12" ht="63.5" customHeight="1" spans="1:22">
-      <c r="A12" s="6">
+      <c r="H11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="4">
+        <v>5</v>
+      </c>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+    </row>
+    <row r="12" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="16">
+      <c r="B12" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="9">
         <v>6</v>
       </c>
       <c r="E12" s="7">
@@ -2523,10 +3234,12 @@
       <c r="G12" s="7">
         <v>9</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="I12" s="7">
         <v>1</v>
       </c>
-      <c r="I12" s="7"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
@@ -2536,64 +3249,68 @@
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="8"/>
       <c r="U12" s="7"/>
-      <c r="V12" s="23"/>
-    </row>
-    <row r="13" ht="63.5" customHeight="1" spans="1:22">
-      <c r="A13" s="9">
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+    </row>
+    <row r="13" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="12">
+        <v>56</v>
+      </c>
+      <c r="D13" s="6">
         <v>6</v>
       </c>
-      <c r="E13" s="13">
-        <v>0</v>
-      </c>
-      <c r="F13" s="13">
-        <v>2</v>
-      </c>
-      <c r="G13" s="13">
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4">
+        <v>2</v>
+      </c>
+      <c r="G13" s="4">
         <v>1</v>
       </c>
-      <c r="H13" s="13">
-        <v>5</v>
-      </c>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="T13" s="13"/>
-      <c r="U13" s="13"/>
-      <c r="V13" s="25"/>
-    </row>
-    <row r="14" ht="63.5" customHeight="1" spans="1:22">
-      <c r="A14" s="6">
+      <c r="H13" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" s="4">
+        <v>5</v>
+      </c>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+    </row>
+    <row r="14" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="16">
+      <c r="B14" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="9">
         <v>6</v>
       </c>
       <c r="E14" s="7">
@@ -2605,10 +3322,12 @@
       <c r="G14" s="7">
         <v>2</v>
       </c>
-      <c r="H14" s="7">
-        <v>5</v>
-      </c>
-      <c r="I14" s="7"/>
+      <c r="H14" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="7">
+        <v>5</v>
+      </c>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
@@ -2618,66 +3337,70 @@
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
-      <c r="S14" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="T14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="U14" s="7"/>
-      <c r="V14" s="23"/>
-    </row>
-    <row r="15" ht="63.5" customHeight="1" spans="1:22">
-      <c r="A15" s="9">
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+    </row>
+    <row r="15" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A15" s="4">
         <v>14</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="12">
+        <v>32</v>
+      </c>
+      <c r="D15" s="6">
         <v>6</v>
       </c>
-      <c r="E15" s="13">
-        <v>0</v>
-      </c>
-      <c r="F15" s="13">
-        <v>2</v>
-      </c>
-      <c r="G15" s="13">
+      <c r="E15" s="4">
+        <v>0</v>
+      </c>
+      <c r="F15" s="4">
+        <v>2</v>
+      </c>
+      <c r="G15" s="4">
         <v>3</v>
       </c>
-      <c r="H15" s="13">
-        <v>5</v>
-      </c>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="T15" s="13"/>
-      <c r="U15" s="13"/>
-      <c r="V15" s="25"/>
-    </row>
-    <row r="16" ht="63.5" customHeight="1" spans="1:22">
-      <c r="A16" s="6">
+      <c r="H15" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" s="4">
+        <v>5</v>
+      </c>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+    </row>
+    <row r="16" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="B16" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="16">
+      <c r="B16" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="9">
         <v>6</v>
       </c>
       <c r="E16" s="7">
@@ -2689,10 +3412,12 @@
       <c r="G16" s="7">
         <v>4</v>
       </c>
-      <c r="H16" s="7">
-        <v>5</v>
-      </c>
-      <c r="I16" s="7"/>
+      <c r="H16" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" s="7">
+        <v>5</v>
+      </c>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
@@ -2702,66 +3427,70 @@
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
-      <c r="S16" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="T16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="8" t="s">
+        <v>62</v>
+      </c>
       <c r="U16" s="7"/>
-      <c r="V16" s="23"/>
-    </row>
-    <row r="17" ht="63.5" customHeight="1" spans="1:22">
-      <c r="A17" s="9">
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+    </row>
+    <row r="17" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A17" s="4">
         <v>16</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="12">
+        <v>41</v>
+      </c>
+      <c r="D17" s="6">
         <v>6</v>
       </c>
-      <c r="E17" s="13">
-        <v>0</v>
-      </c>
-      <c r="F17" s="13">
-        <v>2</v>
-      </c>
-      <c r="G17" s="13">
-        <v>5</v>
-      </c>
-      <c r="H17" s="13">
-        <v>5</v>
-      </c>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="T17" s="13"/>
-      <c r="U17" s="13"/>
-      <c r="V17" s="25"/>
-    </row>
-    <row r="18" ht="63.5" customHeight="1" spans="1:22">
-      <c r="A18" s="6">
+      <c r="E17" s="4">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4">
+        <v>2</v>
+      </c>
+      <c r="G17" s="4">
+        <v>5</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17" s="4">
+        <v>5</v>
+      </c>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+    </row>
+    <row r="18" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A18" s="7">
         <v>17</v>
       </c>
-      <c r="B18" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="16">
+      <c r="B18" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="9">
         <v>6</v>
       </c>
       <c r="E18" s="7">
@@ -2773,10 +3502,12 @@
       <c r="G18" s="7">
         <v>6</v>
       </c>
-      <c r="H18" s="7">
-        <v>5</v>
-      </c>
-      <c r="I18" s="7"/>
+      <c r="H18" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" s="7">
+        <v>5</v>
+      </c>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
@@ -2786,66 +3517,70 @@
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
-      <c r="S18" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="T18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="8" t="s">
+        <v>45</v>
+      </c>
       <c r="U18" s="7"/>
-      <c r="V18" s="23"/>
-    </row>
-    <row r="19" ht="63.5" customHeight="1" spans="1:22">
-      <c r="A19" s="9">
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
+    </row>
+    <row r="19" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A19" s="4">
         <v>18</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="12">
+        <v>47</v>
+      </c>
+      <c r="D19" s="6">
         <v>6</v>
       </c>
-      <c r="E19" s="13">
-        <v>0</v>
-      </c>
-      <c r="F19" s="13">
-        <v>2</v>
-      </c>
-      <c r="G19" s="13">
+      <c r="E19" s="4">
+        <v>0</v>
+      </c>
+      <c r="F19" s="4">
+        <v>2</v>
+      </c>
+      <c r="G19" s="4">
         <v>7</v>
       </c>
-      <c r="H19" s="13">
-        <v>5</v>
-      </c>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="T19" s="13"/>
-      <c r="U19" s="13"/>
-      <c r="V19" s="25"/>
-    </row>
-    <row r="20" ht="63.5" customHeight="1" spans="1:22">
-      <c r="A20" s="6">
+      <c r="H19" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19" s="4">
+        <v>5</v>
+      </c>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+    </row>
+    <row r="20" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A20" s="7">
         <v>19</v>
       </c>
-      <c r="B20" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" s="16">
+      <c r="B20" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="9">
         <v>6</v>
       </c>
       <c r="E20" s="7">
@@ -2857,10 +3592,12 @@
       <c r="G20" s="7">
         <v>8</v>
       </c>
-      <c r="H20" s="7">
-        <v>5</v>
-      </c>
-      <c r="I20" s="7"/>
+      <c r="H20" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20" s="7">
+        <v>5</v>
+      </c>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
@@ -2870,64 +3607,68 @@
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
-      <c r="S20" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="T20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="8" t="s">
+        <v>51</v>
+      </c>
       <c r="U20" s="7"/>
-      <c r="V20" s="23"/>
-    </row>
-    <row r="21" ht="47" customHeight="1" spans="1:22">
-      <c r="A21" s="9">
+      <c r="V20" s="7"/>
+      <c r="W20" s="7"/>
+    </row>
+    <row r="21" ht="47" customHeight="1" spans="1:23">
+      <c r="A21" s="4">
         <v>20</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D21" s="12">
+        <v>68</v>
+      </c>
+      <c r="D21" s="6">
         <v>6</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E21" s="4">
         <v>1</v>
       </c>
-      <c r="F21" s="13">
-        <v>2</v>
-      </c>
-      <c r="G21" s="13">
+      <c r="F21" s="4">
+        <v>2</v>
+      </c>
+      <c r="G21" s="4">
         <v>9</v>
       </c>
-      <c r="H21" s="13">
+      <c r="H21" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="I21" s="4">
         <v>1</v>
       </c>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="13"/>
-      <c r="S21" s="24"/>
-      <c r="T21" s="13"/>
-      <c r="U21" s="13"/>
-      <c r="V21" s="25"/>
-    </row>
-    <row r="22" ht="63.5" customHeight="1" spans="1:22">
-      <c r="A22" s="6">
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4"/>
+    </row>
+    <row r="22" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A22" s="7">
         <v>21</v>
       </c>
-      <c r="B22" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" s="16">
+      <c r="B22" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="9">
         <v>6</v>
       </c>
       <c r="E22" s="7">
@@ -2939,10 +3680,12 @@
       <c r="G22" s="7">
         <v>1</v>
       </c>
-      <c r="H22" s="7">
-        <v>5</v>
-      </c>
-      <c r="I22" s="7"/>
+      <c r="H22" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I22" s="7">
+        <v>5</v>
+      </c>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
@@ -2952,66 +3695,70 @@
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
       <c r="R22" s="7"/>
-      <c r="S22" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="T22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="8" t="s">
+        <v>71</v>
+      </c>
       <c r="U22" s="7"/>
-      <c r="V22" s="23"/>
-    </row>
-    <row r="23" ht="63.5" customHeight="1" spans="1:22">
-      <c r="A23" s="9">
+      <c r="V22" s="7"/>
+      <c r="W22" s="7"/>
+    </row>
+    <row r="23" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A23" s="4">
         <v>22</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" s="12">
+        <v>35</v>
+      </c>
+      <c r="D23" s="6">
         <v>6</v>
       </c>
-      <c r="E23" s="13">
-        <v>0</v>
-      </c>
-      <c r="F23" s="13">
+      <c r="E23" s="4">
+        <v>0</v>
+      </c>
+      <c r="F23" s="4">
         <v>3</v>
       </c>
-      <c r="G23" s="13">
-        <v>2</v>
-      </c>
-      <c r="H23" s="13">
-        <v>5</v>
-      </c>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="13"/>
-      <c r="S23" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="T23" s="13"/>
-      <c r="U23" s="13"/>
-      <c r="V23" s="25"/>
-    </row>
-    <row r="24" ht="63.5" customHeight="1" spans="1:22">
-      <c r="A24" s="6">
+      <c r="G23" s="4">
+        <v>2</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I23" s="4">
+        <v>5</v>
+      </c>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
+    </row>
+    <row r="24" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A24" s="7">
         <v>23</v>
       </c>
-      <c r="B24" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="16">
+      <c r="B24" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="9">
         <v>6</v>
       </c>
       <c r="E24" s="7">
@@ -3023,10 +3770,12 @@
       <c r="G24" s="7">
         <v>3</v>
       </c>
-      <c r="H24" s="7">
-        <v>5</v>
-      </c>
-      <c r="I24" s="7"/>
+      <c r="H24" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I24" s="7">
+        <v>5</v>
+      </c>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
@@ -3036,66 +3785,70 @@
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
       <c r="R24" s="7"/>
-      <c r="S24" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="T24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="U24" s="7"/>
-      <c r="V24" s="23"/>
-    </row>
-    <row r="25" ht="63.5" customHeight="1" spans="1:22">
-      <c r="A25" s="9">
+      <c r="V24" s="7"/>
+      <c r="W24" s="7"/>
+    </row>
+    <row r="25" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A25" s="4">
         <v>24</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="D25" s="12">
+        <v>75</v>
+      </c>
+      <c r="D25" s="6">
         <v>6</v>
       </c>
-      <c r="E25" s="13">
-        <v>0</v>
-      </c>
-      <c r="F25" s="13">
+      <c r="E25" s="4">
+        <v>0</v>
+      </c>
+      <c r="F25" s="4">
         <v>3</v>
       </c>
-      <c r="G25" s="13">
+      <c r="G25" s="4">
         <v>4</v>
       </c>
-      <c r="H25" s="13">
-        <v>5</v>
-      </c>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="13"/>
-      <c r="R25" s="13"/>
-      <c r="S25" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="T25" s="13"/>
-      <c r="U25" s="13"/>
-      <c r="V25" s="25"/>
-    </row>
-    <row r="26" ht="63.5" customHeight="1" spans="1:22">
-      <c r="A26" s="6">
+      <c r="H25" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I25" s="4">
+        <v>5</v>
+      </c>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="U25" s="4"/>
+      <c r="V25" s="4"/>
+      <c r="W25" s="4"/>
+    </row>
+    <row r="26" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A26" s="7">
         <v>25</v>
       </c>
-      <c r="B26" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" s="16">
+      <c r="B26" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="9">
         <v>6</v>
       </c>
       <c r="E26" s="7">
@@ -3107,10 +3860,12 @@
       <c r="G26" s="7">
         <v>5</v>
       </c>
-      <c r="H26" s="7">
-        <v>5</v>
-      </c>
-      <c r="I26" s="7"/>
+      <c r="H26" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I26" s="7">
+        <v>5</v>
+      </c>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
@@ -3120,66 +3875,70 @@
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
       <c r="R26" s="7"/>
-      <c r="S26" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="T26" s="7"/>
+      <c r="S26" s="7"/>
+      <c r="T26" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="U26" s="7"/>
-      <c r="V26" s="23"/>
-    </row>
-    <row r="27" ht="63.5" customHeight="1" spans="1:22">
-      <c r="A27" s="9">
+      <c r="V26" s="7"/>
+      <c r="W26" s="7"/>
+    </row>
+    <row r="27" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A27" s="4">
         <v>26</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D27" s="12">
+        <v>44</v>
+      </c>
+      <c r="D27" s="6">
         <v>6</v>
       </c>
-      <c r="E27" s="13">
-        <v>0</v>
-      </c>
-      <c r="F27" s="13">
+      <c r="E27" s="4">
+        <v>0</v>
+      </c>
+      <c r="F27" s="4">
         <v>3</v>
       </c>
-      <c r="G27" s="13">
+      <c r="G27" s="4">
         <v>6</v>
       </c>
-      <c r="H27" s="13">
-        <v>5</v>
-      </c>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="13"/>
-      <c r="R27" s="13"/>
-      <c r="S27" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="T27" s="13"/>
-      <c r="U27" s="13"/>
-      <c r="V27" s="25"/>
-    </row>
-    <row r="28" ht="63.5" customHeight="1" spans="1:22">
-      <c r="A28" s="6">
+      <c r="H27" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I27" s="4">
+        <v>5</v>
+      </c>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="U27" s="4"/>
+      <c r="V27" s="4"/>
+      <c r="W27" s="4"/>
+    </row>
+    <row r="28" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A28" s="7">
         <v>27</v>
       </c>
-      <c r="B28" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D28" s="16">
+      <c r="B28" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="9">
         <v>6</v>
       </c>
       <c r="E28" s="7">
@@ -3191,10 +3950,12 @@
       <c r="G28" s="7">
         <v>7</v>
       </c>
-      <c r="H28" s="7">
-        <v>5</v>
-      </c>
-      <c r="I28" s="7"/>
+      <c r="H28" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I28" s="7">
+        <v>5</v>
+      </c>
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
@@ -3204,66 +3965,70 @@
       <c r="P28" s="7"/>
       <c r="Q28" s="7"/>
       <c r="R28" s="7"/>
-      <c r="S28" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="T28" s="7"/>
+      <c r="S28" s="7"/>
+      <c r="T28" s="8" t="s">
+        <v>48</v>
+      </c>
       <c r="U28" s="7"/>
-      <c r="V28" s="23"/>
-    </row>
-    <row r="29" ht="63.5" customHeight="1" spans="1:22">
-      <c r="A29" s="9">
+      <c r="V28" s="7"/>
+      <c r="W28" s="7"/>
+    </row>
+    <row r="29" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A29" s="4">
         <v>28</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D29" s="12">
+        <v>50</v>
+      </c>
+      <c r="D29" s="6">
         <v>6</v>
       </c>
-      <c r="E29" s="13">
-        <v>0</v>
-      </c>
-      <c r="F29" s="13">
+      <c r="E29" s="4">
+        <v>0</v>
+      </c>
+      <c r="F29" s="4">
         <v>3</v>
       </c>
-      <c r="G29" s="13">
+      <c r="G29" s="4">
         <v>8</v>
       </c>
-      <c r="H29" s="13">
-        <v>5</v>
-      </c>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
-      <c r="R29" s="13"/>
-      <c r="S29" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="T29" s="13"/>
-      <c r="U29" s="13"/>
-      <c r="V29" s="25"/>
-    </row>
-    <row r="30" customFormat="1" ht="47" customHeight="1" spans="1:22">
-      <c r="A30" s="6">
+      <c r="H29" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I29" s="4">
+        <v>5</v>
+      </c>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="U29" s="4"/>
+      <c r="V29" s="4"/>
+      <c r="W29" s="4"/>
+    </row>
+    <row r="30" customFormat="1" ht="47" customHeight="1" spans="1:23">
+      <c r="A30" s="7">
         <v>29</v>
       </c>
-      <c r="B30" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="D30" s="16">
+      <c r="B30" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" s="9">
         <v>6</v>
       </c>
       <c r="E30" s="7">
@@ -3275,10 +4040,12 @@
       <c r="G30" s="7">
         <v>9</v>
       </c>
-      <c r="H30" s="7">
+      <c r="H30" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="I30" s="7">
         <v>1</v>
       </c>
-      <c r="I30" s="7"/>
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
@@ -3288,64 +4055,68 @@
       <c r="P30" s="7"/>
       <c r="Q30" s="7"/>
       <c r="R30" s="7"/>
-      <c r="S30" s="8"/>
-      <c r="T30" s="7"/>
+      <c r="S30" s="7"/>
+      <c r="T30" s="8"/>
       <c r="U30" s="7"/>
-      <c r="V30" s="23"/>
-    </row>
-    <row r="31" customFormat="1" ht="63.5" customHeight="1" spans="1:22">
-      <c r="A31" s="9">
+      <c r="V30" s="7"/>
+      <c r="W30" s="7"/>
+    </row>
+    <row r="31" customFormat="1" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A31" s="4">
         <v>30</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D31" s="12">
+        <v>56</v>
+      </c>
+      <c r="D31" s="6">
         <v>6</v>
       </c>
-      <c r="E31" s="13">
-        <v>0</v>
-      </c>
-      <c r="F31" s="13">
+      <c r="E31" s="4">
+        <v>0</v>
+      </c>
+      <c r="F31" s="4">
         <v>4</v>
       </c>
-      <c r="G31" s="13">
+      <c r="G31" s="4">
         <v>1</v>
       </c>
-      <c r="H31" s="13">
-        <v>5</v>
-      </c>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="13"/>
-      <c r="R31" s="13"/>
-      <c r="S31" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="T31" s="13"/>
-      <c r="U31" s="13"/>
-      <c r="V31" s="25"/>
-    </row>
-    <row r="32" customFormat="1" ht="63.5" customHeight="1" spans="1:22">
-      <c r="A32" s="6">
+      <c r="H31" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I31" s="4">
+        <v>5</v>
+      </c>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="U31" s="4"/>
+      <c r="V31" s="4"/>
+      <c r="W31" s="4"/>
+    </row>
+    <row r="32" customFormat="1" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A32" s="7">
         <v>31</v>
       </c>
-      <c r="B32" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D32" s="16">
+      <c r="B32" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="9">
         <v>6</v>
       </c>
       <c r="E32" s="7">
@@ -3357,10 +4128,12 @@
       <c r="G32" s="7">
         <v>2</v>
       </c>
-      <c r="H32" s="7">
-        <v>5</v>
-      </c>
-      <c r="I32" s="7"/>
+      <c r="H32" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I32" s="7">
+        <v>5</v>
+      </c>
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
       <c r="L32" s="7"/>
@@ -3370,66 +4143,70 @@
       <c r="P32" s="7"/>
       <c r="Q32" s="7"/>
       <c r="R32" s="7"/>
-      <c r="S32" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="T32" s="7"/>
+      <c r="S32" s="7"/>
+      <c r="T32" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="U32" s="7"/>
-      <c r="V32" s="23"/>
-    </row>
-    <row r="33" customFormat="1" ht="63.5" customHeight="1" spans="1:22">
-      <c r="A33" s="9">
+      <c r="V32" s="7"/>
+      <c r="W32" s="7"/>
+    </row>
+    <row r="33" customFormat="1" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A33" s="4">
         <v>32</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D33" s="12">
+        <v>32</v>
+      </c>
+      <c r="D33" s="6">
         <v>6</v>
       </c>
-      <c r="E33" s="13">
-        <v>0</v>
-      </c>
-      <c r="F33" s="13">
+      <c r="E33" s="4">
+        <v>0</v>
+      </c>
+      <c r="F33" s="4">
         <v>4</v>
       </c>
-      <c r="G33" s="13">
+      <c r="G33" s="4">
         <v>3</v>
       </c>
-      <c r="H33" s="13">
-        <v>5</v>
-      </c>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="13"/>
-      <c r="O33" s="13"/>
-      <c r="P33" s="13"/>
-      <c r="Q33" s="13"/>
-      <c r="R33" s="13"/>
-      <c r="S33" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="T33" s="13"/>
-      <c r="U33" s="13"/>
-      <c r="V33" s="25"/>
-    </row>
-    <row r="34" customFormat="1" ht="63.5" customHeight="1" spans="1:22">
-      <c r="A34" s="6">
+      <c r="H33" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I33" s="4">
+        <v>5</v>
+      </c>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="D34" s="16">
+      <c r="U33" s="4"/>
+      <c r="V33" s="4"/>
+      <c r="W33" s="4"/>
+    </row>
+    <row r="34" customFormat="1" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A34" s="7">
+        <v>33</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D34" s="9">
         <v>6</v>
       </c>
       <c r="E34" s="7">
@@ -3441,10 +4218,12 @@
       <c r="G34" s="7">
         <v>4</v>
       </c>
-      <c r="H34" s="7">
-        <v>5</v>
-      </c>
-      <c r="I34" s="7"/>
+      <c r="H34" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I34" s="7">
+        <v>5</v>
+      </c>
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
       <c r="L34" s="7"/>
@@ -3454,66 +4233,70 @@
       <c r="P34" s="7"/>
       <c r="Q34" s="7"/>
       <c r="R34" s="7"/>
-      <c r="S34" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="T34" s="7"/>
+      <c r="S34" s="7"/>
+      <c r="T34" s="8" t="s">
+        <v>88</v>
+      </c>
       <c r="U34" s="7"/>
-      <c r="V34" s="23"/>
-    </row>
-    <row r="35" customFormat="1" ht="63.5" customHeight="1" spans="1:22">
-      <c r="A35" s="9">
+      <c r="V34" s="7"/>
+      <c r="W34" s="7"/>
+    </row>
+    <row r="35" customFormat="1" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A35" s="4">
         <v>34</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D35" s="12">
+        <v>41</v>
+      </c>
+      <c r="D35" s="6">
         <v>6</v>
       </c>
-      <c r="E35" s="13">
-        <v>0</v>
-      </c>
-      <c r="F35" s="13">
+      <c r="E35" s="4">
+        <v>0</v>
+      </c>
+      <c r="F35" s="4">
         <v>4</v>
       </c>
-      <c r="G35" s="13">
-        <v>5</v>
-      </c>
-      <c r="H35" s="13">
-        <v>5</v>
-      </c>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="13"/>
-      <c r="O35" s="13"/>
-      <c r="P35" s="13"/>
-      <c r="Q35" s="13"/>
-      <c r="R35" s="13"/>
-      <c r="S35" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="T35" s="13"/>
-      <c r="U35" s="13"/>
-      <c r="V35" s="25"/>
-    </row>
-    <row r="36" customFormat="1" ht="63.5" customHeight="1" spans="1:22">
-      <c r="A36" s="6">
+      <c r="G35" s="4">
+        <v>5</v>
+      </c>
+      <c r="H35" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I35" s="4">
+        <v>5</v>
+      </c>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="U35" s="4"/>
+      <c r="V35" s="4"/>
+      <c r="W35" s="4"/>
+    </row>
+    <row r="36" customFormat="1" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A36" s="7">
         <v>35</v>
       </c>
-      <c r="B36" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="C36" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D36" s="16">
+      <c r="B36" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36" s="9">
         <v>6</v>
       </c>
       <c r="E36" s="7">
@@ -3525,10 +4308,12 @@
       <c r="G36" s="7">
         <v>6</v>
       </c>
-      <c r="H36" s="7">
-        <v>5</v>
-      </c>
-      <c r="I36" s="7"/>
+      <c r="H36" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I36" s="7">
+        <v>5</v>
+      </c>
       <c r="J36" s="7"/>
       <c r="K36" s="7"/>
       <c r="L36" s="7"/>
@@ -3538,66 +4323,70 @@
       <c r="P36" s="7"/>
       <c r="Q36" s="7"/>
       <c r="R36" s="7"/>
-      <c r="S36" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="T36" s="7"/>
+      <c r="S36" s="7"/>
+      <c r="T36" s="8" t="s">
+        <v>45</v>
+      </c>
       <c r="U36" s="7"/>
-      <c r="V36" s="23"/>
-    </row>
-    <row r="37" customFormat="1" ht="63.5" customHeight="1" spans="1:22">
-      <c r="A37" s="9">
+      <c r="V36" s="7"/>
+      <c r="W36" s="7"/>
+    </row>
+    <row r="37" customFormat="1" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A37" s="4">
         <v>36</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D37" s="12">
+        <v>47</v>
+      </c>
+      <c r="D37" s="6">
         <v>6</v>
       </c>
-      <c r="E37" s="13">
-        <v>0</v>
-      </c>
-      <c r="F37" s="13">
+      <c r="E37" s="4">
+        <v>0</v>
+      </c>
+      <c r="F37" s="4">
         <v>4</v>
       </c>
-      <c r="G37" s="13">
+      <c r="G37" s="4">
         <v>7</v>
       </c>
-      <c r="H37" s="13">
-        <v>5</v>
-      </c>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
-      <c r="N37" s="13"/>
-      <c r="O37" s="13"/>
-      <c r="P37" s="13"/>
-      <c r="Q37" s="13"/>
-      <c r="R37" s="13"/>
-      <c r="S37" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="T37" s="13"/>
-      <c r="U37" s="13"/>
-      <c r="V37" s="25"/>
-    </row>
-    <row r="38" customFormat="1" ht="63.5" customHeight="1" spans="1:22">
-      <c r="A38" s="6">
+      <c r="H37" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I37" s="4">
+        <v>5</v>
+      </c>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="U37" s="4"/>
+      <c r="V37" s="4"/>
+      <c r="W37" s="4"/>
+    </row>
+    <row r="38" customFormat="1" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A38" s="7">
         <v>37</v>
       </c>
-      <c r="B38" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D38" s="16">
+      <c r="B38" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" s="9">
         <v>6</v>
       </c>
       <c r="E38" s="7">
@@ -3609,10 +4398,12 @@
       <c r="G38" s="7">
         <v>8</v>
       </c>
-      <c r="H38" s="7">
-        <v>5</v>
-      </c>
-      <c r="I38" s="7"/>
+      <c r="H38" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I38" s="7">
+        <v>5</v>
+      </c>
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
       <c r="L38" s="7"/>
@@ -3622,64 +4413,68 @@
       <c r="P38" s="7"/>
       <c r="Q38" s="7"/>
       <c r="R38" s="7"/>
-      <c r="S38" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="T38" s="7"/>
+      <c r="S38" s="7"/>
+      <c r="T38" s="8" t="s">
+        <v>51</v>
+      </c>
       <c r="U38" s="7"/>
-      <c r="V38" s="23"/>
-    </row>
-    <row r="39" customFormat="1" ht="47" customHeight="1" spans="1:22">
-      <c r="A39" s="9">
+      <c r="V38" s="7"/>
+      <c r="W38" s="7"/>
+    </row>
+    <row r="39" customFormat="1" ht="47" customHeight="1" spans="1:23">
+      <c r="A39" s="4">
         <v>38</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="D39" s="12">
+        <v>94</v>
+      </c>
+      <c r="D39" s="6">
         <v>6</v>
       </c>
-      <c r="E39" s="13">
+      <c r="E39" s="4">
         <v>1</v>
       </c>
-      <c r="F39" s="13">
+      <c r="F39" s="4">
         <v>4</v>
       </c>
-      <c r="G39" s="13">
+      <c r="G39" s="4">
         <v>9</v>
       </c>
-      <c r="H39" s="13">
+      <c r="H39" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="I39" s="4">
         <v>1</v>
       </c>
-      <c r="I39" s="13"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="13"/>
-      <c r="L39" s="13"/>
-      <c r="M39" s="13"/>
-      <c r="N39" s="13"/>
-      <c r="O39" s="13"/>
-      <c r="P39" s="13"/>
-      <c r="Q39" s="13"/>
-      <c r="R39" s="13"/>
-      <c r="S39" s="24"/>
-      <c r="T39" s="13"/>
-      <c r="U39" s="13"/>
-      <c r="V39" s="25"/>
-    </row>
-    <row r="40" customFormat="1" ht="63.5" customHeight="1" spans="1:22">
-      <c r="A40" s="6">
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="4"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="5"/>
+      <c r="U39" s="4"/>
+      <c r="V39" s="4"/>
+      <c r="W39" s="4"/>
+    </row>
+    <row r="40" customFormat="1" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A40" s="7">
         <v>39</v>
       </c>
-      <c r="B40" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="C40" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D40" s="16">
+      <c r="B40" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40" s="9">
         <v>6</v>
       </c>
       <c r="E40" s="7">
@@ -3691,10 +4486,12 @@
       <c r="G40" s="7">
         <v>1</v>
       </c>
-      <c r="H40" s="7">
-        <v>5</v>
-      </c>
-      <c r="I40" s="7"/>
+      <c r="H40" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I40" s="7">
+        <v>5</v>
+      </c>
       <c r="J40" s="7"/>
       <c r="K40" s="7"/>
       <c r="L40" s="7"/>
@@ -3704,66 +4501,70 @@
       <c r="P40" s="7"/>
       <c r="Q40" s="7"/>
       <c r="R40" s="7"/>
-      <c r="S40" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="T40" s="7"/>
+      <c r="S40" s="7"/>
+      <c r="T40" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="U40" s="7"/>
-      <c r="V40" s="23"/>
-    </row>
-    <row r="41" customFormat="1" ht="63.5" customHeight="1" spans="1:22">
-      <c r="A41" s="9">
+      <c r="V40" s="7"/>
+      <c r="W40" s="7"/>
+    </row>
+    <row r="41" customFormat="1" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A41" s="4">
         <v>40</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D41" s="12">
+        <v>32</v>
+      </c>
+      <c r="D41" s="6">
         <v>6</v>
       </c>
-      <c r="E41" s="13">
-        <v>0</v>
-      </c>
-      <c r="F41" s="13">
-        <v>5</v>
-      </c>
-      <c r="G41" s="13">
-        <v>2</v>
-      </c>
-      <c r="H41" s="13">
-        <v>5</v>
-      </c>
-      <c r="I41" s="13"/>
-      <c r="J41" s="13"/>
-      <c r="K41" s="13"/>
-      <c r="L41" s="13"/>
-      <c r="M41" s="13"/>
-      <c r="N41" s="13"/>
-      <c r="O41" s="13"/>
-      <c r="P41" s="13"/>
-      <c r="Q41" s="13"/>
-      <c r="R41" s="13"/>
-      <c r="S41" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="T41" s="13"/>
-      <c r="U41" s="13"/>
-      <c r="V41" s="25"/>
-    </row>
-    <row r="42" customFormat="1" ht="63.5" customHeight="1" spans="1:22">
-      <c r="A42" s="6">
+      <c r="E41" s="4">
+        <v>0</v>
+      </c>
+      <c r="F41" s="4">
+        <v>5</v>
+      </c>
+      <c r="G41" s="4">
+        <v>2</v>
+      </c>
+      <c r="H41" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I41" s="4">
+        <v>5</v>
+      </c>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="U41" s="4"/>
+      <c r="V41" s="4"/>
+      <c r="W41" s="4"/>
+    </row>
+    <row r="42" customFormat="1" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A42" s="7">
         <v>41</v>
       </c>
-      <c r="B42" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="C42" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D42" s="16">
+      <c r="B42" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D42" s="9">
         <v>6</v>
       </c>
       <c r="E42" s="7">
@@ -3775,10 +4576,12 @@
       <c r="G42" s="7">
         <v>3</v>
       </c>
-      <c r="H42" s="7">
-        <v>5</v>
-      </c>
-      <c r="I42" s="7"/>
+      <c r="H42" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I42" s="7">
+        <v>5</v>
+      </c>
       <c r="J42" s="7"/>
       <c r="K42" s="7"/>
       <c r="L42" s="7"/>
@@ -3788,66 +4591,70 @@
       <c r="P42" s="7"/>
       <c r="Q42" s="7"/>
       <c r="R42" s="7"/>
-      <c r="S42" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="T42" s="7"/>
+      <c r="S42" s="7"/>
+      <c r="T42" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="U42" s="7"/>
-      <c r="V42" s="23"/>
-    </row>
-    <row r="43" customFormat="1" ht="63.5" customHeight="1" spans="1:22">
-      <c r="A43" s="9">
+      <c r="V42" s="7"/>
+      <c r="W42" s="7"/>
+    </row>
+    <row r="43" customFormat="1" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A43" s="4">
         <v>42</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="D43" s="12">
+        <v>99</v>
+      </c>
+      <c r="D43" s="6">
         <v>6</v>
       </c>
-      <c r="E43" s="13">
-        <v>0</v>
-      </c>
-      <c r="F43" s="13">
-        <v>5</v>
-      </c>
-      <c r="G43" s="13">
+      <c r="E43" s="4">
+        <v>0</v>
+      </c>
+      <c r="F43" s="4">
+        <v>5</v>
+      </c>
+      <c r="G43" s="4">
         <v>4</v>
       </c>
-      <c r="H43" s="13">
-        <v>5</v>
-      </c>
-      <c r="I43" s="13"/>
-      <c r="J43" s="13"/>
-      <c r="K43" s="13"/>
-      <c r="L43" s="13"/>
-      <c r="M43" s="13"/>
-      <c r="N43" s="13"/>
-      <c r="O43" s="13"/>
-      <c r="P43" s="13"/>
-      <c r="Q43" s="13"/>
-      <c r="R43" s="13"/>
-      <c r="S43" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="T43" s="13"/>
-      <c r="U43" s="13"/>
-      <c r="V43" s="25"/>
-    </row>
-    <row r="44" customFormat="1" ht="63.5" customHeight="1" spans="1:22">
-      <c r="A44" s="6">
+      <c r="H43" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I43" s="4">
+        <v>5</v>
+      </c>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="4"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="U43" s="4"/>
+      <c r="V43" s="4"/>
+      <c r="W43" s="4"/>
+    </row>
+    <row r="44" customFormat="1" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A44" s="7">
         <v>43</v>
       </c>
-      <c r="B44" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="C44" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D44" s="16">
+      <c r="B44" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D44" s="9">
         <v>6</v>
       </c>
       <c r="E44" s="7">
@@ -3859,10 +4666,12 @@
       <c r="G44" s="7">
         <v>5</v>
       </c>
-      <c r="H44" s="7">
-        <v>5</v>
-      </c>
-      <c r="I44" s="7"/>
+      <c r="H44" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I44" s="7">
+        <v>5</v>
+      </c>
       <c r="J44" s="7"/>
       <c r="K44" s="7"/>
       <c r="L44" s="7"/>
@@ -3872,66 +4681,70 @@
       <c r="P44" s="7"/>
       <c r="Q44" s="7"/>
       <c r="R44" s="7"/>
-      <c r="S44" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="T44" s="7"/>
+      <c r="S44" s="7"/>
+      <c r="T44" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="U44" s="7"/>
-      <c r="V44" s="23"/>
-    </row>
-    <row r="45" customFormat="1" ht="63.5" customHeight="1" spans="1:22">
-      <c r="A45" s="9">
+      <c r="V44" s="7"/>
+      <c r="W44" s="7"/>
+    </row>
+    <row r="45" customFormat="1" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A45" s="4">
         <v>44</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D45" s="12">
+        <v>44</v>
+      </c>
+      <c r="D45" s="6">
         <v>6</v>
       </c>
-      <c r="E45" s="13">
-        <v>0</v>
-      </c>
-      <c r="F45" s="13">
-        <v>5</v>
-      </c>
-      <c r="G45" s="13">
+      <c r="E45" s="4">
+        <v>0</v>
+      </c>
+      <c r="F45" s="4">
+        <v>5</v>
+      </c>
+      <c r="G45" s="4">
         <v>6</v>
       </c>
-      <c r="H45" s="13">
-        <v>5</v>
-      </c>
-      <c r="I45" s="13"/>
-      <c r="J45" s="13"/>
-      <c r="K45" s="13"/>
-      <c r="L45" s="13"/>
-      <c r="M45" s="13"/>
-      <c r="N45" s="13"/>
-      <c r="O45" s="13"/>
-      <c r="P45" s="13"/>
-      <c r="Q45" s="13"/>
-      <c r="R45" s="13"/>
-      <c r="S45" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="T45" s="13"/>
-      <c r="U45" s="13"/>
-      <c r="V45" s="25"/>
-    </row>
-    <row r="46" customFormat="1" ht="63.5" customHeight="1" spans="1:22">
-      <c r="A46" s="6">
+      <c r="H45" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I45" s="4">
+        <v>5</v>
+      </c>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="4"/>
+      <c r="S45" s="4"/>
+      <c r="T45" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="C46" s="15" t="s">
+      <c r="U45" s="4"/>
+      <c r="V45" s="4"/>
+      <c r="W45" s="4"/>
+    </row>
+    <row r="46" customFormat="1" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A46" s="7">
         <v>45</v>
       </c>
-      <c r="D46" s="16">
+      <c r="B46" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D46" s="9">
         <v>6</v>
       </c>
       <c r="E46" s="7">
@@ -3943,10 +4756,12 @@
       <c r="G46" s="7">
         <v>7</v>
       </c>
-      <c r="H46" s="7">
-        <v>5</v>
-      </c>
-      <c r="I46" s="7"/>
+      <c r="H46" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I46" s="7">
+        <v>5</v>
+      </c>
       <c r="J46" s="7"/>
       <c r="K46" s="7"/>
       <c r="L46" s="7"/>
@@ -3956,98 +4771,4257 @@
       <c r="P46" s="7"/>
       <c r="Q46" s="7"/>
       <c r="R46" s="7"/>
-      <c r="S46" s="8" t="s">
+      <c r="S46" s="7"/>
+      <c r="T46" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="U46" s="7"/>
+      <c r="V46" s="7"/>
+      <c r="W46" s="7"/>
+    </row>
+    <row r="47" customFormat="1" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A47" s="4">
         <v>46</v>
       </c>
-      <c r="T46" s="7"/>
-      <c r="U46" s="7"/>
-      <c r="V46" s="23"/>
-    </row>
-    <row r="47" customFormat="1" ht="63.5" customHeight="1" spans="1:22">
-      <c r="A47" s="9">
+      <c r="B47" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D47" s="6">
+        <v>6</v>
+      </c>
+      <c r="E47" s="4">
+        <v>0</v>
+      </c>
+      <c r="F47" s="4">
+        <v>5</v>
+      </c>
+      <c r="G47" s="4">
+        <v>8</v>
+      </c>
+      <c r="H47" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I47" s="4">
+        <v>5</v>
+      </c>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
+      <c r="O47" s="4"/>
+      <c r="P47" s="4"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="4"/>
+      <c r="S47" s="4"/>
+      <c r="T47" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="U47" s="4"/>
+      <c r="V47" s="4"/>
+      <c r="W47" s="4"/>
+    </row>
+    <row r="48" customFormat="1" ht="30.5" customHeight="1" spans="1:23">
+      <c r="A48" s="7">
+        <v>47</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="D48" s="9">
+        <v>6</v>
+      </c>
+      <c r="E48" s="7">
+        <v>1</v>
+      </c>
+      <c r="F48" s="7">
+        <v>5</v>
+      </c>
+      <c r="G48" s="7">
+        <v>9</v>
+      </c>
+      <c r="H48" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="I48" s="7">
+        <v>1</v>
+      </c>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7"/>
+      <c r="O48" s="7"/>
+      <c r="P48" s="7"/>
+      <c r="Q48" s="7"/>
+      <c r="R48" s="7"/>
+      <c r="S48" s="7"/>
+      <c r="T48" s="8"/>
+      <c r="U48" s="7"/>
+      <c r="V48" s="7"/>
+      <c r="W48" s="7"/>
+    </row>
+    <row r="49" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A49" s="4">
+        <v>48</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D49" s="6">
+        <v>101</v>
+      </c>
+      <c r="E49" s="4">
+        <v>0</v>
+      </c>
+      <c r="F49" s="4">
+        <v>0</v>
+      </c>
+      <c r="G49" s="4">
+        <v>0</v>
+      </c>
+      <c r="H49" s="6">
+        <v>1</v>
+      </c>
+      <c r="I49" s="4">
+        <v>5</v>
+      </c>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="4"/>
+      <c r="O49" s="4"/>
+      <c r="P49" s="4"/>
+      <c r="Q49" s="4"/>
+      <c r="R49" s="4"/>
+      <c r="S49" s="4"/>
+      <c r="T49" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="U49" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="V49" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="W49" s="4"/>
+    </row>
+    <row r="50" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A50" s="7">
+        <v>49</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D50" s="9">
+        <v>101</v>
+      </c>
+      <c r="E50" s="7">
+        <v>0</v>
+      </c>
+      <c r="F50" s="7">
+        <v>1</v>
+      </c>
+      <c r="G50" s="7">
+        <v>1</v>
+      </c>
+      <c r="H50" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I50" s="7">
+        <v>5</v>
+      </c>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="7"/>
+      <c r="N50" s="7"/>
+      <c r="O50" s="7"/>
+      <c r="P50" s="7"/>
+      <c r="Q50" s="7"/>
+      <c r="R50" s="7"/>
+      <c r="S50" s="7"/>
+      <c r="T50" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="U50" s="7"/>
+      <c r="V50" s="7"/>
+      <c r="W50" s="7"/>
+    </row>
+    <row r="51" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A51" s="4">
+        <v>50</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D51" s="6">
+        <v>101</v>
+      </c>
+      <c r="E51" s="4">
+        <v>0</v>
+      </c>
+      <c r="F51" s="4">
+        <v>1</v>
+      </c>
+      <c r="G51" s="4">
+        <v>2</v>
+      </c>
+      <c r="H51" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I51" s="4">
+        <v>5</v>
+      </c>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="4"/>
+      <c r="N51" s="4"/>
+      <c r="O51" s="4"/>
+      <c r="P51" s="4"/>
+      <c r="Q51" s="4"/>
+      <c r="R51" s="4"/>
+      <c r="S51" s="4"/>
+      <c r="T51" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="U51" s="4"/>
+      <c r="V51" s="4"/>
+      <c r="W51" s="4"/>
+    </row>
+    <row r="52" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A52" s="7">
+        <v>51</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D52" s="9">
+        <v>101</v>
+      </c>
+      <c r="E52" s="7">
+        <v>0</v>
+      </c>
+      <c r="F52" s="7">
+        <v>1</v>
+      </c>
+      <c r="G52" s="7">
+        <v>3</v>
+      </c>
+      <c r="H52" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I52" s="7">
+        <v>5</v>
+      </c>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="7"/>
+      <c r="M52" s="7"/>
+      <c r="N52" s="7"/>
+      <c r="O52" s="7"/>
+      <c r="P52" s="7"/>
+      <c r="Q52" s="7"/>
+      <c r="R52" s="7"/>
+      <c r="S52" s="7"/>
+      <c r="T52" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="U52" s="7"/>
+      <c r="V52" s="7"/>
+      <c r="W52" s="7"/>
+    </row>
+    <row r="53" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A53" s="4">
+        <v>52</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D53" s="6">
+        <v>101</v>
+      </c>
+      <c r="E53" s="4">
+        <v>0</v>
+      </c>
+      <c r="F53" s="4">
+        <v>1</v>
+      </c>
+      <c r="G53" s="4">
+        <v>4</v>
+      </c>
+      <c r="H53" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I53" s="4">
+        <v>5</v>
+      </c>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="4"/>
+      <c r="N53" s="4"/>
+      <c r="O53" s="4"/>
+      <c r="P53" s="4"/>
+      <c r="Q53" s="4"/>
+      <c r="R53" s="4"/>
+      <c r="S53" s="4"/>
+      <c r="T53" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="U53" s="4"/>
+      <c r="V53" s="4"/>
+      <c r="W53" s="4"/>
+    </row>
+    <row r="54" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A54" s="7">
+        <v>53</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D54" s="9">
+        <v>101</v>
+      </c>
+      <c r="E54" s="7">
+        <v>0</v>
+      </c>
+      <c r="F54" s="7">
+        <v>1</v>
+      </c>
+      <c r="G54" s="7">
+        <v>5</v>
+      </c>
+      <c r="H54" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I54" s="7">
+        <v>5</v>
+      </c>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="7"/>
+      <c r="M54" s="7"/>
+      <c r="N54" s="7"/>
+      <c r="O54" s="7"/>
+      <c r="P54" s="7"/>
+      <c r="Q54" s="7"/>
+      <c r="R54" s="7"/>
+      <c r="S54" s="7"/>
+      <c r="T54" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="U54" s="7"/>
+      <c r="V54" s="7"/>
+      <c r="W54" s="7"/>
+    </row>
+    <row r="55" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A55" s="4">
+        <v>54</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D55" s="6">
+        <v>101</v>
+      </c>
+      <c r="E55" s="4">
+        <v>0</v>
+      </c>
+      <c r="F55" s="4">
+        <v>1</v>
+      </c>
+      <c r="G55" s="4">
+        <v>6</v>
+      </c>
+      <c r="H55" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I55" s="4">
+        <v>5</v>
+      </c>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4"/>
+      <c r="M55" s="4"/>
+      <c r="N55" s="4"/>
+      <c r="O55" s="4"/>
+      <c r="P55" s="4"/>
+      <c r="Q55" s="4"/>
+      <c r="R55" s="4"/>
+      <c r="S55" s="4"/>
+      <c r="T55" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="U55" s="4"/>
+      <c r="V55" s="4"/>
+      <c r="W55" s="4"/>
+    </row>
+    <row r="56" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A56" s="7">
+        <v>55</v>
+      </c>
+      <c r="B56" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="C56" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D56" s="9">
         <v>101</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="E56" s="7">
+        <v>0</v>
+      </c>
+      <c r="F56" s="7">
+        <v>1</v>
+      </c>
+      <c r="G56" s="7">
+        <v>7</v>
+      </c>
+      <c r="H56" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I56" s="7">
+        <v>5</v>
+      </c>
+      <c r="J56" s="7"/>
+      <c r="K56" s="7"/>
+      <c r="L56" s="7"/>
+      <c r="M56" s="7"/>
+      <c r="N56" s="7"/>
+      <c r="O56" s="7"/>
+      <c r="P56" s="7"/>
+      <c r="Q56" s="7"/>
+      <c r="R56" s="7"/>
+      <c r="S56" s="7"/>
+      <c r="T56" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D47" s="12">
+      <c r="U56" s="7"/>
+      <c r="V56" s="7"/>
+      <c r="W56" s="7"/>
+    </row>
+    <row r="57" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A57" s="4">
+        <v>56</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D57" s="6">
+        <v>101</v>
+      </c>
+      <c r="E57" s="4">
+        <v>0</v>
+      </c>
+      <c r="F57" s="4">
+        <v>1</v>
+      </c>
+      <c r="G57" s="4">
+        <v>8</v>
+      </c>
+      <c r="H57" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I57" s="4">
+        <v>5</v>
+      </c>
+      <c r="J57" s="4"/>
+      <c r="K57" s="4"/>
+      <c r="L57" s="4"/>
+      <c r="M57" s="4"/>
+      <c r="N57" s="4"/>
+      <c r="O57" s="4"/>
+      <c r="P57" s="4"/>
+      <c r="Q57" s="4"/>
+      <c r="R57" s="4"/>
+      <c r="S57" s="4"/>
+      <c r="T57" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="U57" s="4"/>
+      <c r="V57" s="4"/>
+      <c r="W57" s="4"/>
+    </row>
+    <row r="58" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A58" s="7">
+        <v>57</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D58" s="9">
+        <v>101</v>
+      </c>
+      <c r="E58" s="7">
+        <v>1</v>
+      </c>
+      <c r="F58" s="7">
+        <v>1</v>
+      </c>
+      <c r="G58" s="7">
+        <v>9</v>
+      </c>
+      <c r="H58" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="I58" s="7">
+        <v>1</v>
+      </c>
+      <c r="J58" s="7"/>
+      <c r="K58" s="7"/>
+      <c r="L58" s="7"/>
+      <c r="M58" s="7"/>
+      <c r="N58" s="7"/>
+      <c r="O58" s="7"/>
+      <c r="P58" s="7"/>
+      <c r="Q58" s="7"/>
+      <c r="R58" s="7"/>
+      <c r="S58" s="7"/>
+      <c r="T58" s="8"/>
+      <c r="U58" s="7"/>
+      <c r="V58" s="7"/>
+      <c r="W58" s="7"/>
+    </row>
+    <row r="59" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A59" s="4">
+        <v>58</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D59" s="6">
+        <v>101</v>
+      </c>
+      <c r="E59" s="4">
+        <v>0</v>
+      </c>
+      <c r="F59" s="4">
+        <v>2</v>
+      </c>
+      <c r="G59" s="4">
+        <v>1</v>
+      </c>
+      <c r="H59" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I59" s="4">
+        <v>5</v>
+      </c>
+      <c r="J59" s="4"/>
+      <c r="K59" s="4"/>
+      <c r="L59" s="4"/>
+      <c r="M59" s="4"/>
+      <c r="N59" s="4"/>
+      <c r="O59" s="4"/>
+      <c r="P59" s="4"/>
+      <c r="Q59" s="4"/>
+      <c r="R59" s="4"/>
+      <c r="S59" s="4"/>
+      <c r="T59" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="U59" s="4"/>
+      <c r="V59" s="4"/>
+      <c r="W59" s="4"/>
+    </row>
+    <row r="60" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A60" s="7">
+        <v>59</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D60" s="9">
+        <v>101</v>
+      </c>
+      <c r="E60" s="7">
+        <v>0</v>
+      </c>
+      <c r="F60" s="7">
+        <v>2</v>
+      </c>
+      <c r="G60" s="7">
+        <v>2</v>
+      </c>
+      <c r="H60" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I60" s="7">
+        <v>5</v>
+      </c>
+      <c r="J60" s="7"/>
+      <c r="K60" s="7"/>
+      <c r="L60" s="7"/>
+      <c r="M60" s="7"/>
+      <c r="N60" s="7"/>
+      <c r="O60" s="7"/>
+      <c r="P60" s="7"/>
+      <c r="Q60" s="7"/>
+      <c r="R60" s="7"/>
+      <c r="S60" s="7"/>
+      <c r="T60" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="U60" s="7"/>
+      <c r="V60" s="7"/>
+      <c r="W60" s="7"/>
+    </row>
+    <row r="61" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A61" s="4">
+        <v>60</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D61" s="6">
+        <v>101</v>
+      </c>
+      <c r="E61" s="4">
+        <v>0</v>
+      </c>
+      <c r="F61" s="4">
+        <v>2</v>
+      </c>
+      <c r="G61" s="4">
+        <v>3</v>
+      </c>
+      <c r="H61" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I61" s="4">
+        <v>5</v>
+      </c>
+      <c r="J61" s="4"/>
+      <c r="K61" s="4"/>
+      <c r="L61" s="4"/>
+      <c r="M61" s="4"/>
+      <c r="N61" s="4"/>
+      <c r="O61" s="4"/>
+      <c r="P61" s="4"/>
+      <c r="Q61" s="4"/>
+      <c r="R61" s="4"/>
+      <c r="S61" s="4"/>
+      <c r="T61" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="U61" s="4"/>
+      <c r="V61" s="4"/>
+      <c r="W61" s="4"/>
+    </row>
+    <row r="62" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A62" s="7">
+        <v>61</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D62" s="9">
+        <v>101</v>
+      </c>
+      <c r="E62" s="7">
+        <v>0</v>
+      </c>
+      <c r="F62" s="7">
+        <v>2</v>
+      </c>
+      <c r="G62" s="7">
+        <v>4</v>
+      </c>
+      <c r="H62" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I62" s="7">
+        <v>5</v>
+      </c>
+      <c r="J62" s="7"/>
+      <c r="K62" s="7"/>
+      <c r="L62" s="7"/>
+      <c r="M62" s="7"/>
+      <c r="N62" s="7"/>
+      <c r="O62" s="7"/>
+      <c r="P62" s="7"/>
+      <c r="Q62" s="7"/>
+      <c r="R62" s="7"/>
+      <c r="S62" s="7"/>
+      <c r="T62" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="U62" s="7"/>
+      <c r="V62" s="7"/>
+      <c r="W62" s="7"/>
+    </row>
+    <row r="63" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A63" s="4">
+        <v>62</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D63" s="6">
+        <v>101</v>
+      </c>
+      <c r="E63" s="4">
+        <v>0</v>
+      </c>
+      <c r="F63" s="4">
+        <v>2</v>
+      </c>
+      <c r="G63" s="4">
+        <v>5</v>
+      </c>
+      <c r="H63" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I63" s="4">
+        <v>5</v>
+      </c>
+      <c r="J63" s="4"/>
+      <c r="K63" s="4"/>
+      <c r="L63" s="4"/>
+      <c r="M63" s="4"/>
+      <c r="N63" s="4"/>
+      <c r="O63" s="4"/>
+      <c r="P63" s="4"/>
+      <c r="Q63" s="4"/>
+      <c r="R63" s="4"/>
+      <c r="S63" s="4"/>
+      <c r="T63" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="U63" s="4"/>
+      <c r="V63" s="4"/>
+      <c r="W63" s="4"/>
+    </row>
+    <row r="64" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A64" s="7">
+        <v>63</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D64" s="9">
+        <v>101</v>
+      </c>
+      <c r="E64" s="7">
+        <v>0</v>
+      </c>
+      <c r="F64" s="7">
+        <v>2</v>
+      </c>
+      <c r="G64" s="7">
         <v>6</v>
       </c>
-      <c r="E47" s="13">
-        <v>0</v>
-      </c>
-      <c r="F47" s="13">
-        <v>5</v>
-      </c>
-      <c r="G47" s="13">
+      <c r="H64" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I64" s="7">
+        <v>5</v>
+      </c>
+      <c r="J64" s="7"/>
+      <c r="K64" s="7"/>
+      <c r="L64" s="7"/>
+      <c r="M64" s="7"/>
+      <c r="N64" s="7"/>
+      <c r="O64" s="7"/>
+      <c r="P64" s="7"/>
+      <c r="Q64" s="7"/>
+      <c r="R64" s="7"/>
+      <c r="S64" s="7"/>
+      <c r="T64" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="U64" s="7"/>
+      <c r="V64" s="7"/>
+      <c r="W64" s="7"/>
+    </row>
+    <row r="65" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A65" s="4">
+        <v>64</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D65" s="6">
+        <v>101</v>
+      </c>
+      <c r="E65" s="4">
+        <v>0</v>
+      </c>
+      <c r="F65" s="4">
+        <v>2</v>
+      </c>
+      <c r="G65" s="4">
+        <v>7</v>
+      </c>
+      <c r="H65" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I65" s="4">
+        <v>5</v>
+      </c>
+      <c r="J65" s="4"/>
+      <c r="K65" s="4"/>
+      <c r="L65" s="4"/>
+      <c r="M65" s="4"/>
+      <c r="N65" s="4"/>
+      <c r="O65" s="4"/>
+      <c r="P65" s="4"/>
+      <c r="Q65" s="4"/>
+      <c r="R65" s="4"/>
+      <c r="S65" s="4"/>
+      <c r="T65" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="U65" s="4"/>
+      <c r="V65" s="4"/>
+      <c r="W65" s="4"/>
+    </row>
+    <row r="66" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A66" s="7">
+        <v>65</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D66" s="9">
+        <v>101</v>
+      </c>
+      <c r="E66" s="7">
+        <v>0</v>
+      </c>
+      <c r="F66" s="7">
+        <v>2</v>
+      </c>
+      <c r="G66" s="7">
         <v>8</v>
       </c>
-      <c r="H47" s="13">
-        <v>5</v>
-      </c>
-      <c r="I47" s="13"/>
-      <c r="J47" s="13"/>
-      <c r="K47" s="13"/>
-      <c r="L47" s="13"/>
-      <c r="M47" s="13"/>
-      <c r="N47" s="13"/>
-      <c r="O47" s="13"/>
-      <c r="P47" s="13"/>
-      <c r="Q47" s="13"/>
-      <c r="R47" s="13"/>
-      <c r="S47" s="24" t="s">
+      <c r="H66" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I66" s="7">
+        <v>5</v>
+      </c>
+      <c r="J66" s="7"/>
+      <c r="K66" s="7"/>
+      <c r="L66" s="7"/>
+      <c r="M66" s="7"/>
+      <c r="N66" s="7"/>
+      <c r="O66" s="7"/>
+      <c r="P66" s="7"/>
+      <c r="Q66" s="7"/>
+      <c r="R66" s="7"/>
+      <c r="S66" s="7"/>
+      <c r="T66" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="U66" s="7"/>
+      <c r="V66" s="7"/>
+      <c r="W66" s="7"/>
+    </row>
+    <row r="67" ht="47" customHeight="1" spans="1:23">
+      <c r="A67" s="4">
+        <v>66</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D67" s="6">
+        <v>101</v>
+      </c>
+      <c r="E67" s="4">
+        <v>1</v>
+      </c>
+      <c r="F67" s="4">
+        <v>2</v>
+      </c>
+      <c r="G67" s="4">
+        <v>9</v>
+      </c>
+      <c r="H67" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="I67" s="4">
+        <v>1</v>
+      </c>
+      <c r="J67" s="4"/>
+      <c r="K67" s="4"/>
+      <c r="L67" s="4"/>
+      <c r="M67" s="4"/>
+      <c r="N67" s="4"/>
+      <c r="O67" s="4"/>
+      <c r="P67" s="4"/>
+      <c r="Q67" s="4"/>
+      <c r="R67" s="4"/>
+      <c r="S67" s="4"/>
+      <c r="T67" s="5"/>
+      <c r="U67" s="4"/>
+      <c r="V67" s="4"/>
+      <c r="W67" s="4"/>
+    </row>
+    <row r="68" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A68" s="7">
+        <v>67</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D68" s="9">
+        <v>101</v>
+      </c>
+      <c r="E68" s="7">
+        <v>0</v>
+      </c>
+      <c r="F68" s="7">
+        <v>3</v>
+      </c>
+      <c r="G68" s="7">
+        <v>1</v>
+      </c>
+      <c r="H68" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I68" s="7">
+        <v>5</v>
+      </c>
+      <c r="J68" s="7"/>
+      <c r="K68" s="7"/>
+      <c r="L68" s="7"/>
+      <c r="M68" s="7"/>
+      <c r="N68" s="7"/>
+      <c r="O68" s="7"/>
+      <c r="P68" s="7"/>
+      <c r="Q68" s="7"/>
+      <c r="R68" s="7"/>
+      <c r="S68" s="7"/>
+      <c r="T68" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="U68" s="7"/>
+      <c r="V68" s="7"/>
+      <c r="W68" s="7"/>
+    </row>
+    <row r="69" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A69" s="4">
+        <v>68</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D69" s="6">
+        <v>101</v>
+      </c>
+      <c r="E69" s="4">
+        <v>0</v>
+      </c>
+      <c r="F69" s="4">
+        <v>3</v>
+      </c>
+      <c r="G69" s="4">
+        <v>2</v>
+      </c>
+      <c r="H69" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I69" s="4">
+        <v>5</v>
+      </c>
+      <c r="J69" s="4"/>
+      <c r="K69" s="4"/>
+      <c r="L69" s="4"/>
+      <c r="M69" s="4"/>
+      <c r="N69" s="4"/>
+      <c r="O69" s="4"/>
+      <c r="P69" s="4"/>
+      <c r="Q69" s="4"/>
+      <c r="R69" s="4"/>
+      <c r="S69" s="4"/>
+      <c r="T69" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="U69" s="4"/>
+      <c r="V69" s="4"/>
+      <c r="W69" s="4"/>
+    </row>
+    <row r="70" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A70" s="7">
+        <v>69</v>
+      </c>
+      <c r="B70" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D70" s="9">
+        <v>101</v>
+      </c>
+      <c r="E70" s="7">
+        <v>0</v>
+      </c>
+      <c r="F70" s="7">
+        <v>3</v>
+      </c>
+      <c r="G70" s="7">
+        <v>3</v>
+      </c>
+      <c r="H70" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I70" s="7">
+        <v>5</v>
+      </c>
+      <c r="J70" s="7"/>
+      <c r="K70" s="7"/>
+      <c r="L70" s="7"/>
+      <c r="M70" s="7"/>
+      <c r="N70" s="7"/>
+      <c r="O70" s="7"/>
+      <c r="P70" s="7"/>
+      <c r="Q70" s="7"/>
+      <c r="R70" s="7"/>
+      <c r="S70" s="7"/>
+      <c r="T70" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="U70" s="7"/>
+      <c r="V70" s="7"/>
+      <c r="W70" s="7"/>
+    </row>
+    <row r="71" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A71" s="4">
+        <v>70</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D71" s="6">
+        <v>101</v>
+      </c>
+      <c r="E71" s="4">
+        <v>0</v>
+      </c>
+      <c r="F71" s="4">
+        <v>3</v>
+      </c>
+      <c r="G71" s="4">
+        <v>4</v>
+      </c>
+      <c r="H71" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I71" s="4">
+        <v>5</v>
+      </c>
+      <c r="J71" s="4"/>
+      <c r="K71" s="4"/>
+      <c r="L71" s="4"/>
+      <c r="M71" s="4"/>
+      <c r="N71" s="4"/>
+      <c r="O71" s="4"/>
+      <c r="P71" s="4"/>
+      <c r="Q71" s="4"/>
+      <c r="R71" s="4"/>
+      <c r="S71" s="4"/>
+      <c r="T71" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="U71" s="4"/>
+      <c r="V71" s="4"/>
+      <c r="W71" s="4"/>
+    </row>
+    <row r="72" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A72" s="7">
+        <v>71</v>
+      </c>
+      <c r="B72" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C72" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D72" s="9">
+        <v>101</v>
+      </c>
+      <c r="E72" s="7">
+        <v>0</v>
+      </c>
+      <c r="F72" s="7">
+        <v>3</v>
+      </c>
+      <c r="G72" s="7">
+        <v>5</v>
+      </c>
+      <c r="H72" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I72" s="7">
+        <v>5</v>
+      </c>
+      <c r="J72" s="7"/>
+      <c r="K72" s="7"/>
+      <c r="L72" s="7"/>
+      <c r="M72" s="7"/>
+      <c r="N72" s="7"/>
+      <c r="O72" s="7"/>
+      <c r="P72" s="7"/>
+      <c r="Q72" s="7"/>
+      <c r="R72" s="7"/>
+      <c r="S72" s="7"/>
+      <c r="T72" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="U72" s="7"/>
+      <c r="V72" s="7"/>
+      <c r="W72" s="7"/>
+    </row>
+    <row r="73" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A73" s="4">
+        <v>72</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D73" s="6">
+        <v>101</v>
+      </c>
+      <c r="E73" s="4">
+        <v>0</v>
+      </c>
+      <c r="F73" s="4">
+        <v>3</v>
+      </c>
+      <c r="G73" s="4">
+        <v>6</v>
+      </c>
+      <c r="H73" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I73" s="4">
+        <v>5</v>
+      </c>
+      <c r="J73" s="4"/>
+      <c r="K73" s="4"/>
+      <c r="L73" s="4"/>
+      <c r="M73" s="4"/>
+      <c r="N73" s="4"/>
+      <c r="O73" s="4"/>
+      <c r="P73" s="4"/>
+      <c r="Q73" s="4"/>
+      <c r="R73" s="4"/>
+      <c r="S73" s="4"/>
+      <c r="T73" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="U73" s="4"/>
+      <c r="V73" s="4"/>
+      <c r="W73" s="4"/>
+    </row>
+    <row r="74" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A74" s="7">
+        <v>73</v>
+      </c>
+      <c r="B74" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C74" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D74" s="9">
+        <v>101</v>
+      </c>
+      <c r="E74" s="7">
+        <v>0</v>
+      </c>
+      <c r="F74" s="7">
+        <v>3</v>
+      </c>
+      <c r="G74" s="7">
+        <v>7</v>
+      </c>
+      <c r="H74" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I74" s="7">
+        <v>5</v>
+      </c>
+      <c r="J74" s="7"/>
+      <c r="K74" s="7"/>
+      <c r="L74" s="7"/>
+      <c r="M74" s="7"/>
+      <c r="N74" s="7"/>
+      <c r="O74" s="7"/>
+      <c r="P74" s="7"/>
+      <c r="Q74" s="7"/>
+      <c r="R74" s="7"/>
+      <c r="S74" s="7"/>
+      <c r="T74" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="U74" s="7"/>
+      <c r="V74" s="7"/>
+      <c r="W74" s="7"/>
+    </row>
+    <row r="75" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A75" s="4">
+        <v>74</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D75" s="6">
+        <v>101</v>
+      </c>
+      <c r="E75" s="4">
+        <v>0</v>
+      </c>
+      <c r="F75" s="4">
+        <v>3</v>
+      </c>
+      <c r="G75" s="4">
+        <v>8</v>
+      </c>
+      <c r="H75" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I75" s="4">
+        <v>5</v>
+      </c>
+      <c r="J75" s="4"/>
+      <c r="K75" s="4"/>
+      <c r="L75" s="4"/>
+      <c r="M75" s="4"/>
+      <c r="N75" s="4"/>
+      <c r="O75" s="4"/>
+      <c r="P75" s="4"/>
+      <c r="Q75" s="4"/>
+      <c r="R75" s="4"/>
+      <c r="S75" s="4"/>
+      <c r="T75" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="U75" s="4"/>
+      <c r="V75" s="4"/>
+      <c r="W75" s="4"/>
+    </row>
+    <row r="76" ht="47" customHeight="1" spans="1:23">
+      <c r="A76" s="7">
+        <v>75</v>
+      </c>
+      <c r="B76" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C76" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="D76" s="9">
+        <v>101</v>
+      </c>
+      <c r="E76" s="7">
+        <v>1</v>
+      </c>
+      <c r="F76" s="7">
+        <v>3</v>
+      </c>
+      <c r="G76" s="7">
+        <v>9</v>
+      </c>
+      <c r="H76" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="I76" s="7">
+        <v>1</v>
+      </c>
+      <c r="J76" s="7"/>
+      <c r="K76" s="7"/>
+      <c r="L76" s="7"/>
+      <c r="M76" s="7"/>
+      <c r="N76" s="7"/>
+      <c r="O76" s="7"/>
+      <c r="P76" s="7"/>
+      <c r="Q76" s="7"/>
+      <c r="R76" s="7"/>
+      <c r="S76" s="7"/>
+      <c r="T76" s="8"/>
+      <c r="U76" s="7"/>
+      <c r="V76" s="7"/>
+      <c r="W76" s="7"/>
+    </row>
+    <row r="77" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A77" s="4">
+        <v>76</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D77" s="6">
+        <v>101</v>
+      </c>
+      <c r="E77" s="4">
+        <v>0</v>
+      </c>
+      <c r="F77" s="4">
+        <v>4</v>
+      </c>
+      <c r="G77" s="4">
+        <v>1</v>
+      </c>
+      <c r="H77" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I77" s="4">
+        <v>5</v>
+      </c>
+      <c r="J77" s="4"/>
+      <c r="K77" s="4"/>
+      <c r="L77" s="4"/>
+      <c r="M77" s="4"/>
+      <c r="N77" s="4"/>
+      <c r="O77" s="4"/>
+      <c r="P77" s="4"/>
+      <c r="Q77" s="4"/>
+      <c r="R77" s="4"/>
+      <c r="S77" s="4"/>
+      <c r="T77" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="U77" s="4"/>
+      <c r="V77" s="4"/>
+      <c r="W77" s="4"/>
+    </row>
+    <row r="78" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A78" s="7">
+        <v>77</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C78" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D78" s="9">
+        <v>101</v>
+      </c>
+      <c r="E78" s="7">
+        <v>0</v>
+      </c>
+      <c r="F78" s="7">
+        <v>4</v>
+      </c>
+      <c r="G78" s="7">
+        <v>2</v>
+      </c>
+      <c r="H78" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I78" s="7">
+        <v>5</v>
+      </c>
+      <c r="J78" s="7"/>
+      <c r="K78" s="7"/>
+      <c r="L78" s="7"/>
+      <c r="M78" s="7"/>
+      <c r="N78" s="7"/>
+      <c r="O78" s="7"/>
+      <c r="P78" s="7"/>
+      <c r="Q78" s="7"/>
+      <c r="R78" s="7"/>
+      <c r="S78" s="7"/>
+      <c r="T78" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="U78" s="7"/>
+      <c r="V78" s="7"/>
+      <c r="W78" s="7"/>
+    </row>
+    <row r="79" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A79" s="4">
+        <v>78</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D79" s="6">
+        <v>101</v>
+      </c>
+      <c r="E79" s="4">
+        <v>0</v>
+      </c>
+      <c r="F79" s="4">
+        <v>4</v>
+      </c>
+      <c r="G79" s="4">
+        <v>3</v>
+      </c>
+      <c r="H79" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I79" s="4">
+        <v>5</v>
+      </c>
+      <c r="J79" s="4"/>
+      <c r="K79" s="4"/>
+      <c r="L79" s="4"/>
+      <c r="M79" s="4"/>
+      <c r="N79" s="4"/>
+      <c r="O79" s="4"/>
+      <c r="P79" s="4"/>
+      <c r="Q79" s="4"/>
+      <c r="R79" s="4"/>
+      <c r="S79" s="4"/>
+      <c r="T79" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="U79" s="4"/>
+      <c r="V79" s="4"/>
+      <c r="W79" s="4"/>
+    </row>
+    <row r="80" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A80" s="7">
+        <v>79</v>
+      </c>
+      <c r="B80" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C80" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D80" s="9">
+        <v>101</v>
+      </c>
+      <c r="E80" s="7">
+        <v>0</v>
+      </c>
+      <c r="F80" s="7">
+        <v>4</v>
+      </c>
+      <c r="G80" s="7">
+        <v>4</v>
+      </c>
+      <c r="H80" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I80" s="7">
+        <v>5</v>
+      </c>
+      <c r="J80" s="7"/>
+      <c r="K80" s="7"/>
+      <c r="L80" s="7"/>
+      <c r="M80" s="7"/>
+      <c r="N80" s="7"/>
+      <c r="O80" s="7"/>
+      <c r="P80" s="7"/>
+      <c r="Q80" s="7"/>
+      <c r="R80" s="7"/>
+      <c r="S80" s="7"/>
+      <c r="T80" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="U80" s="7"/>
+      <c r="V80" s="7"/>
+      <c r="W80" s="7"/>
+    </row>
+    <row r="81" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A81" s="4">
+        <v>80</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D81" s="6">
+        <v>101</v>
+      </c>
+      <c r="E81" s="4">
+        <v>0</v>
+      </c>
+      <c r="F81" s="4">
+        <v>4</v>
+      </c>
+      <c r="G81" s="4">
+        <v>5</v>
+      </c>
+      <c r="H81" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I81" s="4">
+        <v>5</v>
+      </c>
+      <c r="J81" s="4"/>
+      <c r="K81" s="4"/>
+      <c r="L81" s="4"/>
+      <c r="M81" s="4"/>
+      <c r="N81" s="4"/>
+      <c r="O81" s="4"/>
+      <c r="P81" s="4"/>
+      <c r="Q81" s="4"/>
+      <c r="R81" s="4"/>
+      <c r="S81" s="4"/>
+      <c r="T81" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="U81" s="4"/>
+      <c r="V81" s="4"/>
+      <c r="W81" s="4"/>
+    </row>
+    <row r="82" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A82" s="7">
+        <v>81</v>
+      </c>
+      <c r="B82" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C82" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D82" s="9">
+        <v>101</v>
+      </c>
+      <c r="E82" s="7">
+        <v>0</v>
+      </c>
+      <c r="F82" s="7">
+        <v>4</v>
+      </c>
+      <c r="G82" s="7">
+        <v>6</v>
+      </c>
+      <c r="H82" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I82" s="7">
+        <v>5</v>
+      </c>
+      <c r="J82" s="7"/>
+      <c r="K82" s="7"/>
+      <c r="L82" s="7"/>
+      <c r="M82" s="7"/>
+      <c r="N82" s="7"/>
+      <c r="O82" s="7"/>
+      <c r="P82" s="7"/>
+      <c r="Q82" s="7"/>
+      <c r="R82" s="7"/>
+      <c r="S82" s="7"/>
+      <c r="T82" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="U82" s="7"/>
+      <c r="V82" s="7"/>
+      <c r="W82" s="7"/>
+    </row>
+    <row r="83" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A83" s="4">
+        <v>82</v>
+      </c>
+      <c r="B83" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D83" s="6">
+        <v>101</v>
+      </c>
+      <c r="E83" s="4">
+        <v>0</v>
+      </c>
+      <c r="F83" s="4">
+        <v>4</v>
+      </c>
+      <c r="G83" s="4">
+        <v>7</v>
+      </c>
+      <c r="H83" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I83" s="4">
+        <v>5</v>
+      </c>
+      <c r="J83" s="4"/>
+      <c r="K83" s="4"/>
+      <c r="L83" s="4"/>
+      <c r="M83" s="4"/>
+      <c r="N83" s="4"/>
+      <c r="O83" s="4"/>
+      <c r="P83" s="4"/>
+      <c r="Q83" s="4"/>
+      <c r="R83" s="4"/>
+      <c r="S83" s="4"/>
+      <c r="T83" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="U83" s="4"/>
+      <c r="V83" s="4"/>
+      <c r="W83" s="4"/>
+    </row>
+    <row r="84" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A84" s="7">
+        <v>83</v>
+      </c>
+      <c r="B84" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C84" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D84" s="9">
+        <v>101</v>
+      </c>
+      <c r="E84" s="7">
+        <v>0</v>
+      </c>
+      <c r="F84" s="7">
+        <v>4</v>
+      </c>
+      <c r="G84" s="7">
+        <v>8</v>
+      </c>
+      <c r="H84" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I84" s="7">
+        <v>5</v>
+      </c>
+      <c r="J84" s="7"/>
+      <c r="K84" s="7"/>
+      <c r="L84" s="7"/>
+      <c r="M84" s="7"/>
+      <c r="N84" s="7"/>
+      <c r="O84" s="7"/>
+      <c r="P84" s="7"/>
+      <c r="Q84" s="7"/>
+      <c r="R84" s="7"/>
+      <c r="S84" s="7"/>
+      <c r="T84" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="U84" s="7"/>
+      <c r="V84" s="7"/>
+      <c r="W84" s="7"/>
+    </row>
+    <row r="85" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A85" s="4">
+        <v>84</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C85" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D85" s="6">
+        <v>101</v>
+      </c>
+      <c r="E85" s="4">
+        <v>1</v>
+      </c>
+      <c r="F85" s="4">
+        <v>4</v>
+      </c>
+      <c r="G85" s="4">
+        <v>9</v>
+      </c>
+      <c r="H85" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="I85" s="4">
+        <v>1</v>
+      </c>
+      <c r="J85" s="4"/>
+      <c r="K85" s="4"/>
+      <c r="L85" s="4"/>
+      <c r="M85" s="4"/>
+      <c r="N85" s="4"/>
+      <c r="O85" s="4"/>
+      <c r="P85" s="4"/>
+      <c r="Q85" s="4"/>
+      <c r="R85" s="4"/>
+      <c r="S85" s="4"/>
+      <c r="T85" s="5"/>
+      <c r="U85" s="4"/>
+      <c r="V85" s="4"/>
+      <c r="W85" s="4"/>
+    </row>
+    <row r="86" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A86" s="7">
+        <v>85</v>
+      </c>
+      <c r="B86" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C86" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D86" s="9">
+        <v>101</v>
+      </c>
+      <c r="E86" s="7">
+        <v>0</v>
+      </c>
+      <c r="F86" s="7">
+        <v>5</v>
+      </c>
+      <c r="G86" s="7">
+        <v>1</v>
+      </c>
+      <c r="H86" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I86" s="7">
+        <v>5</v>
+      </c>
+      <c r="J86" s="7"/>
+      <c r="K86" s="7"/>
+      <c r="L86" s="7"/>
+      <c r="M86" s="7"/>
+      <c r="N86" s="7"/>
+      <c r="O86" s="7"/>
+      <c r="P86" s="7"/>
+      <c r="Q86" s="7"/>
+      <c r="R86" s="7"/>
+      <c r="S86" s="7"/>
+      <c r="T86" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="U86" s="7"/>
+      <c r="V86" s="7"/>
+      <c r="W86" s="7"/>
+    </row>
+    <row r="87" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A87" s="4">
+        <v>86</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C87" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D87" s="6">
+        <v>101</v>
+      </c>
+      <c r="E87" s="4">
+        <v>0</v>
+      </c>
+      <c r="F87" s="4">
+        <v>5</v>
+      </c>
+      <c r="G87" s="4">
+        <v>2</v>
+      </c>
+      <c r="H87" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I87" s="4">
+        <v>5</v>
+      </c>
+      <c r="J87" s="4"/>
+      <c r="K87" s="4"/>
+      <c r="L87" s="4"/>
+      <c r="M87" s="4"/>
+      <c r="N87" s="4"/>
+      <c r="O87" s="4"/>
+      <c r="P87" s="4"/>
+      <c r="Q87" s="4"/>
+      <c r="R87" s="4"/>
+      <c r="S87" s="4"/>
+      <c r="T87" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="U87" s="4"/>
+      <c r="V87" s="4"/>
+      <c r="W87" s="4"/>
+    </row>
+    <row r="88" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A88" s="7">
+        <v>87</v>
+      </c>
+      <c r="B88" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C88" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D88" s="9">
+        <v>101</v>
+      </c>
+      <c r="E88" s="7">
+        <v>0</v>
+      </c>
+      <c r="F88" s="7">
+        <v>5</v>
+      </c>
+      <c r="G88" s="7">
+        <v>3</v>
+      </c>
+      <c r="H88" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I88" s="7">
+        <v>5</v>
+      </c>
+      <c r="J88" s="7"/>
+      <c r="K88" s="7"/>
+      <c r="L88" s="7"/>
+      <c r="M88" s="7"/>
+      <c r="N88" s="7"/>
+      <c r="O88" s="7"/>
+      <c r="P88" s="7"/>
+      <c r="Q88" s="7"/>
+      <c r="R88" s="7"/>
+      <c r="S88" s="7"/>
+      <c r="T88" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="U88" s="7"/>
+      <c r="V88" s="7"/>
+      <c r="W88" s="7"/>
+    </row>
+    <row r="89" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A89" s="4">
+        <v>88</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C89" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D89" s="6">
+        <v>101</v>
+      </c>
+      <c r="E89" s="4">
+        <v>0</v>
+      </c>
+      <c r="F89" s="4">
+        <v>5</v>
+      </c>
+      <c r="G89" s="4">
+        <v>4</v>
+      </c>
+      <c r="H89" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I89" s="4">
+        <v>5</v>
+      </c>
+      <c r="J89" s="4"/>
+      <c r="K89" s="4"/>
+      <c r="L89" s="4"/>
+      <c r="M89" s="4"/>
+      <c r="N89" s="4"/>
+      <c r="O89" s="4"/>
+      <c r="P89" s="4"/>
+      <c r="Q89" s="4"/>
+      <c r="R89" s="4"/>
+      <c r="S89" s="4"/>
+      <c r="T89" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="U89" s="4"/>
+      <c r="V89" s="4"/>
+      <c r="W89" s="4"/>
+    </row>
+    <row r="90" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A90" s="7">
+        <v>89</v>
+      </c>
+      <c r="B90" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C90" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D90" s="9">
+        <v>101</v>
+      </c>
+      <c r="E90" s="7">
+        <v>0</v>
+      </c>
+      <c r="F90" s="7">
+        <v>5</v>
+      </c>
+      <c r="G90" s="7">
+        <v>5</v>
+      </c>
+      <c r="H90" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I90" s="7">
+        <v>5</v>
+      </c>
+      <c r="J90" s="7"/>
+      <c r="K90" s="7"/>
+      <c r="L90" s="7"/>
+      <c r="M90" s="7"/>
+      <c r="N90" s="7"/>
+      <c r="O90" s="7"/>
+      <c r="P90" s="7"/>
+      <c r="Q90" s="7"/>
+      <c r="R90" s="7"/>
+      <c r="S90" s="7"/>
+      <c r="T90" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="U90" s="7"/>
+      <c r="V90" s="7"/>
+      <c r="W90" s="7"/>
+    </row>
+    <row r="91" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A91" s="4">
+        <v>90</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C91" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D91" s="6">
+        <v>101</v>
+      </c>
+      <c r="E91" s="4">
+        <v>0</v>
+      </c>
+      <c r="F91" s="4">
+        <v>5</v>
+      </c>
+      <c r="G91" s="4">
+        <v>6</v>
+      </c>
+      <c r="H91" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I91" s="4">
+        <v>5</v>
+      </c>
+      <c r="J91" s="4"/>
+      <c r="K91" s="4"/>
+      <c r="L91" s="4"/>
+      <c r="M91" s="4"/>
+      <c r="N91" s="4"/>
+      <c r="O91" s="4"/>
+      <c r="P91" s="4"/>
+      <c r="Q91" s="4"/>
+      <c r="R91" s="4"/>
+      <c r="S91" s="4"/>
+      <c r="T91" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="U91" s="4"/>
+      <c r="V91" s="4"/>
+      <c r="W91" s="4"/>
+    </row>
+    <row r="92" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A92" s="7">
+        <v>91</v>
+      </c>
+      <c r="B92" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C92" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D92" s="9">
+        <v>101</v>
+      </c>
+      <c r="E92" s="7">
+        <v>0</v>
+      </c>
+      <c r="F92" s="7">
+        <v>5</v>
+      </c>
+      <c r="G92" s="7">
+        <v>7</v>
+      </c>
+      <c r="H92" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I92" s="7">
+        <v>5</v>
+      </c>
+      <c r="J92" s="7"/>
+      <c r="K92" s="7"/>
+      <c r="L92" s="7"/>
+      <c r="M92" s="7"/>
+      <c r="N92" s="7"/>
+      <c r="O92" s="7"/>
+      <c r="P92" s="7"/>
+      <c r="Q92" s="7"/>
+      <c r="R92" s="7"/>
+      <c r="S92" s="7"/>
+      <c r="T92" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="U92" s="7"/>
+      <c r="V92" s="7"/>
+      <c r="W92" s="7"/>
+    </row>
+    <row r="93" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A93" s="4">
+        <v>92</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C93" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D93" s="6">
+        <v>101</v>
+      </c>
+      <c r="E93" s="4">
+        <v>0</v>
+      </c>
+      <c r="F93" s="4">
+        <v>5</v>
+      </c>
+      <c r="G93" s="4">
+        <v>8</v>
+      </c>
+      <c r="H93" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I93" s="4">
+        <v>5</v>
+      </c>
+      <c r="J93" s="4"/>
+      <c r="K93" s="4"/>
+      <c r="L93" s="4"/>
+      <c r="M93" s="4"/>
+      <c r="N93" s="4"/>
+      <c r="O93" s="4"/>
+      <c r="P93" s="4"/>
+      <c r="Q93" s="4"/>
+      <c r="R93" s="4"/>
+      <c r="S93" s="4"/>
+      <c r="T93" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="U93" s="4"/>
+      <c r="V93" s="4"/>
+      <c r="W93" s="4"/>
+    </row>
+    <row r="94" ht="30.5" customHeight="1" spans="1:23">
+      <c r="A94" s="7">
+        <v>93</v>
+      </c>
+      <c r="B94" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C94" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D94" s="9">
+        <v>101</v>
+      </c>
+      <c r="E94" s="7">
+        <v>1</v>
+      </c>
+      <c r="F94" s="7">
+        <v>5</v>
+      </c>
+      <c r="G94" s="7">
+        <v>9</v>
+      </c>
+      <c r="H94" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="I94" s="7">
+        <v>1</v>
+      </c>
+      <c r="J94" s="7"/>
+      <c r="K94" s="7"/>
+      <c r="L94" s="7"/>
+      <c r="M94" s="7"/>
+      <c r="N94" s="7"/>
+      <c r="O94" s="7"/>
+      <c r="P94" s="7"/>
+      <c r="Q94" s="7"/>
+      <c r="R94" s="7"/>
+      <c r="S94" s="7"/>
+      <c r="T94" s="8"/>
+      <c r="U94" s="7"/>
+      <c r="V94" s="7"/>
+      <c r="W94" s="7"/>
+    </row>
+    <row r="95" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A95" s="4">
+        <v>94</v>
+      </c>
+      <c r="B95" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C95" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D95" s="6">
+        <v>2</v>
+      </c>
+      <c r="E95" s="4">
+        <v>0</v>
+      </c>
+      <c r="F95" s="4">
+        <v>0</v>
+      </c>
+      <c r="G95" s="4">
+        <v>0</v>
+      </c>
+      <c r="H95" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I95" s="4">
+        <v>5</v>
+      </c>
+      <c r="J95" s="4"/>
+      <c r="K95" s="4"/>
+      <c r="L95" s="4"/>
+      <c r="M95" s="4"/>
+      <c r="N95" s="4"/>
+      <c r="O95" s="4"/>
+      <c r="P95" s="4"/>
+      <c r="Q95" s="4"/>
+      <c r="R95" s="4"/>
+      <c r="S95" s="4"/>
+      <c r="T95" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="U95" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="V95" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="W95" s="4"/>
+    </row>
+    <row r="96" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A96" s="7">
+        <v>95</v>
+      </c>
+      <c r="B96" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C96" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D96" s="9">
+        <v>2</v>
+      </c>
+      <c r="E96" s="7">
+        <v>0</v>
+      </c>
+      <c r="F96" s="7">
+        <v>1</v>
+      </c>
+      <c r="G96" s="7">
+        <v>1</v>
+      </c>
+      <c r="H96" s="9">
+        <v>1</v>
+      </c>
+      <c r="I96" s="7">
+        <v>5</v>
+      </c>
+      <c r="J96" s="7"/>
+      <c r="K96" s="7"/>
+      <c r="L96" s="7"/>
+      <c r="M96" s="7"/>
+      <c r="N96" s="7"/>
+      <c r="O96" s="7"/>
+      <c r="P96" s="7"/>
+      <c r="Q96" s="7"/>
+      <c r="R96" s="7"/>
+      <c r="S96" s="7"/>
+      <c r="T96" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="U96" s="7"/>
+      <c r="V96" s="7"/>
+      <c r="W96" s="7"/>
+    </row>
+    <row r="97" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A97" s="4">
+        <v>96</v>
+      </c>
+      <c r="B97" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C97" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D97" s="6">
+        <v>2</v>
+      </c>
+      <c r="E97" s="4">
+        <v>0</v>
+      </c>
+      <c r="F97" s="4">
+        <v>1</v>
+      </c>
+      <c r="G97" s="4">
+        <v>2</v>
+      </c>
+      <c r="H97" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I97" s="4">
+        <v>5</v>
+      </c>
+      <c r="J97" s="4"/>
+      <c r="K97" s="4"/>
+      <c r="L97" s="4"/>
+      <c r="M97" s="4"/>
+      <c r="N97" s="4"/>
+      <c r="O97" s="4"/>
+      <c r="P97" s="4"/>
+      <c r="Q97" s="4"/>
+      <c r="R97" s="4"/>
+      <c r="S97" s="4"/>
+      <c r="T97" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="U97" s="4"/>
+      <c r="V97" s="4"/>
+      <c r="W97" s="4"/>
+    </row>
+    <row r="98" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A98" s="7">
+        <v>97</v>
+      </c>
+      <c r="B98" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C98" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D98" s="9">
+        <v>2</v>
+      </c>
+      <c r="E98" s="7">
+        <v>0</v>
+      </c>
+      <c r="F98" s="7">
+        <v>1</v>
+      </c>
+      <c r="G98" s="7">
+        <v>3</v>
+      </c>
+      <c r="H98" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I98" s="7">
+        <v>5</v>
+      </c>
+      <c r="J98" s="7"/>
+      <c r="K98" s="7"/>
+      <c r="L98" s="7"/>
+      <c r="M98" s="7"/>
+      <c r="N98" s="7"/>
+      <c r="O98" s="7"/>
+      <c r="P98" s="7"/>
+      <c r="Q98" s="7"/>
+      <c r="R98" s="7"/>
+      <c r="S98" s="7"/>
+      <c r="T98" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="U98" s="7"/>
+      <c r="V98" s="7"/>
+      <c r="W98" s="7"/>
+    </row>
+    <row r="99" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A99" s="4">
+        <v>98</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C99" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D99" s="6">
+        <v>2</v>
+      </c>
+      <c r="E99" s="4">
+        <v>0</v>
+      </c>
+      <c r="F99" s="4">
+        <v>1</v>
+      </c>
+      <c r="G99" s="4">
+        <v>4</v>
+      </c>
+      <c r="H99" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I99" s="4">
+        <v>5</v>
+      </c>
+      <c r="J99" s="4"/>
+      <c r="K99" s="4"/>
+      <c r="L99" s="4"/>
+      <c r="M99" s="4"/>
+      <c r="N99" s="4"/>
+      <c r="O99" s="4"/>
+      <c r="P99" s="4"/>
+      <c r="Q99" s="4"/>
+      <c r="R99" s="4"/>
+      <c r="S99" s="4"/>
+      <c r="T99" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="U99" s="4"/>
+      <c r="V99" s="4"/>
+      <c r="W99" s="4"/>
+    </row>
+    <row r="100" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A100" s="7">
+        <v>99</v>
+      </c>
+      <c r="B100" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C100" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D100" s="9">
+        <v>2</v>
+      </c>
+      <c r="E100" s="7">
+        <v>0</v>
+      </c>
+      <c r="F100" s="7">
+        <v>1</v>
+      </c>
+      <c r="G100" s="7">
+        <v>5</v>
+      </c>
+      <c r="H100" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I100" s="7">
+        <v>5</v>
+      </c>
+      <c r="J100" s="7"/>
+      <c r="K100" s="7"/>
+      <c r="L100" s="7"/>
+      <c r="M100" s="7"/>
+      <c r="N100" s="7"/>
+      <c r="O100" s="7"/>
+      <c r="P100" s="7"/>
+      <c r="Q100" s="7"/>
+      <c r="R100" s="7"/>
+      <c r="S100" s="7"/>
+      <c r="T100" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="U100" s="7"/>
+      <c r="V100" s="7"/>
+      <c r="W100" s="7"/>
+    </row>
+    <row r="101" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A101" s="4">
+        <v>100</v>
+      </c>
+      <c r="B101" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C101" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D101" s="6">
+        <v>2</v>
+      </c>
+      <c r="E101" s="4">
+        <v>0</v>
+      </c>
+      <c r="F101" s="4">
+        <v>1</v>
+      </c>
+      <c r="G101" s="4">
+        <v>6</v>
+      </c>
+      <c r="H101" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I101" s="4">
+        <v>5</v>
+      </c>
+      <c r="J101" s="4"/>
+      <c r="K101" s="4"/>
+      <c r="L101" s="4"/>
+      <c r="M101" s="4"/>
+      <c r="N101" s="4"/>
+      <c r="O101" s="4"/>
+      <c r="P101" s="4"/>
+      <c r="Q101" s="4"/>
+      <c r="R101" s="4"/>
+      <c r="S101" s="4"/>
+      <c r="T101" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="U101" s="4"/>
+      <c r="V101" s="4"/>
+      <c r="W101" s="4"/>
+    </row>
+    <row r="102" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A102" s="7">
+        <v>101</v>
+      </c>
+      <c r="B102" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C102" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D102" s="9">
+        <v>2</v>
+      </c>
+      <c r="E102" s="7">
+        <v>0</v>
+      </c>
+      <c r="F102" s="7">
+        <v>1</v>
+      </c>
+      <c r="G102" s="7">
+        <v>7</v>
+      </c>
+      <c r="H102" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I102" s="7">
+        <v>5</v>
+      </c>
+      <c r="J102" s="7"/>
+      <c r="K102" s="7"/>
+      <c r="L102" s="7"/>
+      <c r="M102" s="7"/>
+      <c r="N102" s="7"/>
+      <c r="O102" s="7"/>
+      <c r="P102" s="7"/>
+      <c r="Q102" s="7"/>
+      <c r="R102" s="7"/>
+      <c r="S102" s="7"/>
+      <c r="T102" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="U102" s="7"/>
+      <c r="V102" s="7"/>
+      <c r="W102" s="7"/>
+    </row>
+    <row r="103" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A103" s="4">
+        <v>102</v>
+      </c>
+      <c r="B103" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="T47" s="13"/>
-      <c r="U47" s="13"/>
-      <c r="V47" s="25"/>
-    </row>
-    <row r="48" customFormat="1" ht="30.5" customHeight="1" spans="1:22">
-      <c r="A48" s="17">
+      <c r="C103" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D103" s="6">
+        <v>2</v>
+      </c>
+      <c r="E103" s="4">
+        <v>0</v>
+      </c>
+      <c r="F103" s="4">
+        <v>1</v>
+      </c>
+      <c r="G103" s="4">
+        <v>8</v>
+      </c>
+      <c r="H103" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I103" s="4">
+        <v>5</v>
+      </c>
+      <c r="J103" s="4"/>
+      <c r="K103" s="4"/>
+      <c r="L103" s="4"/>
+      <c r="M103" s="4"/>
+      <c r="N103" s="4"/>
+      <c r="O103" s="4"/>
+      <c r="P103" s="4"/>
+      <c r="Q103" s="4"/>
+      <c r="R103" s="4"/>
+      <c r="S103" s="4"/>
+      <c r="T103" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="U103" s="4"/>
+      <c r="V103" s="4"/>
+      <c r="W103" s="4"/>
+    </row>
+    <row r="104" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A104" s="7">
+        <v>103</v>
+      </c>
+      <c r="B104" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C104" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="D104" s="9">
+        <v>2</v>
+      </c>
+      <c r="E104" s="7">
+        <v>1</v>
+      </c>
+      <c r="F104" s="7">
+        <v>1</v>
+      </c>
+      <c r="G104" s="7">
+        <v>9</v>
+      </c>
+      <c r="H104" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="I104" s="7">
+        <v>1</v>
+      </c>
+      <c r="J104" s="7"/>
+      <c r="K104" s="7"/>
+      <c r="L104" s="7"/>
+      <c r="M104" s="7"/>
+      <c r="N104" s="7"/>
+      <c r="O104" s="7"/>
+      <c r="P104" s="7"/>
+      <c r="Q104" s="7"/>
+      <c r="R104" s="7"/>
+      <c r="S104" s="7"/>
+      <c r="T104" s="8"/>
+      <c r="U104" s="7"/>
+      <c r="V104" s="7"/>
+      <c r="W104" s="7"/>
+    </row>
+    <row r="105" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A105" s="4">
+        <v>104</v>
+      </c>
+      <c r="B105" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C105" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D105" s="6">
+        <v>2</v>
+      </c>
+      <c r="E105" s="4">
+        <v>0</v>
+      </c>
+      <c r="F105" s="4">
+        <v>2</v>
+      </c>
+      <c r="G105" s="4">
+        <v>1</v>
+      </c>
+      <c r="H105" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I105" s="4">
+        <v>5</v>
+      </c>
+      <c r="J105" s="4"/>
+      <c r="K105" s="4"/>
+      <c r="L105" s="4"/>
+      <c r="M105" s="4"/>
+      <c r="N105" s="4"/>
+      <c r="O105" s="4"/>
+      <c r="P105" s="4"/>
+      <c r="Q105" s="4"/>
+      <c r="R105" s="4"/>
+      <c r="S105" s="4"/>
+      <c r="T105" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="U105" s="4"/>
+      <c r="V105" s="4"/>
+      <c r="W105" s="4"/>
+    </row>
+    <row r="106" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A106" s="7">
+        <v>105</v>
+      </c>
+      <c r="B106" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C106" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D106" s="9">
+        <v>2</v>
+      </c>
+      <c r="E106" s="7">
+        <v>0</v>
+      </c>
+      <c r="F106" s="7">
+        <v>2</v>
+      </c>
+      <c r="G106" s="7">
+        <v>2</v>
+      </c>
+      <c r="H106" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I106" s="7">
+        <v>5</v>
+      </c>
+      <c r="J106" s="7"/>
+      <c r="K106" s="7"/>
+      <c r="L106" s="7"/>
+      <c r="M106" s="7"/>
+      <c r="N106" s="7"/>
+      <c r="O106" s="7"/>
+      <c r="P106" s="7"/>
+      <c r="Q106" s="7"/>
+      <c r="R106" s="7"/>
+      <c r="S106" s="7"/>
+      <c r="T106" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="U106" s="7"/>
+      <c r="V106" s="7"/>
+      <c r="W106" s="7"/>
+    </row>
+    <row r="107" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A107" s="4">
+        <v>106</v>
+      </c>
+      <c r="B107" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C107" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D107" s="6">
+        <v>2</v>
+      </c>
+      <c r="E107" s="4">
+        <v>0</v>
+      </c>
+      <c r="F107" s="4">
+        <v>2</v>
+      </c>
+      <c r="G107" s="4">
+        <v>3</v>
+      </c>
+      <c r="H107" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I107" s="4">
+        <v>5</v>
+      </c>
+      <c r="J107" s="4"/>
+      <c r="K107" s="4"/>
+      <c r="L107" s="4"/>
+      <c r="M107" s="4"/>
+      <c r="N107" s="4"/>
+      <c r="O107" s="4"/>
+      <c r="P107" s="4"/>
+      <c r="Q107" s="4"/>
+      <c r="R107" s="4"/>
+      <c r="S107" s="4"/>
+      <c r="T107" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="U107" s="4"/>
+      <c r="V107" s="4"/>
+      <c r="W107" s="4"/>
+    </row>
+    <row r="108" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A108" s="7">
+        <v>107</v>
+      </c>
+      <c r="B108" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C108" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D108" s="9">
+        <v>2</v>
+      </c>
+      <c r="E108" s="7">
+        <v>0</v>
+      </c>
+      <c r="F108" s="7">
+        <v>2</v>
+      </c>
+      <c r="G108" s="7">
+        <v>4</v>
+      </c>
+      <c r="H108" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I108" s="7">
+        <v>5</v>
+      </c>
+      <c r="J108" s="7"/>
+      <c r="K108" s="7"/>
+      <c r="L108" s="7"/>
+      <c r="M108" s="7"/>
+      <c r="N108" s="7"/>
+      <c r="O108" s="7"/>
+      <c r="P108" s="7"/>
+      <c r="Q108" s="7"/>
+      <c r="R108" s="7"/>
+      <c r="S108" s="7"/>
+      <c r="T108" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="U108" s="7"/>
+      <c r="V108" s="7"/>
+      <c r="W108" s="7"/>
+    </row>
+    <row r="109" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A109" s="4">
+        <v>108</v>
+      </c>
+      <c r="B109" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C109" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D109" s="6">
+        <v>2</v>
+      </c>
+      <c r="E109" s="4">
+        <v>0</v>
+      </c>
+      <c r="F109" s="4">
+        <v>2</v>
+      </c>
+      <c r="G109" s="4">
+        <v>5</v>
+      </c>
+      <c r="H109" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I109" s="4">
+        <v>5</v>
+      </c>
+      <c r="J109" s="4"/>
+      <c r="K109" s="4"/>
+      <c r="L109" s="4"/>
+      <c r="M109" s="4"/>
+      <c r="N109" s="4"/>
+      <c r="O109" s="4"/>
+      <c r="P109" s="4"/>
+      <c r="Q109" s="4"/>
+      <c r="R109" s="4"/>
+      <c r="S109" s="4"/>
+      <c r="T109" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="U109" s="4"/>
+      <c r="V109" s="4"/>
+      <c r="W109" s="4"/>
+    </row>
+    <row r="110" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A110" s="7">
+        <v>109</v>
+      </c>
+      <c r="B110" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C110" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D110" s="9">
+        <v>2</v>
+      </c>
+      <c r="E110" s="7">
+        <v>0</v>
+      </c>
+      <c r="F110" s="7">
+        <v>2</v>
+      </c>
+      <c r="G110" s="7">
+        <v>6</v>
+      </c>
+      <c r="H110" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I110" s="7">
+        <v>5</v>
+      </c>
+      <c r="J110" s="7"/>
+      <c r="K110" s="7"/>
+      <c r="L110" s="7"/>
+      <c r="M110" s="7"/>
+      <c r="N110" s="7"/>
+      <c r="O110" s="7"/>
+      <c r="P110" s="7"/>
+      <c r="Q110" s="7"/>
+      <c r="R110" s="7"/>
+      <c r="S110" s="7"/>
+      <c r="T110" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="U110" s="7"/>
+      <c r="V110" s="7"/>
+      <c r="W110" s="7"/>
+    </row>
+    <row r="111" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A111" s="4">
+        <v>110</v>
+      </c>
+      <c r="B111" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C111" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B48" s="18" t="s">
+      <c r="D111" s="6">
+        <v>2</v>
+      </c>
+      <c r="E111" s="4">
+        <v>0</v>
+      </c>
+      <c r="F111" s="4">
+        <v>2</v>
+      </c>
+      <c r="G111" s="4">
+        <v>7</v>
+      </c>
+      <c r="H111" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I111" s="4">
+        <v>5</v>
+      </c>
+      <c r="J111" s="4"/>
+      <c r="K111" s="4"/>
+      <c r="L111" s="4"/>
+      <c r="M111" s="4"/>
+      <c r="N111" s="4"/>
+      <c r="O111" s="4"/>
+      <c r="P111" s="4"/>
+      <c r="Q111" s="4"/>
+      <c r="R111" s="4"/>
+      <c r="S111" s="4"/>
+      <c r="T111" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="U111" s="4"/>
+      <c r="V111" s="4"/>
+      <c r="W111" s="4"/>
+    </row>
+    <row r="112" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A112" s="7">
+        <v>111</v>
+      </c>
+      <c r="B112" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C112" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D112" s="9">
+        <v>2</v>
+      </c>
+      <c r="E112" s="7">
+        <v>0</v>
+      </c>
+      <c r="F112" s="7">
+        <v>2</v>
+      </c>
+      <c r="G112" s="7">
+        <v>8</v>
+      </c>
+      <c r="H112" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I112" s="7">
+        <v>5</v>
+      </c>
+      <c r="J112" s="7"/>
+      <c r="K112" s="7"/>
+      <c r="L112" s="7"/>
+      <c r="M112" s="7"/>
+      <c r="N112" s="7"/>
+      <c r="O112" s="7"/>
+      <c r="P112" s="7"/>
+      <c r="Q112" s="7"/>
+      <c r="R112" s="7"/>
+      <c r="S112" s="7"/>
+      <c r="T112" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="U112" s="7"/>
+      <c r="V112" s="7"/>
+      <c r="W112" s="7"/>
+    </row>
+    <row r="113" ht="47" customHeight="1" spans="1:23">
+      <c r="A113" s="4">
+        <v>112</v>
+      </c>
+      <c r="B113" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C113" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="D113" s="6">
+        <v>2</v>
+      </c>
+      <c r="E113" s="4">
+        <v>1</v>
+      </c>
+      <c r="F113" s="4">
+        <v>2</v>
+      </c>
+      <c r="G113" s="4">
+        <v>9</v>
+      </c>
+      <c r="H113" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="I113" s="4">
+        <v>1</v>
+      </c>
+      <c r="J113" s="4"/>
+      <c r="K113" s="4"/>
+      <c r="L113" s="4"/>
+      <c r="M113" s="4"/>
+      <c r="N113" s="4"/>
+      <c r="O113" s="4"/>
+      <c r="P113" s="4"/>
+      <c r="Q113" s="4"/>
+      <c r="R113" s="4"/>
+      <c r="S113" s="4"/>
+      <c r="T113" s="5"/>
+      <c r="U113" s="4"/>
+      <c r="V113" s="4"/>
+      <c r="W113" s="4"/>
+    </row>
+    <row r="114" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A114" s="7">
+        <v>113</v>
+      </c>
+      <c r="B114" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C114" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D114" s="9">
+        <v>2</v>
+      </c>
+      <c r="E114" s="7">
+        <v>0</v>
+      </c>
+      <c r="F114" s="7">
+        <v>3</v>
+      </c>
+      <c r="G114" s="7">
+        <v>1</v>
+      </c>
+      <c r="H114" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I114" s="7">
+        <v>5</v>
+      </c>
+      <c r="J114" s="7"/>
+      <c r="K114" s="7"/>
+      <c r="L114" s="7"/>
+      <c r="M114" s="7"/>
+      <c r="N114" s="7"/>
+      <c r="O114" s="7"/>
+      <c r="P114" s="7"/>
+      <c r="Q114" s="7"/>
+      <c r="R114" s="7"/>
+      <c r="S114" s="7"/>
+      <c r="T114" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="U114" s="7"/>
+      <c r="V114" s="7"/>
+      <c r="W114" s="7"/>
+    </row>
+    <row r="115" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A115" s="4">
+        <v>114</v>
+      </c>
+      <c r="B115" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C115" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D115" s="6">
+        <v>2</v>
+      </c>
+      <c r="E115" s="4">
+        <v>0</v>
+      </c>
+      <c r="F115" s="4">
+        <v>3</v>
+      </c>
+      <c r="G115" s="4">
+        <v>2</v>
+      </c>
+      <c r="H115" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I115" s="4">
+        <v>5</v>
+      </c>
+      <c r="J115" s="4"/>
+      <c r="K115" s="4"/>
+      <c r="L115" s="4"/>
+      <c r="M115" s="4"/>
+      <c r="N115" s="4"/>
+      <c r="O115" s="4"/>
+      <c r="P115" s="4"/>
+      <c r="Q115" s="4"/>
+      <c r="R115" s="4"/>
+      <c r="S115" s="4"/>
+      <c r="T115" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="U115" s="4"/>
+      <c r="V115" s="4"/>
+      <c r="W115" s="4"/>
+    </row>
+    <row r="116" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A116" s="7">
+        <v>115</v>
+      </c>
+      <c r="B116" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C116" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D116" s="9">
+        <v>2</v>
+      </c>
+      <c r="E116" s="7">
+        <v>0</v>
+      </c>
+      <c r="F116" s="7">
+        <v>3</v>
+      </c>
+      <c r="G116" s="7">
+        <v>3</v>
+      </c>
+      <c r="H116" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I116" s="7">
+        <v>5</v>
+      </c>
+      <c r="J116" s="7"/>
+      <c r="K116" s="7"/>
+      <c r="L116" s="7"/>
+      <c r="M116" s="7"/>
+      <c r="N116" s="7"/>
+      <c r="O116" s="7"/>
+      <c r="P116" s="7"/>
+      <c r="Q116" s="7"/>
+      <c r="R116" s="7"/>
+      <c r="S116" s="7"/>
+      <c r="T116" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="U116" s="7"/>
+      <c r="V116" s="7"/>
+      <c r="W116" s="7"/>
+    </row>
+    <row r="117" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A117" s="4">
+        <v>116</v>
+      </c>
+      <c r="B117" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C117" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D117" s="6">
+        <v>2</v>
+      </c>
+      <c r="E117" s="4">
+        <v>0</v>
+      </c>
+      <c r="F117" s="4">
+        <v>3</v>
+      </c>
+      <c r="G117" s="4">
+        <v>4</v>
+      </c>
+      <c r="H117" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I117" s="4">
+        <v>5</v>
+      </c>
+      <c r="J117" s="4"/>
+      <c r="K117" s="4"/>
+      <c r="L117" s="4"/>
+      <c r="M117" s="4"/>
+      <c r="N117" s="4"/>
+      <c r="O117" s="4"/>
+      <c r="P117" s="4"/>
+      <c r="Q117" s="4"/>
+      <c r="R117" s="4"/>
+      <c r="S117" s="4"/>
+      <c r="T117" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="U117" s="4"/>
+      <c r="V117" s="4"/>
+      <c r="W117" s="4"/>
+    </row>
+    <row r="118" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A118" s="7">
+        <v>117</v>
+      </c>
+      <c r="B118" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C118" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D118" s="9">
+        <v>2</v>
+      </c>
+      <c r="E118" s="7">
+        <v>0</v>
+      </c>
+      <c r="F118" s="7">
+        <v>3</v>
+      </c>
+      <c r="G118" s="7">
+        <v>5</v>
+      </c>
+      <c r="H118" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I118" s="7">
+        <v>5</v>
+      </c>
+      <c r="J118" s="7"/>
+      <c r="K118" s="7"/>
+      <c r="L118" s="7"/>
+      <c r="M118" s="7"/>
+      <c r="N118" s="7"/>
+      <c r="O118" s="7"/>
+      <c r="P118" s="7"/>
+      <c r="Q118" s="7"/>
+      <c r="R118" s="7"/>
+      <c r="S118" s="7"/>
+      <c r="T118" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="U118" s="7"/>
+      <c r="V118" s="7"/>
+      <c r="W118" s="7"/>
+    </row>
+    <row r="119" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A119" s="4">
+        <v>118</v>
+      </c>
+      <c r="B119" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C119" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D119" s="6">
+        <v>2</v>
+      </c>
+      <c r="E119" s="4">
+        <v>0</v>
+      </c>
+      <c r="F119" s="4">
+        <v>3</v>
+      </c>
+      <c r="G119" s="4">
+        <v>6</v>
+      </c>
+      <c r="H119" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I119" s="4">
+        <v>5</v>
+      </c>
+      <c r="J119" s="4"/>
+      <c r="K119" s="4"/>
+      <c r="L119" s="4"/>
+      <c r="M119" s="4"/>
+      <c r="N119" s="4"/>
+      <c r="O119" s="4"/>
+      <c r="P119" s="4"/>
+      <c r="Q119" s="4"/>
+      <c r="R119" s="4"/>
+      <c r="S119" s="4"/>
+      <c r="T119" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="U119" s="4"/>
+      <c r="V119" s="4"/>
+      <c r="W119" s="4"/>
+    </row>
+    <row r="120" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A120" s="7">
+        <v>119</v>
+      </c>
+      <c r="B120" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C120" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D120" s="9">
+        <v>2</v>
+      </c>
+      <c r="E120" s="7">
+        <v>0</v>
+      </c>
+      <c r="F120" s="7">
+        <v>3</v>
+      </c>
+      <c r="G120" s="7">
+        <v>7</v>
+      </c>
+      <c r="H120" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I120" s="7">
+        <v>5</v>
+      </c>
+      <c r="J120" s="7"/>
+      <c r="K120" s="7"/>
+      <c r="L120" s="7"/>
+      <c r="M120" s="7"/>
+      <c r="N120" s="7"/>
+      <c r="O120" s="7"/>
+      <c r="P120" s="7"/>
+      <c r="Q120" s="7"/>
+      <c r="R120" s="7"/>
+      <c r="S120" s="7"/>
+      <c r="T120" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="U120" s="7"/>
+      <c r="V120" s="7"/>
+      <c r="W120" s="7"/>
+    </row>
+    <row r="121" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A121" s="4">
+        <v>120</v>
+      </c>
+      <c r="B121" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C121" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D121" s="6">
+        <v>2</v>
+      </c>
+      <c r="E121" s="4">
+        <v>0</v>
+      </c>
+      <c r="F121" s="4">
+        <v>3</v>
+      </c>
+      <c r="G121" s="4">
+        <v>8</v>
+      </c>
+      <c r="H121" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I121" s="4">
+        <v>5</v>
+      </c>
+      <c r="J121" s="4"/>
+      <c r="K121" s="4"/>
+      <c r="L121" s="4"/>
+      <c r="M121" s="4"/>
+      <c r="N121" s="4"/>
+      <c r="O121" s="4"/>
+      <c r="P121" s="4"/>
+      <c r="Q121" s="4"/>
+      <c r="R121" s="4"/>
+      <c r="S121" s="4"/>
+      <c r="T121" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="U121" s="4"/>
+      <c r="V121" s="4"/>
+      <c r="W121" s="4"/>
+    </row>
+    <row r="122" customFormat="1" ht="47" customHeight="1" spans="1:23">
+      <c r="A122" s="7">
+        <v>121</v>
+      </c>
+      <c r="B122" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C122" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="D122" s="9">
+        <v>2</v>
+      </c>
+      <c r="E122" s="7">
+        <v>1</v>
+      </c>
+      <c r="F122" s="7">
+        <v>3</v>
+      </c>
+      <c r="G122" s="7">
+        <v>9</v>
+      </c>
+      <c r="H122" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="I122" s="7">
+        <v>1</v>
+      </c>
+      <c r="J122" s="7"/>
+      <c r="K122" s="7"/>
+      <c r="L122" s="7"/>
+      <c r="M122" s="7"/>
+      <c r="N122" s="7"/>
+      <c r="O122" s="7"/>
+      <c r="P122" s="7"/>
+      <c r="Q122" s="7"/>
+      <c r="R122" s="7"/>
+      <c r="S122" s="7"/>
+      <c r="T122" s="8"/>
+      <c r="U122" s="7"/>
+      <c r="V122" s="7"/>
+      <c r="W122" s="7"/>
+    </row>
+    <row r="123" customFormat="1" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A123" s="4">
+        <v>122</v>
+      </c>
+      <c r="B123" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C123" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D123" s="6">
+        <v>2</v>
+      </c>
+      <c r="E123" s="4">
+        <v>0</v>
+      </c>
+      <c r="F123" s="4">
+        <v>4</v>
+      </c>
+      <c r="G123" s="4">
+        <v>1</v>
+      </c>
+      <c r="H123" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I123" s="4">
+        <v>5</v>
+      </c>
+      <c r="J123" s="4"/>
+      <c r="K123" s="4"/>
+      <c r="L123" s="4"/>
+      <c r="M123" s="4"/>
+      <c r="N123" s="4"/>
+      <c r="O123" s="4"/>
+      <c r="P123" s="4"/>
+      <c r="Q123" s="4"/>
+      <c r="R123" s="4"/>
+      <c r="S123" s="4"/>
+      <c r="T123" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="U123" s="4"/>
+      <c r="V123" s="4"/>
+      <c r="W123" s="4"/>
+    </row>
+    <row r="124" customFormat="1" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A124" s="7">
+        <v>123</v>
+      </c>
+      <c r="B124" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C124" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D124" s="9">
+        <v>2</v>
+      </c>
+      <c r="E124" s="7">
+        <v>0</v>
+      </c>
+      <c r="F124" s="7">
+        <v>4</v>
+      </c>
+      <c r="G124" s="7">
+        <v>2</v>
+      </c>
+      <c r="H124" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I124" s="7">
+        <v>5</v>
+      </c>
+      <c r="J124" s="7"/>
+      <c r="K124" s="7"/>
+      <c r="L124" s="7"/>
+      <c r="M124" s="7"/>
+      <c r="N124" s="7"/>
+      <c r="O124" s="7"/>
+      <c r="P124" s="7"/>
+      <c r="Q124" s="7"/>
+      <c r="R124" s="7"/>
+      <c r="S124" s="7"/>
+      <c r="T124" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="U124" s="7"/>
+      <c r="V124" s="7"/>
+      <c r="W124" s="7"/>
+    </row>
+    <row r="125" customFormat="1" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A125" s="4">
+        <v>124</v>
+      </c>
+      <c r="B125" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C125" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D125" s="6">
+        <v>2</v>
+      </c>
+      <c r="E125" s="4">
+        <v>0</v>
+      </c>
+      <c r="F125" s="4">
+        <v>4</v>
+      </c>
+      <c r="G125" s="4">
+        <v>3</v>
+      </c>
+      <c r="H125" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I125" s="4">
+        <v>5</v>
+      </c>
+      <c r="J125" s="4"/>
+      <c r="K125" s="4"/>
+      <c r="L125" s="4"/>
+      <c r="M125" s="4"/>
+      <c r="N125" s="4"/>
+      <c r="O125" s="4"/>
+      <c r="P125" s="4"/>
+      <c r="Q125" s="4"/>
+      <c r="R125" s="4"/>
+      <c r="S125" s="4"/>
+      <c r="T125" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="U125" s="4"/>
+      <c r="V125" s="4"/>
+      <c r="W125" s="4"/>
+    </row>
+    <row r="126" customFormat="1" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A126" s="7">
+        <v>125</v>
+      </c>
+      <c r="B126" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C126" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D126" s="9">
+        <v>2</v>
+      </c>
+      <c r="E126" s="7">
+        <v>0</v>
+      </c>
+      <c r="F126" s="7">
+        <v>4</v>
+      </c>
+      <c r="G126" s="7">
+        <v>4</v>
+      </c>
+      <c r="H126" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I126" s="7">
+        <v>5</v>
+      </c>
+      <c r="J126" s="7"/>
+      <c r="K126" s="7"/>
+      <c r="L126" s="7"/>
+      <c r="M126" s="7"/>
+      <c r="N126" s="7"/>
+      <c r="O126" s="7"/>
+      <c r="P126" s="7"/>
+      <c r="Q126" s="7"/>
+      <c r="R126" s="7"/>
+      <c r="S126" s="7"/>
+      <c r="T126" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="U126" s="7"/>
+      <c r="V126" s="7"/>
+      <c r="W126" s="7"/>
+    </row>
+    <row r="127" customFormat="1" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A127" s="4">
+        <v>126</v>
+      </c>
+      <c r="B127" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C127" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D127" s="6">
+        <v>2</v>
+      </c>
+      <c r="E127" s="4">
+        <v>0</v>
+      </c>
+      <c r="F127" s="4">
+        <v>4</v>
+      </c>
+      <c r="G127" s="4">
+        <v>5</v>
+      </c>
+      <c r="H127" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I127" s="4">
+        <v>5</v>
+      </c>
+      <c r="J127" s="4"/>
+      <c r="K127" s="4"/>
+      <c r="L127" s="4"/>
+      <c r="M127" s="4"/>
+      <c r="N127" s="4"/>
+      <c r="O127" s="4"/>
+      <c r="P127" s="4"/>
+      <c r="Q127" s="4"/>
+      <c r="R127" s="4"/>
+      <c r="S127" s="4"/>
+      <c r="T127" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="U127" s="4"/>
+      <c r="V127" s="4"/>
+      <c r="W127" s="4"/>
+    </row>
+    <row r="128" customFormat="1" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A128" s="7">
+        <v>127</v>
+      </c>
+      <c r="B128" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C128" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D128" s="9">
+        <v>2</v>
+      </c>
+      <c r="E128" s="7">
+        <v>0</v>
+      </c>
+      <c r="F128" s="7">
+        <v>4</v>
+      </c>
+      <c r="G128" s="7">
+        <v>6</v>
+      </c>
+      <c r="H128" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I128" s="7">
+        <v>5</v>
+      </c>
+      <c r="J128" s="7"/>
+      <c r="K128" s="7"/>
+      <c r="L128" s="7"/>
+      <c r="M128" s="7"/>
+      <c r="N128" s="7"/>
+      <c r="O128" s="7"/>
+      <c r="P128" s="7"/>
+      <c r="Q128" s="7"/>
+      <c r="R128" s="7"/>
+      <c r="S128" s="7"/>
+      <c r="T128" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="U128" s="7"/>
+      <c r="V128" s="7"/>
+      <c r="W128" s="7"/>
+    </row>
+    <row r="129" customFormat="1" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A129" s="4">
+        <v>128</v>
+      </c>
+      <c r="B129" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C129" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D129" s="6">
+        <v>2</v>
+      </c>
+      <c r="E129" s="4">
+        <v>0</v>
+      </c>
+      <c r="F129" s="4">
+        <v>4</v>
+      </c>
+      <c r="G129" s="4">
+        <v>7</v>
+      </c>
+      <c r="H129" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I129" s="4">
+        <v>5</v>
+      </c>
+      <c r="J129" s="4"/>
+      <c r="K129" s="4"/>
+      <c r="L129" s="4"/>
+      <c r="M129" s="4"/>
+      <c r="N129" s="4"/>
+      <c r="O129" s="4"/>
+      <c r="P129" s="4"/>
+      <c r="Q129" s="4"/>
+      <c r="R129" s="4"/>
+      <c r="S129" s="4"/>
+      <c r="T129" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="U129" s="4"/>
+      <c r="V129" s="4"/>
+      <c r="W129" s="4"/>
+    </row>
+    <row r="130" customFormat="1" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A130" s="7">
+        <v>129</v>
+      </c>
+      <c r="B130" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C130" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D130" s="9">
+        <v>2</v>
+      </c>
+      <c r="E130" s="7">
+        <v>0</v>
+      </c>
+      <c r="F130" s="7">
+        <v>4</v>
+      </c>
+      <c r="G130" s="7">
+        <v>8</v>
+      </c>
+      <c r="H130" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I130" s="7">
+        <v>5</v>
+      </c>
+      <c r="J130" s="7"/>
+      <c r="K130" s="7"/>
+      <c r="L130" s="7"/>
+      <c r="M130" s="7"/>
+      <c r="N130" s="7"/>
+      <c r="O130" s="7"/>
+      <c r="P130" s="7"/>
+      <c r="Q130" s="7"/>
+      <c r="R130" s="7"/>
+      <c r="S130" s="7"/>
+      <c r="T130" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="U130" s="7"/>
+      <c r="V130" s="7"/>
+      <c r="W130" s="7"/>
+    </row>
+    <row r="131" customFormat="1" ht="54" customHeight="1" spans="1:23">
+      <c r="A131" s="4">
+        <v>130</v>
+      </c>
+      <c r="B131" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C131" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D131" s="6">
+        <v>2</v>
+      </c>
+      <c r="E131" s="4">
+        <v>1</v>
+      </c>
+      <c r="F131" s="4">
+        <v>4</v>
+      </c>
+      <c r="G131" s="4">
+        <v>9</v>
+      </c>
+      <c r="H131" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="I131" s="4">
+        <v>1</v>
+      </c>
+      <c r="J131" s="4"/>
+      <c r="K131" s="4"/>
+      <c r="L131" s="4"/>
+      <c r="M131" s="4"/>
+      <c r="N131" s="4"/>
+      <c r="O131" s="4"/>
+      <c r="P131" s="4"/>
+      <c r="Q131" s="4"/>
+      <c r="R131" s="4"/>
+      <c r="S131" s="4"/>
+      <c r="T131" s="5"/>
+      <c r="U131" s="4"/>
+      <c r="V131" s="4"/>
+      <c r="W131" s="4"/>
+    </row>
+    <row r="132" customFormat="1" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A132" s="7">
+        <v>131</v>
+      </c>
+      <c r="B132" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C132" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D132" s="9">
+        <v>2</v>
+      </c>
+      <c r="E132" s="7">
+        <v>0</v>
+      </c>
+      <c r="F132" s="7">
+        <v>5</v>
+      </c>
+      <c r="G132" s="7">
+        <v>1</v>
+      </c>
+      <c r="H132" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I132" s="7">
+        <v>5</v>
+      </c>
+      <c r="J132" s="7"/>
+      <c r="K132" s="7"/>
+      <c r="L132" s="7"/>
+      <c r="M132" s="7"/>
+      <c r="N132" s="7"/>
+      <c r="O132" s="7"/>
+      <c r="P132" s="7"/>
+      <c r="Q132" s="7"/>
+      <c r="R132" s="7"/>
+      <c r="S132" s="7"/>
+      <c r="T132" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="U132" s="7"/>
+      <c r="V132" s="7"/>
+      <c r="W132" s="7"/>
+    </row>
+    <row r="133" customFormat="1" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A133" s="4">
+        <v>132</v>
+      </c>
+      <c r="B133" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C133" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D133" s="6">
+        <v>2</v>
+      </c>
+      <c r="E133" s="4">
+        <v>0</v>
+      </c>
+      <c r="F133" s="4">
+        <v>5</v>
+      </c>
+      <c r="G133" s="4">
+        <v>2</v>
+      </c>
+      <c r="H133" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I133" s="4">
+        <v>5</v>
+      </c>
+      <c r="J133" s="4"/>
+      <c r="K133" s="4"/>
+      <c r="L133" s="4"/>
+      <c r="M133" s="4"/>
+      <c r="N133" s="4"/>
+      <c r="O133" s="4"/>
+      <c r="P133" s="4"/>
+      <c r="Q133" s="4"/>
+      <c r="R133" s="4"/>
+      <c r="S133" s="4"/>
+      <c r="T133" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="U133" s="4"/>
+      <c r="V133" s="4"/>
+      <c r="W133" s="4"/>
+    </row>
+    <row r="134" customFormat="1" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A134" s="7">
+        <v>133</v>
+      </c>
+      <c r="B134" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C134" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D134" s="9">
+        <v>2</v>
+      </c>
+      <c r="E134" s="7">
+        <v>0</v>
+      </c>
+      <c r="F134" s="7">
+        <v>5</v>
+      </c>
+      <c r="G134" s="7">
+        <v>3</v>
+      </c>
+      <c r="H134" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I134" s="7">
+        <v>5</v>
+      </c>
+      <c r="J134" s="7"/>
+      <c r="K134" s="7"/>
+      <c r="L134" s="7"/>
+      <c r="M134" s="7"/>
+      <c r="N134" s="7"/>
+      <c r="O134" s="7"/>
+      <c r="P134" s="7"/>
+      <c r="Q134" s="7"/>
+      <c r="R134" s="7"/>
+      <c r="S134" s="7"/>
+      <c r="T134" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="U134" s="7"/>
+      <c r="V134" s="7"/>
+      <c r="W134" s="7"/>
+    </row>
+    <row r="135" customFormat="1" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A135" s="4">
+        <v>134</v>
+      </c>
+      <c r="B135" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C135" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D135" s="6">
+        <v>2</v>
+      </c>
+      <c r="E135" s="4">
+        <v>0</v>
+      </c>
+      <c r="F135" s="4">
+        <v>5</v>
+      </c>
+      <c r="G135" s="4">
+        <v>4</v>
+      </c>
+      <c r="H135" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I135" s="4">
+        <v>5</v>
+      </c>
+      <c r="J135" s="4"/>
+      <c r="K135" s="4"/>
+      <c r="L135" s="4"/>
+      <c r="M135" s="4"/>
+      <c r="N135" s="4"/>
+      <c r="O135" s="4"/>
+      <c r="P135" s="4"/>
+      <c r="Q135" s="4"/>
+      <c r="R135" s="4"/>
+      <c r="S135" s="4"/>
+      <c r="T135" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="U135" s="4"/>
+      <c r="V135" s="4"/>
+      <c r="W135" s="4"/>
+    </row>
+    <row r="136" customFormat="1" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A136" s="7">
+        <v>135</v>
+      </c>
+      <c r="B136" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C136" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D136" s="9">
+        <v>2</v>
+      </c>
+      <c r="E136" s="7">
+        <v>0</v>
+      </c>
+      <c r="F136" s="7">
+        <v>5</v>
+      </c>
+      <c r="G136" s="7">
+        <v>5</v>
+      </c>
+      <c r="H136" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I136" s="7">
+        <v>5</v>
+      </c>
+      <c r="J136" s="7"/>
+      <c r="K136" s="7"/>
+      <c r="L136" s="7"/>
+      <c r="M136" s="7"/>
+      <c r="N136" s="7"/>
+      <c r="O136" s="7"/>
+      <c r="P136" s="7"/>
+      <c r="Q136" s="7"/>
+      <c r="R136" s="7"/>
+      <c r="S136" s="7"/>
+      <c r="T136" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="U136" s="7"/>
+      <c r="V136" s="7"/>
+      <c r="W136" s="7"/>
+    </row>
+    <row r="137" customFormat="1" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A137" s="4">
+        <v>136</v>
+      </c>
+      <c r="B137" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="C48" s="19" t="s">
+      <c r="C137" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D137" s="6">
+        <v>2</v>
+      </c>
+      <c r="E137" s="4">
+        <v>0</v>
+      </c>
+      <c r="F137" s="4">
+        <v>5</v>
+      </c>
+      <c r="G137" s="4">
+        <v>6</v>
+      </c>
+      <c r="H137" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I137" s="4">
+        <v>5</v>
+      </c>
+      <c r="J137" s="4"/>
+      <c r="K137" s="4"/>
+      <c r="L137" s="4"/>
+      <c r="M137" s="4"/>
+      <c r="N137" s="4"/>
+      <c r="O137" s="4"/>
+      <c r="P137" s="4"/>
+      <c r="Q137" s="4"/>
+      <c r="R137" s="4"/>
+      <c r="S137" s="4"/>
+      <c r="T137" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="U137" s="4"/>
+      <c r="V137" s="4"/>
+      <c r="W137" s="4"/>
+    </row>
+    <row r="138" customFormat="1" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A138" s="7">
+        <v>137</v>
+      </c>
+      <c r="B138" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="D48" s="20">
-        <v>6</v>
-      </c>
-      <c r="E48" s="21">
+      <c r="C138" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D138" s="9">
+        <v>2</v>
+      </c>
+      <c r="E138" s="7">
+        <v>0</v>
+      </c>
+      <c r="F138" s="7">
+        <v>5</v>
+      </c>
+      <c r="G138" s="7">
+        <v>7</v>
+      </c>
+      <c r="H138" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I138" s="7">
+        <v>5</v>
+      </c>
+      <c r="J138" s="7"/>
+      <c r="K138" s="7"/>
+      <c r="L138" s="7"/>
+      <c r="M138" s="7"/>
+      <c r="N138" s="7"/>
+      <c r="O138" s="7"/>
+      <c r="P138" s="7"/>
+      <c r="Q138" s="7"/>
+      <c r="R138" s="7"/>
+      <c r="S138" s="7"/>
+      <c r="T138" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="U138" s="7"/>
+      <c r="V138" s="7"/>
+      <c r="W138" s="7"/>
+    </row>
+    <row r="139" customFormat="1" ht="63.5" customHeight="1" spans="1:23">
+      <c r="A139" s="4">
+        <v>138</v>
+      </c>
+      <c r="B139" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C139" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D139" s="6">
+        <v>2</v>
+      </c>
+      <c r="E139" s="4">
+        <v>0</v>
+      </c>
+      <c r="F139" s="4">
+        <v>5</v>
+      </c>
+      <c r="G139" s="4">
+        <v>8</v>
+      </c>
+      <c r="H139" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I139" s="4">
+        <v>5</v>
+      </c>
+      <c r="J139" s="4"/>
+      <c r="K139" s="4"/>
+      <c r="L139" s="4"/>
+      <c r="M139" s="4"/>
+      <c r="N139" s="4"/>
+      <c r="O139" s="4"/>
+      <c r="P139" s="4"/>
+      <c r="Q139" s="4"/>
+      <c r="R139" s="4"/>
+      <c r="S139" s="4"/>
+      <c r="T139" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="U139" s="4"/>
+      <c r="V139" s="4"/>
+      <c r="W139" s="4"/>
+    </row>
+    <row r="140" customFormat="1" ht="30.5" customHeight="1" spans="1:23">
+      <c r="A140" s="7">
+        <v>139</v>
+      </c>
+      <c r="B140" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C140" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D140" s="9">
+        <v>2</v>
+      </c>
+      <c r="E140" s="7">
         <v>1</v>
       </c>
-      <c r="F48" s="21">
-        <v>5</v>
-      </c>
-      <c r="G48" s="21">
+      <c r="F140" s="7">
+        <v>5</v>
+      </c>
+      <c r="G140" s="7">
         <v>9</v>
       </c>
-      <c r="H48" s="21">
+      <c r="H140" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="I140" s="7">
         <v>1</v>
       </c>
-      <c r="I48" s="21"/>
-      <c r="J48" s="21"/>
-      <c r="K48" s="21"/>
-      <c r="L48" s="21"/>
-      <c r="M48" s="21"/>
-      <c r="N48" s="21"/>
-      <c r="O48" s="21"/>
-      <c r="P48" s="21"/>
-      <c r="Q48" s="21"/>
-      <c r="R48" s="21"/>
-      <c r="S48" s="26"/>
-      <c r="T48" s="21"/>
-      <c r="U48" s="21"/>
-      <c r="V48" s="27"/>
+      <c r="J140" s="7"/>
+      <c r="K140" s="7"/>
+      <c r="L140" s="7"/>
+      <c r="M140" s="7"/>
+      <c r="N140" s="7"/>
+      <c r="O140" s="7"/>
+      <c r="P140" s="7"/>
+      <c r="Q140" s="7"/>
+      <c r="R140" s="7"/>
+      <c r="S140" s="7"/>
+      <c r="T140" s="8"/>
+      <c r="U140" s="7"/>
+      <c r="V140" s="7"/>
+      <c r="W140" s="7"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E$1:E$1048576">
+  <conditionalFormatting sqref="E49:E94">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E95:E140">
     <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E48 E141:E1048576">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4061,5 +9035,8 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <ignoredErrors>
+    <ignoredError sqref="H3" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/excels/config/server/hero/server_hero_talent.xlsx
+++ b/excels/config/server/hero/server_hero_talent.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23145" windowHeight="12375"/>
+    <workbookView windowHeight="17775"/>
   </bookViews>
   <sheets>
     <sheet name="server_talent_data" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="109">
   <si>
     <t>下标</t>
   </si>
@@ -383,6 +383,60 @@
   </si>
   <si>
     <t>【复仇】复仇状态下，生命恢复速度翻倍</t>
+  </si>
+  <si>
+    <t>【雷鸣】额外增加一个目标
+【寒风波】可分散单位增加2
+【炎龙】飞行距离增加300码</t>
+  </si>
+  <si>
+    <r>
+      <t>【元素缠绕】系列提升15%的暴击概率
+【雷电屏障】系列对小于40%生命值的敌人提高20%的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最终伤害</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>【元素轰炸】系列提升25%的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最终伤害</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+【法阵】系列持续时间增加3秒</t>
+    </r>
+  </si>
+  <si>
+    <t>【充沛】同时恢复等量生命值
+【盈能模式】开启盈能模式时，额外获得获得25%暴击概率和50%暴击伤害</t>
+  </si>
+  <si>
+    <t>【分身】分身存在时，自身增加10%移动速度</t>
   </si>
 </sst>
 </file>
@@ -395,7 +449,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -414,6 +468,19 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -560,8 +627,15 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="10"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -577,6 +651,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE6E6E6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -767,7 +847,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -880,6 +960,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color theme="1" tint="0.659993285927915"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.659993285927915"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.659993285927915"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.659993285927915"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color theme="0"/>
       </left>
@@ -928,6 +1023,21 @@
       <top/>
       <bottom style="thick">
         <color rgb="FF595959"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.659993285927915"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.659993285927915"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.659993285927915"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1049,137 +1159,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1246,23 +1356,32 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1628,31 +1747,31 @@
     </dxf>
   </dxfs>
   <tableStyles count="5" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{13A2B76E-68CF-4167-BCE9-49322BA5D7D0}">
+    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{AC3C6806-F1A9-4713-9486-DEACB7C4EA79}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
       <tableStyleElement type="firstColumnStripe" dxfId="1"/>
       <tableStyleElement type="secondColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{0172A851-D58C-4F48-9FF1-5147CA9BFE2A}">
+    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{68AB2550-778D-40D7-B57E-D2E54F09FDE9}">
       <tableStyleElement type="wholeTable" dxfId="9"/>
       <tableStyleElement type="headerRow" dxfId="8"/>
       <tableStyleElement type="totalRow" dxfId="7"/>
       <tableStyleElement type="firstRowStripe" dxfId="6"/>
       <tableStyleElement type="secondRowStripe" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{36B3F6DD-23ED-436D-8B3D-601078F021B2}">
+    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{57CAB4BD-8540-432C-A587-234AE8133B3E}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="firstRowStripe" dxfId="11"/>
       <tableStyleElement type="secondRowStripe" dxfId="10"/>
     </tableStyle>
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{DF879B16-9B03-4E7E-A292-67A4AF8BF59D}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{B190A1AE-4C12-4583-BAC1-0F21FA3D69F3}">
       <tableStyleElement type="wholeTable" dxfId="15"/>
       <tableStyleElement type="headerRow" dxfId="14"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{BF6206F5-0FEE-4634-A6A1-D3E8089E717B}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{3EB5FCBC-06D9-48AE-959D-93A53281EF55}">
       <tableStyleElement type="wholeTable" dxfId="18"/>
       <tableStyleElement type="headerRow" dxfId="17"/>
       <tableStyleElement type="secondRowStripe" dxfId="16"/>
@@ -1958,12 +2077,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V48"/>
+  <dimension ref="A1:V95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="Q1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="T43" sqref="T43"/>
+      <selection pane="topRight" activeCell="J99" sqref="J99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2051,7 +2170,7 @@
       <c r="U1" s="4">
         <v>3</v>
       </c>
-      <c r="V1" s="22" t="s">
+      <c r="V1" s="24" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2115,7 +2234,7 @@
       <c r="U2" s="7">
         <v>3</v>
       </c>
-      <c r="V2" s="23" t="s">
+      <c r="V2" s="25" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2154,7 +2273,7 @@
       <c r="P3" s="13"/>
       <c r="Q3" s="13"/>
       <c r="R3" s="13"/>
-      <c r="S3" s="24" t="s">
+      <c r="S3" s="26" t="s">
         <v>23</v>
       </c>
       <c r="T3" s="13" t="s">
@@ -2163,7 +2282,7 @@
       <c r="U3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="V3" s="25"/>
+      <c r="V3" s="27"/>
     </row>
     <row r="4" ht="63.5" customHeight="1" spans="1:22">
       <c r="A4" s="6">
@@ -2205,7 +2324,7 @@
       </c>
       <c r="T4" s="7"/>
       <c r="U4" s="7"/>
-      <c r="V4" s="23"/>
+      <c r="V4" s="25"/>
     </row>
     <row r="5" ht="63.5" customHeight="1" spans="1:22">
       <c r="A5" s="9">
@@ -2242,12 +2361,12 @@
       <c r="P5" s="13"/>
       <c r="Q5" s="13"/>
       <c r="R5" s="13"/>
-      <c r="S5" s="24" t="s">
+      <c r="S5" s="26" t="s">
         <v>31</v>
       </c>
       <c r="T5" s="13"/>
       <c r="U5" s="13"/>
-      <c r="V5" s="25"/>
+      <c r="V5" s="27"/>
     </row>
     <row r="6" ht="63.5" customHeight="1" spans="1:22">
       <c r="A6" s="6">
@@ -2289,7 +2408,7 @@
       </c>
       <c r="T6" s="7"/>
       <c r="U6" s="7"/>
-      <c r="V6" s="23"/>
+      <c r="V6" s="25"/>
     </row>
     <row r="7" ht="63.5" customHeight="1" spans="1:22">
       <c r="A7" s="9">
@@ -2326,12 +2445,12 @@
       <c r="P7" s="13"/>
       <c r="Q7" s="13"/>
       <c r="R7" s="13"/>
-      <c r="S7" s="24" t="s">
+      <c r="S7" s="26" t="s">
         <v>37</v>
       </c>
       <c r="T7" s="13"/>
       <c r="U7" s="13"/>
-      <c r="V7" s="25"/>
+      <c r="V7" s="27"/>
     </row>
     <row r="8" ht="63.5" customHeight="1" spans="1:22">
       <c r="A8" s="6">
@@ -2373,7 +2492,7 @@
       </c>
       <c r="T8" s="7"/>
       <c r="U8" s="7"/>
-      <c r="V8" s="23"/>
+      <c r="V8" s="25"/>
     </row>
     <row r="9" ht="63.5" customHeight="1" spans="1:22">
       <c r="A9" s="9">
@@ -2410,12 +2529,12 @@
       <c r="P9" s="13"/>
       <c r="Q9" s="13"/>
       <c r="R9" s="13"/>
-      <c r="S9" s="24" t="s">
+      <c r="S9" s="26" t="s">
         <v>43</v>
       </c>
       <c r="T9" s="13"/>
       <c r="U9" s="13"/>
-      <c r="V9" s="25"/>
+      <c r="V9" s="27"/>
     </row>
     <row r="10" ht="63.5" customHeight="1" spans="1:22">
       <c r="A10" s="6">
@@ -2457,7 +2576,7 @@
       </c>
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
-      <c r="V10" s="23"/>
+      <c r="V10" s="25"/>
     </row>
     <row r="11" ht="63.5" customHeight="1" spans="1:22">
       <c r="A11" s="9">
@@ -2494,12 +2613,12 @@
       <c r="P11" s="13"/>
       <c r="Q11" s="13"/>
       <c r="R11" s="13"/>
-      <c r="S11" s="24" t="s">
+      <c r="S11" s="26" t="s">
         <v>49</v>
       </c>
       <c r="T11" s="13"/>
       <c r="U11" s="13"/>
-      <c r="V11" s="25"/>
+      <c r="V11" s="27"/>
     </row>
     <row r="12" ht="63.5" customHeight="1" spans="1:22">
       <c r="A12" s="6">
@@ -2539,7 +2658,7 @@
       <c r="S12" s="8"/>
       <c r="T12" s="7"/>
       <c r="U12" s="7"/>
-      <c r="V12" s="23"/>
+      <c r="V12" s="25"/>
     </row>
     <row r="13" ht="63.5" customHeight="1" spans="1:22">
       <c r="A13" s="9">
@@ -2576,12 +2695,12 @@
       <c r="P13" s="13"/>
       <c r="Q13" s="13"/>
       <c r="R13" s="13"/>
-      <c r="S13" s="24" t="s">
+      <c r="S13" s="26" t="s">
         <v>54</v>
       </c>
       <c r="T13" s="13"/>
       <c r="U13" s="13"/>
-      <c r="V13" s="25"/>
+      <c r="V13" s="27"/>
     </row>
     <row r="14" ht="63.5" customHeight="1" spans="1:22">
       <c r="A14" s="6">
@@ -2623,7 +2742,7 @@
       </c>
       <c r="T14" s="7"/>
       <c r="U14" s="7"/>
-      <c r="V14" s="23"/>
+      <c r="V14" s="25"/>
     </row>
     <row r="15" ht="63.5" customHeight="1" spans="1:22">
       <c r="A15" s="9">
@@ -2660,12 +2779,12 @@
       <c r="P15" s="13"/>
       <c r="Q15" s="13"/>
       <c r="R15" s="13"/>
-      <c r="S15" s="24" t="s">
+      <c r="S15" s="26" t="s">
         <v>31</v>
       </c>
       <c r="T15" s="13"/>
       <c r="U15" s="13"/>
-      <c r="V15" s="25"/>
+      <c r="V15" s="27"/>
     </row>
     <row r="16" ht="63.5" customHeight="1" spans="1:22">
       <c r="A16" s="6">
@@ -2707,7 +2826,7 @@
       </c>
       <c r="T16" s="7"/>
       <c r="U16" s="7"/>
-      <c r="V16" s="23"/>
+      <c r="V16" s="25"/>
     </row>
     <row r="17" ht="63.5" customHeight="1" spans="1:22">
       <c r="A17" s="9">
@@ -2744,12 +2863,12 @@
       <c r="P17" s="13"/>
       <c r="Q17" s="13"/>
       <c r="R17" s="13"/>
-      <c r="S17" s="24" t="s">
+      <c r="S17" s="26" t="s">
         <v>40</v>
       </c>
       <c r="T17" s="13"/>
       <c r="U17" s="13"/>
-      <c r="V17" s="25"/>
+      <c r="V17" s="27"/>
     </row>
     <row r="18" ht="63.5" customHeight="1" spans="1:22">
       <c r="A18" s="6">
@@ -2791,7 +2910,7 @@
       </c>
       <c r="T18" s="7"/>
       <c r="U18" s="7"/>
-      <c r="V18" s="23"/>
+      <c r="V18" s="25"/>
     </row>
     <row r="19" ht="63.5" customHeight="1" spans="1:22">
       <c r="A19" s="9">
@@ -2828,12 +2947,12 @@
       <c r="P19" s="13"/>
       <c r="Q19" s="13"/>
       <c r="R19" s="13"/>
-      <c r="S19" s="24" t="s">
+      <c r="S19" s="26" t="s">
         <v>46</v>
       </c>
       <c r="T19" s="13"/>
       <c r="U19" s="13"/>
-      <c r="V19" s="25"/>
+      <c r="V19" s="27"/>
     </row>
     <row r="20" ht="63.5" customHeight="1" spans="1:22">
       <c r="A20" s="6">
@@ -2875,7 +2994,7 @@
       </c>
       <c r="T20" s="7"/>
       <c r="U20" s="7"/>
-      <c r="V20" s="23"/>
+      <c r="V20" s="25"/>
     </row>
     <row r="21" ht="47" customHeight="1" spans="1:22">
       <c r="A21" s="9">
@@ -2912,10 +3031,10 @@
       <c r="P21" s="13"/>
       <c r="Q21" s="13"/>
       <c r="R21" s="13"/>
-      <c r="S21" s="24"/>
+      <c r="S21" s="26"/>
       <c r="T21" s="13"/>
       <c r="U21" s="13"/>
-      <c r="V21" s="25"/>
+      <c r="V21" s="27"/>
     </row>
     <row r="22" ht="63.5" customHeight="1" spans="1:22">
       <c r="A22" s="6">
@@ -2957,7 +3076,7 @@
       </c>
       <c r="T22" s="7"/>
       <c r="U22" s="7"/>
-      <c r="V22" s="23"/>
+      <c r="V22" s="25"/>
     </row>
     <row r="23" ht="63.5" customHeight="1" spans="1:22">
       <c r="A23" s="9">
@@ -2994,12 +3113,12 @@
       <c r="P23" s="13"/>
       <c r="Q23" s="13"/>
       <c r="R23" s="13"/>
-      <c r="S23" s="24" t="s">
+      <c r="S23" s="26" t="s">
         <v>34</v>
       </c>
       <c r="T23" s="13"/>
       <c r="U23" s="13"/>
-      <c r="V23" s="25"/>
+      <c r="V23" s="27"/>
     </row>
     <row r="24" ht="63.5" customHeight="1" spans="1:22">
       <c r="A24" s="6">
@@ -3041,7 +3160,7 @@
       </c>
       <c r="T24" s="7"/>
       <c r="U24" s="7"/>
-      <c r="V24" s="23"/>
+      <c r="V24" s="25"/>
     </row>
     <row r="25" ht="63.5" customHeight="1" spans="1:22">
       <c r="A25" s="9">
@@ -3078,12 +3197,12 @@
       <c r="P25" s="13"/>
       <c r="Q25" s="13"/>
       <c r="R25" s="13"/>
-      <c r="S25" s="24" t="s">
+      <c r="S25" s="26" t="s">
         <v>73</v>
       </c>
       <c r="T25" s="13"/>
       <c r="U25" s="13"/>
-      <c r="V25" s="25"/>
+      <c r="V25" s="27"/>
     </row>
     <row r="26" ht="63.5" customHeight="1" spans="1:22">
       <c r="A26" s="6">
@@ -3125,7 +3244,7 @@
       </c>
       <c r="T26" s="7"/>
       <c r="U26" s="7"/>
-      <c r="V26" s="23"/>
+      <c r="V26" s="25"/>
     </row>
     <row r="27" ht="63.5" customHeight="1" spans="1:22">
       <c r="A27" s="9">
@@ -3162,12 +3281,12 @@
       <c r="P27" s="13"/>
       <c r="Q27" s="13"/>
       <c r="R27" s="13"/>
-      <c r="S27" s="24" t="s">
+      <c r="S27" s="26" t="s">
         <v>43</v>
       </c>
       <c r="T27" s="13"/>
       <c r="U27" s="13"/>
-      <c r="V27" s="25"/>
+      <c r="V27" s="27"/>
     </row>
     <row r="28" ht="63.5" customHeight="1" spans="1:22">
       <c r="A28" s="6">
@@ -3209,7 +3328,7 @@
       </c>
       <c r="T28" s="7"/>
       <c r="U28" s="7"/>
-      <c r="V28" s="23"/>
+      <c r="V28" s="25"/>
     </row>
     <row r="29" ht="63.5" customHeight="1" spans="1:22">
       <c r="A29" s="9">
@@ -3246,12 +3365,12 @@
       <c r="P29" s="13"/>
       <c r="Q29" s="13"/>
       <c r="R29" s="13"/>
-      <c r="S29" s="24" t="s">
+      <c r="S29" s="26" t="s">
         <v>49</v>
       </c>
       <c r="T29" s="13"/>
       <c r="U29" s="13"/>
-      <c r="V29" s="25"/>
+      <c r="V29" s="27"/>
     </row>
     <row r="30" customFormat="1" ht="47" customHeight="1" spans="1:22">
       <c r="A30" s="6">
@@ -3291,7 +3410,7 @@
       <c r="S30" s="8"/>
       <c r="T30" s="7"/>
       <c r="U30" s="7"/>
-      <c r="V30" s="23"/>
+      <c r="V30" s="25"/>
     </row>
     <row r="31" customFormat="1" ht="63.5" customHeight="1" spans="1:22">
       <c r="A31" s="9">
@@ -3328,12 +3447,12 @@
       <c r="P31" s="13"/>
       <c r="Q31" s="13"/>
       <c r="R31" s="13"/>
-      <c r="S31" s="24" t="s">
+      <c r="S31" s="26" t="s">
         <v>54</v>
       </c>
       <c r="T31" s="13"/>
       <c r="U31" s="13"/>
-      <c r="V31" s="25"/>
+      <c r="V31" s="27"/>
     </row>
     <row r="32" customFormat="1" ht="63.5" customHeight="1" spans="1:22">
       <c r="A32" s="6">
@@ -3375,7 +3494,7 @@
       </c>
       <c r="T32" s="7"/>
       <c r="U32" s="7"/>
-      <c r="V32" s="23"/>
+      <c r="V32" s="25"/>
     </row>
     <row r="33" customFormat="1" ht="63.5" customHeight="1" spans="1:22">
       <c r="A33" s="9">
@@ -3412,12 +3531,12 @@
       <c r="P33" s="13"/>
       <c r="Q33" s="13"/>
       <c r="R33" s="13"/>
-      <c r="S33" s="24" t="s">
+      <c r="S33" s="26" t="s">
         <v>31</v>
       </c>
       <c r="T33" s="13"/>
       <c r="U33" s="13"/>
-      <c r="V33" s="25"/>
+      <c r="V33" s="27"/>
     </row>
     <row r="34" customFormat="1" ht="63.5" customHeight="1" spans="1:22">
       <c r="A34" s="6">
@@ -3459,7 +3578,7 @@
       </c>
       <c r="T34" s="7"/>
       <c r="U34" s="7"/>
-      <c r="V34" s="23"/>
+      <c r="V34" s="25"/>
     </row>
     <row r="35" customFormat="1" ht="63.5" customHeight="1" spans="1:22">
       <c r="A35" s="9">
@@ -3496,12 +3615,12 @@
       <c r="P35" s="13"/>
       <c r="Q35" s="13"/>
       <c r="R35" s="13"/>
-      <c r="S35" s="24" t="s">
+      <c r="S35" s="26" t="s">
         <v>40</v>
       </c>
       <c r="T35" s="13"/>
       <c r="U35" s="13"/>
-      <c r="V35" s="25"/>
+      <c r="V35" s="27"/>
     </row>
     <row r="36" customFormat="1" ht="63.5" customHeight="1" spans="1:22">
       <c r="A36" s="6">
@@ -3543,7 +3662,7 @@
       </c>
       <c r="T36" s="7"/>
       <c r="U36" s="7"/>
-      <c r="V36" s="23"/>
+      <c r="V36" s="25"/>
     </row>
     <row r="37" customFormat="1" ht="63.5" customHeight="1" spans="1:22">
       <c r="A37" s="9">
@@ -3580,12 +3699,12 @@
       <c r="P37" s="13"/>
       <c r="Q37" s="13"/>
       <c r="R37" s="13"/>
-      <c r="S37" s="24" t="s">
+      <c r="S37" s="26" t="s">
         <v>46</v>
       </c>
       <c r="T37" s="13"/>
       <c r="U37" s="13"/>
-      <c r="V37" s="25"/>
+      <c r="V37" s="27"/>
     </row>
     <row r="38" customFormat="1" ht="63.5" customHeight="1" spans="1:22">
       <c r="A38" s="6">
@@ -3627,7 +3746,7 @@
       </c>
       <c r="T38" s="7"/>
       <c r="U38" s="7"/>
-      <c r="V38" s="23"/>
+      <c r="V38" s="25"/>
     </row>
     <row r="39" customFormat="1" ht="47" customHeight="1" spans="1:22">
       <c r="A39" s="9">
@@ -3664,10 +3783,10 @@
       <c r="P39" s="13"/>
       <c r="Q39" s="13"/>
       <c r="R39" s="13"/>
-      <c r="S39" s="24"/>
+      <c r="S39" s="26"/>
       <c r="T39" s="13"/>
       <c r="U39" s="13"/>
-      <c r="V39" s="25"/>
+      <c r="V39" s="27"/>
     </row>
     <row r="40" customFormat="1" ht="63.5" customHeight="1" spans="1:22">
       <c r="A40" s="6">
@@ -3709,7 +3828,7 @@
       </c>
       <c r="T40" s="7"/>
       <c r="U40" s="7"/>
-      <c r="V40" s="23"/>
+      <c r="V40" s="25"/>
     </row>
     <row r="41" customFormat="1" ht="63.5" customHeight="1" spans="1:22">
       <c r="A41" s="9">
@@ -3746,12 +3865,12 @@
       <c r="P41" s="13"/>
       <c r="Q41" s="13"/>
       <c r="R41" s="13"/>
-      <c r="S41" s="24" t="s">
+      <c r="S41" s="26" t="s">
         <v>31</v>
       </c>
       <c r="T41" s="13"/>
       <c r="U41" s="13"/>
-      <c r="V41" s="25"/>
+      <c r="V41" s="27"/>
     </row>
     <row r="42" customFormat="1" ht="63.5" customHeight="1" spans="1:22">
       <c r="A42" s="6">
@@ -3793,7 +3912,7 @@
       </c>
       <c r="T42" s="7"/>
       <c r="U42" s="7"/>
-      <c r="V42" s="23"/>
+      <c r="V42" s="25"/>
     </row>
     <row r="43" customFormat="1" ht="63.5" customHeight="1" spans="1:22">
       <c r="A43" s="9">
@@ -3830,12 +3949,12 @@
       <c r="P43" s="13"/>
       <c r="Q43" s="13"/>
       <c r="R43" s="13"/>
-      <c r="S43" s="24" t="s">
+      <c r="S43" s="26" t="s">
         <v>97</v>
       </c>
       <c r="T43" s="13"/>
       <c r="U43" s="13"/>
-      <c r="V43" s="25"/>
+      <c r="V43" s="27"/>
     </row>
     <row r="44" customFormat="1" ht="63.5" customHeight="1" spans="1:22">
       <c r="A44" s="6">
@@ -3877,7 +3996,7 @@
       </c>
       <c r="T44" s="7"/>
       <c r="U44" s="7"/>
-      <c r="V44" s="23"/>
+      <c r="V44" s="25"/>
     </row>
     <row r="45" customFormat="1" ht="63.5" customHeight="1" spans="1:22">
       <c r="A45" s="9">
@@ -3914,12 +4033,12 @@
       <c r="P45" s="13"/>
       <c r="Q45" s="13"/>
       <c r="R45" s="13"/>
-      <c r="S45" s="24" t="s">
+      <c r="S45" s="26" t="s">
         <v>43</v>
       </c>
       <c r="T45" s="13"/>
       <c r="U45" s="13"/>
-      <c r="V45" s="25"/>
+      <c r="V45" s="27"/>
     </row>
     <row r="46" customFormat="1" ht="63.5" customHeight="1" spans="1:22">
       <c r="A46" s="6">
@@ -3961,7 +4080,7 @@
       </c>
       <c r="T46" s="7"/>
       <c r="U46" s="7"/>
-      <c r="V46" s="23"/>
+      <c r="V46" s="25"/>
     </row>
     <row r="47" customFormat="1" ht="63.5" customHeight="1" spans="1:22">
       <c r="A47" s="9">
@@ -3998,12 +4117,12 @@
       <c r="P47" s="13"/>
       <c r="Q47" s="13"/>
       <c r="R47" s="13"/>
-      <c r="S47" s="24" t="s">
+      <c r="S47" s="26" t="s">
         <v>49</v>
       </c>
       <c r="T47" s="13"/>
       <c r="U47" s="13"/>
-      <c r="V47" s="25"/>
+      <c r="V47" s="27"/>
     </row>
     <row r="48" customFormat="1" ht="30.5" customHeight="1" spans="1:22">
       <c r="A48" s="17">
@@ -4040,14 +4159,1953 @@
       <c r="P48" s="21"/>
       <c r="Q48" s="21"/>
       <c r="R48" s="21"/>
-      <c r="S48" s="26"/>
+      <c r="S48" s="28"/>
       <c r="T48" s="21"/>
       <c r="U48" s="21"/>
-      <c r="V48" s="27"/>
-    </row>
+      <c r="V48" s="29"/>
+    </row>
+    <row r="49" ht="63.5" customHeight="1" spans="1:22">
+      <c r="A49" s="9">
+        <v>1</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D49" s="22">
+        <v>101</v>
+      </c>
+      <c r="E49" s="13">
+        <v>0</v>
+      </c>
+      <c r="F49" s="13">
+        <v>0</v>
+      </c>
+      <c r="G49" s="13">
+        <v>0</v>
+      </c>
+      <c r="H49" s="13">
+        <v>5</v>
+      </c>
+      <c r="I49" s="13"/>
+      <c r="J49" s="13"/>
+      <c r="K49" s="13"/>
+      <c r="L49" s="13"/>
+      <c r="M49" s="13"/>
+      <c r="N49" s="13"/>
+      <c r="O49" s="13"/>
+      <c r="P49" s="13"/>
+      <c r="Q49" s="13"/>
+      <c r="R49" s="13"/>
+      <c r="S49" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="T49" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="U49" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="V49" s="27"/>
+    </row>
+    <row r="50" ht="63.5" customHeight="1" spans="1:22">
+      <c r="A50" s="6">
+        <v>2</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D50" s="22">
+        <v>101</v>
+      </c>
+      <c r="E50" s="7">
+        <v>0</v>
+      </c>
+      <c r="F50" s="7">
+        <v>1</v>
+      </c>
+      <c r="G50" s="7">
+        <v>1</v>
+      </c>
+      <c r="H50" s="7">
+        <v>5</v>
+      </c>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="7"/>
+      <c r="N50" s="7"/>
+      <c r="O50" s="7"/>
+      <c r="P50" s="7"/>
+      <c r="Q50" s="7"/>
+      <c r="R50" s="7"/>
+      <c r="S50" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="T50" s="7"/>
+      <c r="U50" s="7"/>
+      <c r="V50" s="25"/>
+    </row>
+    <row r="51" ht="63.5" customHeight="1" spans="1:22">
+      <c r="A51" s="9">
+        <v>3</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D51" s="22">
+        <v>101</v>
+      </c>
+      <c r="E51" s="13">
+        <v>0</v>
+      </c>
+      <c r="F51" s="13">
+        <v>1</v>
+      </c>
+      <c r="G51" s="13">
+        <v>2</v>
+      </c>
+      <c r="H51" s="13">
+        <v>5</v>
+      </c>
+      <c r="I51" s="13"/>
+      <c r="J51" s="13"/>
+      <c r="K51" s="13"/>
+      <c r="L51" s="13"/>
+      <c r="M51" s="13"/>
+      <c r="N51" s="13"/>
+      <c r="O51" s="13"/>
+      <c r="P51" s="13"/>
+      <c r="Q51" s="13"/>
+      <c r="R51" s="13"/>
+      <c r="S51" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="T51" s="13"/>
+      <c r="U51" s="13"/>
+      <c r="V51" s="27"/>
+    </row>
+    <row r="52" ht="63.5" customHeight="1" spans="1:22">
+      <c r="A52" s="6">
+        <v>4</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D52" s="22">
+        <v>101</v>
+      </c>
+      <c r="E52" s="7">
+        <v>0</v>
+      </c>
+      <c r="F52" s="7">
+        <v>1</v>
+      </c>
+      <c r="G52" s="7">
+        <v>3</v>
+      </c>
+      <c r="H52" s="7">
+        <v>5</v>
+      </c>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="7"/>
+      <c r="M52" s="7"/>
+      <c r="N52" s="7"/>
+      <c r="O52" s="7"/>
+      <c r="P52" s="7"/>
+      <c r="Q52" s="7"/>
+      <c r="R52" s="7"/>
+      <c r="S52" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="T52" s="7"/>
+      <c r="U52" s="7"/>
+      <c r="V52" s="25"/>
+    </row>
+    <row r="53" ht="63.5" customHeight="1" spans="1:22">
+      <c r="A53" s="9">
+        <v>5</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D53" s="22">
+        <v>101</v>
+      </c>
+      <c r="E53" s="13">
+        <v>0</v>
+      </c>
+      <c r="F53" s="13">
+        <v>1</v>
+      </c>
+      <c r="G53" s="13">
+        <v>4</v>
+      </c>
+      <c r="H53" s="13">
+        <v>5</v>
+      </c>
+      <c r="I53" s="13"/>
+      <c r="J53" s="13"/>
+      <c r="K53" s="13"/>
+      <c r="L53" s="13"/>
+      <c r="M53" s="13"/>
+      <c r="N53" s="13"/>
+      <c r="O53" s="13"/>
+      <c r="P53" s="13"/>
+      <c r="Q53" s="13"/>
+      <c r="R53" s="13"/>
+      <c r="S53" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="T53" s="13"/>
+      <c r="U53" s="13"/>
+      <c r="V53" s="27"/>
+    </row>
+    <row r="54" ht="63.5" customHeight="1" spans="1:22">
+      <c r="A54" s="6">
+        <v>6</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D54" s="22">
+        <v>101</v>
+      </c>
+      <c r="E54" s="7">
+        <v>0</v>
+      </c>
+      <c r="F54" s="7">
+        <v>1</v>
+      </c>
+      <c r="G54" s="7">
+        <v>5</v>
+      </c>
+      <c r="H54" s="7">
+        <v>5</v>
+      </c>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="7"/>
+      <c r="M54" s="7"/>
+      <c r="N54" s="7"/>
+      <c r="O54" s="7"/>
+      <c r="P54" s="7"/>
+      <c r="Q54" s="7"/>
+      <c r="R54" s="7"/>
+      <c r="S54" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T54" s="7"/>
+      <c r="U54" s="7"/>
+      <c r="V54" s="25"/>
+    </row>
+    <row r="55" ht="63.5" customHeight="1" spans="1:22">
+      <c r="A55" s="9">
+        <v>8</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D55" s="22">
+        <v>101</v>
+      </c>
+      <c r="E55" s="13">
+        <v>0</v>
+      </c>
+      <c r="F55" s="13">
+        <v>1</v>
+      </c>
+      <c r="G55" s="13">
+        <v>6</v>
+      </c>
+      <c r="H55" s="13">
+        <v>5</v>
+      </c>
+      <c r="I55" s="13"/>
+      <c r="J55" s="13"/>
+      <c r="K55" s="13"/>
+      <c r="L55" s="13"/>
+      <c r="M55" s="13"/>
+      <c r="N55" s="13"/>
+      <c r="O55" s="13"/>
+      <c r="P55" s="13"/>
+      <c r="Q55" s="13"/>
+      <c r="R55" s="13"/>
+      <c r="S55" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="T55" s="13"/>
+      <c r="U55" s="13"/>
+      <c r="V55" s="27"/>
+    </row>
+    <row r="56" ht="63.5" customHeight="1" spans="1:22">
+      <c r="A56" s="6">
+        <v>9</v>
+      </c>
+      <c r="B56" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D56" s="22">
+        <v>101</v>
+      </c>
+      <c r="E56" s="7">
+        <v>0</v>
+      </c>
+      <c r="F56" s="7">
+        <v>1</v>
+      </c>
+      <c r="G56" s="7">
+        <v>7</v>
+      </c>
+      <c r="H56" s="7">
+        <v>5</v>
+      </c>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
+      <c r="K56" s="7"/>
+      <c r="L56" s="7"/>
+      <c r="M56" s="7"/>
+      <c r="N56" s="7"/>
+      <c r="O56" s="7"/>
+      <c r="P56" s="7"/>
+      <c r="Q56" s="7"/>
+      <c r="R56" s="7"/>
+      <c r="S56" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="T56" s="7"/>
+      <c r="U56" s="7"/>
+      <c r="V56" s="25"/>
+    </row>
+    <row r="57" ht="63.5" customHeight="1" spans="1:22">
+      <c r="A57" s="9">
+        <v>10</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D57" s="22">
+        <v>101</v>
+      </c>
+      <c r="E57" s="13">
+        <v>0</v>
+      </c>
+      <c r="F57" s="13">
+        <v>1</v>
+      </c>
+      <c r="G57" s="13">
+        <v>8</v>
+      </c>
+      <c r="H57" s="13">
+        <v>5</v>
+      </c>
+      <c r="I57" s="13"/>
+      <c r="J57" s="13"/>
+      <c r="K57" s="13"/>
+      <c r="L57" s="13"/>
+      <c r="M57" s="13"/>
+      <c r="N57" s="13"/>
+      <c r="O57" s="13"/>
+      <c r="P57" s="13"/>
+      <c r="Q57" s="13"/>
+      <c r="R57" s="13"/>
+      <c r="S57" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="T57" s="13"/>
+      <c r="U57" s="13"/>
+      <c r="V57" s="27"/>
+    </row>
+    <row r="58" ht="63.5" customHeight="1" spans="1:22">
+      <c r="A58" s="6">
+        <v>11</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C58" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="D58" s="22">
+        <v>101</v>
+      </c>
+      <c r="E58" s="7">
+        <v>1</v>
+      </c>
+      <c r="F58" s="7">
+        <v>1</v>
+      </c>
+      <c r="G58" s="7">
+        <v>9</v>
+      </c>
+      <c r="H58" s="7">
+        <v>1</v>
+      </c>
+      <c r="I58" s="7"/>
+      <c r="J58" s="7"/>
+      <c r="K58" s="7"/>
+      <c r="L58" s="7"/>
+      <c r="M58" s="7"/>
+      <c r="N58" s="7"/>
+      <c r="O58" s="7"/>
+      <c r="P58" s="7"/>
+      <c r="Q58" s="7"/>
+      <c r="R58" s="7"/>
+      <c r="S58" s="8"/>
+      <c r="T58" s="7"/>
+      <c r="U58" s="7"/>
+      <c r="V58" s="25"/>
+    </row>
+    <row r="59" ht="63.5" customHeight="1" spans="1:22">
+      <c r="A59" s="9">
+        <v>12</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D59" s="22">
+        <v>101</v>
+      </c>
+      <c r="E59" s="13">
+        <v>0</v>
+      </c>
+      <c r="F59" s="13">
+        <v>2</v>
+      </c>
+      <c r="G59" s="13">
+        <v>1</v>
+      </c>
+      <c r="H59" s="13">
+        <v>5</v>
+      </c>
+      <c r="I59" s="13"/>
+      <c r="J59" s="13"/>
+      <c r="K59" s="13"/>
+      <c r="L59" s="13"/>
+      <c r="M59" s="13"/>
+      <c r="N59" s="13"/>
+      <c r="O59" s="13"/>
+      <c r="P59" s="13"/>
+      <c r="Q59" s="13"/>
+      <c r="R59" s="13"/>
+      <c r="S59" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="T59" s="13"/>
+      <c r="U59" s="13"/>
+      <c r="V59" s="27"/>
+    </row>
+    <row r="60" ht="63.5" customHeight="1" spans="1:22">
+      <c r="A60" s="6">
+        <v>13</v>
+      </c>
+      <c r="B60" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D60" s="22">
+        <v>101</v>
+      </c>
+      <c r="E60" s="7">
+        <v>0</v>
+      </c>
+      <c r="F60" s="7">
+        <v>2</v>
+      </c>
+      <c r="G60" s="7">
+        <v>2</v>
+      </c>
+      <c r="H60" s="7">
+        <v>5</v>
+      </c>
+      <c r="I60" s="7"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="7"/>
+      <c r="L60" s="7"/>
+      <c r="M60" s="7"/>
+      <c r="N60" s="7"/>
+      <c r="O60" s="7"/>
+      <c r="P60" s="7"/>
+      <c r="Q60" s="7"/>
+      <c r="R60" s="7"/>
+      <c r="S60" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="T60" s="7"/>
+      <c r="U60" s="7"/>
+      <c r="V60" s="25"/>
+    </row>
+    <row r="61" ht="63.5" customHeight="1" spans="1:22">
+      <c r="A61" s="9">
+        <v>14</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D61" s="22">
+        <v>101</v>
+      </c>
+      <c r="E61" s="13">
+        <v>0</v>
+      </c>
+      <c r="F61" s="13">
+        <v>2</v>
+      </c>
+      <c r="G61" s="13">
+        <v>3</v>
+      </c>
+      <c r="H61" s="13">
+        <v>5</v>
+      </c>
+      <c r="I61" s="13"/>
+      <c r="J61" s="13"/>
+      <c r="K61" s="13"/>
+      <c r="L61" s="13"/>
+      <c r="M61" s="13"/>
+      <c r="N61" s="13"/>
+      <c r="O61" s="13"/>
+      <c r="P61" s="13"/>
+      <c r="Q61" s="13"/>
+      <c r="R61" s="13"/>
+      <c r="S61" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="T61" s="13"/>
+      <c r="U61" s="13"/>
+      <c r="V61" s="27"/>
+    </row>
+    <row r="62" ht="63.5" customHeight="1" spans="1:22">
+      <c r="A62" s="6">
+        <v>15</v>
+      </c>
+      <c r="B62" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C62" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D62" s="22">
+        <v>101</v>
+      </c>
+      <c r="E62" s="7">
+        <v>0</v>
+      </c>
+      <c r="F62" s="7">
+        <v>2</v>
+      </c>
+      <c r="G62" s="7">
+        <v>4</v>
+      </c>
+      <c r="H62" s="7">
+        <v>5</v>
+      </c>
+      <c r="I62" s="7"/>
+      <c r="J62" s="7"/>
+      <c r="K62" s="7"/>
+      <c r="L62" s="7"/>
+      <c r="M62" s="7"/>
+      <c r="N62" s="7"/>
+      <c r="O62" s="7"/>
+      <c r="P62" s="7"/>
+      <c r="Q62" s="7"/>
+      <c r="R62" s="7"/>
+      <c r="S62" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="T62" s="7"/>
+      <c r="U62" s="7"/>
+      <c r="V62" s="25"/>
+    </row>
+    <row r="63" ht="63.5" customHeight="1" spans="1:22">
+      <c r="A63" s="9">
+        <v>16</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D63" s="22">
+        <v>101</v>
+      </c>
+      <c r="E63" s="13">
+        <v>0</v>
+      </c>
+      <c r="F63" s="13">
+        <v>2</v>
+      </c>
+      <c r="G63" s="13">
+        <v>5</v>
+      </c>
+      <c r="H63" s="13">
+        <v>5</v>
+      </c>
+      <c r="I63" s="13"/>
+      <c r="J63" s="13"/>
+      <c r="K63" s="13"/>
+      <c r="L63" s="13"/>
+      <c r="M63" s="13"/>
+      <c r="N63" s="13"/>
+      <c r="O63" s="13"/>
+      <c r="P63" s="13"/>
+      <c r="Q63" s="13"/>
+      <c r="R63" s="13"/>
+      <c r="S63" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="T63" s="13"/>
+      <c r="U63" s="13"/>
+      <c r="V63" s="27"/>
+    </row>
+    <row r="64" ht="63.5" customHeight="1" spans="1:22">
+      <c r="A64" s="6">
+        <v>17</v>
+      </c>
+      <c r="B64" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C64" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D64" s="22">
+        <v>101</v>
+      </c>
+      <c r="E64" s="7">
+        <v>0</v>
+      </c>
+      <c r="F64" s="7">
+        <v>2</v>
+      </c>
+      <c r="G64" s="7">
+        <v>6</v>
+      </c>
+      <c r="H64" s="7">
+        <v>5</v>
+      </c>
+      <c r="I64" s="7"/>
+      <c r="J64" s="7"/>
+      <c r="K64" s="7"/>
+      <c r="L64" s="7"/>
+      <c r="M64" s="7"/>
+      <c r="N64" s="7"/>
+      <c r="O64" s="7"/>
+      <c r="P64" s="7"/>
+      <c r="Q64" s="7"/>
+      <c r="R64" s="7"/>
+      <c r="S64" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="T64" s="7"/>
+      <c r="U64" s="7"/>
+      <c r="V64" s="25"/>
+    </row>
+    <row r="65" ht="63.5" customHeight="1" spans="1:22">
+      <c r="A65" s="9">
+        <v>18</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D65" s="22">
+        <v>101</v>
+      </c>
+      <c r="E65" s="13">
+        <v>0</v>
+      </c>
+      <c r="F65" s="13">
+        <v>2</v>
+      </c>
+      <c r="G65" s="13">
+        <v>7</v>
+      </c>
+      <c r="H65" s="13">
+        <v>5</v>
+      </c>
+      <c r="I65" s="13"/>
+      <c r="J65" s="13"/>
+      <c r="K65" s="13"/>
+      <c r="L65" s="13"/>
+      <c r="M65" s="13"/>
+      <c r="N65" s="13"/>
+      <c r="O65" s="13"/>
+      <c r="P65" s="13"/>
+      <c r="Q65" s="13"/>
+      <c r="R65" s="13"/>
+      <c r="S65" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="T65" s="13"/>
+      <c r="U65" s="13"/>
+      <c r="V65" s="27"/>
+    </row>
+    <row r="66" ht="63.5" customHeight="1" spans="1:22">
+      <c r="A66" s="6">
+        <v>19</v>
+      </c>
+      <c r="B66" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C66" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D66" s="22">
+        <v>101</v>
+      </c>
+      <c r="E66" s="7">
+        <v>0</v>
+      </c>
+      <c r="F66" s="7">
+        <v>2</v>
+      </c>
+      <c r="G66" s="7">
+        <v>8</v>
+      </c>
+      <c r="H66" s="7">
+        <v>5</v>
+      </c>
+      <c r="I66" s="7"/>
+      <c r="J66" s="7"/>
+      <c r="K66" s="7"/>
+      <c r="L66" s="7"/>
+      <c r="M66" s="7"/>
+      <c r="N66" s="7"/>
+      <c r="O66" s="7"/>
+      <c r="P66" s="7"/>
+      <c r="Q66" s="7"/>
+      <c r="R66" s="7"/>
+      <c r="S66" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="T66" s="7"/>
+      <c r="U66" s="7"/>
+      <c r="V66" s="25"/>
+    </row>
+    <row r="67" ht="47" customHeight="1" spans="1:22">
+      <c r="A67" s="9">
+        <v>20</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C67" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="D67" s="22">
+        <v>101</v>
+      </c>
+      <c r="E67" s="13">
+        <v>1</v>
+      </c>
+      <c r="F67" s="13">
+        <v>2</v>
+      </c>
+      <c r="G67" s="13">
+        <v>9</v>
+      </c>
+      <c r="H67" s="13">
+        <v>1</v>
+      </c>
+      <c r="I67" s="13"/>
+      <c r="J67" s="13"/>
+      <c r="K67" s="13"/>
+      <c r="L67" s="13"/>
+      <c r="M67" s="13"/>
+      <c r="N67" s="13"/>
+      <c r="O67" s="13"/>
+      <c r="P67" s="13"/>
+      <c r="Q67" s="13"/>
+      <c r="R67" s="13"/>
+      <c r="S67" s="26"/>
+      <c r="T67" s="13"/>
+      <c r="U67" s="13"/>
+      <c r="V67" s="27"/>
+    </row>
+    <row r="68" ht="63.5" customHeight="1" spans="1:22">
+      <c r="A68" s="6">
+        <v>21</v>
+      </c>
+      <c r="B68" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C68" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D68" s="22">
+        <v>101</v>
+      </c>
+      <c r="E68" s="7">
+        <v>0</v>
+      </c>
+      <c r="F68" s="7">
+        <v>3</v>
+      </c>
+      <c r="G68" s="7">
+        <v>1</v>
+      </c>
+      <c r="H68" s="7">
+        <v>5</v>
+      </c>
+      <c r="I68" s="7"/>
+      <c r="J68" s="7"/>
+      <c r="K68" s="7"/>
+      <c r="L68" s="7"/>
+      <c r="M68" s="7"/>
+      <c r="N68" s="7"/>
+      <c r="O68" s="7"/>
+      <c r="P68" s="7"/>
+      <c r="Q68" s="7"/>
+      <c r="R68" s="7"/>
+      <c r="S68" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="T68" s="7"/>
+      <c r="U68" s="7"/>
+      <c r="V68" s="25"/>
+    </row>
+    <row r="69" ht="63.5" customHeight="1" spans="1:22">
+      <c r="A69" s="9">
+        <v>22</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D69" s="22">
+        <v>101</v>
+      </c>
+      <c r="E69" s="13">
+        <v>0</v>
+      </c>
+      <c r="F69" s="13">
+        <v>3</v>
+      </c>
+      <c r="G69" s="13">
+        <v>2</v>
+      </c>
+      <c r="H69" s="13">
+        <v>5</v>
+      </c>
+      <c r="I69" s="13"/>
+      <c r="J69" s="13"/>
+      <c r="K69" s="13"/>
+      <c r="L69" s="13"/>
+      <c r="M69" s="13"/>
+      <c r="N69" s="13"/>
+      <c r="O69" s="13"/>
+      <c r="P69" s="13"/>
+      <c r="Q69" s="13"/>
+      <c r="R69" s="13"/>
+      <c r="S69" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="T69" s="13"/>
+      <c r="U69" s="13"/>
+      <c r="V69" s="27"/>
+    </row>
+    <row r="70" ht="63.5" customHeight="1" spans="1:22">
+      <c r="A70" s="6">
+        <v>23</v>
+      </c>
+      <c r="B70" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C70" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D70" s="22">
+        <v>101</v>
+      </c>
+      <c r="E70" s="7">
+        <v>0</v>
+      </c>
+      <c r="F70" s="7">
+        <v>3</v>
+      </c>
+      <c r="G70" s="7">
+        <v>3</v>
+      </c>
+      <c r="H70" s="7">
+        <v>5</v>
+      </c>
+      <c r="I70" s="7"/>
+      <c r="J70" s="7"/>
+      <c r="K70" s="7"/>
+      <c r="L70" s="7"/>
+      <c r="M70" s="7"/>
+      <c r="N70" s="7"/>
+      <c r="O70" s="7"/>
+      <c r="P70" s="7"/>
+      <c r="Q70" s="7"/>
+      <c r="R70" s="7"/>
+      <c r="S70" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="T70" s="7"/>
+      <c r="U70" s="7"/>
+      <c r="V70" s="25"/>
+    </row>
+    <row r="71" ht="63.5" customHeight="1" spans="1:22">
+      <c r="A71" s="9">
+        <v>24</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D71" s="22">
+        <v>101</v>
+      </c>
+      <c r="E71" s="13">
+        <v>0</v>
+      </c>
+      <c r="F71" s="13">
+        <v>3</v>
+      </c>
+      <c r="G71" s="13">
+        <v>4</v>
+      </c>
+      <c r="H71" s="13">
+        <v>5</v>
+      </c>
+      <c r="I71" s="13"/>
+      <c r="J71" s="13"/>
+      <c r="K71" s="13"/>
+      <c r="L71" s="13"/>
+      <c r="M71" s="13"/>
+      <c r="N71" s="13"/>
+      <c r="O71" s="13"/>
+      <c r="P71" s="13"/>
+      <c r="Q71" s="13"/>
+      <c r="R71" s="13"/>
+      <c r="S71" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="T71" s="13"/>
+      <c r="U71" s="13"/>
+      <c r="V71" s="27"/>
+    </row>
+    <row r="72" ht="63.5" customHeight="1" spans="1:22">
+      <c r="A72" s="6">
+        <v>25</v>
+      </c>
+      <c r="B72" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C72" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D72" s="22">
+        <v>101</v>
+      </c>
+      <c r="E72" s="7">
+        <v>0</v>
+      </c>
+      <c r="F72" s="7">
+        <v>3</v>
+      </c>
+      <c r="G72" s="7">
+        <v>5</v>
+      </c>
+      <c r="H72" s="7">
+        <v>5</v>
+      </c>
+      <c r="I72" s="7"/>
+      <c r="J72" s="7"/>
+      <c r="K72" s="7"/>
+      <c r="L72" s="7"/>
+      <c r="M72" s="7"/>
+      <c r="N72" s="7"/>
+      <c r="O72" s="7"/>
+      <c r="P72" s="7"/>
+      <c r="Q72" s="7"/>
+      <c r="R72" s="7"/>
+      <c r="S72" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T72" s="7"/>
+      <c r="U72" s="7"/>
+      <c r="V72" s="25"/>
+    </row>
+    <row r="73" ht="63.5" customHeight="1" spans="1:22">
+      <c r="A73" s="9">
+        <v>26</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D73" s="22">
+        <v>101</v>
+      </c>
+      <c r="E73" s="13">
+        <v>0</v>
+      </c>
+      <c r="F73" s="13">
+        <v>3</v>
+      </c>
+      <c r="G73" s="13">
+        <v>6</v>
+      </c>
+      <c r="H73" s="13">
+        <v>5</v>
+      </c>
+      <c r="I73" s="13"/>
+      <c r="J73" s="13"/>
+      <c r="K73" s="13"/>
+      <c r="L73" s="13"/>
+      <c r="M73" s="13"/>
+      <c r="N73" s="13"/>
+      <c r="O73" s="13"/>
+      <c r="P73" s="13"/>
+      <c r="Q73" s="13"/>
+      <c r="R73" s="13"/>
+      <c r="S73" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="T73" s="13"/>
+      <c r="U73" s="13"/>
+      <c r="V73" s="27"/>
+    </row>
+    <row r="74" ht="63.5" customHeight="1" spans="1:22">
+      <c r="A74" s="6">
+        <v>27</v>
+      </c>
+      <c r="B74" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C74" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D74" s="22">
+        <v>101</v>
+      </c>
+      <c r="E74" s="7">
+        <v>0</v>
+      </c>
+      <c r="F74" s="7">
+        <v>3</v>
+      </c>
+      <c r="G74" s="7">
+        <v>7</v>
+      </c>
+      <c r="H74" s="7">
+        <v>5</v>
+      </c>
+      <c r="I74" s="7"/>
+      <c r="J74" s="7"/>
+      <c r="K74" s="7"/>
+      <c r="L74" s="7"/>
+      <c r="M74" s="7"/>
+      <c r="N74" s="7"/>
+      <c r="O74" s="7"/>
+      <c r="P74" s="7"/>
+      <c r="Q74" s="7"/>
+      <c r="R74" s="7"/>
+      <c r="S74" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="T74" s="7"/>
+      <c r="U74" s="7"/>
+      <c r="V74" s="25"/>
+    </row>
+    <row r="75" ht="63.5" customHeight="1" spans="1:22">
+      <c r="A75" s="9">
+        <v>28</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D75" s="22">
+        <v>101</v>
+      </c>
+      <c r="E75" s="13">
+        <v>0</v>
+      </c>
+      <c r="F75" s="13">
+        <v>3</v>
+      </c>
+      <c r="G75" s="13">
+        <v>8</v>
+      </c>
+      <c r="H75" s="13">
+        <v>5</v>
+      </c>
+      <c r="I75" s="13"/>
+      <c r="J75" s="13"/>
+      <c r="K75" s="13"/>
+      <c r="L75" s="13"/>
+      <c r="M75" s="13"/>
+      <c r="N75" s="13"/>
+      <c r="O75" s="13"/>
+      <c r="P75" s="13"/>
+      <c r="Q75" s="13"/>
+      <c r="R75" s="13"/>
+      <c r="S75" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="T75" s="13"/>
+      <c r="U75" s="13"/>
+      <c r="V75" s="27"/>
+    </row>
+    <row r="76" customFormat="1" ht="47" customHeight="1" spans="1:22">
+      <c r="A76" s="6">
+        <v>29</v>
+      </c>
+      <c r="B76" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C76" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="D76" s="22">
+        <v>101</v>
+      </c>
+      <c r="E76" s="7">
+        <v>1</v>
+      </c>
+      <c r="F76" s="7">
+        <v>3</v>
+      </c>
+      <c r="G76" s="7">
+        <v>9</v>
+      </c>
+      <c r="H76" s="7">
+        <v>1</v>
+      </c>
+      <c r="I76" s="7"/>
+      <c r="J76" s="7"/>
+      <c r="K76" s="7"/>
+      <c r="L76" s="7"/>
+      <c r="M76" s="7"/>
+      <c r="N76" s="7"/>
+      <c r="O76" s="7"/>
+      <c r="P76" s="7"/>
+      <c r="Q76" s="7"/>
+      <c r="R76" s="7"/>
+      <c r="S76" s="8"/>
+      <c r="T76" s="7"/>
+      <c r="U76" s="7"/>
+      <c r="V76" s="25"/>
+    </row>
+    <row r="77" customFormat="1" ht="63.5" customHeight="1" spans="1:22">
+      <c r="A77" s="9">
+        <v>30</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D77" s="22">
+        <v>101</v>
+      </c>
+      <c r="E77" s="13">
+        <v>0</v>
+      </c>
+      <c r="F77" s="13">
+        <v>4</v>
+      </c>
+      <c r="G77" s="13">
+        <v>1</v>
+      </c>
+      <c r="H77" s="13">
+        <v>5</v>
+      </c>
+      <c r="I77" s="13"/>
+      <c r="J77" s="13"/>
+      <c r="K77" s="13"/>
+      <c r="L77" s="13"/>
+      <c r="M77" s="13"/>
+      <c r="N77" s="13"/>
+      <c r="O77" s="13"/>
+      <c r="P77" s="13"/>
+      <c r="Q77" s="13"/>
+      <c r="R77" s="13"/>
+      <c r="S77" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="T77" s="13"/>
+      <c r="U77" s="13"/>
+      <c r="V77" s="27"/>
+    </row>
+    <row r="78" customFormat="1" ht="63.5" customHeight="1" spans="1:22">
+      <c r="A78" s="6">
+        <v>31</v>
+      </c>
+      <c r="B78" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C78" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D78" s="22">
+        <v>101</v>
+      </c>
+      <c r="E78" s="7">
+        <v>0</v>
+      </c>
+      <c r="F78" s="7">
+        <v>4</v>
+      </c>
+      <c r="G78" s="7">
+        <v>2</v>
+      </c>
+      <c r="H78" s="7">
+        <v>5</v>
+      </c>
+      <c r="I78" s="7"/>
+      <c r="J78" s="7"/>
+      <c r="K78" s="7"/>
+      <c r="L78" s="7"/>
+      <c r="M78" s="7"/>
+      <c r="N78" s="7"/>
+      <c r="O78" s="7"/>
+      <c r="P78" s="7"/>
+      <c r="Q78" s="7"/>
+      <c r="R78" s="7"/>
+      <c r="S78" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="T78" s="7"/>
+      <c r="U78" s="7"/>
+      <c r="V78" s="25"/>
+    </row>
+    <row r="79" customFormat="1" ht="63.5" customHeight="1" spans="1:22">
+      <c r="A79" s="9">
+        <v>32</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D79" s="22">
+        <v>101</v>
+      </c>
+      <c r="E79" s="13">
+        <v>0</v>
+      </c>
+      <c r="F79" s="13">
+        <v>4</v>
+      </c>
+      <c r="G79" s="13">
+        <v>3</v>
+      </c>
+      <c r="H79" s="13">
+        <v>5</v>
+      </c>
+      <c r="I79" s="13"/>
+      <c r="J79" s="13"/>
+      <c r="K79" s="13"/>
+      <c r="L79" s="13"/>
+      <c r="M79" s="13"/>
+      <c r="N79" s="13"/>
+      <c r="O79" s="13"/>
+      <c r="P79" s="13"/>
+      <c r="Q79" s="13"/>
+      <c r="R79" s="13"/>
+      <c r="S79" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="T79" s="13"/>
+      <c r="U79" s="13"/>
+      <c r="V79" s="27"/>
+    </row>
+    <row r="80" customFormat="1" ht="63.5" customHeight="1" spans="1:22">
+      <c r="A80" s="6">
+        <v>33</v>
+      </c>
+      <c r="B80" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C80" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D80" s="22">
+        <v>101</v>
+      </c>
+      <c r="E80" s="7">
+        <v>0</v>
+      </c>
+      <c r="F80" s="7">
+        <v>4</v>
+      </c>
+      <c r="G80" s="7">
+        <v>4</v>
+      </c>
+      <c r="H80" s="7">
+        <v>5</v>
+      </c>
+      <c r="I80" s="7"/>
+      <c r="J80" s="7"/>
+      <c r="K80" s="7"/>
+      <c r="L80" s="7"/>
+      <c r="M80" s="7"/>
+      <c r="N80" s="7"/>
+      <c r="O80" s="7"/>
+      <c r="P80" s="7"/>
+      <c r="Q80" s="7"/>
+      <c r="R80" s="7"/>
+      <c r="S80" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="T80" s="7"/>
+      <c r="U80" s="7"/>
+      <c r="V80" s="25"/>
+    </row>
+    <row r="81" customFormat="1" ht="63.5" customHeight="1" spans="1:22">
+      <c r="A81" s="9">
+        <v>34</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D81" s="22">
+        <v>101</v>
+      </c>
+      <c r="E81" s="13">
+        <v>0</v>
+      </c>
+      <c r="F81" s="13">
+        <v>4</v>
+      </c>
+      <c r="G81" s="13">
+        <v>5</v>
+      </c>
+      <c r="H81" s="13">
+        <v>5</v>
+      </c>
+      <c r="I81" s="13"/>
+      <c r="J81" s="13"/>
+      <c r="K81" s="13"/>
+      <c r="L81" s="13"/>
+      <c r="M81" s="13"/>
+      <c r="N81" s="13"/>
+      <c r="O81" s="13"/>
+      <c r="P81" s="13"/>
+      <c r="Q81" s="13"/>
+      <c r="R81" s="13"/>
+      <c r="S81" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="T81" s="13"/>
+      <c r="U81" s="13"/>
+      <c r="V81" s="27"/>
+    </row>
+    <row r="82" customFormat="1" ht="63.5" customHeight="1" spans="1:22">
+      <c r="A82" s="6">
+        <v>35</v>
+      </c>
+      <c r="B82" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C82" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D82" s="22">
+        <v>101</v>
+      </c>
+      <c r="E82" s="7">
+        <v>0</v>
+      </c>
+      <c r="F82" s="7">
+        <v>4</v>
+      </c>
+      <c r="G82" s="7">
+        <v>6</v>
+      </c>
+      <c r="H82" s="7">
+        <v>5</v>
+      </c>
+      <c r="I82" s="7"/>
+      <c r="J82" s="7"/>
+      <c r="K82" s="7"/>
+      <c r="L82" s="7"/>
+      <c r="M82" s="7"/>
+      <c r="N82" s="7"/>
+      <c r="O82" s="7"/>
+      <c r="P82" s="7"/>
+      <c r="Q82" s="7"/>
+      <c r="R82" s="7"/>
+      <c r="S82" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="T82" s="7"/>
+      <c r="U82" s="7"/>
+      <c r="V82" s="25"/>
+    </row>
+    <row r="83" customFormat="1" ht="63.5" customHeight="1" spans="1:22">
+      <c r="A83" s="9">
+        <v>36</v>
+      </c>
+      <c r="B83" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D83" s="22">
+        <v>101</v>
+      </c>
+      <c r="E83" s="13">
+        <v>0</v>
+      </c>
+      <c r="F83" s="13">
+        <v>4</v>
+      </c>
+      <c r="G83" s="13">
+        <v>7</v>
+      </c>
+      <c r="H83" s="13">
+        <v>5</v>
+      </c>
+      <c r="I83" s="13"/>
+      <c r="J83" s="13"/>
+      <c r="K83" s="13"/>
+      <c r="L83" s="13"/>
+      <c r="M83" s="13"/>
+      <c r="N83" s="13"/>
+      <c r="O83" s="13"/>
+      <c r="P83" s="13"/>
+      <c r="Q83" s="13"/>
+      <c r="R83" s="13"/>
+      <c r="S83" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="T83" s="13"/>
+      <c r="U83" s="13"/>
+      <c r="V83" s="27"/>
+    </row>
+    <row r="84" customFormat="1" ht="63.5" customHeight="1" spans="1:22">
+      <c r="A84" s="6">
+        <v>37</v>
+      </c>
+      <c r="B84" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C84" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D84" s="22">
+        <v>101</v>
+      </c>
+      <c r="E84" s="7">
+        <v>0</v>
+      </c>
+      <c r="F84" s="7">
+        <v>4</v>
+      </c>
+      <c r="G84" s="7">
+        <v>8</v>
+      </c>
+      <c r="H84" s="7">
+        <v>5</v>
+      </c>
+      <c r="I84" s="7"/>
+      <c r="J84" s="7"/>
+      <c r="K84" s="7"/>
+      <c r="L84" s="7"/>
+      <c r="M84" s="7"/>
+      <c r="N84" s="7"/>
+      <c r="O84" s="7"/>
+      <c r="P84" s="7"/>
+      <c r="Q84" s="7"/>
+      <c r="R84" s="7"/>
+      <c r="S84" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="T84" s="7"/>
+      <c r="U84" s="7"/>
+      <c r="V84" s="25"/>
+    </row>
+    <row r="85" customFormat="1" ht="47" customHeight="1" spans="1:22">
+      <c r="A85" s="9">
+        <v>38</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C85" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="D85" s="22">
+        <v>101</v>
+      </c>
+      <c r="E85" s="13">
+        <v>1</v>
+      </c>
+      <c r="F85" s="13">
+        <v>4</v>
+      </c>
+      <c r="G85" s="13">
+        <v>9</v>
+      </c>
+      <c r="H85" s="13">
+        <v>1</v>
+      </c>
+      <c r="I85" s="13"/>
+      <c r="J85" s="13"/>
+      <c r="K85" s="13"/>
+      <c r="L85" s="13"/>
+      <c r="M85" s="13"/>
+      <c r="N85" s="13"/>
+      <c r="O85" s="13"/>
+      <c r="P85" s="13"/>
+      <c r="Q85" s="13"/>
+      <c r="R85" s="13"/>
+      <c r="S85" s="26"/>
+      <c r="T85" s="13"/>
+      <c r="U85" s="13"/>
+      <c r="V85" s="27"/>
+    </row>
+    <row r="86" customFormat="1" ht="63.5" customHeight="1" spans="1:22">
+      <c r="A86" s="6">
+        <v>39</v>
+      </c>
+      <c r="B86" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C86" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D86" s="22">
+        <v>101</v>
+      </c>
+      <c r="E86" s="7">
+        <v>0</v>
+      </c>
+      <c r="F86" s="7">
+        <v>5</v>
+      </c>
+      <c r="G86" s="7">
+        <v>1</v>
+      </c>
+      <c r="H86" s="7">
+        <v>5</v>
+      </c>
+      <c r="I86" s="7"/>
+      <c r="J86" s="7"/>
+      <c r="K86" s="7"/>
+      <c r="L86" s="7"/>
+      <c r="M86" s="7"/>
+      <c r="N86" s="7"/>
+      <c r="O86" s="7"/>
+      <c r="P86" s="7"/>
+      <c r="Q86" s="7"/>
+      <c r="R86" s="7"/>
+      <c r="S86" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="T86" s="7"/>
+      <c r="U86" s="7"/>
+      <c r="V86" s="25"/>
+    </row>
+    <row r="87" customFormat="1" ht="63.5" customHeight="1" spans="1:22">
+      <c r="A87" s="9">
+        <v>40</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C87" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D87" s="22">
+        <v>101</v>
+      </c>
+      <c r="E87" s="13">
+        <v>0</v>
+      </c>
+      <c r="F87" s="13">
+        <v>5</v>
+      </c>
+      <c r="G87" s="13">
+        <v>2</v>
+      </c>
+      <c r="H87" s="13">
+        <v>5</v>
+      </c>
+      <c r="I87" s="13"/>
+      <c r="J87" s="13"/>
+      <c r="K87" s="13"/>
+      <c r="L87" s="13"/>
+      <c r="M87" s="13"/>
+      <c r="N87" s="13"/>
+      <c r="O87" s="13"/>
+      <c r="P87" s="13"/>
+      <c r="Q87" s="13"/>
+      <c r="R87" s="13"/>
+      <c r="S87" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="T87" s="13"/>
+      <c r="U87" s="13"/>
+      <c r="V87" s="27"/>
+    </row>
+    <row r="88" customFormat="1" ht="63.5" customHeight="1" spans="1:22">
+      <c r="A88" s="6">
+        <v>41</v>
+      </c>
+      <c r="B88" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C88" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D88" s="22">
+        <v>101</v>
+      </c>
+      <c r="E88" s="7">
+        <v>0</v>
+      </c>
+      <c r="F88" s="7">
+        <v>5</v>
+      </c>
+      <c r="G88" s="7">
+        <v>3</v>
+      </c>
+      <c r="H88" s="7">
+        <v>5</v>
+      </c>
+      <c r="I88" s="7"/>
+      <c r="J88" s="7"/>
+      <c r="K88" s="7"/>
+      <c r="L88" s="7"/>
+      <c r="M88" s="7"/>
+      <c r="N88" s="7"/>
+      <c r="O88" s="7"/>
+      <c r="P88" s="7"/>
+      <c r="Q88" s="7"/>
+      <c r="R88" s="7"/>
+      <c r="S88" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="T88" s="7"/>
+      <c r="U88" s="7"/>
+      <c r="V88" s="25"/>
+    </row>
+    <row r="89" customFormat="1" ht="63.5" customHeight="1" spans="1:22">
+      <c r="A89" s="9">
+        <v>42</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C89" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D89" s="22">
+        <v>101</v>
+      </c>
+      <c r="E89" s="13">
+        <v>0</v>
+      </c>
+      <c r="F89" s="13">
+        <v>5</v>
+      </c>
+      <c r="G89" s="13">
+        <v>4</v>
+      </c>
+      <c r="H89" s="13">
+        <v>5</v>
+      </c>
+      <c r="I89" s="13"/>
+      <c r="J89" s="13"/>
+      <c r="K89" s="13"/>
+      <c r="L89" s="13"/>
+      <c r="M89" s="13"/>
+      <c r="N89" s="13"/>
+      <c r="O89" s="13"/>
+      <c r="P89" s="13"/>
+      <c r="Q89" s="13"/>
+      <c r="R89" s="13"/>
+      <c r="S89" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="T89" s="13"/>
+      <c r="U89" s="13"/>
+      <c r="V89" s="27"/>
+    </row>
+    <row r="90" customFormat="1" ht="63.5" customHeight="1" spans="1:22">
+      <c r="A90" s="6">
+        <v>43</v>
+      </c>
+      <c r="B90" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C90" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D90" s="22">
+        <v>101</v>
+      </c>
+      <c r="E90" s="7">
+        <v>0</v>
+      </c>
+      <c r="F90" s="7">
+        <v>5</v>
+      </c>
+      <c r="G90" s="7">
+        <v>5</v>
+      </c>
+      <c r="H90" s="7">
+        <v>5</v>
+      </c>
+      <c r="I90" s="7"/>
+      <c r="J90" s="7"/>
+      <c r="K90" s="7"/>
+      <c r="L90" s="7"/>
+      <c r="M90" s="7"/>
+      <c r="N90" s="7"/>
+      <c r="O90" s="7"/>
+      <c r="P90" s="7"/>
+      <c r="Q90" s="7"/>
+      <c r="R90" s="7"/>
+      <c r="S90" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T90" s="7"/>
+      <c r="U90" s="7"/>
+      <c r="V90" s="25"/>
+    </row>
+    <row r="91" customFormat="1" ht="63.5" customHeight="1" spans="1:22">
+      <c r="A91" s="9">
+        <v>44</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C91" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D91" s="22">
+        <v>101</v>
+      </c>
+      <c r="E91" s="13">
+        <v>0</v>
+      </c>
+      <c r="F91" s="13">
+        <v>5</v>
+      </c>
+      <c r="G91" s="13">
+        <v>6</v>
+      </c>
+      <c r="H91" s="13">
+        <v>5</v>
+      </c>
+      <c r="I91" s="13"/>
+      <c r="J91" s="13"/>
+      <c r="K91" s="13"/>
+      <c r="L91" s="13"/>
+      <c r="M91" s="13"/>
+      <c r="N91" s="13"/>
+      <c r="O91" s="13"/>
+      <c r="P91" s="13"/>
+      <c r="Q91" s="13"/>
+      <c r="R91" s="13"/>
+      <c r="S91" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="T91" s="13"/>
+      <c r="U91" s="13"/>
+      <c r="V91" s="27"/>
+    </row>
+    <row r="92" customFormat="1" ht="63.5" customHeight="1" spans="1:22">
+      <c r="A92" s="6">
+        <v>45</v>
+      </c>
+      <c r="B92" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C92" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D92" s="22">
+        <v>101</v>
+      </c>
+      <c r="E92" s="7">
+        <v>0</v>
+      </c>
+      <c r="F92" s="7">
+        <v>5</v>
+      </c>
+      <c r="G92" s="7">
+        <v>7</v>
+      </c>
+      <c r="H92" s="7">
+        <v>5</v>
+      </c>
+      <c r="I92" s="7"/>
+      <c r="J92" s="7"/>
+      <c r="K92" s="7"/>
+      <c r="L92" s="7"/>
+      <c r="M92" s="7"/>
+      <c r="N92" s="7"/>
+      <c r="O92" s="7"/>
+      <c r="P92" s="7"/>
+      <c r="Q92" s="7"/>
+      <c r="R92" s="7"/>
+      <c r="S92" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="T92" s="7"/>
+      <c r="U92" s="7"/>
+      <c r="V92" s="25"/>
+    </row>
+    <row r="93" customFormat="1" ht="63.5" customHeight="1" spans="1:22">
+      <c r="A93" s="9">
+        <v>46</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C93" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D93" s="22">
+        <v>101</v>
+      </c>
+      <c r="E93" s="13">
+        <v>0</v>
+      </c>
+      <c r="F93" s="13">
+        <v>5</v>
+      </c>
+      <c r="G93" s="13">
+        <v>8</v>
+      </c>
+      <c r="H93" s="13">
+        <v>5</v>
+      </c>
+      <c r="I93" s="13"/>
+      <c r="J93" s="13"/>
+      <c r="K93" s="13"/>
+      <c r="L93" s="13"/>
+      <c r="M93" s="13"/>
+      <c r="N93" s="13"/>
+      <c r="O93" s="13"/>
+      <c r="P93" s="13"/>
+      <c r="Q93" s="13"/>
+      <c r="R93" s="13"/>
+      <c r="S93" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="T93" s="13"/>
+      <c r="U93" s="13"/>
+      <c r="V93" s="27"/>
+    </row>
+    <row r="94" customFormat="1" ht="30.5" customHeight="1" spans="1:22">
+      <c r="A94" s="17">
+        <v>47</v>
+      </c>
+      <c r="B94" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="C94" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D94" s="22">
+        <v>101</v>
+      </c>
+      <c r="E94" s="21">
+        <v>1</v>
+      </c>
+      <c r="F94" s="21">
+        <v>5</v>
+      </c>
+      <c r="G94" s="21">
+        <v>9</v>
+      </c>
+      <c r="H94" s="21">
+        <v>1</v>
+      </c>
+      <c r="I94" s="21"/>
+      <c r="J94" s="21"/>
+      <c r="K94" s="21"/>
+      <c r="L94" s="21"/>
+      <c r="M94" s="21"/>
+      <c r="N94" s="21"/>
+      <c r="O94" s="21"/>
+      <c r="P94" s="21"/>
+      <c r="Q94" s="21"/>
+      <c r="R94" s="21"/>
+      <c r="S94" s="28"/>
+      <c r="T94" s="21"/>
+      <c r="U94" s="21"/>
+      <c r="V94" s="29"/>
+    </row>
+    <row r="95" ht="14.25"/>
   </sheetData>
-  <conditionalFormatting sqref="E$1:E$1048576">
+  <conditionalFormatting sqref="E49:E94">
     <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E48 E95:E1048576">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>

--- a/excels/config/server/hero/server_hero_talent.xlsx
+++ b/excels/config/server/hero/server_hero_talent.xlsx
@@ -10,7 +10,7 @@
     <sheet name="server_talent_data" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">server_talent_data!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">server_talent_data!$J$1:$J$95</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="171">
   <si>
     <t>下标</t>
   </si>
@@ -109,6 +109,9 @@
     <t>520|285</t>
   </si>
   <si>
+    <t>Init</t>
+  </si>
+  <si>
     <t>MaxHealth {
 "Base" "25"
 }</t>
@@ -133,6 +136,9 @@
     <t>444|190</t>
   </si>
   <si>
+    <t>AttackDamage</t>
+  </si>
+  <si>
     <t>AttackDamage {
 "Base" "5"
 }</t>
@@ -147,6 +153,9 @@
     <t>349|188</t>
   </si>
   <si>
+    <t>DmgReductionPct</t>
+  </si>
+  <si>
     <t>DmgReductionPct {
 "Base" "5"
 }</t>
@@ -161,6 +170,9 @@
     <t>336|104</t>
   </si>
   <si>
+    <t>DamageBonusMul</t>
+  </si>
+  <si>
     <t>DamageBonusMul {
 "Base" "5"
 }</t>
@@ -175,6 +187,9 @@
     <t>220|104</t>
   </si>
   <si>
+    <t>HealthRegen</t>
+  </si>
+  <si>
     <t>HealthRegen {
 "Base" "3"
 }</t>
@@ -189,6 +204,9 @@
     <t>272|175</t>
   </si>
   <si>
+    <t>MoveSpeed</t>
+  </si>
+  <si>
     <t>MoveSpeed {
 "BasePercent" "2.5"
 }</t>
@@ -203,6 +221,9 @@
     <t>222|243</t>
   </si>
   <si>
+    <t>AbilityHaste</t>
+  </si>
+  <si>
     <t>AbilityHaste {
 "Base" "5"
 }</t>
@@ -217,6 +238,9 @@
     <t>172|170</t>
   </si>
   <si>
+    <t>CriticalChance</t>
+  </si>
+  <si>
     <t>CriticalChance {
 "Base" "2.5"
 }</t>
@@ -231,6 +255,9 @@
     <t>116|106</t>
   </si>
   <si>
+    <t>CriticalDamage</t>
+  </si>
+  <si>
     <t>CriticalDamage {
 "Base" "10"
 }</t>
@@ -247,6 +274,9 @@
     <t>84|242</t>
   </si>
   <si>
+    <t>null</t>
+  </si>
+  <si>
     <t>第一层·2</t>
   </si>
   <si>
@@ -254,6 +284,9 @@
   </si>
   <si>
     <t>592|193</t>
+  </si>
+  <si>
+    <t>MaxHealth</t>
   </si>
   <si>
     <t>MaxHealth {
@@ -282,6 +315,9 @@
     <t>808|106</t>
   </si>
   <si>
+    <t>ManaRegen</t>
+  </si>
+  <si>
     <t>ManaRegen {
 "Base" "1"
 }</t>
@@ -330,6 +366,9 @@
     <t>628|326</t>
   </si>
   <si>
+    <t>PhyicalArmor</t>
+  </si>
+  <si>
     <t>PhyicalArmor {
 "Base" "3"
 }</t>
@@ -422,6 +461,9 @@
     <t>463|564</t>
   </si>
   <si>
+    <t>SingleExpeIncrease</t>
+  </si>
+  <si>
     <t>SingleExpeIncrease {
 "Base" "2.5"
 }</t>
@@ -486,6 +528,9 @@
   </si>
   <si>
     <t>206|354</t>
+  </si>
+  <si>
+    <t>PickItemRadius</t>
   </si>
   <si>
     <t>PickItemRadius {
@@ -1885,31 +1930,31 @@
     </dxf>
   </dxfs>
   <tableStyles count="5" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{97EB4648-285E-41A3-B30E-04D88CF47EA4}">
+    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{A66E1585-E456-4766-AA8B-A50A01754C91}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
       <tableStyleElement type="firstColumnStripe" dxfId="1"/>
       <tableStyleElement type="secondColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{B9C08525-C312-45CD-8D6E-513FA02A813E}">
+    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{DD77814D-2336-4A49-BCD6-E7EE99F076F9}">
       <tableStyleElement type="wholeTable" dxfId="9"/>
       <tableStyleElement type="headerRow" dxfId="8"/>
       <tableStyleElement type="totalRow" dxfId="7"/>
       <tableStyleElement type="firstRowStripe" dxfId="6"/>
       <tableStyleElement type="secondRowStripe" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{EE87AAD3-CC44-42A9-AF57-D671FFC201D0}">
+    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{532CDA6C-16DF-441D-8654-17F1F9817B31}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="firstRowStripe" dxfId="11"/>
       <tableStyleElement type="secondRowStripe" dxfId="10"/>
     </tableStyle>
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{6F453F5C-D4B7-4EE3-8613-2E6A2269F11B}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{3190EE43-5CF1-486F-AF5D-96348C8BEB42}">
       <tableStyleElement type="wholeTable" dxfId="15"/>
       <tableStyleElement type="headerRow" dxfId="14"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{F286A0A5-FEFA-4802-A2D9-DDC230AF03C0}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{E63DE3F6-69FB-45B2-82C8-4D3AFCBAABA1}">
       <tableStyleElement type="wholeTable" dxfId="18"/>
       <tableStyleElement type="headerRow" dxfId="17"/>
       <tableStyleElement type="secondRowStripe" dxfId="16"/>
@@ -2215,26 +2260,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W95"/>
+  <dimension ref="A1:W94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="F1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="J1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="G40" sqref="G40"/>
+      <selection pane="topRight" activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.675" customWidth="1"/>
     <col min="2" max="2" width="16.175" customWidth="1"/>
-    <col min="3" max="3" width="50.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.75" style="1" customWidth="1"/>
     <col min="4" max="4" width="14.3416666666667" style="1" customWidth="1"/>
     <col min="5" max="5" width="16.175" customWidth="1"/>
     <col min="6" max="6" width="17.5083333333333" customWidth="1"/>
     <col min="7" max="7" width="18.0083333333333" customWidth="1"/>
     <col min="8" max="8" width="25.5083333333333" customWidth="1"/>
     <col min="9" max="9" width="25.5083333333333" style="2" customWidth="1"/>
-    <col min="10" max="10" width="14.3416666666667" customWidth="1"/>
+    <col min="10" max="10" width="25.75" customWidth="1"/>
     <col min="11" max="11" width="20.3416666666667" style="3" customWidth="1"/>
     <col min="12" max="17" width="8.24166666666667" style="3" customWidth="1"/>
     <col min="18" max="18" width="10.675" style="3" customWidth="1"/>
@@ -2409,7 +2454,9 @@
       <c r="I3" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="14"/>
+      <c r="J3" s="14" t="s">
+        <v>25</v>
+      </c>
       <c r="K3" s="14"/>
       <c r="L3" s="14"/>
       <c r="M3" s="14"/>
@@ -2420,13 +2467,13 @@
       <c r="R3" s="14"/>
       <c r="S3" s="14"/>
       <c r="T3" s="27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="U3" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="V3" s="14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="W3" s="28"/>
     </row>
@@ -2435,10 +2482,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D4" s="17">
         <v>6</v>
@@ -2456,9 +2503,11 @@
         <v>5</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="8"/>
+        <v>31</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
@@ -2469,7 +2518,7 @@
       <c r="R4" s="8"/>
       <c r="S4" s="8"/>
       <c r="T4" s="9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="U4" s="8"/>
       <c r="V4" s="8"/>
@@ -2480,10 +2529,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D5" s="13">
         <v>6</v>
@@ -2501,9 +2550,11 @@
         <v>5</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" s="14"/>
+        <v>36</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>37</v>
+      </c>
       <c r="K5" s="14"/>
       <c r="L5" s="14"/>
       <c r="M5" s="14"/>
@@ -2514,7 +2565,7 @@
       <c r="R5" s="14"/>
       <c r="S5" s="14"/>
       <c r="T5" s="27" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U5" s="14"/>
       <c r="V5" s="14"/>
@@ -2525,10 +2576,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D6" s="17">
         <v>6</v>
@@ -2546,9 +2597,11 @@
         <v>5</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6" s="8"/>
+        <v>41</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
@@ -2559,7 +2612,7 @@
       <c r="R6" s="8"/>
       <c r="S6" s="8"/>
       <c r="T6" s="9" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="U6" s="8"/>
       <c r="V6" s="8"/>
@@ -2570,10 +2623,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D7" s="13">
         <v>6</v>
@@ -2591,9 +2644,11 @@
         <v>5</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="J7" s="14"/>
+        <v>46</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>47</v>
+      </c>
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
       <c r="M7" s="14"/>
@@ -2604,7 +2659,7 @@
       <c r="R7" s="14"/>
       <c r="S7" s="14"/>
       <c r="T7" s="27" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="U7" s="14"/>
       <c r="V7" s="14"/>
@@ -2615,10 +2670,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D8" s="17">
         <v>6</v>
@@ -2636,9 +2691,11 @@
         <v>5</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="J8" s="8"/>
+        <v>51</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
@@ -2649,7 +2706,7 @@
       <c r="R8" s="8"/>
       <c r="S8" s="8"/>
       <c r="T8" s="9" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="U8" s="8"/>
       <c r="V8" s="8"/>
@@ -2660,10 +2717,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D9" s="13">
         <v>6</v>
@@ -2681,9 +2738,11 @@
         <v>5</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="J9" s="14"/>
+        <v>56</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>57</v>
+      </c>
       <c r="K9" s="14"/>
       <c r="L9" s="14"/>
       <c r="M9" s="14"/>
@@ -2694,7 +2753,7 @@
       <c r="R9" s="14"/>
       <c r="S9" s="14"/>
       <c r="T9" s="27" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="U9" s="14"/>
       <c r="V9" s="14"/>
@@ -2705,10 +2764,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D10" s="17">
         <v>6</v>
@@ -2726,9 +2785,11 @@
         <v>5</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="J10" s="8"/>
+        <v>61</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>62</v>
+      </c>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
@@ -2739,7 +2800,7 @@
       <c r="R10" s="8"/>
       <c r="S10" s="8"/>
       <c r="T10" s="9" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="U10" s="8"/>
       <c r="V10" s="8"/>
@@ -2750,10 +2811,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D11" s="13">
         <v>6</v>
@@ -2771,9 +2832,11 @@
         <v>5</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="J11" s="14"/>
+        <v>66</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>67</v>
+      </c>
       <c r="K11" s="14"/>
       <c r="L11" s="14"/>
       <c r="M11" s="14"/>
@@ -2784,7 +2847,7 @@
       <c r="R11" s="14"/>
       <c r="S11" s="14"/>
       <c r="T11" s="27" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="U11" s="14"/>
       <c r="V11" s="14"/>
@@ -2795,10 +2858,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="D12" s="17">
         <v>6</v>
@@ -2816,9 +2879,11 @@
         <v>1</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="J12" s="8"/>
+        <v>71</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>72</v>
+      </c>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
@@ -2838,10 +2903,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="D13" s="13">
         <v>6</v>
@@ -2859,9 +2924,11 @@
         <v>5</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="J13" s="14"/>
+        <v>75</v>
+      </c>
+      <c r="J13" s="14" t="s">
+        <v>76</v>
+      </c>
       <c r="K13" s="14"/>
       <c r="L13" s="14"/>
       <c r="M13" s="14"/>
@@ -2872,7 +2939,7 @@
       <c r="R13" s="14"/>
       <c r="S13" s="14"/>
       <c r="T13" s="27" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="U13" s="14"/>
       <c r="V13" s="14"/>
@@ -2883,10 +2950,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D14" s="17">
         <v>6</v>
@@ -2904,9 +2971,11 @@
         <v>5</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="J14" s="8"/>
+        <v>79</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
@@ -2917,7 +2986,7 @@
       <c r="R14" s="8"/>
       <c r="S14" s="8"/>
       <c r="T14" s="9" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="U14" s="8"/>
       <c r="V14" s="8"/>
@@ -2928,10 +2997,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D15" s="13">
         <v>6</v>
@@ -2949,9 +3018,11 @@
         <v>5</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="J15" s="14"/>
+        <v>81</v>
+      </c>
+      <c r="J15" s="14" t="s">
+        <v>37</v>
+      </c>
       <c r="K15" s="14"/>
       <c r="L15" s="14"/>
       <c r="M15" s="14"/>
@@ -2962,7 +3033,7 @@
       <c r="R15" s="14"/>
       <c r="S15" s="14"/>
       <c r="T15" s="27" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U15" s="14"/>
       <c r="V15" s="14"/>
@@ -2973,10 +3044,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="D16" s="17">
         <v>6</v>
@@ -2994,9 +3065,11 @@
         <v>5</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="J16" s="8"/>
+        <v>84</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>85</v>
+      </c>
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
@@ -3007,7 +3080,7 @@
       <c r="R16" s="8"/>
       <c r="S16" s="8"/>
       <c r="T16" s="9" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="U16" s="8"/>
       <c r="V16" s="8"/>
@@ -3018,10 +3091,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D17" s="13">
         <v>6</v>
@@ -3039,9 +3112,11 @@
         <v>5</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="J17" s="14"/>
+        <v>88</v>
+      </c>
+      <c r="J17" s="14" t="s">
+        <v>52</v>
+      </c>
       <c r="K17" s="14"/>
       <c r="L17" s="14"/>
       <c r="M17" s="14"/>
@@ -3052,7 +3127,7 @@
       <c r="R17" s="14"/>
       <c r="S17" s="14"/>
       <c r="T17" s="27" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="U17" s="14"/>
       <c r="V17" s="14"/>
@@ -3063,10 +3138,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D18" s="17">
         <v>6</v>
@@ -3084,9 +3159,11 @@
         <v>5</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="J18" s="8"/>
+        <v>90</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
@@ -3097,7 +3174,7 @@
       <c r="R18" s="8"/>
       <c r="S18" s="8"/>
       <c r="T18" s="9" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="U18" s="8"/>
       <c r="V18" s="8"/>
@@ -3108,10 +3185,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D19" s="13">
         <v>6</v>
@@ -3129,9 +3206,11 @@
         <v>5</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="J19" s="14"/>
+        <v>92</v>
+      </c>
+      <c r="J19" s="14" t="s">
+        <v>62</v>
+      </c>
       <c r="K19" s="14"/>
       <c r="L19" s="14"/>
       <c r="M19" s="14"/>
@@ -3142,7 +3221,7 @@
       <c r="R19" s="14"/>
       <c r="S19" s="14"/>
       <c r="T19" s="27" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="U19" s="14"/>
       <c r="V19" s="14"/>
@@ -3153,10 +3232,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D20" s="17">
         <v>6</v>
@@ -3174,9 +3253,11 @@
         <v>5</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="J20" s="8"/>
+        <v>94</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>67</v>
+      </c>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
@@ -3187,7 +3268,7 @@
       <c r="R20" s="8"/>
       <c r="S20" s="8"/>
       <c r="T20" s="9" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="U20" s="8"/>
       <c r="V20" s="8"/>
@@ -3198,10 +3279,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="D21" s="13">
         <v>6</v>
@@ -3219,9 +3300,11 @@
         <v>1</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="J21" s="14"/>
+        <v>97</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>72</v>
+      </c>
       <c r="K21" s="14"/>
       <c r="L21" s="14"/>
       <c r="M21" s="14"/>
@@ -3241,10 +3324,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="D22" s="17">
         <v>6</v>
@@ -3262,9 +3345,11 @@
         <v>5</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="J22" s="8"/>
+        <v>100</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>101</v>
+      </c>
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
@@ -3275,7 +3360,7 @@
       <c r="R22" s="8"/>
       <c r="S22" s="8"/>
       <c r="T22" s="9" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="U22" s="8"/>
       <c r="V22" s="8"/>
@@ -3286,10 +3371,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D23" s="13">
         <v>6</v>
@@ -3307,9 +3392,11 @@
         <v>5</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="J23" s="14"/>
+        <v>104</v>
+      </c>
+      <c r="J23" s="14" t="s">
+        <v>42</v>
+      </c>
       <c r="K23" s="14"/>
       <c r="L23" s="14"/>
       <c r="M23" s="14"/>
@@ -3320,7 +3407,7 @@
       <c r="R23" s="14"/>
       <c r="S23" s="14"/>
       <c r="T23" s="27" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="U23" s="14"/>
       <c r="V23" s="14"/>
@@ -3331,10 +3418,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D24" s="17">
         <v>6</v>
@@ -3352,9 +3439,11 @@
         <v>5</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="J24" s="8"/>
+        <v>106</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>37</v>
+      </c>
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
       <c r="M24" s="8"/>
@@ -3365,7 +3454,7 @@
       <c r="R24" s="8"/>
       <c r="S24" s="8"/>
       <c r="T24" s="9" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U24" s="8"/>
       <c r="V24" s="8"/>
@@ -3376,10 +3465,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="D25" s="13">
         <v>6</v>
@@ -3397,9 +3486,11 @@
         <v>5</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="J25" s="14"/>
+        <v>109</v>
+      </c>
+      <c r="J25" s="14" t="s">
+        <v>32</v>
+      </c>
       <c r="K25" s="14"/>
       <c r="L25" s="14"/>
       <c r="M25" s="14"/>
@@ -3410,7 +3501,7 @@
       <c r="R25" s="14"/>
       <c r="S25" s="14"/>
       <c r="T25" s="27" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="U25" s="14"/>
       <c r="V25" s="14"/>
@@ -3421,10 +3512,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D26" s="17">
         <v>6</v>
@@ -3442,9 +3533,11 @@
         <v>5</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="J26" s="8"/>
+        <v>112</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
       <c r="M26" s="8"/>
@@ -3455,7 +3548,7 @@
       <c r="R26" s="8"/>
       <c r="S26" s="8"/>
       <c r="T26" s="9" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="U26" s="8"/>
       <c r="V26" s="8"/>
@@ -3466,10 +3559,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D27" s="13">
         <v>6</v>
@@ -3487,9 +3580,11 @@
         <v>5</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="J27" s="14"/>
+        <v>114</v>
+      </c>
+      <c r="J27" s="14" t="s">
+        <v>57</v>
+      </c>
       <c r="K27" s="14"/>
       <c r="L27" s="14"/>
       <c r="M27" s="14"/>
@@ -3500,7 +3595,7 @@
       <c r="R27" s="14"/>
       <c r="S27" s="14"/>
       <c r="T27" s="27" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="U27" s="14"/>
       <c r="V27" s="14"/>
@@ -3511,10 +3606,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D28" s="17">
         <v>6</v>
@@ -3532,9 +3627,11 @@
         <v>5</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="J28" s="8"/>
+        <v>116</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>62</v>
+      </c>
       <c r="K28" s="8"/>
       <c r="L28" s="8"/>
       <c r="M28" s="8"/>
@@ -3545,7 +3642,7 @@
       <c r="R28" s="8"/>
       <c r="S28" s="8"/>
       <c r="T28" s="9" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="U28" s="8"/>
       <c r="V28" s="8"/>
@@ -3556,10 +3653,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D29" s="13">
         <v>6</v>
@@ -3577,9 +3674,11 @@
         <v>5</v>
       </c>
       <c r="I29" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="J29" s="14"/>
+        <v>118</v>
+      </c>
+      <c r="J29" s="14" t="s">
+        <v>67</v>
+      </c>
       <c r="K29" s="14"/>
       <c r="L29" s="14"/>
       <c r="M29" s="14"/>
@@ -3590,21 +3689,21 @@
       <c r="R29" s="14"/>
       <c r="S29" s="14"/>
       <c r="T29" s="27" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="U29" s="14"/>
       <c r="V29" s="14"/>
       <c r="W29" s="28"/>
     </row>
-    <row r="30" customFormat="1" ht="47" customHeight="1" spans="1:23">
+    <row r="30" customFormat="1" ht="66" spans="1:23">
       <c r="A30" s="7">
         <v>29</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="D30" s="17">
         <v>6</v>
@@ -3622,9 +3721,11 @@
         <v>1</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="J30" s="8"/>
+        <v>121</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>72</v>
+      </c>
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
       <c r="M30" s="8"/>
@@ -3644,10 +3745,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="D31" s="13">
         <v>6</v>
@@ -3665,9 +3766,11 @@
         <v>5</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="J31" s="14"/>
+        <v>123</v>
+      </c>
+      <c r="J31" s="14" t="s">
+        <v>76</v>
+      </c>
       <c r="K31" s="14"/>
       <c r="L31" s="14"/>
       <c r="M31" s="14"/>
@@ -3678,7 +3781,7 @@
       <c r="R31" s="14"/>
       <c r="S31" s="14"/>
       <c r="T31" s="27" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="U31" s="14"/>
       <c r="V31" s="14"/>
@@ -3689,10 +3792,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D32" s="17">
         <v>6</v>
@@ -3710,9 +3813,11 @@
         <v>5</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="J32" s="8"/>
+        <v>125</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
       <c r="M32" s="8"/>
@@ -3723,7 +3828,7 @@
       <c r="R32" s="8"/>
       <c r="S32" s="8"/>
       <c r="T32" s="9" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="U32" s="8"/>
       <c r="V32" s="8"/>
@@ -3734,10 +3839,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D33" s="13">
         <v>6</v>
@@ -3755,9 +3860,11 @@
         <v>5</v>
       </c>
       <c r="I33" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="J33" s="14"/>
+        <v>127</v>
+      </c>
+      <c r="J33" s="14" t="s">
+        <v>37</v>
+      </c>
       <c r="K33" s="14"/>
       <c r="L33" s="14"/>
       <c r="M33" s="14"/>
@@ -3768,7 +3875,7 @@
       <c r="R33" s="14"/>
       <c r="S33" s="14"/>
       <c r="T33" s="27" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U33" s="14"/>
       <c r="V33" s="14"/>
@@ -3779,10 +3886,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="D34" s="17">
         <v>6</v>
@@ -3800,9 +3907,11 @@
         <v>5</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="J34" s="8"/>
+        <v>130</v>
+      </c>
+      <c r="J34" s="8" t="s">
+        <v>131</v>
+      </c>
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
       <c r="M34" s="8"/>
@@ -3813,7 +3922,7 @@
       <c r="R34" s="8"/>
       <c r="S34" s="8"/>
       <c r="T34" s="9" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="U34" s="8"/>
       <c r="V34" s="8"/>
@@ -3824,10 +3933,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D35" s="13">
         <v>6</v>
@@ -3845,9 +3954,11 @@
         <v>5</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="J35" s="14"/>
+        <v>134</v>
+      </c>
+      <c r="J35" s="14" t="s">
+        <v>52</v>
+      </c>
       <c r="K35" s="14"/>
       <c r="L35" s="14"/>
       <c r="M35" s="14"/>
@@ -3858,7 +3969,7 @@
       <c r="R35" s="14"/>
       <c r="S35" s="14"/>
       <c r="T35" s="27" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="U35" s="14"/>
       <c r="V35" s="14"/>
@@ -3869,10 +3980,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D36" s="17">
         <v>6</v>
@@ -3890,9 +4001,11 @@
         <v>5</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="J36" s="8"/>
+        <v>136</v>
+      </c>
+      <c r="J36" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
       <c r="M36" s="8"/>
@@ -3903,7 +4016,7 @@
       <c r="R36" s="8"/>
       <c r="S36" s="8"/>
       <c r="T36" s="9" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="U36" s="8"/>
       <c r="V36" s="8"/>
@@ -3914,10 +4027,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D37" s="13">
         <v>6</v>
@@ -3935,9 +4048,11 @@
         <v>5</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="J37" s="14"/>
+        <v>138</v>
+      </c>
+      <c r="J37" s="14" t="s">
+        <v>62</v>
+      </c>
       <c r="K37" s="14"/>
       <c r="L37" s="14"/>
       <c r="M37" s="14"/>
@@ -3948,7 +4063,7 @@
       <c r="R37" s="14"/>
       <c r="S37" s="14"/>
       <c r="T37" s="27" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="U37" s="14"/>
       <c r="V37" s="14"/>
@@ -3959,10 +4074,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D38" s="17">
         <v>6</v>
@@ -3980,9 +4095,11 @@
         <v>5</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="J38" s="8"/>
+        <v>140</v>
+      </c>
+      <c r="J38" s="8" t="s">
+        <v>67</v>
+      </c>
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
       <c r="M38" s="8"/>
@@ -3993,7 +4110,7 @@
       <c r="R38" s="8"/>
       <c r="S38" s="8"/>
       <c r="T38" s="9" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="U38" s="8"/>
       <c r="V38" s="8"/>
@@ -4004,10 +4121,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="D39" s="13">
         <v>6</v>
@@ -4025,9 +4142,11 @@
         <v>1</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="J39" s="14"/>
+        <v>143</v>
+      </c>
+      <c r="J39" s="8" t="s">
+        <v>72</v>
+      </c>
       <c r="K39" s="14"/>
       <c r="L39" s="14"/>
       <c r="M39" s="14"/>
@@ -4047,10 +4166,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D40" s="17">
         <v>6</v>
@@ -4068,9 +4187,11 @@
         <v>5</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="J40" s="8"/>
+        <v>145</v>
+      </c>
+      <c r="J40" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="K40" s="8"/>
       <c r="L40" s="8"/>
       <c r="M40" s="8"/>
@@ -4081,7 +4202,7 @@
       <c r="R40" s="8"/>
       <c r="S40" s="8"/>
       <c r="T40" s="9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="U40" s="8"/>
       <c r="V40" s="8"/>
@@ -4092,10 +4213,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D41" s="13">
         <v>6</v>
@@ -4113,9 +4234,11 @@
         <v>5</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="J41" s="14"/>
+        <v>147</v>
+      </c>
+      <c r="J41" s="14" t="s">
+        <v>37</v>
+      </c>
       <c r="K41" s="14"/>
       <c r="L41" s="14"/>
       <c r="M41" s="14"/>
@@ -4126,7 +4249,7 @@
       <c r="R41" s="14"/>
       <c r="S41" s="14"/>
       <c r="T41" s="27" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U41" s="14"/>
       <c r="V41" s="14"/>
@@ -4137,10 +4260,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D42" s="17">
         <v>6</v>
@@ -4158,9 +4281,11 @@
         <v>5</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="J42" s="8"/>
+        <v>149</v>
+      </c>
+      <c r="J42" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="K42" s="8"/>
       <c r="L42" s="8"/>
       <c r="M42" s="8"/>
@@ -4171,7 +4296,7 @@
       <c r="R42" s="8"/>
       <c r="S42" s="8"/>
       <c r="T42" s="9" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="U42" s="8"/>
       <c r="V42" s="8"/>
@@ -4182,10 +4307,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="D43" s="13">
         <v>6</v>
@@ -4203,9 +4328,11 @@
         <v>5</v>
       </c>
       <c r="I43" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="J43" s="14"/>
+        <v>152</v>
+      </c>
+      <c r="J43" s="14" t="s">
+        <v>153</v>
+      </c>
       <c r="K43" s="14"/>
       <c r="L43" s="14"/>
       <c r="M43" s="14"/>
@@ -4216,7 +4343,7 @@
       <c r="R43" s="14"/>
       <c r="S43" s="14"/>
       <c r="T43" s="27" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="U43" s="14"/>
       <c r="V43" s="14"/>
@@ -4227,10 +4354,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D44" s="17">
         <v>6</v>
@@ -4248,9 +4375,11 @@
         <v>5</v>
       </c>
       <c r="I44" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="J44" s="8"/>
+        <v>156</v>
+      </c>
+      <c r="J44" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="K44" s="8"/>
       <c r="L44" s="8"/>
       <c r="M44" s="8"/>
@@ -4261,7 +4390,7 @@
       <c r="R44" s="8"/>
       <c r="S44" s="8"/>
       <c r="T44" s="9" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="U44" s="8"/>
       <c r="V44" s="8"/>
@@ -4272,10 +4401,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D45" s="13">
         <v>6</v>
@@ -4293,9 +4422,11 @@
         <v>5</v>
       </c>
       <c r="I45" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="J45" s="14"/>
+        <v>158</v>
+      </c>
+      <c r="J45" s="14" t="s">
+        <v>57</v>
+      </c>
       <c r="K45" s="14"/>
       <c r="L45" s="14"/>
       <c r="M45" s="14"/>
@@ -4306,7 +4437,7 @@
       <c r="R45" s="14"/>
       <c r="S45" s="14"/>
       <c r="T45" s="27" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="U45" s="14"/>
       <c r="V45" s="14"/>
@@ -4317,10 +4448,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D46" s="17">
         <v>6</v>
@@ -4338,9 +4469,11 @@
         <v>5</v>
       </c>
       <c r="I46" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="J46" s="8"/>
+        <v>160</v>
+      </c>
+      <c r="J46" s="8" t="s">
+        <v>62</v>
+      </c>
       <c r="K46" s="8"/>
       <c r="L46" s="8"/>
       <c r="M46" s="8"/>
@@ -4351,7 +4484,7 @@
       <c r="R46" s="8"/>
       <c r="S46" s="8"/>
       <c r="T46" s="9" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="U46" s="8"/>
       <c r="V46" s="8"/>
@@ -4362,10 +4495,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D47" s="13">
         <v>6</v>
@@ -4383,9 +4516,11 @@
         <v>5</v>
       </c>
       <c r="I47" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="J47" s="14"/>
+        <v>162</v>
+      </c>
+      <c r="J47" s="14" t="s">
+        <v>67</v>
+      </c>
       <c r="K47" s="14"/>
       <c r="L47" s="14"/>
       <c r="M47" s="14"/>
@@ -4396,7 +4531,7 @@
       <c r="R47" s="14"/>
       <c r="S47" s="14"/>
       <c r="T47" s="27" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="U47" s="14"/>
       <c r="V47" s="14"/>
@@ -4407,10 +4542,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="D48" s="20">
         <v>6</v>
@@ -4428,9 +4563,11 @@
         <v>1</v>
       </c>
       <c r="I48" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="J48" s="21"/>
+        <v>165</v>
+      </c>
+      <c r="J48" s="21" t="s">
+        <v>72</v>
+      </c>
       <c r="K48" s="21"/>
       <c r="L48" s="21"/>
       <c r="M48" s="21"/>
@@ -4473,7 +4610,9 @@
       <c r="I49" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="J49" s="14"/>
+      <c r="J49" s="14" t="s">
+        <v>25</v>
+      </c>
       <c r="K49" s="14"/>
       <c r="L49" s="14"/>
       <c r="M49" s="14"/>
@@ -4484,13 +4623,13 @@
       <c r="R49" s="14"/>
       <c r="S49" s="14"/>
       <c r="T49" s="27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="U49" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="V49" s="14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="W49" s="28"/>
     </row>
@@ -4499,10 +4638,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D50" s="22">
         <v>101</v>
@@ -4520,9 +4659,11 @@
         <v>5</v>
       </c>
       <c r="I50" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="J50" s="8"/>
+        <v>31</v>
+      </c>
+      <c r="J50" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="K50" s="8"/>
       <c r="L50" s="8"/>
       <c r="M50" s="8"/>
@@ -4533,7 +4674,7 @@
       <c r="R50" s="8"/>
       <c r="S50" s="8"/>
       <c r="T50" s="9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="U50" s="8"/>
       <c r="V50" s="8"/>
@@ -4544,10 +4685,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D51" s="22">
         <v>101</v>
@@ -4565,9 +4706,11 @@
         <v>5</v>
       </c>
       <c r="I51" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J51" s="14"/>
+        <v>36</v>
+      </c>
+      <c r="J51" s="14" t="s">
+        <v>37</v>
+      </c>
       <c r="K51" s="14"/>
       <c r="L51" s="14"/>
       <c r="M51" s="14"/>
@@ -4578,7 +4721,7 @@
       <c r="R51" s="14"/>
       <c r="S51" s="14"/>
       <c r="T51" s="27" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U51" s="14"/>
       <c r="V51" s="14"/>
@@ -4589,10 +4732,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D52" s="22">
         <v>101</v>
@@ -4610,9 +4753,11 @@
         <v>5</v>
       </c>
       <c r="I52" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="J52" s="8"/>
+        <v>41</v>
+      </c>
+      <c r="J52" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="K52" s="8"/>
       <c r="L52" s="8"/>
       <c r="M52" s="8"/>
@@ -4623,7 +4768,7 @@
       <c r="R52" s="8"/>
       <c r="S52" s="8"/>
       <c r="T52" s="9" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="U52" s="8"/>
       <c r="V52" s="8"/>
@@ -4634,10 +4779,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D53" s="22">
         <v>101</v>
@@ -4655,9 +4800,11 @@
         <v>5</v>
       </c>
       <c r="I53" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="J53" s="14"/>
+        <v>46</v>
+      </c>
+      <c r="J53" s="14" t="s">
+        <v>47</v>
+      </c>
       <c r="K53" s="14"/>
       <c r="L53" s="14"/>
       <c r="M53" s="14"/>
@@ -4668,7 +4815,7 @@
       <c r="R53" s="14"/>
       <c r="S53" s="14"/>
       <c r="T53" s="27" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="U53" s="14"/>
       <c r="V53" s="14"/>
@@ -4679,10 +4826,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D54" s="22">
         <v>101</v>
@@ -4700,9 +4847,11 @@
         <v>5</v>
       </c>
       <c r="I54" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="J54" s="8"/>
+        <v>51</v>
+      </c>
+      <c r="J54" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="K54" s="8"/>
       <c r="L54" s="8"/>
       <c r="M54" s="8"/>
@@ -4713,7 +4862,7 @@
       <c r="R54" s="8"/>
       <c r="S54" s="8"/>
       <c r="T54" s="9" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="U54" s="8"/>
       <c r="V54" s="8"/>
@@ -4724,10 +4873,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D55" s="22">
         <v>101</v>
@@ -4745,9 +4894,11 @@
         <v>5</v>
       </c>
       <c r="I55" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="J55" s="14"/>
+        <v>56</v>
+      </c>
+      <c r="J55" s="14" t="s">
+        <v>57</v>
+      </c>
       <c r="K55" s="14"/>
       <c r="L55" s="14"/>
       <c r="M55" s="14"/>
@@ -4758,7 +4909,7 @@
       <c r="R55" s="14"/>
       <c r="S55" s="14"/>
       <c r="T55" s="27" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="U55" s="14"/>
       <c r="V55" s="14"/>
@@ -4769,10 +4920,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D56" s="22">
         <v>101</v>
@@ -4790,9 +4941,11 @@
         <v>5</v>
       </c>
       <c r="I56" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="J56" s="8"/>
+        <v>61</v>
+      </c>
+      <c r="J56" s="8" t="s">
+        <v>62</v>
+      </c>
       <c r="K56" s="8"/>
       <c r="L56" s="8"/>
       <c r="M56" s="8"/>
@@ -4803,7 +4956,7 @@
       <c r="R56" s="8"/>
       <c r="S56" s="8"/>
       <c r="T56" s="9" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="U56" s="8"/>
       <c r="V56" s="8"/>
@@ -4814,10 +4967,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D57" s="22">
         <v>101</v>
@@ -4835,9 +4988,11 @@
         <v>5</v>
       </c>
       <c r="I57" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="J57" s="14"/>
+        <v>66</v>
+      </c>
+      <c r="J57" s="14" t="s">
+        <v>67</v>
+      </c>
       <c r="K57" s="14"/>
       <c r="L57" s="14"/>
       <c r="M57" s="14"/>
@@ -4848,7 +5003,7 @@
       <c r="R57" s="14"/>
       <c r="S57" s="14"/>
       <c r="T57" s="27" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="U57" s="14"/>
       <c r="V57" s="14"/>
@@ -4859,10 +5014,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="C58" s="23" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="D58" s="22">
         <v>101</v>
@@ -4880,9 +5035,11 @@
         <v>1</v>
       </c>
       <c r="I58" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="J58" s="8"/>
+        <v>71</v>
+      </c>
+      <c r="J58" s="8" t="s">
+        <v>72</v>
+      </c>
       <c r="K58" s="8"/>
       <c r="L58" s="8"/>
       <c r="M58" s="8"/>
@@ -4902,10 +5059,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="D59" s="22">
         <v>101</v>
@@ -4923,9 +5080,11 @@
         <v>5</v>
       </c>
       <c r="I59" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="J59" s="14"/>
+        <v>75</v>
+      </c>
+      <c r="J59" s="14" t="s">
+        <v>76</v>
+      </c>
       <c r="K59" s="14"/>
       <c r="L59" s="14"/>
       <c r="M59" s="14"/>
@@ -4936,7 +5095,7 @@
       <c r="R59" s="14"/>
       <c r="S59" s="14"/>
       <c r="T59" s="27" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="U59" s="14"/>
       <c r="V59" s="14"/>
@@ -4947,10 +5106,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D60" s="22">
         <v>101</v>
@@ -4968,9 +5127,11 @@
         <v>5</v>
       </c>
       <c r="I60" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="J60" s="8"/>
+        <v>79</v>
+      </c>
+      <c r="J60" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="K60" s="8"/>
       <c r="L60" s="8"/>
       <c r="M60" s="8"/>
@@ -4981,7 +5142,7 @@
       <c r="R60" s="8"/>
       <c r="S60" s="8"/>
       <c r="T60" s="9" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="U60" s="8"/>
       <c r="V60" s="8"/>
@@ -4992,10 +5153,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D61" s="22">
         <v>101</v>
@@ -5013,9 +5174,11 @@
         <v>5</v>
       </c>
       <c r="I61" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="J61" s="14"/>
+        <v>81</v>
+      </c>
+      <c r="J61" s="14" t="s">
+        <v>37</v>
+      </c>
       <c r="K61" s="14"/>
       <c r="L61" s="14"/>
       <c r="M61" s="14"/>
@@ -5026,7 +5189,7 @@
       <c r="R61" s="14"/>
       <c r="S61" s="14"/>
       <c r="T61" s="27" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U61" s="14"/>
       <c r="V61" s="14"/>
@@ -5037,10 +5200,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="D62" s="22">
         <v>101</v>
@@ -5058,9 +5221,11 @@
         <v>5</v>
       </c>
       <c r="I62" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="J62" s="8"/>
+        <v>84</v>
+      </c>
+      <c r="J62" s="8" t="s">
+        <v>85</v>
+      </c>
       <c r="K62" s="8"/>
       <c r="L62" s="8"/>
       <c r="M62" s="8"/>
@@ -5071,7 +5236,7 @@
       <c r="R62" s="8"/>
       <c r="S62" s="8"/>
       <c r="T62" s="9" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="U62" s="8"/>
       <c r="V62" s="8"/>
@@ -5082,10 +5247,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D63" s="22">
         <v>101</v>
@@ -5103,9 +5268,11 @@
         <v>5</v>
       </c>
       <c r="I63" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="J63" s="14"/>
+        <v>88</v>
+      </c>
+      <c r="J63" s="14" t="s">
+        <v>52</v>
+      </c>
       <c r="K63" s="14"/>
       <c r="L63" s="14"/>
       <c r="M63" s="14"/>
@@ -5116,7 +5283,7 @@
       <c r="R63" s="14"/>
       <c r="S63" s="14"/>
       <c r="T63" s="27" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="U63" s="14"/>
       <c r="V63" s="14"/>
@@ -5127,10 +5294,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D64" s="22">
         <v>101</v>
@@ -5148,9 +5315,11 @@
         <v>5</v>
       </c>
       <c r="I64" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="J64" s="8"/>
+        <v>90</v>
+      </c>
+      <c r="J64" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="K64" s="8"/>
       <c r="L64" s="8"/>
       <c r="M64" s="8"/>
@@ -5161,7 +5330,7 @@
       <c r="R64" s="8"/>
       <c r="S64" s="8"/>
       <c r="T64" s="9" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="U64" s="8"/>
       <c r="V64" s="8"/>
@@ -5172,10 +5341,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D65" s="22">
         <v>101</v>
@@ -5193,9 +5362,11 @@
         <v>5</v>
       </c>
       <c r="I65" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="J65" s="14"/>
+        <v>92</v>
+      </c>
+      <c r="J65" s="14" t="s">
+        <v>62</v>
+      </c>
       <c r="K65" s="14"/>
       <c r="L65" s="14"/>
       <c r="M65" s="14"/>
@@ -5206,7 +5377,7 @@
       <c r="R65" s="14"/>
       <c r="S65" s="14"/>
       <c r="T65" s="27" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="U65" s="14"/>
       <c r="V65" s="14"/>
@@ -5217,10 +5388,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D66" s="22">
         <v>101</v>
@@ -5238,9 +5409,11 @@
         <v>5</v>
       </c>
       <c r="I66" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="J66" s="8"/>
+        <v>94</v>
+      </c>
+      <c r="J66" s="8" t="s">
+        <v>67</v>
+      </c>
       <c r="K66" s="8"/>
       <c r="L66" s="8"/>
       <c r="M66" s="8"/>
@@ -5251,7 +5424,7 @@
       <c r="R66" s="8"/>
       <c r="S66" s="8"/>
       <c r="T66" s="9" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="U66" s="8"/>
       <c r="V66" s="8"/>
@@ -5262,10 +5435,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="C67" s="23" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="D67" s="22">
         <v>101</v>
@@ -5283,9 +5456,11 @@
         <v>1</v>
       </c>
       <c r="I67" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="J67" s="14"/>
+        <v>97</v>
+      </c>
+      <c r="J67" s="14" t="s">
+        <v>72</v>
+      </c>
       <c r="K67" s="14"/>
       <c r="L67" s="14"/>
       <c r="M67" s="14"/>
@@ -5305,10 +5480,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="D68" s="22">
         <v>101</v>
@@ -5326,9 +5501,11 @@
         <v>5</v>
       </c>
       <c r="I68" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="J68" s="8"/>
+        <v>100</v>
+      </c>
+      <c r="J68" s="8" t="s">
+        <v>101</v>
+      </c>
       <c r="K68" s="8"/>
       <c r="L68" s="8"/>
       <c r="M68" s="8"/>
@@ -5339,7 +5516,7 @@
       <c r="R68" s="8"/>
       <c r="S68" s="8"/>
       <c r="T68" s="9" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="U68" s="8"/>
       <c r="V68" s="8"/>
@@ -5350,10 +5527,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D69" s="22">
         <v>101</v>
@@ -5371,9 +5548,11 @@
         <v>5</v>
       </c>
       <c r="I69" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="J69" s="14"/>
+        <v>104</v>
+      </c>
+      <c r="J69" s="14" t="s">
+        <v>42</v>
+      </c>
       <c r="K69" s="14"/>
       <c r="L69" s="14"/>
       <c r="M69" s="14"/>
@@ -5384,7 +5563,7 @@
       <c r="R69" s="14"/>
       <c r="S69" s="14"/>
       <c r="T69" s="27" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="U69" s="14"/>
       <c r="V69" s="14"/>
@@ -5395,10 +5574,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D70" s="22">
         <v>101</v>
@@ -5416,9 +5595,11 @@
         <v>5</v>
       </c>
       <c r="I70" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="J70" s="8"/>
+        <v>106</v>
+      </c>
+      <c r="J70" s="8" t="s">
+        <v>37</v>
+      </c>
       <c r="K70" s="8"/>
       <c r="L70" s="8"/>
       <c r="M70" s="8"/>
@@ -5429,7 +5610,7 @@
       <c r="R70" s="8"/>
       <c r="S70" s="8"/>
       <c r="T70" s="9" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U70" s="8"/>
       <c r="V70" s="8"/>
@@ -5440,10 +5621,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="D71" s="22">
         <v>101</v>
@@ -5461,9 +5642,11 @@
         <v>5</v>
       </c>
       <c r="I71" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="J71" s="14"/>
+        <v>109</v>
+      </c>
+      <c r="J71" s="14" t="s">
+        <v>32</v>
+      </c>
       <c r="K71" s="14"/>
       <c r="L71" s="14"/>
       <c r="M71" s="14"/>
@@ -5474,7 +5657,7 @@
       <c r="R71" s="14"/>
       <c r="S71" s="14"/>
       <c r="T71" s="27" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="U71" s="14"/>
       <c r="V71" s="14"/>
@@ -5485,10 +5668,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D72" s="22">
         <v>101</v>
@@ -5506,9 +5689,11 @@
         <v>5</v>
       </c>
       <c r="I72" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="J72" s="8"/>
+        <v>112</v>
+      </c>
+      <c r="J72" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="K72" s="8"/>
       <c r="L72" s="8"/>
       <c r="M72" s="8"/>
@@ -5519,7 +5704,7 @@
       <c r="R72" s="8"/>
       <c r="S72" s="8"/>
       <c r="T72" s="9" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="U72" s="8"/>
       <c r="V72" s="8"/>
@@ -5530,10 +5715,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D73" s="22">
         <v>101</v>
@@ -5551,9 +5736,11 @@
         <v>5</v>
       </c>
       <c r="I73" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="J73" s="14"/>
+        <v>114</v>
+      </c>
+      <c r="J73" s="14" t="s">
+        <v>57</v>
+      </c>
       <c r="K73" s="14"/>
       <c r="L73" s="14"/>
       <c r="M73" s="14"/>
@@ -5564,7 +5751,7 @@
       <c r="R73" s="14"/>
       <c r="S73" s="14"/>
       <c r="T73" s="27" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="U73" s="14"/>
       <c r="V73" s="14"/>
@@ -5575,10 +5762,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D74" s="22">
         <v>101</v>
@@ -5596,9 +5783,11 @@
         <v>5</v>
       </c>
       <c r="I74" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="J74" s="8"/>
+        <v>116</v>
+      </c>
+      <c r="J74" s="8" t="s">
+        <v>62</v>
+      </c>
       <c r="K74" s="8"/>
       <c r="L74" s="8"/>
       <c r="M74" s="8"/>
@@ -5609,7 +5798,7 @@
       <c r="R74" s="8"/>
       <c r="S74" s="8"/>
       <c r="T74" s="9" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="U74" s="8"/>
       <c r="V74" s="8"/>
@@ -5620,10 +5809,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D75" s="22">
         <v>101</v>
@@ -5641,9 +5830,11 @@
         <v>5</v>
       </c>
       <c r="I75" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="J75" s="14"/>
+        <v>118</v>
+      </c>
+      <c r="J75" s="14" t="s">
+        <v>67</v>
+      </c>
       <c r="K75" s="14"/>
       <c r="L75" s="14"/>
       <c r="M75" s="14"/>
@@ -5654,7 +5845,7 @@
       <c r="R75" s="14"/>
       <c r="S75" s="14"/>
       <c r="T75" s="27" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="U75" s="14"/>
       <c r="V75" s="14"/>
@@ -5665,10 +5856,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="C76" s="23" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="D76" s="22">
         <v>101</v>
@@ -5686,9 +5877,11 @@
         <v>1</v>
       </c>
       <c r="I76" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="J76" s="8"/>
+        <v>121</v>
+      </c>
+      <c r="J76" s="8" t="s">
+        <v>72</v>
+      </c>
       <c r="K76" s="8"/>
       <c r="L76" s="8"/>
       <c r="M76" s="8"/>
@@ -5708,10 +5901,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="D77" s="22">
         <v>101</v>
@@ -5729,9 +5922,11 @@
         <v>5</v>
       </c>
       <c r="I77" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="J77" s="14"/>
+        <v>123</v>
+      </c>
+      <c r="J77" s="14" t="s">
+        <v>76</v>
+      </c>
       <c r="K77" s="14"/>
       <c r="L77" s="14"/>
       <c r="M77" s="14"/>
@@ -5742,7 +5937,7 @@
       <c r="R77" s="14"/>
       <c r="S77" s="14"/>
       <c r="T77" s="27" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="U77" s="14"/>
       <c r="V77" s="14"/>
@@ -5753,10 +5948,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D78" s="22">
         <v>101</v>
@@ -5774,9 +5969,11 @@
         <v>5</v>
       </c>
       <c r="I78" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="J78" s="8"/>
+        <v>125</v>
+      </c>
+      <c r="J78" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="K78" s="8"/>
       <c r="L78" s="8"/>
       <c r="M78" s="8"/>
@@ -5787,7 +5984,7 @@
       <c r="R78" s="8"/>
       <c r="S78" s="8"/>
       <c r="T78" s="9" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="U78" s="8"/>
       <c r="V78" s="8"/>
@@ -5798,10 +5995,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D79" s="22">
         <v>101</v>
@@ -5819,9 +6016,11 @@
         <v>5</v>
       </c>
       <c r="I79" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="J79" s="14"/>
+        <v>127</v>
+      </c>
+      <c r="J79" s="14" t="s">
+        <v>37</v>
+      </c>
       <c r="K79" s="14"/>
       <c r="L79" s="14"/>
       <c r="M79" s="14"/>
@@ -5832,7 +6031,7 @@
       <c r="R79" s="14"/>
       <c r="S79" s="14"/>
       <c r="T79" s="27" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U79" s="14"/>
       <c r="V79" s="14"/>
@@ -5843,10 +6042,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="15" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="D80" s="22">
         <v>101</v>
@@ -5864,9 +6063,11 @@
         <v>5</v>
       </c>
       <c r="I80" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="J80" s="8"/>
+        <v>130</v>
+      </c>
+      <c r="J80" s="8" t="s">
+        <v>131</v>
+      </c>
       <c r="K80" s="8"/>
       <c r="L80" s="8"/>
       <c r="M80" s="8"/>
@@ -5877,7 +6078,7 @@
       <c r="R80" s="8"/>
       <c r="S80" s="8"/>
       <c r="T80" s="9" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="U80" s="8"/>
       <c r="V80" s="8"/>
@@ -5888,10 +6089,10 @@
         <v>80</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D81" s="22">
         <v>101</v>
@@ -5909,9 +6110,11 @@
         <v>5</v>
       </c>
       <c r="I81" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="J81" s="14"/>
+        <v>134</v>
+      </c>
+      <c r="J81" s="14" t="s">
+        <v>52</v>
+      </c>
       <c r="K81" s="14"/>
       <c r="L81" s="14"/>
       <c r="M81" s="14"/>
@@ -5922,7 +6125,7 @@
       <c r="R81" s="14"/>
       <c r="S81" s="14"/>
       <c r="T81" s="27" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="U81" s="14"/>
       <c r="V81" s="14"/>
@@ -5933,10 +6136,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="15" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D82" s="22">
         <v>101</v>
@@ -5954,9 +6157,11 @@
         <v>5</v>
       </c>
       <c r="I82" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="J82" s="8"/>
+        <v>136</v>
+      </c>
+      <c r="J82" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="K82" s="8"/>
       <c r="L82" s="8"/>
       <c r="M82" s="8"/>
@@ -5967,7 +6172,7 @@
       <c r="R82" s="8"/>
       <c r="S82" s="8"/>
       <c r="T82" s="9" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="U82" s="8"/>
       <c r="V82" s="8"/>
@@ -5978,10 +6183,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D83" s="22">
         <v>101</v>
@@ -5999,9 +6204,11 @@
         <v>5</v>
       </c>
       <c r="I83" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="J83" s="14"/>
+        <v>138</v>
+      </c>
+      <c r="J83" s="14" t="s">
+        <v>62</v>
+      </c>
       <c r="K83" s="14"/>
       <c r="L83" s="14"/>
       <c r="M83" s="14"/>
@@ -6012,7 +6219,7 @@
       <c r="R83" s="14"/>
       <c r="S83" s="14"/>
       <c r="T83" s="27" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="U83" s="14"/>
       <c r="V83" s="14"/>
@@ -6023,10 +6230,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D84" s="22">
         <v>101</v>
@@ -6044,9 +6251,11 @@
         <v>5</v>
       </c>
       <c r="I84" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="J84" s="8"/>
+        <v>140</v>
+      </c>
+      <c r="J84" s="8" t="s">
+        <v>67</v>
+      </c>
       <c r="K84" s="8"/>
       <c r="L84" s="8"/>
       <c r="M84" s="8"/>
@@ -6057,7 +6266,7 @@
       <c r="R84" s="8"/>
       <c r="S84" s="8"/>
       <c r="T84" s="9" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="U84" s="8"/>
       <c r="V84" s="8"/>
@@ -6068,10 +6277,10 @@
         <v>84</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="C85" s="23" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="D85" s="22">
         <v>101</v>
@@ -6089,9 +6298,11 @@
         <v>1</v>
       </c>
       <c r="I85" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="J85" s="14"/>
+        <v>143</v>
+      </c>
+      <c r="J85" s="8" t="s">
+        <v>72</v>
+      </c>
       <c r="K85" s="14"/>
       <c r="L85" s="14"/>
       <c r="M85" s="14"/>
@@ -6111,10 +6322,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="15" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D86" s="22">
         <v>101</v>
@@ -6132,9 +6343,11 @@
         <v>5</v>
       </c>
       <c r="I86" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="J86" s="8"/>
+        <v>145</v>
+      </c>
+      <c r="J86" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="K86" s="8"/>
       <c r="L86" s="8"/>
       <c r="M86" s="8"/>
@@ -6145,7 +6358,7 @@
       <c r="R86" s="8"/>
       <c r="S86" s="8"/>
       <c r="T86" s="9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="U86" s="8"/>
       <c r="V86" s="8"/>
@@ -6156,10 +6369,10 @@
         <v>86</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D87" s="22">
         <v>101</v>
@@ -6177,9 +6390,11 @@
         <v>5</v>
       </c>
       <c r="I87" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="J87" s="14"/>
+        <v>147</v>
+      </c>
+      <c r="J87" s="14" t="s">
+        <v>37</v>
+      </c>
       <c r="K87" s="14"/>
       <c r="L87" s="14"/>
       <c r="M87" s="14"/>
@@ -6190,7 +6405,7 @@
       <c r="R87" s="14"/>
       <c r="S87" s="14"/>
       <c r="T87" s="27" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U87" s="14"/>
       <c r="V87" s="14"/>
@@ -6201,10 +6416,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="15" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D88" s="22">
         <v>101</v>
@@ -6222,9 +6437,11 @@
         <v>5</v>
       </c>
       <c r="I88" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="J88" s="8"/>
+        <v>149</v>
+      </c>
+      <c r="J88" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="K88" s="8"/>
       <c r="L88" s="8"/>
       <c r="M88" s="8"/>
@@ -6235,7 +6452,7 @@
       <c r="R88" s="8"/>
       <c r="S88" s="8"/>
       <c r="T88" s="9" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="U88" s="8"/>
       <c r="V88" s="8"/>
@@ -6246,10 +6463,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="D89" s="22">
         <v>101</v>
@@ -6267,9 +6484,11 @@
         <v>5</v>
       </c>
       <c r="I89" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="J89" s="14"/>
+        <v>152</v>
+      </c>
+      <c r="J89" s="14" t="s">
+        <v>153</v>
+      </c>
       <c r="K89" s="14"/>
       <c r="L89" s="14"/>
       <c r="M89" s="14"/>
@@ -6280,7 +6499,7 @@
       <c r="R89" s="14"/>
       <c r="S89" s="14"/>
       <c r="T89" s="27" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="U89" s="14"/>
       <c r="V89" s="14"/>
@@ -6291,10 +6510,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="15" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D90" s="22">
         <v>101</v>
@@ -6312,9 +6531,11 @@
         <v>5</v>
       </c>
       <c r="I90" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="J90" s="8"/>
+        <v>156</v>
+      </c>
+      <c r="J90" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="K90" s="8"/>
       <c r="L90" s="8"/>
       <c r="M90" s="8"/>
@@ -6325,7 +6546,7 @@
       <c r="R90" s="8"/>
       <c r="S90" s="8"/>
       <c r="T90" s="9" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="U90" s="8"/>
       <c r="V90" s="8"/>
@@ -6336,10 +6557,10 @@
         <v>90</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D91" s="22">
         <v>101</v>
@@ -6357,9 +6578,11 @@
         <v>5</v>
       </c>
       <c r="I91" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="J91" s="14"/>
+        <v>158</v>
+      </c>
+      <c r="J91" s="14" t="s">
+        <v>57</v>
+      </c>
       <c r="K91" s="14"/>
       <c r="L91" s="14"/>
       <c r="M91" s="14"/>
@@ -6370,7 +6593,7 @@
       <c r="R91" s="14"/>
       <c r="S91" s="14"/>
       <c r="T91" s="27" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="U91" s="14"/>
       <c r="V91" s="14"/>
@@ -6381,10 +6604,10 @@
         <v>91</v>
       </c>
       <c r="B92" s="15" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D92" s="22">
         <v>101</v>
@@ -6402,9 +6625,11 @@
         <v>5</v>
       </c>
       <c r="I92" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="J92" s="8"/>
+        <v>160</v>
+      </c>
+      <c r="J92" s="8" t="s">
+        <v>62</v>
+      </c>
       <c r="K92" s="8"/>
       <c r="L92" s="8"/>
       <c r="M92" s="8"/>
@@ -6415,7 +6640,7 @@
       <c r="R92" s="8"/>
       <c r="S92" s="8"/>
       <c r="T92" s="9" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="U92" s="8"/>
       <c r="V92" s="8"/>
@@ -6426,10 +6651,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D93" s="22">
         <v>101</v>
@@ -6447,9 +6672,11 @@
         <v>5</v>
       </c>
       <c r="I93" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="J93" s="14"/>
+        <v>162</v>
+      </c>
+      <c r="J93" s="14" t="s">
+        <v>67</v>
+      </c>
       <c r="K93" s="14"/>
       <c r="L93" s="14"/>
       <c r="M93" s="14"/>
@@ -6460,7 +6687,7 @@
       <c r="R93" s="14"/>
       <c r="S93" s="14"/>
       <c r="T93" s="27" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="U93" s="14"/>
       <c r="V93" s="14"/>
@@ -6471,10 +6698,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="18" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="C94" s="31" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="D94" s="22">
         <v>101</v>
@@ -6492,9 +6719,11 @@
         <v>1</v>
       </c>
       <c r="I94" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="J94" s="21"/>
+        <v>165</v>
+      </c>
+      <c r="J94" s="8" t="s">
+        <v>72</v>
+      </c>
       <c r="K94" s="21"/>
       <c r="L94" s="21"/>
       <c r="M94" s="21"/>
@@ -6509,8 +6738,10 @@
       <c r="V94" s="21"/>
       <c r="W94" s="30"/>
     </row>
-    <row r="95" ht="14.25"/>
   </sheetData>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="J1:J95" etc:filterBottomFollowUsedRange="0">
+    <extLst/>
+  </autoFilter>
   <conditionalFormatting sqref="E49:E94">
     <cfRule type="colorScale" priority="1">
       <colorScale>

--- a/excels/config/server/hero/server_hero_talent.xlsx
+++ b/excels/config/server/hero/server_hero_talent.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="173">
   <si>
     <t>下标</t>
   </si>
@@ -66,6 +66,12 @@
   </si>
   <si>
     <t>key</t>
+  </si>
+  <si>
+    <t>#Loccustom_server_talent_{}</t>
+  </si>
+  <si>
+    <t>#Loccustom_server_talent_{}_desc</t>
   </si>
   <si>
     <t>hero_id</t>
@@ -1930,31 +1936,31 @@
     </dxf>
   </dxfs>
   <tableStyles count="5" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{A66E1585-E456-4766-AA8B-A50A01754C91}">
+    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{6BCFB353-DE28-48B0-B606-4EE9CD93DE6D}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
       <tableStyleElement type="firstColumnStripe" dxfId="1"/>
       <tableStyleElement type="secondColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{DD77814D-2336-4A49-BCD6-E7EE99F076F9}">
+    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{2F3D6FFF-2F05-41DE-AD0D-153731050D5D}">
       <tableStyleElement type="wholeTable" dxfId="9"/>
       <tableStyleElement type="headerRow" dxfId="8"/>
       <tableStyleElement type="totalRow" dxfId="7"/>
       <tableStyleElement type="firstRowStripe" dxfId="6"/>
       <tableStyleElement type="secondRowStripe" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{532CDA6C-16DF-441D-8654-17F1F9817B31}">
+    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{F333E662-28B2-4B19-9FBA-F67156A302C6}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="firstRowStripe" dxfId="11"/>
       <tableStyleElement type="secondRowStripe" dxfId="10"/>
     </tableStyle>
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{3190EE43-5CF1-486F-AF5D-96348C8BEB42}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{E88D0223-E4C5-4A3E-8D65-47C9BB3D04CB}">
       <tableStyleElement type="wholeTable" dxfId="15"/>
       <tableStyleElement type="headerRow" dxfId="14"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{E63DE3F6-69FB-45B2-82C8-4D3AFCBAABA1}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{252616C6-FECC-42B0-A85D-F345E6E00F0A}">
       <tableStyleElement type="wholeTable" dxfId="18"/>
       <tableStyleElement type="headerRow" dxfId="17"/>
       <tableStyleElement type="secondRowStripe" dxfId="16"/>
@@ -2260,19 +2266,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W94"/>
+  <dimension ref="A1:W95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" topLeftCell="J1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="K4" sqref="K4"/>
+      <selection pane="topRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.675" customWidth="1"/>
-    <col min="2" max="2" width="16.175" customWidth="1"/>
-    <col min="3" max="3" width="23.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.625" customWidth="1"/>
+    <col min="3" max="3" width="38" style="1" customWidth="1"/>
     <col min="4" max="4" width="14.3416666666667" style="1" customWidth="1"/>
     <col min="5" max="5" width="16.175" customWidth="1"/>
     <col min="6" max="6" width="17.5083333333333" customWidth="1"/>
@@ -2363,31 +2369,35 @@
       <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="9"/>
+      <c r="B2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="D2" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L2" s="8">
         <v>1</v>
@@ -2408,10 +2418,10 @@
         <v>6</v>
       </c>
       <c r="R2" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="S2" s="8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="T2" s="9">
         <v>1</v>
@@ -2423,7 +2433,7 @@
         <v>3</v>
       </c>
       <c r="W2" s="26" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" ht="63.5" customHeight="1" spans="1:23">
@@ -2431,10 +2441,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" s="13">
         <v>6</v>
@@ -2452,10 +2462,10 @@
         <v>5</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K3" s="14"/>
       <c r="L3" s="14"/>
@@ -2467,13 +2477,13 @@
       <c r="R3" s="14"/>
       <c r="S3" s="14"/>
       <c r="T3" s="27" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="U3" s="14" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="V3" s="14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="W3" s="28"/>
     </row>
@@ -2482,10 +2492,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D4" s="17">
         <v>6</v>
@@ -2503,10 +2513,10 @@
         <v>5</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
@@ -2518,7 +2528,7 @@
       <c r="R4" s="8"/>
       <c r="S4" s="8"/>
       <c r="T4" s="9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U4" s="8"/>
       <c r="V4" s="8"/>
@@ -2529,10 +2539,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D5" s="13">
         <v>6</v>
@@ -2550,10 +2560,10 @@
         <v>5</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K5" s="14"/>
       <c r="L5" s="14"/>
@@ -2565,7 +2575,7 @@
       <c r="R5" s="14"/>
       <c r="S5" s="14"/>
       <c r="T5" s="27" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="U5" s="14"/>
       <c r="V5" s="14"/>
@@ -2576,10 +2586,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D6" s="17">
         <v>6</v>
@@ -2597,10 +2607,10 @@
         <v>5</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
@@ -2612,7 +2622,7 @@
       <c r="R6" s="8"/>
       <c r="S6" s="8"/>
       <c r="T6" s="9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="U6" s="8"/>
       <c r="V6" s="8"/>
@@ -2623,10 +2633,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D7" s="13">
         <v>6</v>
@@ -2644,10 +2654,10 @@
         <v>5</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
@@ -2659,7 +2669,7 @@
       <c r="R7" s="14"/>
       <c r="S7" s="14"/>
       <c r="T7" s="27" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="U7" s="14"/>
       <c r="V7" s="14"/>
@@ -2670,10 +2680,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D8" s="17">
         <v>6</v>
@@ -2691,10 +2701,10 @@
         <v>5</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
@@ -2706,7 +2716,7 @@
       <c r="R8" s="8"/>
       <c r="S8" s="8"/>
       <c r="T8" s="9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U8" s="8"/>
       <c r="V8" s="8"/>
@@ -2717,10 +2727,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D9" s="13">
         <v>6</v>
@@ -2738,10 +2748,10 @@
         <v>5</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K9" s="14"/>
       <c r="L9" s="14"/>
@@ -2753,7 +2763,7 @@
       <c r="R9" s="14"/>
       <c r="S9" s="14"/>
       <c r="T9" s="27" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="U9" s="14"/>
       <c r="V9" s="14"/>
@@ -2764,10 +2774,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D10" s="17">
         <v>6</v>
@@ -2785,10 +2795,10 @@
         <v>5</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
@@ -2800,7 +2810,7 @@
       <c r="R10" s="8"/>
       <c r="S10" s="8"/>
       <c r="T10" s="9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="U10" s="8"/>
       <c r="V10" s="8"/>
@@ -2811,10 +2821,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D11" s="13">
         <v>6</v>
@@ -2832,10 +2842,10 @@
         <v>5</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J11" s="14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K11" s="14"/>
       <c r="L11" s="14"/>
@@ -2847,7 +2857,7 @@
       <c r="R11" s="14"/>
       <c r="S11" s="14"/>
       <c r="T11" s="27" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="U11" s="14"/>
       <c r="V11" s="14"/>
@@ -2858,10 +2868,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D12" s="17">
         <v>6</v>
@@ -2879,10 +2889,10 @@
         <v>1</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
@@ -2903,10 +2913,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D13" s="13">
         <v>6</v>
@@ -2924,10 +2934,10 @@
         <v>5</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J13" s="14" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K13" s="14"/>
       <c r="L13" s="14"/>
@@ -2939,7 +2949,7 @@
       <c r="R13" s="14"/>
       <c r="S13" s="14"/>
       <c r="T13" s="27" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U13" s="14"/>
       <c r="V13" s="14"/>
@@ -2950,10 +2960,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D14" s="17">
         <v>6</v>
@@ -2971,10 +2981,10 @@
         <v>5</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
@@ -2986,7 +2996,7 @@
       <c r="R14" s="8"/>
       <c r="S14" s="8"/>
       <c r="T14" s="9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="U14" s="8"/>
       <c r="V14" s="8"/>
@@ -2997,10 +3007,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D15" s="13">
         <v>6</v>
@@ -3018,10 +3028,10 @@
         <v>5</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K15" s="14"/>
       <c r="L15" s="14"/>
@@ -3033,7 +3043,7 @@
       <c r="R15" s="14"/>
       <c r="S15" s="14"/>
       <c r="T15" s="27" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="U15" s="14"/>
       <c r="V15" s="14"/>
@@ -3044,10 +3054,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D16" s="17">
         <v>6</v>
@@ -3065,10 +3075,10 @@
         <v>5</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
@@ -3080,7 +3090,7 @@
       <c r="R16" s="8"/>
       <c r="S16" s="8"/>
       <c r="T16" s="9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="U16" s="8"/>
       <c r="V16" s="8"/>
@@ -3091,10 +3101,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D17" s="13">
         <v>6</v>
@@ -3112,10 +3122,10 @@
         <v>5</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J17" s="14" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K17" s="14"/>
       <c r="L17" s="14"/>
@@ -3127,7 +3137,7 @@
       <c r="R17" s="14"/>
       <c r="S17" s="14"/>
       <c r="T17" s="27" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U17" s="14"/>
       <c r="V17" s="14"/>
@@ -3138,10 +3148,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D18" s="17">
         <v>6</v>
@@ -3159,10 +3169,10 @@
         <v>5</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
@@ -3174,7 +3184,7 @@
       <c r="R18" s="8"/>
       <c r="S18" s="8"/>
       <c r="T18" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="U18" s="8"/>
       <c r="V18" s="8"/>
@@ -3185,10 +3195,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D19" s="13">
         <v>6</v>
@@ -3206,10 +3216,10 @@
         <v>5</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J19" s="14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K19" s="14"/>
       <c r="L19" s="14"/>
@@ -3221,7 +3231,7 @@
       <c r="R19" s="14"/>
       <c r="S19" s="14"/>
       <c r="T19" s="27" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="U19" s="14"/>
       <c r="V19" s="14"/>
@@ -3232,10 +3242,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D20" s="17">
         <v>6</v>
@@ -3253,10 +3263,10 @@
         <v>5</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
@@ -3268,7 +3278,7 @@
       <c r="R20" s="8"/>
       <c r="S20" s="8"/>
       <c r="T20" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="U20" s="8"/>
       <c r="V20" s="8"/>
@@ -3279,10 +3289,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D21" s="13">
         <v>6</v>
@@ -3300,10 +3310,10 @@
         <v>1</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K21" s="14"/>
       <c r="L21" s="14"/>
@@ -3324,10 +3334,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D22" s="17">
         <v>6</v>
@@ -3345,10 +3355,10 @@
         <v>5</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
@@ -3360,7 +3370,7 @@
       <c r="R22" s="8"/>
       <c r="S22" s="8"/>
       <c r="T22" s="9" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="U22" s="8"/>
       <c r="V22" s="8"/>
@@ -3371,10 +3381,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D23" s="13">
         <v>6</v>
@@ -3392,10 +3402,10 @@
         <v>5</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J23" s="14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K23" s="14"/>
       <c r="L23" s="14"/>
@@ -3407,7 +3417,7 @@
       <c r="R23" s="14"/>
       <c r="S23" s="14"/>
       <c r="T23" s="27" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="U23" s="14"/>
       <c r="V23" s="14"/>
@@ -3418,10 +3428,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D24" s="17">
         <v>6</v>
@@ -3439,10 +3449,10 @@
         <v>5</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
@@ -3454,7 +3464,7 @@
       <c r="R24" s="8"/>
       <c r="S24" s="8"/>
       <c r="T24" s="9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="U24" s="8"/>
       <c r="V24" s="8"/>
@@ -3465,10 +3475,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D25" s="13">
         <v>6</v>
@@ -3486,10 +3496,10 @@
         <v>5</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="J25" s="14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K25" s="14"/>
       <c r="L25" s="14"/>
@@ -3501,7 +3511,7 @@
       <c r="R25" s="14"/>
       <c r="S25" s="14"/>
       <c r="T25" s="27" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="U25" s="14"/>
       <c r="V25" s="14"/>
@@ -3512,10 +3522,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D26" s="17">
         <v>6</v>
@@ -3533,10 +3543,10 @@
         <v>5</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
@@ -3548,7 +3558,7 @@
       <c r="R26" s="8"/>
       <c r="S26" s="8"/>
       <c r="T26" s="9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U26" s="8"/>
       <c r="V26" s="8"/>
@@ -3559,10 +3569,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D27" s="13">
         <v>6</v>
@@ -3580,10 +3590,10 @@
         <v>5</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="J27" s="14" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K27" s="14"/>
       <c r="L27" s="14"/>
@@ -3595,7 +3605,7 @@
       <c r="R27" s="14"/>
       <c r="S27" s="14"/>
       <c r="T27" s="27" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="U27" s="14"/>
       <c r="V27" s="14"/>
@@ -3606,10 +3616,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D28" s="17">
         <v>6</v>
@@ -3627,10 +3637,10 @@
         <v>5</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K28" s="8"/>
       <c r="L28" s="8"/>
@@ -3642,7 +3652,7 @@
       <c r="R28" s="8"/>
       <c r="S28" s="8"/>
       <c r="T28" s="9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="U28" s="8"/>
       <c r="V28" s="8"/>
@@ -3653,10 +3663,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D29" s="13">
         <v>6</v>
@@ -3674,10 +3684,10 @@
         <v>5</v>
       </c>
       <c r="I29" s="11" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="J29" s="14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K29" s="14"/>
       <c r="L29" s="14"/>
@@ -3689,7 +3699,7 @@
       <c r="R29" s="14"/>
       <c r="S29" s="14"/>
       <c r="T29" s="27" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="U29" s="14"/>
       <c r="V29" s="14"/>
@@ -3700,10 +3710,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D30" s="17">
         <v>6</v>
@@ -3721,10 +3731,10 @@
         <v>1</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
@@ -3745,10 +3755,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D31" s="13">
         <v>6</v>
@@ -3766,10 +3776,10 @@
         <v>5</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="J31" s="14" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K31" s="14"/>
       <c r="L31" s="14"/>
@@ -3781,7 +3791,7 @@
       <c r="R31" s="14"/>
       <c r="S31" s="14"/>
       <c r="T31" s="27" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U31" s="14"/>
       <c r="V31" s="14"/>
@@ -3792,10 +3802,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D32" s="17">
         <v>6</v>
@@ -3813,10 +3823,10 @@
         <v>5</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
@@ -3828,7 +3838,7 @@
       <c r="R32" s="8"/>
       <c r="S32" s="8"/>
       <c r="T32" s="9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="U32" s="8"/>
       <c r="V32" s="8"/>
@@ -3839,10 +3849,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D33" s="13">
         <v>6</v>
@@ -3860,10 +3870,10 @@
         <v>5</v>
       </c>
       <c r="I33" s="11" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="J33" s="14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K33" s="14"/>
       <c r="L33" s="14"/>
@@ -3875,7 +3885,7 @@
       <c r="R33" s="14"/>
       <c r="S33" s="14"/>
       <c r="T33" s="27" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="U33" s="14"/>
       <c r="V33" s="14"/>
@@ -3886,10 +3896,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D34" s="17">
         <v>6</v>
@@ -3907,10 +3917,10 @@
         <v>5</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J34" s="8" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
@@ -3922,7 +3932,7 @@
       <c r="R34" s="8"/>
       <c r="S34" s="8"/>
       <c r="T34" s="9" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="U34" s="8"/>
       <c r="V34" s="8"/>
@@ -3933,10 +3943,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D35" s="13">
         <v>6</v>
@@ -3954,10 +3964,10 @@
         <v>5</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="J35" s="14" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K35" s="14"/>
       <c r="L35" s="14"/>
@@ -3969,7 +3979,7 @@
       <c r="R35" s="14"/>
       <c r="S35" s="14"/>
       <c r="T35" s="27" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U35" s="14"/>
       <c r="V35" s="14"/>
@@ -3980,10 +3990,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D36" s="17">
         <v>6</v>
@@ -4001,10 +4011,10 @@
         <v>5</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="J36" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
@@ -4016,7 +4026,7 @@
       <c r="R36" s="8"/>
       <c r="S36" s="8"/>
       <c r="T36" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="U36" s="8"/>
       <c r="V36" s="8"/>
@@ -4027,10 +4037,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D37" s="13">
         <v>6</v>
@@ -4048,10 +4058,10 @@
         <v>5</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J37" s="14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K37" s="14"/>
       <c r="L37" s="14"/>
@@ -4063,7 +4073,7 @@
       <c r="R37" s="14"/>
       <c r="S37" s="14"/>
       <c r="T37" s="27" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="U37" s="14"/>
       <c r="V37" s="14"/>
@@ -4074,10 +4084,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D38" s="17">
         <v>6</v>
@@ -4095,10 +4105,10 @@
         <v>5</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="J38" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
@@ -4110,7 +4120,7 @@
       <c r="R38" s="8"/>
       <c r="S38" s="8"/>
       <c r="T38" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="U38" s="8"/>
       <c r="V38" s="8"/>
@@ -4121,10 +4131,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D39" s="13">
         <v>6</v>
@@ -4142,10 +4152,10 @@
         <v>1</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="J39" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K39" s="14"/>
       <c r="L39" s="14"/>
@@ -4166,10 +4176,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D40" s="17">
         <v>6</v>
@@ -4187,10 +4197,10 @@
         <v>5</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="J40" s="8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K40" s="8"/>
       <c r="L40" s="8"/>
@@ -4202,7 +4212,7 @@
       <c r="R40" s="8"/>
       <c r="S40" s="8"/>
       <c r="T40" s="9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U40" s="8"/>
       <c r="V40" s="8"/>
@@ -4213,10 +4223,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D41" s="13">
         <v>6</v>
@@ -4234,10 +4244,10 @@
         <v>5</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="J41" s="14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K41" s="14"/>
       <c r="L41" s="14"/>
@@ -4249,7 +4259,7 @@
       <c r="R41" s="14"/>
       <c r="S41" s="14"/>
       <c r="T41" s="27" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="U41" s="14"/>
       <c r="V41" s="14"/>
@@ -4260,10 +4270,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D42" s="17">
         <v>6</v>
@@ -4281,10 +4291,10 @@
         <v>5</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="J42" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K42" s="8"/>
       <c r="L42" s="8"/>
@@ -4296,7 +4306,7 @@
       <c r="R42" s="8"/>
       <c r="S42" s="8"/>
       <c r="T42" s="9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="U42" s="8"/>
       <c r="V42" s="8"/>
@@ -4307,10 +4317,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D43" s="13">
         <v>6</v>
@@ -4328,10 +4338,10 @@
         <v>5</v>
       </c>
       <c r="I43" s="11" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="J43" s="14" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K43" s="14"/>
       <c r="L43" s="14"/>
@@ -4343,7 +4353,7 @@
       <c r="R43" s="14"/>
       <c r="S43" s="14"/>
       <c r="T43" s="27" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="U43" s="14"/>
       <c r="V43" s="14"/>
@@ -4354,10 +4364,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D44" s="17">
         <v>6</v>
@@ -4375,10 +4385,10 @@
         <v>5</v>
       </c>
       <c r="I44" s="11" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="J44" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K44" s="8"/>
       <c r="L44" s="8"/>
@@ -4390,7 +4400,7 @@
       <c r="R44" s="8"/>
       <c r="S44" s="8"/>
       <c r="T44" s="9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U44" s="8"/>
       <c r="V44" s="8"/>
@@ -4401,10 +4411,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D45" s="13">
         <v>6</v>
@@ -4422,10 +4432,10 @@
         <v>5</v>
       </c>
       <c r="I45" s="11" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="J45" s="14" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K45" s="14"/>
       <c r="L45" s="14"/>
@@ -4437,7 +4447,7 @@
       <c r="R45" s="14"/>
       <c r="S45" s="14"/>
       <c r="T45" s="27" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="U45" s="14"/>
       <c r="V45" s="14"/>
@@ -4448,10 +4458,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D46" s="17">
         <v>6</v>
@@ -4469,10 +4479,10 @@
         <v>5</v>
       </c>
       <c r="I46" s="11" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="J46" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K46" s="8"/>
       <c r="L46" s="8"/>
@@ -4484,7 +4494,7 @@
       <c r="R46" s="8"/>
       <c r="S46" s="8"/>
       <c r="T46" s="9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="U46" s="8"/>
       <c r="V46" s="8"/>
@@ -4495,10 +4505,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D47" s="13">
         <v>6</v>
@@ -4516,10 +4526,10 @@
         <v>5</v>
       </c>
       <c r="I47" s="11" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="J47" s="14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K47" s="14"/>
       <c r="L47" s="14"/>
@@ -4531,7 +4541,7 @@
       <c r="R47" s="14"/>
       <c r="S47" s="14"/>
       <c r="T47" s="27" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="U47" s="14"/>
       <c r="V47" s="14"/>
@@ -4542,10 +4552,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D48" s="20">
         <v>6</v>
@@ -4563,10 +4573,10 @@
         <v>1</v>
       </c>
       <c r="I48" s="11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="J48" s="21" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K48" s="21"/>
       <c r="L48" s="21"/>
@@ -4587,10 +4597,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D49" s="22">
         <v>101</v>
@@ -4608,10 +4618,10 @@
         <v>5</v>
       </c>
       <c r="I49" s="11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J49" s="14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K49" s="14"/>
       <c r="L49" s="14"/>
@@ -4623,13 +4633,13 @@
       <c r="R49" s="14"/>
       <c r="S49" s="14"/>
       <c r="T49" s="27" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="U49" s="14" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="V49" s="14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="W49" s="28"/>
     </row>
@@ -4638,10 +4648,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D50" s="22">
         <v>101</v>
@@ -4659,10 +4669,10 @@
         <v>5</v>
       </c>
       <c r="I50" s="11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J50" s="8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K50" s="8"/>
       <c r="L50" s="8"/>
@@ -4674,7 +4684,7 @@
       <c r="R50" s="8"/>
       <c r="S50" s="8"/>
       <c r="T50" s="9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U50" s="8"/>
       <c r="V50" s="8"/>
@@ -4685,10 +4695,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D51" s="22">
         <v>101</v>
@@ -4706,10 +4716,10 @@
         <v>5</v>
       </c>
       <c r="I51" s="11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J51" s="14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K51" s="14"/>
       <c r="L51" s="14"/>
@@ -4721,7 +4731,7 @@
       <c r="R51" s="14"/>
       <c r="S51" s="14"/>
       <c r="T51" s="27" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="U51" s="14"/>
       <c r="V51" s="14"/>
@@ -4732,10 +4742,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D52" s="22">
         <v>101</v>
@@ -4753,10 +4763,10 @@
         <v>5</v>
       </c>
       <c r="I52" s="11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J52" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K52" s="8"/>
       <c r="L52" s="8"/>
@@ -4768,7 +4778,7 @@
       <c r="R52" s="8"/>
       <c r="S52" s="8"/>
       <c r="T52" s="9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="U52" s="8"/>
       <c r="V52" s="8"/>
@@ -4779,10 +4789,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D53" s="22">
         <v>101</v>
@@ -4800,10 +4810,10 @@
         <v>5</v>
       </c>
       <c r="I53" s="11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J53" s="14" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K53" s="14"/>
       <c r="L53" s="14"/>
@@ -4815,7 +4825,7 @@
       <c r="R53" s="14"/>
       <c r="S53" s="14"/>
       <c r="T53" s="27" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="U53" s="14"/>
       <c r="V53" s="14"/>
@@ -4826,10 +4836,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D54" s="22">
         <v>101</v>
@@ -4847,10 +4857,10 @@
         <v>5</v>
       </c>
       <c r="I54" s="11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J54" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K54" s="8"/>
       <c r="L54" s="8"/>
@@ -4862,7 +4872,7 @@
       <c r="R54" s="8"/>
       <c r="S54" s="8"/>
       <c r="T54" s="9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U54" s="8"/>
       <c r="V54" s="8"/>
@@ -4873,10 +4883,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D55" s="22">
         <v>101</v>
@@ -4894,10 +4904,10 @@
         <v>5</v>
       </c>
       <c r="I55" s="11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J55" s="14" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K55" s="14"/>
       <c r="L55" s="14"/>
@@ -4909,7 +4919,7 @@
       <c r="R55" s="14"/>
       <c r="S55" s="14"/>
       <c r="T55" s="27" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="U55" s="14"/>
       <c r="V55" s="14"/>
@@ -4920,10 +4930,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D56" s="22">
         <v>101</v>
@@ -4941,10 +4951,10 @@
         <v>5</v>
       </c>
       <c r="I56" s="11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J56" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K56" s="8"/>
       <c r="L56" s="8"/>
@@ -4956,7 +4966,7 @@
       <c r="R56" s="8"/>
       <c r="S56" s="8"/>
       <c r="T56" s="9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="U56" s="8"/>
       <c r="V56" s="8"/>
@@ -4967,10 +4977,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D57" s="22">
         <v>101</v>
@@ -4988,10 +4998,10 @@
         <v>5</v>
       </c>
       <c r="I57" s="11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J57" s="14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K57" s="14"/>
       <c r="L57" s="14"/>
@@ -5003,7 +5013,7 @@
       <c r="R57" s="14"/>
       <c r="S57" s="14"/>
       <c r="T57" s="27" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="U57" s="14"/>
       <c r="V57" s="14"/>
@@ -5014,10 +5024,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C58" s="23" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D58" s="22">
         <v>101</v>
@@ -5035,10 +5045,10 @@
         <v>1</v>
       </c>
       <c r="I58" s="11" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J58" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K58" s="8"/>
       <c r="L58" s="8"/>
@@ -5059,10 +5069,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D59" s="22">
         <v>101</v>
@@ -5080,10 +5090,10 @@
         <v>5</v>
       </c>
       <c r="I59" s="11" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J59" s="14" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K59" s="14"/>
       <c r="L59" s="14"/>
@@ -5095,7 +5105,7 @@
       <c r="R59" s="14"/>
       <c r="S59" s="14"/>
       <c r="T59" s="27" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U59" s="14"/>
       <c r="V59" s="14"/>
@@ -5106,10 +5116,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D60" s="22">
         <v>101</v>
@@ -5127,10 +5137,10 @@
         <v>5</v>
       </c>
       <c r="I60" s="11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J60" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K60" s="8"/>
       <c r="L60" s="8"/>
@@ -5142,7 +5152,7 @@
       <c r="R60" s="8"/>
       <c r="S60" s="8"/>
       <c r="T60" s="9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="U60" s="8"/>
       <c r="V60" s="8"/>
@@ -5153,10 +5163,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D61" s="22">
         <v>101</v>
@@ -5174,10 +5184,10 @@
         <v>5</v>
       </c>
       <c r="I61" s="11" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J61" s="14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K61" s="14"/>
       <c r="L61" s="14"/>
@@ -5189,7 +5199,7 @@
       <c r="R61" s="14"/>
       <c r="S61" s="14"/>
       <c r="T61" s="27" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="U61" s="14"/>
       <c r="V61" s="14"/>
@@ -5200,10 +5210,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D62" s="22">
         <v>101</v>
@@ -5221,10 +5231,10 @@
         <v>5</v>
       </c>
       <c r="I62" s="11" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J62" s="8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K62" s="8"/>
       <c r="L62" s="8"/>
@@ -5236,7 +5246,7 @@
       <c r="R62" s="8"/>
       <c r="S62" s="8"/>
       <c r="T62" s="9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="U62" s="8"/>
       <c r="V62" s="8"/>
@@ -5247,10 +5257,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D63" s="22">
         <v>101</v>
@@ -5268,10 +5278,10 @@
         <v>5</v>
       </c>
       <c r="I63" s="11" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J63" s="14" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K63" s="14"/>
       <c r="L63" s="14"/>
@@ -5283,7 +5293,7 @@
       <c r="R63" s="14"/>
       <c r="S63" s="14"/>
       <c r="T63" s="27" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U63" s="14"/>
       <c r="V63" s="14"/>
@@ -5294,10 +5304,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D64" s="22">
         <v>101</v>
@@ -5315,10 +5325,10 @@
         <v>5</v>
       </c>
       <c r="I64" s="11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J64" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K64" s="8"/>
       <c r="L64" s="8"/>
@@ -5330,7 +5340,7 @@
       <c r="R64" s="8"/>
       <c r="S64" s="8"/>
       <c r="T64" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="U64" s="8"/>
       <c r="V64" s="8"/>
@@ -5341,10 +5351,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D65" s="22">
         <v>101</v>
@@ -5362,10 +5372,10 @@
         <v>5</v>
       </c>
       <c r="I65" s="11" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J65" s="14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K65" s="14"/>
       <c r="L65" s="14"/>
@@ -5377,7 +5387,7 @@
       <c r="R65" s="14"/>
       <c r="S65" s="14"/>
       <c r="T65" s="27" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="U65" s="14"/>
       <c r="V65" s="14"/>
@@ -5388,10 +5398,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D66" s="22">
         <v>101</v>
@@ -5409,10 +5419,10 @@
         <v>5</v>
       </c>
       <c r="I66" s="11" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="J66" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K66" s="8"/>
       <c r="L66" s="8"/>
@@ -5424,7 +5434,7 @@
       <c r="R66" s="8"/>
       <c r="S66" s="8"/>
       <c r="T66" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="U66" s="8"/>
       <c r="V66" s="8"/>
@@ -5435,10 +5445,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C67" s="23" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D67" s="22">
         <v>101</v>
@@ -5456,10 +5466,10 @@
         <v>1</v>
       </c>
       <c r="I67" s="11" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J67" s="14" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K67" s="14"/>
       <c r="L67" s="14"/>
@@ -5480,10 +5490,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D68" s="22">
         <v>101</v>
@@ -5501,10 +5511,10 @@
         <v>5</v>
       </c>
       <c r="I68" s="11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="J68" s="8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K68" s="8"/>
       <c r="L68" s="8"/>
@@ -5516,7 +5526,7 @@
       <c r="R68" s="8"/>
       <c r="S68" s="8"/>
       <c r="T68" s="9" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="U68" s="8"/>
       <c r="V68" s="8"/>
@@ -5527,10 +5537,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D69" s="22">
         <v>101</v>
@@ -5548,10 +5558,10 @@
         <v>5</v>
       </c>
       <c r="I69" s="11" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J69" s="14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K69" s="14"/>
       <c r="L69" s="14"/>
@@ -5563,7 +5573,7 @@
       <c r="R69" s="14"/>
       <c r="S69" s="14"/>
       <c r="T69" s="27" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="U69" s="14"/>
       <c r="V69" s="14"/>
@@ -5574,10 +5584,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D70" s="22">
         <v>101</v>
@@ -5595,10 +5605,10 @@
         <v>5</v>
       </c>
       <c r="I70" s="11" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="J70" s="8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K70" s="8"/>
       <c r="L70" s="8"/>
@@ -5610,7 +5620,7 @@
       <c r="R70" s="8"/>
       <c r="S70" s="8"/>
       <c r="T70" s="9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="U70" s="8"/>
       <c r="V70" s="8"/>
@@ -5621,10 +5631,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D71" s="22">
         <v>101</v>
@@ -5642,10 +5652,10 @@
         <v>5</v>
       </c>
       <c r="I71" s="11" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="J71" s="14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K71" s="14"/>
       <c r="L71" s="14"/>
@@ -5657,7 +5667,7 @@
       <c r="R71" s="14"/>
       <c r="S71" s="14"/>
       <c r="T71" s="27" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="U71" s="14"/>
       <c r="V71" s="14"/>
@@ -5668,10 +5678,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D72" s="22">
         <v>101</v>
@@ -5689,10 +5699,10 @@
         <v>5</v>
       </c>
       <c r="I72" s="11" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="J72" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K72" s="8"/>
       <c r="L72" s="8"/>
@@ -5704,7 +5714,7 @@
       <c r="R72" s="8"/>
       <c r="S72" s="8"/>
       <c r="T72" s="9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U72" s="8"/>
       <c r="V72" s="8"/>
@@ -5715,10 +5725,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D73" s="22">
         <v>101</v>
@@ -5736,10 +5746,10 @@
         <v>5</v>
       </c>
       <c r="I73" s="11" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="J73" s="14" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K73" s="14"/>
       <c r="L73" s="14"/>
@@ -5751,7 +5761,7 @@
       <c r="R73" s="14"/>
       <c r="S73" s="14"/>
       <c r="T73" s="27" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="U73" s="14"/>
       <c r="V73" s="14"/>
@@ -5762,10 +5772,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D74" s="22">
         <v>101</v>
@@ -5783,10 +5793,10 @@
         <v>5</v>
       </c>
       <c r="I74" s="11" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J74" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K74" s="8"/>
       <c r="L74" s="8"/>
@@ -5798,7 +5808,7 @@
       <c r="R74" s="8"/>
       <c r="S74" s="8"/>
       <c r="T74" s="9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="U74" s="8"/>
       <c r="V74" s="8"/>
@@ -5809,10 +5819,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D75" s="22">
         <v>101</v>
@@ -5830,10 +5840,10 @@
         <v>5</v>
       </c>
       <c r="I75" s="11" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="J75" s="14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K75" s="14"/>
       <c r="L75" s="14"/>
@@ -5845,7 +5855,7 @@
       <c r="R75" s="14"/>
       <c r="S75" s="14"/>
       <c r="T75" s="27" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="U75" s="14"/>
       <c r="V75" s="14"/>
@@ -5856,10 +5866,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C76" s="23" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D76" s="22">
         <v>101</v>
@@ -5877,10 +5887,10 @@
         <v>1</v>
       </c>
       <c r="I76" s="11" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J76" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K76" s="8"/>
       <c r="L76" s="8"/>
@@ -5901,10 +5911,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D77" s="22">
         <v>101</v>
@@ -5922,10 +5932,10 @@
         <v>5</v>
       </c>
       <c r="I77" s="11" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="J77" s="14" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K77" s="14"/>
       <c r="L77" s="14"/>
@@ -5937,7 +5947,7 @@
       <c r="R77" s="14"/>
       <c r="S77" s="14"/>
       <c r="T77" s="27" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U77" s="14"/>
       <c r="V77" s="14"/>
@@ -5948,10 +5958,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D78" s="22">
         <v>101</v>
@@ -5969,10 +5979,10 @@
         <v>5</v>
       </c>
       <c r="I78" s="11" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J78" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K78" s="8"/>
       <c r="L78" s="8"/>
@@ -5984,7 +5994,7 @@
       <c r="R78" s="8"/>
       <c r="S78" s="8"/>
       <c r="T78" s="9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="U78" s="8"/>
       <c r="V78" s="8"/>
@@ -5995,10 +6005,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D79" s="22">
         <v>101</v>
@@ -6016,10 +6026,10 @@
         <v>5</v>
       </c>
       <c r="I79" s="11" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="J79" s="14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K79" s="14"/>
       <c r="L79" s="14"/>
@@ -6031,7 +6041,7 @@
       <c r="R79" s="14"/>
       <c r="S79" s="14"/>
       <c r="T79" s="27" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="U79" s="14"/>
       <c r="V79" s="14"/>
@@ -6042,10 +6052,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="15" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D80" s="22">
         <v>101</v>
@@ -6063,10 +6073,10 @@
         <v>5</v>
       </c>
       <c r="I80" s="11" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J80" s="8" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K80" s="8"/>
       <c r="L80" s="8"/>
@@ -6078,7 +6088,7 @@
       <c r="R80" s="8"/>
       <c r="S80" s="8"/>
       <c r="T80" s="9" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="U80" s="8"/>
       <c r="V80" s="8"/>
@@ -6089,10 +6099,10 @@
         <v>80</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D81" s="22">
         <v>101</v>
@@ -6110,10 +6120,10 @@
         <v>5</v>
       </c>
       <c r="I81" s="11" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="J81" s="14" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K81" s="14"/>
       <c r="L81" s="14"/>
@@ -6125,7 +6135,7 @@
       <c r="R81" s="14"/>
       <c r="S81" s="14"/>
       <c r="T81" s="27" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U81" s="14"/>
       <c r="V81" s="14"/>
@@ -6136,10 +6146,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="15" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D82" s="22">
         <v>101</v>
@@ -6157,10 +6167,10 @@
         <v>5</v>
       </c>
       <c r="I82" s="11" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="J82" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K82" s="8"/>
       <c r="L82" s="8"/>
@@ -6172,7 +6182,7 @@
       <c r="R82" s="8"/>
       <c r="S82" s="8"/>
       <c r="T82" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="U82" s="8"/>
       <c r="V82" s="8"/>
@@ -6183,10 +6193,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D83" s="22">
         <v>101</v>
@@ -6204,10 +6214,10 @@
         <v>5</v>
       </c>
       <c r="I83" s="11" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J83" s="14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K83" s="14"/>
       <c r="L83" s="14"/>
@@ -6219,7 +6229,7 @@
       <c r="R83" s="14"/>
       <c r="S83" s="14"/>
       <c r="T83" s="27" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="U83" s="14"/>
       <c r="V83" s="14"/>
@@ -6230,10 +6240,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D84" s="22">
         <v>101</v>
@@ -6251,10 +6261,10 @@
         <v>5</v>
       </c>
       <c r="I84" s="11" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="J84" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K84" s="8"/>
       <c r="L84" s="8"/>
@@ -6266,7 +6276,7 @@
       <c r="R84" s="8"/>
       <c r="S84" s="8"/>
       <c r="T84" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="U84" s="8"/>
       <c r="V84" s="8"/>
@@ -6277,10 +6287,10 @@
         <v>84</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C85" s="23" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D85" s="22">
         <v>101</v>
@@ -6298,10 +6308,10 @@
         <v>1</v>
       </c>
       <c r="I85" s="11" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="J85" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K85" s="14"/>
       <c r="L85" s="14"/>
@@ -6322,10 +6332,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="15" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D86" s="22">
         <v>101</v>
@@ -6343,10 +6353,10 @@
         <v>5</v>
       </c>
       <c r="I86" s="11" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="J86" s="8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K86" s="8"/>
       <c r="L86" s="8"/>
@@ -6358,7 +6368,7 @@
       <c r="R86" s="8"/>
       <c r="S86" s="8"/>
       <c r="T86" s="9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U86" s="8"/>
       <c r="V86" s="8"/>
@@ -6369,10 +6379,10 @@
         <v>86</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D87" s="22">
         <v>101</v>
@@ -6390,10 +6400,10 @@
         <v>5</v>
       </c>
       <c r="I87" s="11" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="J87" s="14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K87" s="14"/>
       <c r="L87" s="14"/>
@@ -6405,7 +6415,7 @@
       <c r="R87" s="14"/>
       <c r="S87" s="14"/>
       <c r="T87" s="27" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="U87" s="14"/>
       <c r="V87" s="14"/>
@@ -6416,10 +6426,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="15" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D88" s="22">
         <v>101</v>
@@ -6437,10 +6447,10 @@
         <v>5</v>
       </c>
       <c r="I88" s="11" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="J88" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K88" s="8"/>
       <c r="L88" s="8"/>
@@ -6452,7 +6462,7 @@
       <c r="R88" s="8"/>
       <c r="S88" s="8"/>
       <c r="T88" s="9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="U88" s="8"/>
       <c r="V88" s="8"/>
@@ -6463,10 +6473,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D89" s="22">
         <v>101</v>
@@ -6484,10 +6494,10 @@
         <v>5</v>
       </c>
       <c r="I89" s="11" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="J89" s="14" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K89" s="14"/>
       <c r="L89" s="14"/>
@@ -6499,7 +6509,7 @@
       <c r="R89" s="14"/>
       <c r="S89" s="14"/>
       <c r="T89" s="27" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="U89" s="14"/>
       <c r="V89" s="14"/>
@@ -6510,10 +6520,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="15" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D90" s="22">
         <v>101</v>
@@ -6531,10 +6541,10 @@
         <v>5</v>
       </c>
       <c r="I90" s="11" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="J90" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K90" s="8"/>
       <c r="L90" s="8"/>
@@ -6546,7 +6556,7 @@
       <c r="R90" s="8"/>
       <c r="S90" s="8"/>
       <c r="T90" s="9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U90" s="8"/>
       <c r="V90" s="8"/>
@@ -6557,10 +6567,10 @@
         <v>90</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D91" s="22">
         <v>101</v>
@@ -6578,10 +6588,10 @@
         <v>5</v>
       </c>
       <c r="I91" s="11" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="J91" s="14" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K91" s="14"/>
       <c r="L91" s="14"/>
@@ -6593,7 +6603,7 @@
       <c r="R91" s="14"/>
       <c r="S91" s="14"/>
       <c r="T91" s="27" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="U91" s="14"/>
       <c r="V91" s="14"/>
@@ -6604,10 +6614,10 @@
         <v>91</v>
       </c>
       <c r="B92" s="15" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D92" s="22">
         <v>101</v>
@@ -6625,10 +6635,10 @@
         <v>5</v>
       </c>
       <c r="I92" s="11" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="J92" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K92" s="8"/>
       <c r="L92" s="8"/>
@@ -6640,7 +6650,7 @@
       <c r="R92" s="8"/>
       <c r="S92" s="8"/>
       <c r="T92" s="9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="U92" s="8"/>
       <c r="V92" s="8"/>
@@ -6651,10 +6661,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D93" s="22">
         <v>101</v>
@@ -6672,10 +6682,10 @@
         <v>5</v>
       </c>
       <c r="I93" s="11" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="J93" s="14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K93" s="14"/>
       <c r="L93" s="14"/>
@@ -6687,7 +6697,7 @@
       <c r="R93" s="14"/>
       <c r="S93" s="14"/>
       <c r="T93" s="27" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="U93" s="14"/>
       <c r="V93" s="14"/>
@@ -6698,10 +6708,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="18" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C94" s="31" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D94" s="22">
         <v>101</v>
@@ -6719,10 +6729,10 @@
         <v>1</v>
       </c>
       <c r="I94" s="11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="J94" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K94" s="21"/>
       <c r="L94" s="21"/>
@@ -6738,6 +6748,7 @@
       <c r="V94" s="21"/>
       <c r="W94" s="30"/>
     </row>
+    <row r="95" ht="14.25"/>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="J1:J95" etc:filterBottomFollowUsedRange="0">
     <extLst/>

--- a/excels/config/server/hero/server_hero_talent.xlsx
+++ b/excels/config/server/hero/server_hero_talent.xlsx
@@ -10,7 +10,7 @@
     <sheet name="server_talent_data" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">server_talent_data!$J$1:$J$95</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">server_talent_data!$E$1:$E$95</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="182">
   <si>
     <t>下标</t>
   </si>
@@ -280,7 +280,7 @@
     <t>84|242</t>
   </si>
   <si>
-    <t>null</t>
+    <t>hero/drow/爆炸箭</t>
   </si>
   <si>
     <t>第一层·2</t>
@@ -363,6 +363,9 @@
     <t>948|243</t>
   </si>
   <si>
+    <t>hero/drow/连续射击</t>
+  </si>
+  <si>
     <t>第一层·3</t>
   </si>
   <si>
@@ -440,6 +443,9 @@
     <t>966|492</t>
   </si>
   <si>
+    <t>hero/drow/风暴环绕</t>
+  </si>
+  <si>
     <t>第一层·4</t>
   </si>
   <si>
@@ -509,6 +515,9 @@
     <t>650|631</t>
   </si>
   <si>
+    <t>hero/drow/能量回复</t>
+  </si>
+  <si>
     <t>第一层·5</t>
   </si>
   <si>
@@ -577,9 +586,15 @@
     <t>62|490</t>
   </si>
   <si>
+    <t>hero/drow/复仇</t>
+  </si>
+  <si>
     <t>【雷鸣】额外增加一个目标
 【寒风波】可分散单位增加2
 【炎龙】飞行距离增加300码</t>
+  </si>
+  <si>
+    <t>hero/skywrath/雷鸣</t>
   </si>
   <si>
     <r>
@@ -601,6 +616,9 @@
       </rPr>
       <t>最终伤害</t>
     </r>
+  </si>
+  <si>
+    <t>hero/skywrath/元素缭绕</t>
   </si>
   <si>
     <r>
@@ -633,11 +651,20 @@
     </r>
   </si>
   <si>
+    <t>hero/skywrath/元素轰炸</t>
+  </si>
+  <si>
     <t>【充沛】同时恢复等量生命值
 【盈能模式】开启盈能模式时，额外获得获得25%暴击概率和50%暴击伤害</t>
   </si>
   <si>
+    <t>hero/skywrath/充沛</t>
+  </si>
+  <si>
     <t>【分身】分身存在时，自身增加10%移动速度</t>
+  </si>
+  <si>
+    <t>hero/skywrath/奥术分身</t>
   </si>
 </sst>
 </file>
@@ -1936,31 +1963,31 @@
     </dxf>
   </dxfs>
   <tableStyles count="5" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{6BCFB353-DE28-48B0-B606-4EE9CD93DE6D}">
+    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{51FC1DD3-A88F-409C-91CE-896FDEF13C79}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
       <tableStyleElement type="firstColumnStripe" dxfId="1"/>
       <tableStyleElement type="secondColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{2F3D6FFF-2F05-41DE-AD0D-153731050D5D}">
+    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{B6F46C89-A1E0-4680-846A-6F79C5AAD39A}">
       <tableStyleElement type="wholeTable" dxfId="9"/>
       <tableStyleElement type="headerRow" dxfId="8"/>
       <tableStyleElement type="totalRow" dxfId="7"/>
       <tableStyleElement type="firstRowStripe" dxfId="6"/>
       <tableStyleElement type="secondRowStripe" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{F333E662-28B2-4B19-9FBA-F67156A302C6}">
+    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{A3463840-D3D5-44F4-BB9E-FADE7A3BDD99}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="firstRowStripe" dxfId="11"/>
       <tableStyleElement type="secondRowStripe" dxfId="10"/>
     </tableStyle>
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{E88D0223-E4C5-4A3E-8D65-47C9BB3D04CB}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{65AE80F9-FE03-4F27-B463-1D1786B11694}">
       <tableStyleElement type="wholeTable" dxfId="15"/>
       <tableStyleElement type="headerRow" dxfId="14"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{252616C6-FECC-42B0-A85D-F345E6E00F0A}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{3B9034E9-BFC4-4447-B523-9961225D8484}">
       <tableStyleElement type="wholeTable" dxfId="18"/>
       <tableStyleElement type="headerRow" dxfId="17"/>
       <tableStyleElement type="secondRowStripe" dxfId="16"/>
@@ -2265,13 +2292,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:W95"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:W96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="C4" sqref="C4"/>
+      <selection pane="topRight" activeCell="J94" sqref="J94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2365,7 +2392,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="30.5" customHeight="1" spans="1:23">
+    <row r="2" s="1" customFormat="1" ht="30.5" hidden="1" customHeight="1" spans="1:23">
       <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
@@ -2436,7 +2463,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" ht="63.5" customHeight="1" spans="1:23">
+    <row r="3" ht="63.5" hidden="1" customHeight="1" spans="1:23">
       <c r="A3" s="10">
         <v>1</v>
       </c>
@@ -2487,7 +2514,7 @@
       </c>
       <c r="W3" s="28"/>
     </row>
-    <row r="4" ht="63.5" customHeight="1" spans="1:23">
+    <row r="4" ht="63.5" hidden="1" customHeight="1" spans="1:23">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -2534,7 +2561,7 @@
       <c r="V4" s="8"/>
       <c r="W4" s="26"/>
     </row>
-    <row r="5" ht="63.5" customHeight="1" spans="1:23">
+    <row r="5" ht="63.5" hidden="1" customHeight="1" spans="1:23">
       <c r="A5" s="10">
         <v>3</v>
       </c>
@@ -2581,7 +2608,7 @@
       <c r="V5" s="14"/>
       <c r="W5" s="28"/>
     </row>
-    <row r="6" ht="63.5" customHeight="1" spans="1:23">
+    <row r="6" ht="63.5" hidden="1" customHeight="1" spans="1:23">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -2628,7 +2655,7 @@
       <c r="V6" s="8"/>
       <c r="W6" s="26"/>
     </row>
-    <row r="7" ht="63.5" customHeight="1" spans="1:23">
+    <row r="7" ht="63.5" hidden="1" customHeight="1" spans="1:23">
       <c r="A7" s="10">
         <v>5</v>
       </c>
@@ -2675,7 +2702,7 @@
       <c r="V7" s="14"/>
       <c r="W7" s="28"/>
     </row>
-    <row r="8" ht="63.5" customHeight="1" spans="1:23">
+    <row r="8" ht="63.5" hidden="1" customHeight="1" spans="1:23">
       <c r="A8" s="7">
         <v>6</v>
       </c>
@@ -2722,7 +2749,7 @@
       <c r="V8" s="8"/>
       <c r="W8" s="26"/>
     </row>
-    <row r="9" ht="63.5" customHeight="1" spans="1:23">
+    <row r="9" ht="63.5" hidden="1" customHeight="1" spans="1:23">
       <c r="A9" s="10">
         <v>8</v>
       </c>
@@ -2769,7 +2796,7 @@
       <c r="V9" s="14"/>
       <c r="W9" s="28"/>
     </row>
-    <row r="10" ht="63.5" customHeight="1" spans="1:23">
+    <row r="10" ht="63.5" hidden="1" customHeight="1" spans="1:23">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -2816,7 +2843,7 @@
       <c r="V10" s="8"/>
       <c r="W10" s="26"/>
     </row>
-    <row r="11" ht="63.5" customHeight="1" spans="1:23">
+    <row r="11" ht="63.5" hidden="1" customHeight="1" spans="1:23">
       <c r="A11" s="10">
         <v>10</v>
       </c>
@@ -2908,7 +2935,7 @@
       <c r="V12" s="8"/>
       <c r="W12" s="26"/>
     </row>
-    <row r="13" ht="63.5" customHeight="1" spans="1:23">
+    <row r="13" ht="63.5" hidden="1" customHeight="1" spans="1:23">
       <c r="A13" s="10">
         <v>12</v>
       </c>
@@ -2955,7 +2982,7 @@
       <c r="V13" s="14"/>
       <c r="W13" s="28"/>
     </row>
-    <row r="14" ht="63.5" customHeight="1" spans="1:23">
+    <row r="14" ht="63.5" hidden="1" customHeight="1" spans="1:23">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -3002,7 +3029,7 @@
       <c r="V14" s="8"/>
       <c r="W14" s="26"/>
     </row>
-    <row r="15" ht="63.5" customHeight="1" spans="1:23">
+    <row r="15" ht="63.5" hidden="1" customHeight="1" spans="1:23">
       <c r="A15" s="10">
         <v>14</v>
       </c>
@@ -3049,7 +3076,7 @@
       <c r="V15" s="14"/>
       <c r="W15" s="28"/>
     </row>
-    <row r="16" ht="63.5" customHeight="1" spans="1:23">
+    <row r="16" ht="63.5" hidden="1" customHeight="1" spans="1:23">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -3096,7 +3123,7 @@
       <c r="V16" s="8"/>
       <c r="W16" s="26"/>
     </row>
-    <row r="17" ht="63.5" customHeight="1" spans="1:23">
+    <row r="17" ht="63.5" hidden="1" customHeight="1" spans="1:23">
       <c r="A17" s="10">
         <v>16</v>
       </c>
@@ -3143,7 +3170,7 @@
       <c r="V17" s="14"/>
       <c r="W17" s="28"/>
     </row>
-    <row r="18" ht="63.5" customHeight="1" spans="1:23">
+    <row r="18" ht="63.5" hidden="1" customHeight="1" spans="1:23">
       <c r="A18" s="7">
         <v>17</v>
       </c>
@@ -3190,7 +3217,7 @@
       <c r="V18" s="8"/>
       <c r="W18" s="26"/>
     </row>
-    <row r="19" ht="63.5" customHeight="1" spans="1:23">
+    <row r="19" ht="63.5" hidden="1" customHeight="1" spans="1:23">
       <c r="A19" s="10">
         <v>18</v>
       </c>
@@ -3237,7 +3264,7 @@
       <c r="V19" s="14"/>
       <c r="W19" s="28"/>
     </row>
-    <row r="20" ht="63.5" customHeight="1" spans="1:23">
+    <row r="20" ht="63.5" hidden="1" customHeight="1" spans="1:23">
       <c r="A20" s="7">
         <v>19</v>
       </c>
@@ -3284,7 +3311,7 @@
       <c r="V20" s="8"/>
       <c r="W20" s="26"/>
     </row>
-    <row r="21" ht="47" customHeight="1" spans="1:23">
+    <row r="21" ht="49.5" spans="1:23">
       <c r="A21" s="10">
         <v>20</v>
       </c>
@@ -3313,7 +3340,7 @@
         <v>99</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="K21" s="14"/>
       <c r="L21" s="14"/>
@@ -3329,15 +3356,15 @@
       <c r="V21" s="14"/>
       <c r="W21" s="28"/>
     </row>
-    <row r="22" ht="63.5" customHeight="1" spans="1:23">
+    <row r="22" ht="63.5" hidden="1" customHeight="1" spans="1:23">
       <c r="A22" s="7">
         <v>21</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D22" s="17">
         <v>6</v>
@@ -3355,10 +3382,10 @@
         <v>5</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
@@ -3370,18 +3397,18 @@
       <c r="R22" s="8"/>
       <c r="S22" s="8"/>
       <c r="T22" s="9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="U22" s="8"/>
       <c r="V22" s="8"/>
       <c r="W22" s="26"/>
     </row>
-    <row r="23" ht="63.5" customHeight="1" spans="1:23">
+    <row r="23" ht="63.5" hidden="1" customHeight="1" spans="1:23">
       <c r="A23" s="10">
         <v>22</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C23" s="12" t="s">
         <v>42</v>
@@ -3402,7 +3429,7 @@
         <v>5</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J23" s="14" t="s">
         <v>44</v>
@@ -3423,12 +3450,12 @@
       <c r="V23" s="14"/>
       <c r="W23" s="28"/>
     </row>
-    <row r="24" ht="63.5" customHeight="1" spans="1:23">
+    <row r="24" ht="63.5" hidden="1" customHeight="1" spans="1:23">
       <c r="A24" s="7">
         <v>23</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C24" s="16" t="s">
         <v>37</v>
@@ -3449,7 +3476,7 @@
         <v>5</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J24" s="8" t="s">
         <v>39</v>
@@ -3470,15 +3497,15 @@
       <c r="V24" s="8"/>
       <c r="W24" s="26"/>
     </row>
-    <row r="25" ht="63.5" customHeight="1" spans="1:23">
+    <row r="25" ht="63.5" hidden="1" customHeight="1" spans="1:23">
       <c r="A25" s="10">
         <v>24</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D25" s="13">
         <v>6</v>
@@ -3496,7 +3523,7 @@
         <v>5</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J25" s="14" t="s">
         <v>34</v>
@@ -3511,18 +3538,18 @@
       <c r="R25" s="14"/>
       <c r="S25" s="14"/>
       <c r="T25" s="27" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="U25" s="14"/>
       <c r="V25" s="14"/>
       <c r="W25" s="28"/>
     </row>
-    <row r="26" ht="63.5" customHeight="1" spans="1:23">
+    <row r="26" ht="63.5" hidden="1" customHeight="1" spans="1:23">
       <c r="A26" s="7">
         <v>25</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C26" s="16" t="s">
         <v>52</v>
@@ -3543,7 +3570,7 @@
         <v>5</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J26" s="8" t="s">
         <v>54</v>
@@ -3564,12 +3591,12 @@
       <c r="V26" s="8"/>
       <c r="W26" s="26"/>
     </row>
-    <row r="27" ht="63.5" customHeight="1" spans="1:23">
+    <row r="27" ht="63.5" hidden="1" customHeight="1" spans="1:23">
       <c r="A27" s="10">
         <v>26</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>57</v>
@@ -3590,7 +3617,7 @@
         <v>5</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J27" s="14" t="s">
         <v>59</v>
@@ -3611,12 +3638,12 @@
       <c r="V27" s="14"/>
       <c r="W27" s="28"/>
     </row>
-    <row r="28" ht="63.5" customHeight="1" spans="1:23">
+    <row r="28" ht="63.5" hidden="1" customHeight="1" spans="1:23">
       <c r="A28" s="7">
         <v>27</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C28" s="16" t="s">
         <v>62</v>
@@ -3637,7 +3664,7 @@
         <v>5</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J28" s="8" t="s">
         <v>64</v>
@@ -3658,12 +3685,12 @@
       <c r="V28" s="8"/>
       <c r="W28" s="26"/>
     </row>
-    <row r="29" ht="63.5" customHeight="1" spans="1:23">
+    <row r="29" ht="63.5" hidden="1" customHeight="1" spans="1:23">
       <c r="A29" s="10">
         <v>28</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C29" s="12" t="s">
         <v>67</v>
@@ -3684,7 +3711,7 @@
         <v>5</v>
       </c>
       <c r="I29" s="11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J29" s="14" t="s">
         <v>69</v>
@@ -3705,15 +3732,15 @@
       <c r="V29" s="14"/>
       <c r="W29" s="28"/>
     </row>
-    <row r="30" customFormat="1" ht="66" spans="1:23">
+    <row r="30" customFormat="1" ht="33" spans="1:23">
       <c r="A30" s="7">
         <v>29</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D30" s="17">
         <v>6</v>
@@ -3731,10 +3758,10 @@
         <v>1</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>74</v>
+        <v>125</v>
       </c>
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
@@ -3750,12 +3777,12 @@
       <c r="V30" s="8"/>
       <c r="W30" s="26"/>
     </row>
-    <row r="31" customFormat="1" ht="63.5" customHeight="1" spans="1:23">
+    <row r="31" customFormat="1" ht="63.5" hidden="1" customHeight="1" spans="1:23">
       <c r="A31" s="10">
         <v>30</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C31" s="12" t="s">
         <v>76</v>
@@ -3776,7 +3803,7 @@
         <v>5</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J31" s="14" t="s">
         <v>78</v>
@@ -3797,12 +3824,12 @@
       <c r="V31" s="14"/>
       <c r="W31" s="28"/>
     </row>
-    <row r="32" customFormat="1" ht="63.5" customHeight="1" spans="1:23">
+    <row r="32" customFormat="1" ht="63.5" hidden="1" customHeight="1" spans="1:23">
       <c r="A32" s="7">
         <v>31</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C32" s="16" t="s">
         <v>42</v>
@@ -3823,7 +3850,7 @@
         <v>5</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="J32" s="8" t="s">
         <v>44</v>
@@ -3844,12 +3871,12 @@
       <c r="V32" s="8"/>
       <c r="W32" s="26"/>
     </row>
-    <row r="33" customFormat="1" ht="63.5" customHeight="1" spans="1:23">
+    <row r="33" customFormat="1" ht="63.5" hidden="1" customHeight="1" spans="1:23">
       <c r="A33" s="10">
         <v>32</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C33" s="12" t="s">
         <v>37</v>
@@ -3870,7 +3897,7 @@
         <v>5</v>
       </c>
       <c r="I33" s="11" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="J33" s="14" t="s">
         <v>39</v>
@@ -3891,15 +3918,15 @@
       <c r="V33" s="14"/>
       <c r="W33" s="28"/>
     </row>
-    <row r="34" customFormat="1" ht="63.5" customHeight="1" spans="1:23">
+    <row r="34" customFormat="1" ht="63.5" hidden="1" customHeight="1" spans="1:23">
       <c r="A34" s="7">
         <v>33</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D34" s="17">
         <v>6</v>
@@ -3917,10 +3944,10 @@
         <v>5</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="J34" s="8" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
@@ -3932,18 +3959,18 @@
       <c r="R34" s="8"/>
       <c r="S34" s="8"/>
       <c r="T34" s="9" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="U34" s="8"/>
       <c r="V34" s="8"/>
       <c r="W34" s="26"/>
     </row>
-    <row r="35" customFormat="1" ht="63.5" customHeight="1" spans="1:23">
+    <row r="35" customFormat="1" ht="63.5" hidden="1" customHeight="1" spans="1:23">
       <c r="A35" s="10">
         <v>34</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C35" s="12" t="s">
         <v>52</v>
@@ -3964,7 +3991,7 @@
         <v>5</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="J35" s="14" t="s">
         <v>54</v>
@@ -3985,12 +4012,12 @@
       <c r="V35" s="14"/>
       <c r="W35" s="28"/>
     </row>
-    <row r="36" customFormat="1" ht="63.5" customHeight="1" spans="1:23">
+    <row r="36" customFormat="1" ht="63.5" hidden="1" customHeight="1" spans="1:23">
       <c r="A36" s="7">
         <v>35</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C36" s="16" t="s">
         <v>57</v>
@@ -4011,7 +4038,7 @@
         <v>5</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J36" s="8" t="s">
         <v>59</v>
@@ -4032,12 +4059,12 @@
       <c r="V36" s="8"/>
       <c r="W36" s="26"/>
     </row>
-    <row r="37" customFormat="1" ht="63.5" customHeight="1" spans="1:23">
+    <row r="37" customFormat="1" ht="63.5" hidden="1" customHeight="1" spans="1:23">
       <c r="A37" s="10">
         <v>36</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C37" s="12" t="s">
         <v>62</v>
@@ -4058,7 +4085,7 @@
         <v>5</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="J37" s="14" t="s">
         <v>64</v>
@@ -4079,12 +4106,12 @@
       <c r="V37" s="14"/>
       <c r="W37" s="28"/>
     </row>
-    <row r="38" customFormat="1" ht="63.5" customHeight="1" spans="1:23">
+    <row r="38" customFormat="1" ht="63.5" hidden="1" customHeight="1" spans="1:23">
       <c r="A38" s="7">
         <v>37</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C38" s="16" t="s">
         <v>67</v>
@@ -4105,7 +4132,7 @@
         <v>5</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="J38" s="8" t="s">
         <v>69</v>
@@ -4131,10 +4158,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D39" s="13">
         <v>6</v>
@@ -4152,10 +4179,10 @@
         <v>1</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="J39" s="8" t="s">
-        <v>74</v>
+        <v>148</v>
       </c>
       <c r="K39" s="14"/>
       <c r="L39" s="14"/>
@@ -4171,12 +4198,12 @@
       <c r="V39" s="14"/>
       <c r="W39" s="28"/>
     </row>
-    <row r="40" customFormat="1" ht="63.5" customHeight="1" spans="1:23">
+    <row r="40" customFormat="1" ht="63.5" hidden="1" customHeight="1" spans="1:23">
       <c r="A40" s="7">
         <v>39</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C40" s="16" t="s">
         <v>32</v>
@@ -4197,7 +4224,7 @@
         <v>5</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="J40" s="8" t="s">
         <v>34</v>
@@ -4218,12 +4245,12 @@
       <c r="V40" s="8"/>
       <c r="W40" s="26"/>
     </row>
-    <row r="41" customFormat="1" ht="63.5" customHeight="1" spans="1:23">
+    <row r="41" customFormat="1" ht="63.5" hidden="1" customHeight="1" spans="1:23">
       <c r="A41" s="10">
         <v>40</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C41" s="12" t="s">
         <v>37</v>
@@ -4244,7 +4271,7 @@
         <v>5</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="J41" s="14" t="s">
         <v>39</v>
@@ -4265,12 +4292,12 @@
       <c r="V41" s="14"/>
       <c r="W41" s="28"/>
     </row>
-    <row r="42" customFormat="1" ht="63.5" customHeight="1" spans="1:23">
+    <row r="42" customFormat="1" ht="63.5" hidden="1" customHeight="1" spans="1:23">
       <c r="A42" s="7">
         <v>41</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C42" s="16" t="s">
         <v>42</v>
@@ -4291,7 +4318,7 @@
         <v>5</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="J42" s="8" t="s">
         <v>44</v>
@@ -4312,15 +4339,15 @@
       <c r="V42" s="8"/>
       <c r="W42" s="26"/>
     </row>
-    <row r="43" customFormat="1" ht="63.5" customHeight="1" spans="1:23">
+    <row r="43" customFormat="1" ht="63.5" hidden="1" customHeight="1" spans="1:23">
       <c r="A43" s="10">
         <v>42</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D43" s="13">
         <v>6</v>
@@ -4338,10 +4365,10 @@
         <v>5</v>
       </c>
       <c r="I43" s="11" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="J43" s="14" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="K43" s="14"/>
       <c r="L43" s="14"/>
@@ -4353,18 +4380,18 @@
       <c r="R43" s="14"/>
       <c r="S43" s="14"/>
       <c r="T43" s="27" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="U43" s="14"/>
       <c r="V43" s="14"/>
       <c r="W43" s="28"/>
     </row>
-    <row r="44" customFormat="1" ht="63.5" customHeight="1" spans="1:23">
+    <row r="44" customFormat="1" ht="63.5" hidden="1" customHeight="1" spans="1:23">
       <c r="A44" s="7">
         <v>43</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C44" s="16" t="s">
         <v>52</v>
@@ -4385,7 +4412,7 @@
         <v>5</v>
       </c>
       <c r="I44" s="11" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="J44" s="8" t="s">
         <v>54</v>
@@ -4406,12 +4433,12 @@
       <c r="V44" s="8"/>
       <c r="W44" s="26"/>
     </row>
-    <row r="45" customFormat="1" ht="63.5" customHeight="1" spans="1:23">
+    <row r="45" customFormat="1" ht="63.5" hidden="1" customHeight="1" spans="1:23">
       <c r="A45" s="10">
         <v>44</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C45" s="12" t="s">
         <v>57</v>
@@ -4432,7 +4459,7 @@
         <v>5</v>
       </c>
       <c r="I45" s="11" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="J45" s="14" t="s">
         <v>59</v>
@@ -4453,12 +4480,12 @@
       <c r="V45" s="14"/>
       <c r="W45" s="28"/>
     </row>
-    <row r="46" customFormat="1" ht="63.5" customHeight="1" spans="1:23">
+    <row r="46" customFormat="1" ht="63.5" hidden="1" customHeight="1" spans="1:23">
       <c r="A46" s="7">
         <v>45</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C46" s="16" t="s">
         <v>62</v>
@@ -4479,7 +4506,7 @@
         <v>5</v>
       </c>
       <c r="I46" s="11" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="J46" s="8" t="s">
         <v>64</v>
@@ -4500,12 +4527,12 @@
       <c r="V46" s="8"/>
       <c r="W46" s="26"/>
     </row>
-    <row r="47" customFormat="1" ht="63.5" customHeight="1" spans="1:23">
+    <row r="47" customFormat="1" ht="63.5" hidden="1" customHeight="1" spans="1:23">
       <c r="A47" s="10">
         <v>46</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C47" s="12" t="s">
         <v>67</v>
@@ -4526,7 +4553,7 @@
         <v>5</v>
       </c>
       <c r="I47" s="11" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J47" s="14" t="s">
         <v>69</v>
@@ -4552,10 +4579,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D48" s="20">
         <v>6</v>
@@ -4573,10 +4600,10 @@
         <v>1</v>
       </c>
       <c r="I48" s="11" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="J48" s="21" t="s">
-        <v>74</v>
+        <v>171</v>
       </c>
       <c r="K48" s="21"/>
       <c r="L48" s="21"/>
@@ -4592,7 +4619,7 @@
       <c r="V48" s="21"/>
       <c r="W48" s="30"/>
     </row>
-    <row r="49" ht="63.5" customHeight="1" spans="1:23">
+    <row r="49" ht="63.5" hidden="1" customHeight="1" spans="1:23">
       <c r="A49" s="10">
         <v>48</v>
       </c>
@@ -4643,7 +4670,7 @@
       </c>
       <c r="W49" s="28"/>
     </row>
-    <row r="50" ht="63.5" customHeight="1" spans="1:23">
+    <row r="50" ht="63.5" hidden="1" customHeight="1" spans="1:23">
       <c r="A50" s="10">
         <v>49</v>
       </c>
@@ -4690,7 +4717,7 @@
       <c r="V50" s="8"/>
       <c r="W50" s="26"/>
     </row>
-    <row r="51" ht="63.5" customHeight="1" spans="1:23">
+    <row r="51" ht="63.5" hidden="1" customHeight="1" spans="1:23">
       <c r="A51" s="10">
         <v>50</v>
       </c>
@@ -4737,7 +4764,7 @@
       <c r="V51" s="14"/>
       <c r="W51" s="28"/>
     </row>
-    <row r="52" ht="63.5" customHeight="1" spans="1:23">
+    <row r="52" ht="63.5" hidden="1" customHeight="1" spans="1:23">
       <c r="A52" s="10">
         <v>51</v>
       </c>
@@ -4784,7 +4811,7 @@
       <c r="V52" s="8"/>
       <c r="W52" s="26"/>
     </row>
-    <row r="53" ht="63.5" customHeight="1" spans="1:23">
+    <row r="53" ht="63.5" hidden="1" customHeight="1" spans="1:23">
       <c r="A53" s="10">
         <v>52</v>
       </c>
@@ -4831,7 +4858,7 @@
       <c r="V53" s="14"/>
       <c r="W53" s="28"/>
     </row>
-    <row r="54" ht="63.5" customHeight="1" spans="1:23">
+    <row r="54" ht="63.5" hidden="1" customHeight="1" spans="1:23">
       <c r="A54" s="10">
         <v>53</v>
       </c>
@@ -4878,7 +4905,7 @@
       <c r="V54" s="8"/>
       <c r="W54" s="26"/>
     </row>
-    <row r="55" ht="63.5" customHeight="1" spans="1:23">
+    <row r="55" ht="63.5" hidden="1" customHeight="1" spans="1:23">
       <c r="A55" s="10">
         <v>54</v>
       </c>
@@ -4925,7 +4952,7 @@
       <c r="V55" s="14"/>
       <c r="W55" s="28"/>
     </row>
-    <row r="56" ht="63.5" customHeight="1" spans="1:23">
+    <row r="56" ht="63.5" hidden="1" customHeight="1" spans="1:23">
       <c r="A56" s="10">
         <v>55</v>
       </c>
@@ -4972,7 +4999,7 @@
       <c r="V56" s="8"/>
       <c r="W56" s="26"/>
     </row>
-    <row r="57" ht="63.5" customHeight="1" spans="1:23">
+    <row r="57" ht="63.5" hidden="1" customHeight="1" spans="1:23">
       <c r="A57" s="10">
         <v>56</v>
       </c>
@@ -5027,7 +5054,7 @@
         <v>71</v>
       </c>
       <c r="C58" s="23" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D58" s="22">
         <v>101</v>
@@ -5048,7 +5075,7 @@
         <v>73</v>
       </c>
       <c r="J58" s="8" t="s">
-        <v>74</v>
+        <v>173</v>
       </c>
       <c r="K58" s="8"/>
       <c r="L58" s="8"/>
@@ -5064,7 +5091,7 @@
       <c r="V58" s="8"/>
       <c r="W58" s="26"/>
     </row>
-    <row r="59" ht="63.5" customHeight="1" spans="1:23">
+    <row r="59" ht="63.5" hidden="1" customHeight="1" spans="1:23">
       <c r="A59" s="10">
         <v>58</v>
       </c>
@@ -5111,7 +5138,7 @@
       <c r="V59" s="14"/>
       <c r="W59" s="28"/>
     </row>
-    <row r="60" ht="63.5" customHeight="1" spans="1:23">
+    <row r="60" ht="63.5" hidden="1" customHeight="1" spans="1:23">
       <c r="A60" s="10">
         <v>59</v>
       </c>
@@ -5158,7 +5185,7 @@
       <c r="V60" s="8"/>
       <c r="W60" s="26"/>
     </row>
-    <row r="61" ht="63.5" customHeight="1" spans="1:23">
+    <row r="61" ht="63.5" hidden="1" customHeight="1" spans="1:23">
       <c r="A61" s="10">
         <v>60</v>
       </c>
@@ -5205,7 +5232,7 @@
       <c r="V61" s="14"/>
       <c r="W61" s="28"/>
     </row>
-    <row r="62" ht="63.5" customHeight="1" spans="1:23">
+    <row r="62" ht="63.5" hidden="1" customHeight="1" spans="1:23">
       <c r="A62" s="10">
         <v>61</v>
       </c>
@@ -5252,7 +5279,7 @@
       <c r="V62" s="8"/>
       <c r="W62" s="26"/>
     </row>
-    <row r="63" ht="63.5" customHeight="1" spans="1:23">
+    <row r="63" ht="63.5" hidden="1" customHeight="1" spans="1:23">
       <c r="A63" s="10">
         <v>62</v>
       </c>
@@ -5299,7 +5326,7 @@
       <c r="V63" s="14"/>
       <c r="W63" s="28"/>
     </row>
-    <row r="64" ht="63.5" customHeight="1" spans="1:23">
+    <row r="64" ht="63.5" hidden="1" customHeight="1" spans="1:23">
       <c r="A64" s="10">
         <v>63</v>
       </c>
@@ -5346,7 +5373,7 @@
       <c r="V64" s="8"/>
       <c r="W64" s="26"/>
     </row>
-    <row r="65" ht="63.5" customHeight="1" spans="1:23">
+    <row r="65" ht="63.5" hidden="1" customHeight="1" spans="1:23">
       <c r="A65" s="10">
         <v>64</v>
       </c>
@@ -5393,7 +5420,7 @@
       <c r="V65" s="14"/>
       <c r="W65" s="28"/>
     </row>
-    <row r="66" ht="63.5" customHeight="1" spans="1:23">
+    <row r="66" ht="63.5" hidden="1" customHeight="1" spans="1:23">
       <c r="A66" s="10">
         <v>65</v>
       </c>
@@ -5448,7 +5475,7 @@
         <v>97</v>
       </c>
       <c r="C67" s="23" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="D67" s="22">
         <v>101</v>
@@ -5469,7 +5496,7 @@
         <v>99</v>
       </c>
       <c r="J67" s="14" t="s">
-        <v>74</v>
+        <v>175</v>
       </c>
       <c r="K67" s="14"/>
       <c r="L67" s="14"/>
@@ -5485,15 +5512,15 @@
       <c r="V67" s="14"/>
       <c r="W67" s="28"/>
     </row>
-    <row r="68" ht="63.5" customHeight="1" spans="1:23">
+    <row r="68" ht="63.5" hidden="1" customHeight="1" spans="1:23">
       <c r="A68" s="10">
         <v>67</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D68" s="22">
         <v>101</v>
@@ -5511,10 +5538,10 @@
         <v>5</v>
       </c>
       <c r="I68" s="11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J68" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K68" s="8"/>
       <c r="L68" s="8"/>
@@ -5526,18 +5553,18 @@
       <c r="R68" s="8"/>
       <c r="S68" s="8"/>
       <c r="T68" s="9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="U68" s="8"/>
       <c r="V68" s="8"/>
       <c r="W68" s="26"/>
     </row>
-    <row r="69" ht="63.5" customHeight="1" spans="1:23">
+    <row r="69" ht="63.5" hidden="1" customHeight="1" spans="1:23">
       <c r="A69" s="10">
         <v>68</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C69" s="12" t="s">
         <v>42</v>
@@ -5558,7 +5585,7 @@
         <v>5</v>
       </c>
       <c r="I69" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J69" s="14" t="s">
         <v>44</v>
@@ -5579,12 +5606,12 @@
       <c r="V69" s="14"/>
       <c r="W69" s="28"/>
     </row>
-    <row r="70" ht="63.5" customHeight="1" spans="1:23">
+    <row r="70" ht="63.5" hidden="1" customHeight="1" spans="1:23">
       <c r="A70" s="10">
         <v>69</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C70" s="16" t="s">
         <v>37</v>
@@ -5605,7 +5632,7 @@
         <v>5</v>
       </c>
       <c r="I70" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J70" s="8" t="s">
         <v>39</v>
@@ -5626,15 +5653,15 @@
       <c r="V70" s="8"/>
       <c r="W70" s="26"/>
     </row>
-    <row r="71" ht="63.5" customHeight="1" spans="1:23">
+    <row r="71" ht="63.5" hidden="1" customHeight="1" spans="1:23">
       <c r="A71" s="10">
         <v>70</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D71" s="22">
         <v>101</v>
@@ -5652,7 +5679,7 @@
         <v>5</v>
       </c>
       <c r="I71" s="11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J71" s="14" t="s">
         <v>34</v>
@@ -5667,18 +5694,18 @@
       <c r="R71" s="14"/>
       <c r="S71" s="14"/>
       <c r="T71" s="27" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="U71" s="14"/>
       <c r="V71" s="14"/>
       <c r="W71" s="28"/>
     </row>
-    <row r="72" ht="63.5" customHeight="1" spans="1:23">
+    <row r="72" ht="63.5" hidden="1" customHeight="1" spans="1:23">
       <c r="A72" s="10">
         <v>71</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C72" s="16" t="s">
         <v>52</v>
@@ -5699,7 +5726,7 @@
         <v>5</v>
       </c>
       <c r="I72" s="11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J72" s="8" t="s">
         <v>54</v>
@@ -5720,12 +5747,12 @@
       <c r="V72" s="8"/>
       <c r="W72" s="26"/>
     </row>
-    <row r="73" ht="63.5" customHeight="1" spans="1:23">
+    <row r="73" ht="63.5" hidden="1" customHeight="1" spans="1:23">
       <c r="A73" s="10">
         <v>72</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C73" s="12" t="s">
         <v>57</v>
@@ -5746,7 +5773,7 @@
         <v>5</v>
       </c>
       <c r="I73" s="11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J73" s="14" t="s">
         <v>59</v>
@@ -5767,12 +5794,12 @@
       <c r="V73" s="14"/>
       <c r="W73" s="28"/>
     </row>
-    <row r="74" ht="63.5" customHeight="1" spans="1:23">
+    <row r="74" ht="63.5" hidden="1" customHeight="1" spans="1:23">
       <c r="A74" s="10">
         <v>73</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C74" s="16" t="s">
         <v>62</v>
@@ -5793,7 +5820,7 @@
         <v>5</v>
       </c>
       <c r="I74" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J74" s="8" t="s">
         <v>64</v>
@@ -5814,12 +5841,12 @@
       <c r="V74" s="8"/>
       <c r="W74" s="26"/>
     </row>
-    <row r="75" ht="63.5" customHeight="1" spans="1:23">
+    <row r="75" ht="63.5" hidden="1" customHeight="1" spans="1:23">
       <c r="A75" s="10">
         <v>74</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C75" s="12" t="s">
         <v>67</v>
@@ -5840,7 +5867,7 @@
         <v>5</v>
       </c>
       <c r="I75" s="11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J75" s="14" t="s">
         <v>69</v>
@@ -5866,10 +5893,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C76" s="23" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="D76" s="22">
         <v>101</v>
@@ -5887,10 +5914,10 @@
         <v>1</v>
       </c>
       <c r="I76" s="11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J76" s="8" t="s">
-        <v>74</v>
+        <v>177</v>
       </c>
       <c r="K76" s="8"/>
       <c r="L76" s="8"/>
@@ -5906,12 +5933,12 @@
       <c r="V76" s="8"/>
       <c r="W76" s="26"/>
     </row>
-    <row r="77" customFormat="1" ht="63.5" customHeight="1" spans="1:23">
+    <row r="77" customFormat="1" ht="63.5" hidden="1" customHeight="1" spans="1:23">
       <c r="A77" s="10">
         <v>76</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C77" s="12" t="s">
         <v>76</v>
@@ -5932,7 +5959,7 @@
         <v>5</v>
       </c>
       <c r="I77" s="11" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J77" s="14" t="s">
         <v>78</v>
@@ -5953,12 +5980,12 @@
       <c r="V77" s="14"/>
       <c r="W77" s="28"/>
     </row>
-    <row r="78" customFormat="1" ht="63.5" customHeight="1" spans="1:23">
+    <row r="78" customFormat="1" ht="63.5" hidden="1" customHeight="1" spans="1:23">
       <c r="A78" s="10">
         <v>77</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C78" s="16" t="s">
         <v>42</v>
@@ -5979,7 +6006,7 @@
         <v>5</v>
       </c>
       <c r="I78" s="11" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="J78" s="8" t="s">
         <v>44</v>
@@ -6000,12 +6027,12 @@
       <c r="V78" s="8"/>
       <c r="W78" s="26"/>
     </row>
-    <row r="79" customFormat="1" ht="63.5" customHeight="1" spans="1:23">
+    <row r="79" customFormat="1" ht="63.5" hidden="1" customHeight="1" spans="1:23">
       <c r="A79" s="10">
         <v>78</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C79" s="12" t="s">
         <v>37</v>
@@ -6026,7 +6053,7 @@
         <v>5</v>
       </c>
       <c r="I79" s="11" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="J79" s="14" t="s">
         <v>39</v>
@@ -6047,15 +6074,15 @@
       <c r="V79" s="14"/>
       <c r="W79" s="28"/>
     </row>
-    <row r="80" customFormat="1" ht="63.5" customHeight="1" spans="1:23">
+    <row r="80" customFormat="1" ht="63.5" hidden="1" customHeight="1" spans="1:23">
       <c r="A80" s="10">
         <v>79</v>
       </c>
       <c r="B80" s="15" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D80" s="22">
         <v>101</v>
@@ -6073,10 +6100,10 @@
         <v>5</v>
       </c>
       <c r="I80" s="11" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="J80" s="8" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K80" s="8"/>
       <c r="L80" s="8"/>
@@ -6088,18 +6115,18 @@
       <c r="R80" s="8"/>
       <c r="S80" s="8"/>
       <c r="T80" s="9" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="U80" s="8"/>
       <c r="V80" s="8"/>
       <c r="W80" s="26"/>
     </row>
-    <row r="81" customFormat="1" ht="63.5" customHeight="1" spans="1:23">
+    <row r="81" customFormat="1" ht="63.5" hidden="1" customHeight="1" spans="1:23">
       <c r="A81" s="10">
         <v>80</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C81" s="12" t="s">
         <v>52</v>
@@ -6120,7 +6147,7 @@
         <v>5</v>
       </c>
       <c r="I81" s="11" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="J81" s="14" t="s">
         <v>54</v>
@@ -6141,12 +6168,12 @@
       <c r="V81" s="14"/>
       <c r="W81" s="28"/>
     </row>
-    <row r="82" customFormat="1" ht="63.5" customHeight="1" spans="1:23">
+    <row r="82" customFormat="1" ht="63.5" hidden="1" customHeight="1" spans="1:23">
       <c r="A82" s="10">
         <v>81</v>
       </c>
       <c r="B82" s="15" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C82" s="16" t="s">
         <v>57</v>
@@ -6167,7 +6194,7 @@
         <v>5</v>
       </c>
       <c r="I82" s="11" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J82" s="8" t="s">
         <v>59</v>
@@ -6188,12 +6215,12 @@
       <c r="V82" s="8"/>
       <c r="W82" s="26"/>
     </row>
-    <row r="83" customFormat="1" ht="63.5" customHeight="1" spans="1:23">
+    <row r="83" customFormat="1" ht="63.5" hidden="1" customHeight="1" spans="1:23">
       <c r="A83" s="10">
         <v>82</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C83" s="12" t="s">
         <v>62</v>
@@ -6214,7 +6241,7 @@
         <v>5</v>
       </c>
       <c r="I83" s="11" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="J83" s="14" t="s">
         <v>64</v>
@@ -6235,12 +6262,12 @@
       <c r="V83" s="14"/>
       <c r="W83" s="28"/>
     </row>
-    <row r="84" customFormat="1" ht="63.5" customHeight="1" spans="1:23">
+    <row r="84" customFormat="1" ht="63.5" hidden="1" customHeight="1" spans="1:23">
       <c r="A84" s="10">
         <v>83</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C84" s="16" t="s">
         <v>67</v>
@@ -6261,7 +6288,7 @@
         <v>5</v>
       </c>
       <c r="I84" s="11" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="J84" s="8" t="s">
         <v>69</v>
@@ -6287,10 +6314,10 @@
         <v>84</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C85" s="23" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="D85" s="22">
         <v>101</v>
@@ -6308,10 +6335,10 @@
         <v>1</v>
       </c>
       <c r="I85" s="11" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="J85" s="8" t="s">
-        <v>74</v>
+        <v>179</v>
       </c>
       <c r="K85" s="14"/>
       <c r="L85" s="14"/>
@@ -6327,12 +6354,12 @@
       <c r="V85" s="14"/>
       <c r="W85" s="28"/>
     </row>
-    <row r="86" customFormat="1" ht="63.5" customHeight="1" spans="1:23">
+    <row r="86" customFormat="1" ht="63.5" hidden="1" customHeight="1" spans="1:23">
       <c r="A86" s="10">
         <v>85</v>
       </c>
       <c r="B86" s="15" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C86" s="16" t="s">
         <v>32</v>
@@ -6353,7 +6380,7 @@
         <v>5</v>
       </c>
       <c r="I86" s="11" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="J86" s="8" t="s">
         <v>34</v>
@@ -6374,12 +6401,12 @@
       <c r="V86" s="8"/>
       <c r="W86" s="26"/>
     </row>
-    <row r="87" customFormat="1" ht="63.5" customHeight="1" spans="1:23">
+    <row r="87" customFormat="1" ht="63.5" hidden="1" customHeight="1" spans="1:23">
       <c r="A87" s="10">
         <v>86</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C87" s="12" t="s">
         <v>37</v>
@@ -6400,7 +6427,7 @@
         <v>5</v>
       </c>
       <c r="I87" s="11" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="J87" s="14" t="s">
         <v>39</v>
@@ -6421,12 +6448,12 @@
       <c r="V87" s="14"/>
       <c r="W87" s="28"/>
     </row>
-    <row r="88" customFormat="1" ht="63.5" customHeight="1" spans="1:23">
+    <row r="88" customFormat="1" ht="63.5" hidden="1" customHeight="1" spans="1:23">
       <c r="A88" s="10">
         <v>87</v>
       </c>
       <c r="B88" s="15" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C88" s="16" t="s">
         <v>42</v>
@@ -6447,7 +6474,7 @@
         <v>5</v>
       </c>
       <c r="I88" s="11" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="J88" s="8" t="s">
         <v>44</v>
@@ -6468,15 +6495,15 @@
       <c r="V88" s="8"/>
       <c r="W88" s="26"/>
     </row>
-    <row r="89" customFormat="1" ht="63.5" customHeight="1" spans="1:23">
+    <row r="89" customFormat="1" ht="63.5" hidden="1" customHeight="1" spans="1:23">
       <c r="A89" s="10">
         <v>88</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D89" s="22">
         <v>101</v>
@@ -6494,10 +6521,10 @@
         <v>5</v>
       </c>
       <c r="I89" s="11" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="J89" s="14" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="K89" s="14"/>
       <c r="L89" s="14"/>
@@ -6509,18 +6536,18 @@
       <c r="R89" s="14"/>
       <c r="S89" s="14"/>
       <c r="T89" s="27" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="U89" s="14"/>
       <c r="V89" s="14"/>
       <c r="W89" s="28"/>
     </row>
-    <row r="90" customFormat="1" ht="63.5" customHeight="1" spans="1:23">
+    <row r="90" customFormat="1" ht="63.5" hidden="1" customHeight="1" spans="1:23">
       <c r="A90" s="10">
         <v>89</v>
       </c>
       <c r="B90" s="15" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C90" s="16" t="s">
         <v>52</v>
@@ -6541,7 +6568,7 @@
         <v>5</v>
       </c>
       <c r="I90" s="11" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="J90" s="8" t="s">
         <v>54</v>
@@ -6562,12 +6589,12 @@
       <c r="V90" s="8"/>
       <c r="W90" s="26"/>
     </row>
-    <row r="91" customFormat="1" ht="63.5" customHeight="1" spans="1:23">
+    <row r="91" customFormat="1" ht="63.5" hidden="1" customHeight="1" spans="1:23">
       <c r="A91" s="10">
         <v>90</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C91" s="12" t="s">
         <v>57</v>
@@ -6588,7 +6615,7 @@
         <v>5</v>
       </c>
       <c r="I91" s="11" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="J91" s="14" t="s">
         <v>59</v>
@@ -6609,12 +6636,12 @@
       <c r="V91" s="14"/>
       <c r="W91" s="28"/>
     </row>
-    <row r="92" customFormat="1" ht="63.5" customHeight="1" spans="1:23">
+    <row r="92" customFormat="1" ht="63.5" hidden="1" customHeight="1" spans="1:23">
       <c r="A92" s="10">
         <v>91</v>
       </c>
       <c r="B92" s="15" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C92" s="16" t="s">
         <v>62</v>
@@ -6635,7 +6662,7 @@
         <v>5</v>
       </c>
       <c r="I92" s="11" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="J92" s="8" t="s">
         <v>64</v>
@@ -6656,12 +6683,12 @@
       <c r="V92" s="8"/>
       <c r="W92" s="26"/>
     </row>
-    <row r="93" customFormat="1" ht="63.5" customHeight="1" spans="1:23">
+    <row r="93" customFormat="1" ht="63.5" hidden="1" customHeight="1" spans="1:23">
       <c r="A93" s="10">
         <v>92</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C93" s="12" t="s">
         <v>67</v>
@@ -6682,7 +6709,7 @@
         <v>5</v>
       </c>
       <c r="I93" s="11" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J93" s="14" t="s">
         <v>69</v>
@@ -6708,10 +6735,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="18" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C94" s="31" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="D94" s="22">
         <v>101</v>
@@ -6729,10 +6756,10 @@
         <v>1</v>
       </c>
       <c r="I94" s="11" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="J94" s="8" t="s">
-        <v>74</v>
+        <v>181</v>
       </c>
       <c r="K94" s="21"/>
       <c r="L94" s="21"/>
@@ -6748,9 +6775,15 @@
       <c r="V94" s="21"/>
       <c r="W94" s="30"/>
     </row>
-    <row r="95" ht="14.25"/>
+    <row r="95" hidden="1"/>
+    <row r="96" ht="14.25"/>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="J1:J95" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="E1:E95" etc:filterBottomFollowUsedRange="0">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
     <extLst/>
   </autoFilter>
   <conditionalFormatting sqref="E49:E94">
